--- a/demographic-profile/docs/demo-profile-worksheet.xlsx
+++ b/demographic-profile/docs/demo-profile-worksheet.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DCP Services\07 Field Guide\2017 Field Guide\06 Esri Hub - Guide to Planning Resources\10 Tasks\Demographic Profile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_gather\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21795" windowHeight="9090"/>
   </bookViews>
   <sheets>
-    <sheet name="paste PFF data here" sheetId="3" r:id="rId1"/>
-    <sheet name="Study Area-Boro-NYC" sheetId="2" r:id="rId2"/>
+    <sheet name="Paste PFF data here" sheetId="3" r:id="rId1"/>
+    <sheet name="Summary Statistics" sheetId="2" r:id="rId2"/>
     <sheet name="Chart Age" sheetId="7" r:id="rId3"/>
     <sheet name="Chart Households" sheetId="8" r:id="rId4"/>
     <sheet name="Chart Languages" sheetId="9" r:id="rId5"/>
@@ -327,21 +327,6 @@
     <t>Average Household Size</t>
   </si>
   <si>
-    <t>Slide 2</t>
-  </si>
-  <si>
-    <t>Slide 1</t>
-  </si>
-  <si>
-    <t>Slide 3</t>
-  </si>
-  <si>
-    <t>Slide 4</t>
-  </si>
-  <si>
-    <t>Slide 5</t>
-  </si>
-  <si>
     <t>Civilian employed population 16 years and over</t>
   </si>
   <si>
@@ -382,9 +367,6 @@
   </si>
   <si>
     <t>Public administration</t>
-  </si>
-  <si>
-    <t>Slide 6</t>
   </si>
   <si>
     <t>Total households</t>
@@ -568,12 +550,6 @@
     <t>Source: U.S. Census Bureau, 2011-2015 American Community Survey—Summary File</t>
   </si>
   <si>
-    <t>Source to use on slide 1</t>
-  </si>
-  <si>
-    <t>Source to use on slide 3</t>
-  </si>
-  <si>
     <t>Source to use on rest of slides</t>
   </si>
   <si>
@@ -591,9 +567,6 @@
   </si>
   <si>
     <t>No Statistically Significant Difference w/ Boro or NYC (***)</t>
-  </si>
-  <si>
-    <t>Demographic and Socio-economic Data for Study Area, Borough, New York City</t>
   </si>
   <si>
     <t>*Reselect data to exclude null values from chart</t>
@@ -685,6 +658,33 @@
   </si>
   <si>
     <t>Download the example presentation</t>
+  </si>
+  <si>
+    <t>Source to use on slide 1 - "Population &amp; Age"</t>
+  </si>
+  <si>
+    <t>Source to use on slide 3 - "Languages Spoken at Home"</t>
+  </si>
+  <si>
+    <t>1. Population &amp; Age</t>
+  </si>
+  <si>
+    <t>2. Household Characteristics</t>
+  </si>
+  <si>
+    <t>3. Languages Spoken at Home</t>
+  </si>
+  <si>
+    <t>4. Educational Attainment</t>
+  </si>
+  <si>
+    <t>5. Workers by Industry</t>
+  </si>
+  <si>
+    <t>6. Household Income</t>
+  </si>
+  <si>
+    <t>Demographic and Socio-Economic Data for Study Area, Borough, New York City</t>
   </si>
 </sst>
 </file>
@@ -1662,29 +1662,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1698,23 +1693,32 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1731,21 +1735,17 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2138,7 +2138,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$18:$A$22</c:f>
+              <c:f>'Summary Statistics'!$A$18:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2161,7 +2161,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$E$18:$E$22</c:f>
+              <c:f>'Summary Statistics'!$E$18:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2561,7 +2561,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$42:$A$48</c:f>
+              <c:f>'Summary Statistics'!$A$42:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2590,7 +2590,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$O$42:$O$48</c:f>
+              <c:f>'Summary Statistics'!$O$42:$O$48</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2710,7 +2710,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$L$7:$P$7</c:f>
+              <c:f>'Summary Statistics'!$L$7:$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2735,7 +2735,7 @@
             <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Study Area-Boro-NYC'!$P$60:$P$71</c:f>
+                <c:f>'Summary Statistics'!$P$60:$P$71</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -2780,7 +2780,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Study Area-Boro-NYC'!$P$60:$P$71</c:f>
+                <c:f>'Summary Statistics'!$P$60:$P$71</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -2838,7 +2838,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$60:$A$71</c:f>
+              <c:f>'Summary Statistics'!$A$60:$A$71</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2882,7 +2882,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$O$60:$O$71</c:f>
+              <c:f>'Summary Statistics'!$O$60:$O$71</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2936,7 +2936,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$G$7:$K$7</c:f>
+              <c:f>'Summary Statistics'!$G$7:$K$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2961,7 +2961,7 @@
             <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Study Area-Boro-NYC'!$K$60:$K$71</c:f>
+                <c:f>'Summary Statistics'!$K$60:$K$71</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -3006,7 +3006,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Study Area-Boro-NYC'!$K$60:$K$71</c:f>
+                <c:f>'Summary Statistics'!$K$60:$K$71</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -3064,7 +3064,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$60:$A$71</c:f>
+              <c:f>'Summary Statistics'!$A$60:$A$71</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3108,7 +3108,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$J$60:$J$71</c:f>
+              <c:f>'Summary Statistics'!$J$60:$J$71</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3162,7 +3162,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$B$7:$F$7</c:f>
+              <c:f>'Summary Statistics'!$B$7:$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3187,7 +3187,7 @@
             <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Study Area-Boro-NYC'!$F$60:$F$71</c:f>
+                <c:f>'Summary Statistics'!$F$60:$F$71</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -3232,7 +3232,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Study Area-Boro-NYC'!$F$60:$F$71</c:f>
+                <c:f>'Summary Statistics'!$F$60:$F$71</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="12"/>
@@ -3290,7 +3290,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$60:$A$71</c:f>
+              <c:f>'Summary Statistics'!$A$60:$A$71</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3334,7 +3334,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$E$60:$E$71</c:f>
+              <c:f>'Summary Statistics'!$E$60:$E$71</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3609,7 +3609,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$B$7:$F$7</c:f>
+              <c:f>'Summary Statistics'!$B$7:$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3634,7 +3634,7 @@
             <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Study Area-Boro-NYC'!$F$75:$F$84</c:f>
+                <c:f>'Summary Statistics'!$F$75:$F$84</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -3673,7 +3673,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Study Area-Boro-NYC'!$F$75:$F$84</c:f>
+                <c:f>'Summary Statistics'!$F$75:$F$84</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -3725,7 +3725,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$75:$A$84</c:f>
+              <c:f>'Summary Statistics'!$A$75:$A$84</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3763,7 +3763,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$E$75:$E$84</c:f>
+              <c:f>'Summary Statistics'!$E$75:$E$84</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3811,7 +3811,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$G$7:$K$7</c:f>
+              <c:f>'Summary Statistics'!$G$7:$K$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3836,7 +3836,7 @@
             <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Study Area-Boro-NYC'!$K$75:$K$84</c:f>
+                <c:f>'Summary Statistics'!$K$75:$K$84</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -3875,7 +3875,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Study Area-Boro-NYC'!$K$75:$K$84</c:f>
+                <c:f>'Summary Statistics'!$K$75:$K$84</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -3927,7 +3927,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$75:$A$84</c:f>
+              <c:f>'Summary Statistics'!$A$75:$A$84</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3965,7 +3965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$J$75:$J$84</c:f>
+              <c:f>'Summary Statistics'!$J$75:$J$84</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4013,7 +4013,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$L$7:$P$7</c:f>
+              <c:f>'Summary Statistics'!$L$7:$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4038,7 +4038,7 @@
             <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Study Area-Boro-NYC'!$P$75:$P$84</c:f>
+                <c:f>'Summary Statistics'!$P$75:$P$84</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -4077,7 +4077,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Study Area-Boro-NYC'!$P$75:$P$84</c:f>
+                <c:f>'Summary Statistics'!$P$75:$P$84</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -4129,7 +4129,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$75:$A$84</c:f>
+              <c:f>'Summary Statistics'!$A$75:$A$84</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4167,7 +4167,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$O$75:$O$84</c:f>
+              <c:f>'Summary Statistics'!$O$75:$O$84</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4679,7 +4679,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$18:$A$22</c:f>
+              <c:f>'Summary Statistics'!$A$18:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4702,7 +4702,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$J$18:$J$22</c:f>
+              <c:f>'Summary Statistics'!$J$18:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5058,7 +5058,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$18:$A$22</c:f>
+              <c:f>'Summary Statistics'!$A$18:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5081,7 +5081,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$O$18:$O$22</c:f>
+              <c:f>'Summary Statistics'!$O$18:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5373,7 +5373,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$27:$A$28</c:f>
+              <c:f>'Summary Statistics'!$A$27:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5387,7 +5387,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$E$27:$E$28</c:f>
+              <c:f>'Summary Statistics'!$E$27:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5670,7 +5670,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$27:$A$28</c:f>
+              <c:f>'Summary Statistics'!$A$27:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5684,7 +5684,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$J$27:$J$28</c:f>
+              <c:f>'Summary Statistics'!$J$27:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5967,7 +5967,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$27:$A$28</c:f>
+              <c:f>'Summary Statistics'!$A$27:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5981,7 +5981,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$O$27:$O$28</c:f>
+              <c:f>'Summary Statistics'!$O$27:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6395,7 +6395,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$32:$A$38</c:f>
+              <c:f>'Summary Statistics'!$A$32:$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6424,7 +6424,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$E$32:$E$38</c:f>
+              <c:f>'Summary Statistics'!$E$32:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6851,7 +6851,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$42:$A$48</c:f>
+              <c:f>'Summary Statistics'!$A$42:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6880,7 +6880,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$E$42:$E$48</c:f>
+              <c:f>'Summary Statistics'!$E$42:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7286,7 +7286,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Study Area-Boro-NYC'!$A$42:$A$48</c:f>
+              <c:f>'Summary Statistics'!$A$42:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -7315,7 +7315,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Study Area-Boro-NYC'!$J$42:$J$48</c:f>
+              <c:f>'Summary Statistics'!$J$42:$J$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -13760,7 +13760,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>2690783</xdr:colOff>
+      <xdr:colOff>2262158</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
@@ -14584,7 +14584,7 @@
     <col min="18" max="18" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.140625" style="9" customWidth="1"/>
-    <col min="21" max="21" width="25.5703125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="32" style="9" customWidth="1"/>
     <col min="22" max="22" width="0.85546875" style="9" customWidth="1"/>
     <col min="23" max="23" width="61.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -14600,65 +14600,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="252" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="251"/>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="251"/>
-      <c r="T1" s="251"/>
-      <c r="U1" s="251"/>
-      <c r="V1" s="251"/>
-      <c r="W1" s="251"/>
+      <c r="A1" s="229" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="229"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="230"/>
+      <c r="M1" s="230"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="230"/>
+      <c r="P1" s="230"/>
+      <c r="Q1" s="230"/>
+      <c r="R1" s="230"/>
+      <c r="S1" s="230"/>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
     </row>
     <row r="2" spans="1:37" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="255" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="251"/>
-      <c r="U2" s="251"/>
-      <c r="V2" s="251"/>
-      <c r="W2" s="251"/>
+      <c r="A2" s="231" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="231"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="230"/>
+      <c r="S2" s="230"/>
+      <c r="T2" s="230"/>
+      <c r="U2" s="230"/>
+      <c r="V2" s="230"/>
+      <c r="W2" s="230"/>
     </row>
     <row r="3" spans="1:37" s="110" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="253" t="s">
-        <v>206</v>
+      <c r="A3" s="227" t="s">
+        <v>197</v>
       </c>
       <c r="B3" s="216"/>
-      <c r="C3" s="254"/>
+      <c r="C3" s="228"/>
       <c r="D3" s="217"/>
       <c r="E3" s="217"/>
       <c r="F3" s="218"/>
@@ -14694,35 +14694,35 @@
       <c r="AK3" s="115"/>
     </row>
     <row r="4" spans="1:37" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="241" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
-      <c r="J4" s="241"/>
-      <c r="K4" s="241"/>
-      <c r="L4" s="241"/>
-      <c r="M4" s="241"/>
-      <c r="N4" s="241"/>
-      <c r="O4" s="241"/>
-      <c r="P4" s="241"/>
-      <c r="Q4" s="241"/>
-      <c r="R4" s="241"/>
-      <c r="S4" s="241"/>
+      <c r="A4" s="232" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="232"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="232"/>
+      <c r="N4" s="232"/>
+      <c r="O4" s="232"/>
+      <c r="P4" s="232"/>
+      <c r="Q4" s="232"/>
+      <c r="R4" s="232"/>
+      <c r="S4" s="232"/>
     </row>
     <row r="5" spans="1:37" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="211" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B5" s="212"/>
       <c r="C5" s="220" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D5" s="221"/>
       <c r="E5" s="221"/>
@@ -14760,11 +14760,11 @@
     </row>
     <row r="6" spans="1:37" s="110" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="213" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B6" s="214"/>
       <c r="C6" s="224" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D6" s="221"/>
       <c r="E6" s="221"/>
@@ -14801,53 +14801,53 @@
       <c r="AK6" s="115"/>
     </row>
     <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="239" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="239"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="239"/>
-      <c r="M7" s="239"/>
-      <c r="N7" s="239"/>
-      <c r="O7" s="239"/>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="239"/>
-      <c r="S7" s="239"/>
+      <c r="C7" s="246" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="246"/>
+      <c r="G7" s="246"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="246"/>
+      <c r="L7" s="246"/>
+      <c r="M7" s="246"/>
+      <c r="N7" s="246"/>
+      <c r="O7" s="246"/>
+      <c r="P7" s="246"/>
+      <c r="Q7" s="246"/>
+      <c r="R7" s="246"/>
+      <c r="S7" s="246"/>
       <c r="T7" s="96"/>
       <c r="U7" s="96"/>
       <c r="V7" s="96"/>
     </row>
     <row r="8" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="240" t="s">
-        <v>188</v>
+      <c r="A8" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="B8" s="208"/>
       <c r="C8" s="199" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D8" s="200" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E8" s="200"/>
       <c r="F8" s="200"/>
       <c r="G8" s="200"/>
       <c r="H8" s="200"/>
       <c r="I8" s="200" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J8" s="200"/>
       <c r="K8" s="200"/>
       <c r="L8" s="200"/>
       <c r="M8" s="200"/>
       <c r="N8" s="200" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="O8" s="200"/>
       <c r="P8" s="200"/>
@@ -14859,7 +14859,7 @@
       <c r="V8" s="97"/>
     </row>
     <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="240"/>
+      <c r="A9" s="233"/>
       <c r="B9" s="208"/>
       <c r="C9" s="199"/>
       <c r="D9" s="200" t="s">
@@ -14885,7 +14885,7 @@
       </c>
       <c r="O9" s="202"/>
       <c r="P9" s="203" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q9" s="203"/>
       <c r="R9" s="200" t="s">
@@ -14897,63 +14897,63 @@
       <c r="V9" s="97"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A10" s="240"/>
+      <c r="A10" s="233"/>
       <c r="B10" s="208"/>
       <c r="C10" s="199"/>
       <c r="D10" s="204" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="204" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F10" s="205" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G10" s="206" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="206" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I10" s="204" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="204" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K10" s="205" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L10" s="206" t="s">
         <v>6</v>
       </c>
       <c r="M10" s="206" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N10" s="204" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="204" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P10" s="205" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="205" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="R10" s="207" t="s">
         <v>6</v>
       </c>
       <c r="S10" s="207" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="T10" s="98"/>
       <c r="U10" s="98"/>
       <c r="V10" s="98"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A11" s="240"/>
+      <c r="A11" s="210"/>
       <c r="C11" s="192" t="s">
         <v>7</v>
       </c>
@@ -16306,7 +16306,7 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C37" s="55" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D37" s="73">
         <v>29.2</v>
@@ -16718,11 +16718,11 @@
     </row>
     <row r="47" spans="1:39" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="211" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B47" s="212"/>
       <c r="C47" s="220" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D47" s="217"/>
       <c r="E47" s="217"/>
@@ -16763,11 +16763,11 @@
     </row>
     <row r="48" spans="1:39" s="110" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="213" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B48" s="214"/>
       <c r="C48" s="224" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D48" s="217"/>
       <c r="E48" s="217"/>
@@ -16808,7 +16808,7 @@
     </row>
     <row r="49" spans="1:39" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C49" s="225" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D49" s="225"/>
       <c r="E49" s="225"/>
@@ -16830,7 +16830,7 @@
       <c r="U49" s="107"/>
       <c r="V49" s="107"/>
       <c r="W49" s="225" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="X49" s="225"/>
       <c r="Y49" s="225"/>
@@ -16850,215 +16850,215 @@
       <c r="AM49" s="226"/>
     </row>
     <row r="50" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="240" t="s">
-        <v>188</v>
+      <c r="A50" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="B50" s="208"/>
-      <c r="C50" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="230" t="s">
+      <c r="C50" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="231"/>
-      <c r="F50" s="231"/>
-      <c r="G50" s="231"/>
-      <c r="H50" s="232"/>
-      <c r="I50" s="230" t="s">
+      <c r="E50" s="239"/>
+      <c r="F50" s="239"/>
+      <c r="G50" s="239"/>
+      <c r="H50" s="240"/>
+      <c r="I50" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="231"/>
-      <c r="K50" s="231"/>
-      <c r="L50" s="231"/>
-      <c r="M50" s="232"/>
-      <c r="N50" s="230" t="s">
+      <c r="J50" s="239"/>
+      <c r="K50" s="239"/>
+      <c r="L50" s="239"/>
+      <c r="M50" s="240"/>
+      <c r="N50" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="O50" s="231"/>
-      <c r="P50" s="231"/>
-      <c r="Q50" s="232"/>
-      <c r="U50" s="240" t="s">
-        <v>188</v>
+      <c r="O50" s="239"/>
+      <c r="P50" s="239"/>
+      <c r="Q50" s="240"/>
+      <c r="U50" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="V50" s="208"/>
-      <c r="W50" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="X50" s="230" t="s">
+      <c r="W50" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="X50" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="Y50" s="231"/>
-      <c r="Z50" s="231"/>
-      <c r="AA50" s="231"/>
-      <c r="AB50" s="232"/>
-      <c r="AC50" s="230" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD50" s="231"/>
-      <c r="AE50" s="231"/>
-      <c r="AF50" s="231"/>
-      <c r="AG50" s="232"/>
-      <c r="AH50" s="230" t="s">
+      <c r="Y50" s="239"/>
+      <c r="Z50" s="239"/>
+      <c r="AA50" s="239"/>
+      <c r="AB50" s="240"/>
+      <c r="AC50" s="238" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD50" s="239"/>
+      <c r="AE50" s="239"/>
+      <c r="AF50" s="239"/>
+      <c r="AG50" s="240"/>
+      <c r="AH50" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="AI50" s="231"/>
-      <c r="AJ50" s="231"/>
-      <c r="AK50" s="232"/>
+      <c r="AI50" s="239"/>
+      <c r="AJ50" s="239"/>
+      <c r="AK50" s="240"/>
     </row>
     <row r="51" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="240"/>
+      <c r="A51" s="233"/>
       <c r="B51" s="208"/>
-      <c r="C51" s="228"/>
-      <c r="D51" s="230" t="s">
+      <c r="C51" s="242"/>
+      <c r="D51" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="231"/>
-      <c r="F51" s="232"/>
-      <c r="G51" s="230" t="s">
+      <c r="E51" s="239"/>
+      <c r="F51" s="240"/>
+      <c r="G51" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="232"/>
-      <c r="I51" s="230" t="s">
+      <c r="H51" s="240"/>
+      <c r="I51" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="231"/>
-      <c r="K51" s="232"/>
-      <c r="L51" s="230" t="s">
+      <c r="J51" s="239"/>
+      <c r="K51" s="240"/>
+      <c r="L51" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="M51" s="232"/>
-      <c r="N51" s="230" t="s">
+      <c r="M51" s="240"/>
+      <c r="N51" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="O51" s="232"/>
-      <c r="P51" s="230" t="s">
+      <c r="O51" s="240"/>
+      <c r="P51" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="Q51" s="232"/>
-      <c r="U51" s="240"/>
+      <c r="Q51" s="240"/>
+      <c r="U51" s="233"/>
       <c r="V51" s="208"/>
-      <c r="W51" s="228"/>
-      <c r="X51" s="230" t="s">
+      <c r="W51" s="242"/>
+      <c r="X51" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="Y51" s="231"/>
-      <c r="Z51" s="232"/>
-      <c r="AA51" s="233" t="s">
+      <c r="Y51" s="239"/>
+      <c r="Z51" s="240"/>
+      <c r="AA51" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AB51" s="234"/>
-      <c r="AC51" s="230" t="s">
+      <c r="AB51" s="245"/>
+      <c r="AC51" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="231"/>
-      <c r="AE51" s="232"/>
-      <c r="AF51" s="233" t="s">
+      <c r="AD51" s="239"/>
+      <c r="AE51" s="240"/>
+      <c r="AF51" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AG51" s="234"/>
-      <c r="AH51" s="235" t="s">
+      <c r="AG51" s="245"/>
+      <c r="AH51" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AI51" s="236"/>
-      <c r="AJ51" s="237" t="s">
+      <c r="AI51" s="235"/>
+      <c r="AJ51" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="AK51" s="238"/>
+      <c r="AK51" s="237"/>
     </row>
     <row r="52" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="240"/>
+      <c r="A52" s="233"/>
       <c r="B52" s="208"/>
-      <c r="C52" s="229"/>
+      <c r="C52" s="243"/>
       <c r="D52" s="54" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F52" s="54" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G52" s="54" t="s">
         <v>6</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I52" s="54" t="s">
         <v>6</v>
       </c>
       <c r="J52" s="54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K52" s="54" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L52" s="54" t="s">
         <v>6</v>
       </c>
       <c r="M52" s="54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N52" s="54" t="s">
         <v>6</v>
       </c>
       <c r="O52" s="54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P52" s="54" t="s">
         <v>6</v>
       </c>
       <c r="Q52" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="U52" s="240"/>
+        <v>150</v>
+      </c>
+      <c r="U52" s="233"/>
       <c r="V52" s="208"/>
-      <c r="W52" s="229"/>
+      <c r="W52" s="243"/>
       <c r="X52" s="51" t="s">
         <v>6</v>
       </c>
       <c r="Y52" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Z52" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AA52" s="53" t="s">
         <v>6</v>
       </c>
       <c r="AB52" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AC52" s="51" t="s">
         <v>6</v>
       </c>
       <c r="AD52" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AE52" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AF52" s="53" t="s">
         <v>6</v>
       </c>
       <c r="AG52" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AH52" s="51" t="s">
         <v>6</v>
       </c>
       <c r="AI52" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ52" s="52" t="s">
         <v>6</v>
       </c>
       <c r="AK52" s="52" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A53" s="240"/>
+      <c r="A53" s="210"/>
       <c r="C53" s="55" t="s">
         <v>7</v>
       </c>
@@ -17100,7 +17100,7 @@
       <c r="Q53" s="63">
         <v>0</v>
       </c>
-      <c r="U53" s="240"/>
+      <c r="U53" s="210"/>
       <c r="W53" s="55" t="s">
         <v>7</v>
       </c>
@@ -19265,7 +19265,7 @@
     </row>
     <row r="79" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C79" s="55" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D79" s="73">
         <v>30.6</v>
@@ -19298,7 +19298,7 @@
       <c r="P79" s="63"/>
       <c r="Q79" s="63"/>
       <c r="W79" s="55" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X79" s="73">
         <v>30.6</v>
@@ -19933,11 +19933,11 @@
     </row>
     <row r="89" spans="1:39" s="110" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="211" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B89" s="212"/>
       <c r="C89" s="220" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D89" s="217"/>
       <c r="E89" s="217"/>
@@ -19978,11 +19978,11 @@
     </row>
     <row r="90" spans="1:39" s="110" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="213" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B90" s="214"/>
       <c r="C90" s="224" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D90" s="217"/>
       <c r="E90" s="217"/>
@@ -20023,7 +20023,7 @@
     </row>
     <row r="91" spans="1:39" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C91" s="225" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D91" s="225"/>
       <c r="E91" s="225"/>
@@ -20045,7 +20045,7 @@
       <c r="U91" s="107"/>
       <c r="V91" s="107"/>
       <c r="W91" s="225" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="X91" s="225"/>
       <c r="Y91" s="225"/>
@@ -20065,226 +20065,226 @@
       <c r="AM91" s="226"/>
     </row>
     <row r="92" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="240" t="s">
-        <v>188</v>
+      <c r="A92" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="B92" s="208"/>
-      <c r="C92" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="D92" s="230" t="s">
+      <c r="C92" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="231"/>
-      <c r="F92" s="231"/>
-      <c r="G92" s="231"/>
-      <c r="H92" s="232"/>
-      <c r="I92" s="230" t="s">
+      <c r="E92" s="239"/>
+      <c r="F92" s="239"/>
+      <c r="G92" s="239"/>
+      <c r="H92" s="240"/>
+      <c r="I92" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="J92" s="231"/>
-      <c r="K92" s="231"/>
-      <c r="L92" s="231"/>
-      <c r="M92" s="232"/>
-      <c r="N92" s="230" t="s">
+      <c r="J92" s="239"/>
+      <c r="K92" s="239"/>
+      <c r="L92" s="239"/>
+      <c r="M92" s="240"/>
+      <c r="N92" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="O92" s="231"/>
-      <c r="P92" s="231"/>
-      <c r="Q92" s="232"/>
+      <c r="O92" s="239"/>
+      <c r="P92" s="239"/>
+      <c r="Q92" s="240"/>
       <c r="R92" s="75"/>
       <c r="S92" s="75"/>
       <c r="T92" s="101"/>
-      <c r="U92" s="240" t="s">
-        <v>188</v>
+      <c r="U92" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="V92" s="208"/>
-      <c r="W92" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="X92" s="230" t="s">
+      <c r="W92" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="X92" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="Y92" s="231"/>
-      <c r="Z92" s="231"/>
-      <c r="AA92" s="231"/>
-      <c r="AB92" s="232"/>
-      <c r="AC92" s="230" t="s">
+      <c r="Y92" s="239"/>
+      <c r="Z92" s="239"/>
+      <c r="AA92" s="239"/>
+      <c r="AB92" s="240"/>
+      <c r="AC92" s="238" t="s">
         <v>92</v>
       </c>
-      <c r="AD92" s="231"/>
-      <c r="AE92" s="231"/>
-      <c r="AF92" s="231"/>
-      <c r="AG92" s="232"/>
-      <c r="AH92" s="230" t="s">
+      <c r="AD92" s="239"/>
+      <c r="AE92" s="239"/>
+      <c r="AF92" s="239"/>
+      <c r="AG92" s="240"/>
+      <c r="AH92" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="AI92" s="231"/>
-      <c r="AJ92" s="231"/>
-      <c r="AK92" s="232"/>
+      <c r="AI92" s="239"/>
+      <c r="AJ92" s="239"/>
+      <c r="AK92" s="240"/>
     </row>
     <row r="93" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="240"/>
+      <c r="A93" s="233"/>
       <c r="B93" s="208"/>
-      <c r="C93" s="228"/>
-      <c r="D93" s="230" t="s">
+      <c r="C93" s="242"/>
+      <c r="D93" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="231"/>
-      <c r="F93" s="232"/>
-      <c r="G93" s="233" t="s">
+      <c r="E93" s="239"/>
+      <c r="F93" s="240"/>
+      <c r="G93" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="H93" s="234"/>
-      <c r="I93" s="230" t="s">
+      <c r="H93" s="245"/>
+      <c r="I93" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="J93" s="231"/>
-      <c r="K93" s="232"/>
-      <c r="L93" s="233" t="s">
+      <c r="J93" s="239"/>
+      <c r="K93" s="240"/>
+      <c r="L93" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="M93" s="234"/>
-      <c r="N93" s="235" t="s">
+      <c r="M93" s="245"/>
+      <c r="N93" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="O93" s="236"/>
-      <c r="P93" s="237" t="s">
+      <c r="O93" s="235"/>
+      <c r="P93" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="Q93" s="238"/>
+      <c r="Q93" s="237"/>
       <c r="R93" s="75"/>
       <c r="S93" s="75"/>
       <c r="T93" s="101"/>
-      <c r="U93" s="240"/>
+      <c r="U93" s="233"/>
       <c r="V93" s="208"/>
-      <c r="W93" s="228"/>
-      <c r="X93" s="230" t="s">
+      <c r="W93" s="242"/>
+      <c r="X93" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="Y93" s="231"/>
-      <c r="Z93" s="232"/>
-      <c r="AA93" s="233" t="s">
+      <c r="Y93" s="239"/>
+      <c r="Z93" s="240"/>
+      <c r="AA93" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AB93" s="234"/>
-      <c r="AC93" s="230" t="s">
+      <c r="AB93" s="245"/>
+      <c r="AC93" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="AD93" s="231"/>
-      <c r="AE93" s="232"/>
-      <c r="AF93" s="233" t="s">
+      <c r="AD93" s="239"/>
+      <c r="AE93" s="240"/>
+      <c r="AF93" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AG93" s="234"/>
-      <c r="AH93" s="235" t="s">
+      <c r="AG93" s="245"/>
+      <c r="AH93" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AI93" s="236"/>
-      <c r="AJ93" s="237" t="s">
+      <c r="AI93" s="235"/>
+      <c r="AJ93" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="AK93" s="238"/>
+      <c r="AK93" s="237"/>
     </row>
     <row r="94" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="240"/>
+      <c r="A94" s="233"/>
       <c r="B94" s="208"/>
-      <c r="C94" s="229"/>
+      <c r="C94" s="243"/>
       <c r="D94" s="51" t="s">
         <v>6</v>
       </c>
       <c r="E94" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F94" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G94" s="53" t="s">
         <v>6</v>
       </c>
       <c r="H94" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I94" s="51" t="s">
         <v>6</v>
       </c>
       <c r="J94" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K94" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L94" s="53" t="s">
         <v>6</v>
       </c>
       <c r="M94" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N94" s="51" t="s">
         <v>6</v>
       </c>
       <c r="O94" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P94" s="52" t="s">
         <v>6</v>
       </c>
       <c r="Q94" s="52" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="R94" s="76"/>
       <c r="S94" s="76"/>
       <c r="T94" s="102"/>
-      <c r="U94" s="240"/>
+      <c r="U94" s="233"/>
       <c r="V94" s="208"/>
-      <c r="W94" s="229"/>
+      <c r="W94" s="243"/>
       <c r="X94" s="51" t="s">
         <v>6</v>
       </c>
       <c r="Y94" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Z94" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AA94" s="53" t="s">
         <v>6</v>
       </c>
       <c r="AB94" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AC94" s="51" t="s">
         <v>6</v>
       </c>
       <c r="AD94" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AE94" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AF94" s="53" t="s">
         <v>6</v>
       </c>
       <c r="AG94" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AH94" s="51" t="s">
         <v>6</v>
       </c>
       <c r="AI94" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ94" s="52" t="s">
         <v>6</v>
       </c>
       <c r="AK94" s="52" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A95" s="240"/>
+      <c r="A95" s="210"/>
       <c r="C95" s="55" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D95" s="56">
         <v>45463</v>
@@ -20327,10 +20327,10 @@
       <c r="R95" s="55"/>
       <c r="S95" s="55"/>
       <c r="T95" s="103"/>
-      <c r="U95" s="240"/>
+      <c r="U95" s="210"/>
       <c r="V95" s="103"/>
       <c r="W95" s="55" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="X95" s="56">
         <v>45463</v>
@@ -20373,7 +20373,7 @@
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C96" s="64" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D96" s="65">
         <v>26193</v>
@@ -20423,7 +20423,7 @@
       <c r="U96" s="103"/>
       <c r="V96" s="103"/>
       <c r="W96" s="64" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="X96" s="65">
         <v>26193</v>
@@ -20470,7 +20470,7 @@
     </row>
     <row r="97" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C97" s="55" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D97" s="56">
         <v>12832</v>
@@ -20520,7 +20520,7 @@
       <c r="U97" s="103"/>
       <c r="V97" s="103"/>
       <c r="W97" s="55" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="X97" s="56">
         <v>12832</v>
@@ -20567,7 +20567,7 @@
     </row>
     <row r="98" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C98" s="64" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D98" s="65">
         <v>11811</v>
@@ -20617,7 +20617,7 @@
       <c r="U98" s="103"/>
       <c r="V98" s="103"/>
       <c r="W98" s="64" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="X98" s="65">
         <v>11811</v>
@@ -20664,7 +20664,7 @@
     </row>
     <row r="99" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C99" s="55" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D99" s="56">
         <v>5672</v>
@@ -20714,7 +20714,7 @@
       <c r="U99" s="103"/>
       <c r="V99" s="103"/>
       <c r="W99" s="55" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="X99" s="56">
         <v>5672</v>
@@ -20761,7 +20761,7 @@
     </row>
     <row r="100" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C100" s="64" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D100" s="65">
         <v>3723</v>
@@ -20811,7 +20811,7 @@
       <c r="U100" s="103"/>
       <c r="V100" s="103"/>
       <c r="W100" s="64" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="X100" s="65">
         <v>3723</v>
@@ -20858,7 +20858,7 @@
     </row>
     <row r="101" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C101" s="55" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D101" s="56">
         <v>1627</v>
@@ -20908,7 +20908,7 @@
       <c r="U101" s="103"/>
       <c r="V101" s="103"/>
       <c r="W101" s="55" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="X101" s="56">
         <v>1627</v>
@@ -20955,7 +20955,7 @@
     </row>
     <row r="102" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C102" s="64" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D102" s="65">
         <v>10659</v>
@@ -21005,7 +21005,7 @@
       <c r="U102" s="103"/>
       <c r="V102" s="103"/>
       <c r="W102" s="64" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="X102" s="65">
         <v>10659</v>
@@ -21052,7 +21052,7 @@
     </row>
     <row r="103" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C103" s="55" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D103" s="56">
         <v>5533</v>
@@ -21102,7 +21102,7 @@
       <c r="U103" s="103"/>
       <c r="V103" s="103"/>
       <c r="W103" s="55" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="X103" s="56">
         <v>5533</v>
@@ -21149,7 +21149,7 @@
     </row>
     <row r="104" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C104" s="64" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D104" s="65">
         <v>19270</v>
@@ -21199,7 +21199,7 @@
       <c r="U104" s="103"/>
       <c r="V104" s="103"/>
       <c r="W104" s="64" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="X104" s="65">
         <v>19270</v>
@@ -21246,7 +21246,7 @@
     </row>
     <row r="105" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C105" s="55" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D105" s="56">
         <v>11632</v>
@@ -21296,7 +21296,7 @@
       <c r="U105" s="103"/>
       <c r="V105" s="103"/>
       <c r="W105" s="55" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="X105" s="56">
         <v>11632</v>
@@ -21477,7 +21477,7 @@
     </row>
     <row r="108" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C108" s="64" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D108" s="65">
         <v>15320</v>
@@ -21527,7 +21527,7 @@
       <c r="U108" s="103"/>
       <c r="V108" s="103"/>
       <c r="W108" s="64" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="X108" s="65">
         <v>15320</v>
@@ -21574,7 +21574,7 @@
     </row>
     <row r="109" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C109" s="55" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D109" s="56">
         <v>8985</v>
@@ -21624,7 +21624,7 @@
       <c r="U109" s="103"/>
       <c r="V109" s="103"/>
       <c r="W109" s="55" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="X109" s="56">
         <v>8985</v>
@@ -21708,7 +21708,7 @@
     </row>
     <row r="111" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C111" s="55" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D111" s="77">
         <v>2.94</v>
@@ -21746,7 +21746,7 @@
       <c r="U111" s="103"/>
       <c r="V111" s="103"/>
       <c r="W111" s="55" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="X111" s="77">
         <v>2.94</v>
@@ -21781,7 +21781,7 @@
     </row>
     <row r="112" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C112" s="64" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D112" s="79">
         <v>3.59</v>
@@ -21819,7 +21819,7 @@
       <c r="U112" s="103"/>
       <c r="V112" s="103"/>
       <c r="W112" s="64" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="X112" s="79">
         <v>3.59</v>
@@ -21854,11 +21854,11 @@
     </row>
     <row r="114" spans="1:39" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="211" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B114" s="212"/>
       <c r="C114" s="220" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D114" s="221"/>
       <c r="E114" s="221"/>
@@ -21899,11 +21899,11 @@
     </row>
     <row r="115" spans="1:39" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="213" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B115" s="214"/>
       <c r="C115" s="224" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D115" s="221"/>
       <c r="E115" s="221"/>
@@ -21944,7 +21944,7 @@
     </row>
     <row r="116" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C116" s="225" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D116" s="225"/>
       <c r="E116" s="225"/>
@@ -21966,7 +21966,7 @@
       <c r="U116" s="105"/>
       <c r="V116" s="105"/>
       <c r="W116" s="225" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="X116" s="225"/>
       <c r="Y116" s="225"/>
@@ -21986,224 +21986,224 @@
       <c r="AM116" s="226"/>
     </row>
     <row r="117" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="240" t="s">
-        <v>188</v>
+      <c r="A117" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="B117" s="208"/>
-      <c r="C117" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="D117" s="230" t="s">
+      <c r="C117" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="D117" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="E117" s="231"/>
-      <c r="F117" s="231"/>
-      <c r="G117" s="231"/>
-      <c r="H117" s="232"/>
-      <c r="I117" s="230" t="s">
+      <c r="E117" s="239"/>
+      <c r="F117" s="239"/>
+      <c r="G117" s="239"/>
+      <c r="H117" s="240"/>
+      <c r="I117" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="J117" s="231"/>
-      <c r="K117" s="231"/>
-      <c r="L117" s="231"/>
-      <c r="M117" s="232"/>
-      <c r="N117" s="230" t="s">
+      <c r="J117" s="239"/>
+      <c r="K117" s="239"/>
+      <c r="L117" s="239"/>
+      <c r="M117" s="240"/>
+      <c r="N117" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="O117" s="231"/>
-      <c r="P117" s="231"/>
-      <c r="Q117" s="232"/>
+      <c r="O117" s="239"/>
+      <c r="P117" s="239"/>
+      <c r="Q117" s="240"/>
       <c r="R117" s="75"/>
       <c r="S117" s="75"/>
       <c r="T117" s="101"/>
-      <c r="U117" s="240" t="s">
-        <v>188</v>
+      <c r="U117" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="V117" s="208"/>
-      <c r="W117" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="X117" s="230" t="s">
+      <c r="W117" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="X117" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="Y117" s="231"/>
-      <c r="Z117" s="231"/>
-      <c r="AA117" s="231"/>
-      <c r="AB117" s="232"/>
-      <c r="AC117" s="230" t="s">
+      <c r="Y117" s="239"/>
+      <c r="Z117" s="239"/>
+      <c r="AA117" s="239"/>
+      <c r="AB117" s="240"/>
+      <c r="AC117" s="238" t="s">
         <v>92</v>
       </c>
-      <c r="AD117" s="231"/>
-      <c r="AE117" s="231"/>
-      <c r="AF117" s="231"/>
-      <c r="AG117" s="232"/>
-      <c r="AH117" s="230" t="s">
+      <c r="AD117" s="239"/>
+      <c r="AE117" s="239"/>
+      <c r="AF117" s="239"/>
+      <c r="AG117" s="240"/>
+      <c r="AH117" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="AI117" s="231"/>
-      <c r="AJ117" s="231"/>
-      <c r="AK117" s="232"/>
+      <c r="AI117" s="239"/>
+      <c r="AJ117" s="239"/>
+      <c r="AK117" s="240"/>
     </row>
     <row r="118" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="240"/>
+      <c r="A118" s="233"/>
       <c r="B118" s="208"/>
-      <c r="C118" s="228"/>
-      <c r="D118" s="230" t="s">
+      <c r="C118" s="242"/>
+      <c r="D118" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="231"/>
-      <c r="F118" s="232"/>
-      <c r="G118" s="233" t="s">
+      <c r="E118" s="239"/>
+      <c r="F118" s="240"/>
+      <c r="G118" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="H118" s="234"/>
-      <c r="I118" s="230" t="s">
+      <c r="H118" s="245"/>
+      <c r="I118" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="J118" s="231"/>
-      <c r="K118" s="232"/>
-      <c r="L118" s="233" t="s">
+      <c r="J118" s="239"/>
+      <c r="K118" s="240"/>
+      <c r="L118" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="M118" s="234"/>
-      <c r="N118" s="235" t="s">
+      <c r="M118" s="245"/>
+      <c r="N118" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="O118" s="236"/>
-      <c r="P118" s="237" t="s">
+      <c r="O118" s="235"/>
+      <c r="P118" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="Q118" s="238"/>
+      <c r="Q118" s="237"/>
       <c r="R118" s="75"/>
       <c r="S118" s="75"/>
       <c r="T118" s="101"/>
-      <c r="U118" s="240"/>
+      <c r="U118" s="233"/>
       <c r="V118" s="208"/>
-      <c r="W118" s="228"/>
-      <c r="X118" s="230" t="s">
+      <c r="W118" s="242"/>
+      <c r="X118" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="Y118" s="231"/>
-      <c r="Z118" s="232"/>
-      <c r="AA118" s="233" t="s">
+      <c r="Y118" s="239"/>
+      <c r="Z118" s="240"/>
+      <c r="AA118" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AB118" s="234"/>
-      <c r="AC118" s="230" t="s">
+      <c r="AB118" s="245"/>
+      <c r="AC118" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="AD118" s="231"/>
-      <c r="AE118" s="232"/>
-      <c r="AF118" s="233" t="s">
+      <c r="AD118" s="239"/>
+      <c r="AE118" s="240"/>
+      <c r="AF118" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AG118" s="234"/>
-      <c r="AH118" s="235" t="s">
+      <c r="AG118" s="245"/>
+      <c r="AH118" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AI118" s="236"/>
-      <c r="AJ118" s="237" t="s">
+      <c r="AI118" s="235"/>
+      <c r="AJ118" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="AK118" s="238"/>
+      <c r="AK118" s="237"/>
     </row>
     <row r="119" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="240"/>
+      <c r="A119" s="233"/>
       <c r="B119" s="208"/>
-      <c r="C119" s="229"/>
+      <c r="C119" s="243"/>
       <c r="D119" s="51" t="s">
         <v>6</v>
       </c>
       <c r="E119" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F119" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G119" s="53" t="s">
         <v>6</v>
       </c>
       <c r="H119" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I119" s="51" t="s">
         <v>6</v>
       </c>
       <c r="J119" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K119" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L119" s="53" t="s">
         <v>6</v>
       </c>
       <c r="M119" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N119" s="51" t="s">
         <v>6</v>
       </c>
       <c r="O119" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P119" s="52" t="s">
         <v>6</v>
       </c>
       <c r="Q119" s="52" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="R119" s="76"/>
       <c r="S119" s="76"/>
       <c r="T119" s="102"/>
-      <c r="U119" s="240"/>
+      <c r="U119" s="233"/>
       <c r="V119" s="208"/>
-      <c r="W119" s="229"/>
+      <c r="W119" s="243"/>
       <c r="X119" s="51" t="s">
         <v>6</v>
       </c>
       <c r="Y119" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Z119" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AA119" s="53" t="s">
         <v>6</v>
       </c>
       <c r="AB119" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AC119" s="51" t="s">
         <v>6</v>
       </c>
       <c r="AD119" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AE119" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AF119" s="53" t="s">
         <v>6</v>
       </c>
       <c r="AG119" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AH119" s="51" t="s">
         <v>6</v>
       </c>
       <c r="AI119" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ119" s="52" t="s">
         <v>6</v>
       </c>
       <c r="AK119" s="52" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A120" s="240"/>
+      <c r="A120" s="210"/>
       <c r="C120" s="55" t="s">
         <v>30</v>
       </c>
@@ -22248,7 +22248,7 @@
       <c r="R120" s="55"/>
       <c r="S120" s="55"/>
       <c r="T120" s="103"/>
-      <c r="U120" s="240"/>
+      <c r="U120" s="210"/>
       <c r="V120" s="103"/>
       <c r="W120" s="55" t="s">
         <v>30</v>
@@ -22294,7 +22294,7 @@
     </row>
     <row r="121" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C121" s="64" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D121" s="65">
         <v>6108</v>
@@ -22344,7 +22344,7 @@
       <c r="U121" s="103"/>
       <c r="V121" s="103"/>
       <c r="W121" s="64" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="X121" s="65">
         <v>6108</v>
@@ -22391,7 +22391,7 @@
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C122" s="55" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D122" s="56">
         <v>39355</v>
@@ -22441,7 +22441,7 @@
       <c r="U122" s="103"/>
       <c r="V122" s="103"/>
       <c r="W122" s="55" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="X122" s="56">
         <v>39355</v>
@@ -22525,7 +22525,7 @@
     </row>
     <row r="124" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C124" s="55" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D124" s="77">
         <v>3.39</v>
@@ -22563,7 +22563,7 @@
       <c r="U124" s="103"/>
       <c r="V124" s="103"/>
       <c r="W124" s="55" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="X124" s="77">
         <v>3.39</v>
@@ -22598,7 +22598,7 @@
     </row>
     <row r="125" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C125" s="64" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D125" s="79">
         <v>2.87</v>
@@ -22636,7 +22636,7 @@
       <c r="U125" s="103"/>
       <c r="V125" s="103"/>
       <c r="W125" s="64" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X125" s="79">
         <v>2.87</v>
@@ -22708,11 +22708,11 @@
     </row>
     <row r="127" spans="1:39" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="211" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B127" s="212"/>
       <c r="C127" s="220" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D127" s="221"/>
       <c r="E127" s="221"/>
@@ -22753,11 +22753,11 @@
     </row>
     <row r="128" spans="1:39" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="213" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B128" s="214"/>
       <c r="C128" s="224" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D128" s="221"/>
       <c r="E128" s="221"/>
@@ -22798,7 +22798,7 @@
     </row>
     <row r="129" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C129" s="225" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D129" s="225"/>
       <c r="E129" s="225"/>
@@ -22838,33 +22838,33 @@
       <c r="AM129" s="209"/>
     </row>
     <row r="130" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="240" t="s">
-        <v>188</v>
+      <c r="A130" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="B130" s="208"/>
-      <c r="C130" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="D130" s="230" t="s">
+      <c r="C130" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="D130" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="E130" s="231"/>
-      <c r="F130" s="231"/>
-      <c r="G130" s="231"/>
-      <c r="H130" s="232"/>
-      <c r="I130" s="230" t="s">
+      <c r="E130" s="239"/>
+      <c r="F130" s="239"/>
+      <c r="G130" s="239"/>
+      <c r="H130" s="240"/>
+      <c r="I130" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="J130" s="231"/>
-      <c r="K130" s="231"/>
-      <c r="L130" s="231"/>
-      <c r="M130" s="232"/>
-      <c r="N130" s="230" t="s">
+      <c r="J130" s="239"/>
+      <c r="K130" s="239"/>
+      <c r="L130" s="239"/>
+      <c r="M130" s="240"/>
+      <c r="N130" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="O130" s="231"/>
-      <c r="P130" s="231"/>
-      <c r="Q130" s="232"/>
+      <c r="O130" s="239"/>
+      <c r="P130" s="239"/>
+      <c r="Q130" s="240"/>
       <c r="R130" s="81"/>
       <c r="S130" s="81"/>
       <c r="T130" s="104"/>
@@ -22889,35 +22889,35 @@
       <c r="AM130" s="178"/>
     </row>
     <row r="131" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="240"/>
+      <c r="A131" s="233"/>
       <c r="B131" s="208"/>
-      <c r="C131" s="228"/>
-      <c r="D131" s="230" t="s">
+      <c r="C131" s="242"/>
+      <c r="D131" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="E131" s="231"/>
-      <c r="F131" s="232"/>
-      <c r="G131" s="233" t="s">
+      <c r="E131" s="239"/>
+      <c r="F131" s="240"/>
+      <c r="G131" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="H131" s="234"/>
-      <c r="I131" s="230" t="s">
+      <c r="H131" s="245"/>
+      <c r="I131" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="J131" s="231"/>
-      <c r="K131" s="232"/>
-      <c r="L131" s="233" t="s">
+      <c r="J131" s="239"/>
+      <c r="K131" s="240"/>
+      <c r="L131" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="M131" s="234"/>
-      <c r="N131" s="235" t="s">
+      <c r="M131" s="245"/>
+      <c r="N131" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="O131" s="236"/>
-      <c r="P131" s="237" t="s">
+      <c r="O131" s="235"/>
+      <c r="P131" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="Q131" s="238"/>
+      <c r="Q131" s="237"/>
       <c r="R131" s="81"/>
       <c r="S131" s="81"/>
       <c r="T131" s="104"/>
@@ -22942,50 +22942,50 @@
       <c r="AM131" s="178"/>
     </row>
     <row r="132" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="240"/>
+      <c r="A132" s="233"/>
       <c r="B132" s="208"/>
-      <c r="C132" s="229"/>
+      <c r="C132" s="243"/>
       <c r="D132" s="51" t="s">
         <v>6</v>
       </c>
       <c r="E132" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F132" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G132" s="53" t="s">
         <v>6</v>
       </c>
       <c r="H132" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I132" s="51" t="s">
         <v>6</v>
       </c>
       <c r="J132" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K132" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L132" s="53" t="s">
         <v>6</v>
       </c>
       <c r="M132" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N132" s="51" t="s">
         <v>6</v>
       </c>
       <c r="O132" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P132" s="52" t="s">
         <v>6</v>
       </c>
       <c r="Q132" s="52" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="R132" s="82"/>
       <c r="S132" s="82"/>
@@ -23011,7 +23011,7 @@
       <c r="AM132" s="178"/>
     </row>
     <row r="133" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A133" s="240"/>
+      <c r="A133" s="210"/>
       <c r="C133" s="55" t="s">
         <v>31</v>
       </c>
@@ -34041,11 +34041,11 @@
     </row>
     <row r="301" spans="1:39" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="211" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B301" s="212"/>
       <c r="C301" s="220" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D301" s="221"/>
       <c r="E301" s="221"/>
@@ -34086,11 +34086,11 @@
     </row>
     <row r="302" spans="1:39" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="213" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B302" s="214"/>
       <c r="C302" s="224" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D302" s="221"/>
       <c r="E302" s="221"/>
@@ -34131,7 +34131,7 @@
     </row>
     <row r="303" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C303" s="225" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D303" s="225"/>
       <c r="E303" s="225"/>
@@ -34153,7 +34153,7 @@
       <c r="U303" s="105"/>
       <c r="V303" s="105"/>
       <c r="W303" s="225" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="X303" s="225"/>
       <c r="Y303" s="225"/>
@@ -34173,224 +34173,224 @@
       <c r="AM303" s="226"/>
     </row>
     <row r="304" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="240" t="s">
-        <v>188</v>
+      <c r="A304" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="B304" s="208"/>
-      <c r="C304" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="D304" s="230" t="s">
+      <c r="C304" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="D304" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="E304" s="231"/>
-      <c r="F304" s="231"/>
-      <c r="G304" s="231"/>
-      <c r="H304" s="232"/>
-      <c r="I304" s="230" t="s">
+      <c r="E304" s="239"/>
+      <c r="F304" s="239"/>
+      <c r="G304" s="239"/>
+      <c r="H304" s="240"/>
+      <c r="I304" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="J304" s="231"/>
-      <c r="K304" s="231"/>
-      <c r="L304" s="231"/>
-      <c r="M304" s="232"/>
-      <c r="N304" s="230" t="s">
+      <c r="J304" s="239"/>
+      <c r="K304" s="239"/>
+      <c r="L304" s="239"/>
+      <c r="M304" s="240"/>
+      <c r="N304" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="O304" s="231"/>
-      <c r="P304" s="231"/>
-      <c r="Q304" s="232"/>
+      <c r="O304" s="239"/>
+      <c r="P304" s="239"/>
+      <c r="Q304" s="240"/>
       <c r="R304" s="75"/>
       <c r="S304" s="75"/>
       <c r="T304" s="101"/>
-      <c r="U304" s="240" t="s">
-        <v>188</v>
+      <c r="U304" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="V304" s="208"/>
-      <c r="W304" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="X304" s="230" t="s">
+      <c r="W304" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="X304" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="Y304" s="231"/>
-      <c r="Z304" s="231"/>
-      <c r="AA304" s="231"/>
-      <c r="AB304" s="232"/>
-      <c r="AC304" s="230" t="s">
+      <c r="Y304" s="239"/>
+      <c r="Z304" s="239"/>
+      <c r="AA304" s="239"/>
+      <c r="AB304" s="240"/>
+      <c r="AC304" s="238" t="s">
         <v>92</v>
       </c>
-      <c r="AD304" s="231"/>
-      <c r="AE304" s="231"/>
-      <c r="AF304" s="231"/>
-      <c r="AG304" s="232"/>
-      <c r="AH304" s="230" t="s">
+      <c r="AD304" s="239"/>
+      <c r="AE304" s="239"/>
+      <c r="AF304" s="239"/>
+      <c r="AG304" s="240"/>
+      <c r="AH304" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="AI304" s="231"/>
-      <c r="AJ304" s="231"/>
-      <c r="AK304" s="232"/>
+      <c r="AI304" s="239"/>
+      <c r="AJ304" s="239"/>
+      <c r="AK304" s="240"/>
     </row>
     <row r="305" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="240"/>
+      <c r="A305" s="233"/>
       <c r="B305" s="208"/>
-      <c r="C305" s="228"/>
-      <c r="D305" s="230" t="s">
+      <c r="C305" s="242"/>
+      <c r="D305" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="E305" s="231"/>
-      <c r="F305" s="232"/>
-      <c r="G305" s="233" t="s">
+      <c r="E305" s="239"/>
+      <c r="F305" s="240"/>
+      <c r="G305" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="H305" s="234"/>
-      <c r="I305" s="230" t="s">
+      <c r="H305" s="245"/>
+      <c r="I305" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="J305" s="231"/>
-      <c r="K305" s="232"/>
-      <c r="L305" s="233" t="s">
+      <c r="J305" s="239"/>
+      <c r="K305" s="240"/>
+      <c r="L305" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="M305" s="234"/>
-      <c r="N305" s="235" t="s">
+      <c r="M305" s="245"/>
+      <c r="N305" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="O305" s="236"/>
-      <c r="P305" s="237" t="s">
+      <c r="O305" s="235"/>
+      <c r="P305" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="Q305" s="238"/>
+      <c r="Q305" s="237"/>
       <c r="R305" s="75"/>
       <c r="S305" s="75"/>
       <c r="T305" s="101"/>
-      <c r="U305" s="240"/>
+      <c r="U305" s="233"/>
       <c r="V305" s="208"/>
-      <c r="W305" s="228"/>
-      <c r="X305" s="230" t="s">
+      <c r="W305" s="242"/>
+      <c r="X305" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="Y305" s="231"/>
-      <c r="Z305" s="232"/>
-      <c r="AA305" s="233" t="s">
+      <c r="Y305" s="239"/>
+      <c r="Z305" s="240"/>
+      <c r="AA305" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AB305" s="234"/>
-      <c r="AC305" s="230" t="s">
+      <c r="AB305" s="245"/>
+      <c r="AC305" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="AD305" s="231"/>
-      <c r="AE305" s="232"/>
-      <c r="AF305" s="233" t="s">
+      <c r="AD305" s="239"/>
+      <c r="AE305" s="240"/>
+      <c r="AF305" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AG305" s="234"/>
-      <c r="AH305" s="235" t="s">
+      <c r="AG305" s="245"/>
+      <c r="AH305" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AI305" s="236"/>
-      <c r="AJ305" s="237" t="s">
+      <c r="AI305" s="235"/>
+      <c r="AJ305" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="AK305" s="238"/>
+      <c r="AK305" s="237"/>
     </row>
     <row r="306" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="240"/>
+      <c r="A306" s="233"/>
       <c r="B306" s="208"/>
-      <c r="C306" s="229"/>
+      <c r="C306" s="243"/>
       <c r="D306" s="51" t="s">
         <v>6</v>
       </c>
       <c r="E306" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F306" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G306" s="53" t="s">
         <v>6</v>
       </c>
       <c r="H306" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I306" s="51" t="s">
         <v>6</v>
       </c>
       <c r="J306" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K306" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L306" s="53" t="s">
         <v>6</v>
       </c>
       <c r="M306" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N306" s="51" t="s">
         <v>6</v>
       </c>
       <c r="O306" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P306" s="52" t="s">
         <v>6</v>
       </c>
       <c r="Q306" s="52" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="R306" s="76"/>
       <c r="S306" s="76"/>
       <c r="T306" s="102"/>
-      <c r="U306" s="240"/>
+      <c r="U306" s="233"/>
       <c r="V306" s="208"/>
-      <c r="W306" s="229"/>
+      <c r="W306" s="243"/>
       <c r="X306" s="51" t="s">
         <v>6</v>
       </c>
       <c r="Y306" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Z306" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AA306" s="53" t="s">
         <v>6</v>
       </c>
       <c r="AB306" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AC306" s="51" t="s">
         <v>6</v>
       </c>
       <c r="AD306" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AE306" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AF306" s="53" t="s">
         <v>6</v>
       </c>
       <c r="AG306" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AH306" s="51" t="s">
         <v>6</v>
       </c>
       <c r="AI306" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ306" s="52" t="s">
         <v>6</v>
       </c>
       <c r="AK306" s="52" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="307" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A307" s="240"/>
+      <c r="A307" s="210"/>
       <c r="C307" s="55" t="s">
         <v>74</v>
       </c>
@@ -34435,7 +34435,7 @@
       <c r="R307" s="55"/>
       <c r="S307" s="55"/>
       <c r="T307" s="103"/>
-      <c r="U307" s="240"/>
+      <c r="U307" s="210"/>
       <c r="V307" s="103"/>
       <c r="W307" s="55" t="s">
         <v>74</v>
@@ -35391,11 +35391,11 @@
     </row>
     <row r="319" spans="1:39" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="211" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B319" s="212"/>
       <c r="C319" s="220" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D319" s="221"/>
       <c r="E319" s="221"/>
@@ -35436,11 +35436,11 @@
     </row>
     <row r="320" spans="1:39" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="213" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B320" s="214"/>
       <c r="C320" s="224" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D320" s="221"/>
       <c r="E320" s="221"/>
@@ -35481,7 +35481,7 @@
     </row>
     <row r="321" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C321" s="225" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D321" s="225"/>
       <c r="E321" s="225"/>
@@ -35503,7 +35503,7 @@
       <c r="U321" s="105"/>
       <c r="V321" s="105"/>
       <c r="W321" s="225" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="X321" s="225"/>
       <c r="Y321" s="225"/>
@@ -35523,217 +35523,217 @@
       <c r="AM321" s="226"/>
     </row>
     <row r="322" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="240" t="s">
-        <v>188</v>
+      <c r="A322" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="B322" s="208"/>
-      <c r="C322" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="D322" s="230" t="s">
+      <c r="C322" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="D322" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="E322" s="231"/>
-      <c r="F322" s="231"/>
-      <c r="G322" s="231"/>
-      <c r="H322" s="232"/>
-      <c r="I322" s="230" t="s">
+      <c r="E322" s="239"/>
+      <c r="F322" s="239"/>
+      <c r="G322" s="239"/>
+      <c r="H322" s="240"/>
+      <c r="I322" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="J322" s="231"/>
-      <c r="K322" s="231"/>
-      <c r="L322" s="231"/>
-      <c r="M322" s="232"/>
-      <c r="N322" s="230" t="s">
+      <c r="J322" s="239"/>
+      <c r="K322" s="239"/>
+      <c r="L322" s="239"/>
+      <c r="M322" s="240"/>
+      <c r="N322" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="O322" s="231"/>
-      <c r="P322" s="231"/>
-      <c r="Q322" s="232"/>
-      <c r="U322" s="240" t="s">
-        <v>188</v>
+      <c r="O322" s="239"/>
+      <c r="P322" s="239"/>
+      <c r="Q322" s="240"/>
+      <c r="U322" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="V322" s="208"/>
-      <c r="W322" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="X322" s="230" t="s">
+      <c r="W322" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="X322" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="Y322" s="231"/>
-      <c r="Z322" s="231"/>
-      <c r="AA322" s="231"/>
-      <c r="AB322" s="232"/>
-      <c r="AC322" s="230" t="s">
+      <c r="Y322" s="239"/>
+      <c r="Z322" s="239"/>
+      <c r="AA322" s="239"/>
+      <c r="AB322" s="240"/>
+      <c r="AC322" s="238" t="s">
         <v>92</v>
       </c>
-      <c r="AD322" s="231"/>
-      <c r="AE322" s="231"/>
-      <c r="AF322" s="231"/>
-      <c r="AG322" s="232"/>
-      <c r="AH322" s="230" t="s">
+      <c r="AD322" s="239"/>
+      <c r="AE322" s="239"/>
+      <c r="AF322" s="239"/>
+      <c r="AG322" s="240"/>
+      <c r="AH322" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="AI322" s="231"/>
-      <c r="AJ322" s="231"/>
-      <c r="AK322" s="232"/>
+      <c r="AI322" s="239"/>
+      <c r="AJ322" s="239"/>
+      <c r="AK322" s="240"/>
     </row>
     <row r="323" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="240"/>
+      <c r="A323" s="233"/>
       <c r="B323" s="208"/>
-      <c r="C323" s="228"/>
-      <c r="D323" s="230" t="s">
+      <c r="C323" s="242"/>
+      <c r="D323" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="E323" s="231"/>
-      <c r="F323" s="232"/>
-      <c r="G323" s="233" t="s">
+      <c r="E323" s="239"/>
+      <c r="F323" s="240"/>
+      <c r="G323" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="H323" s="234"/>
-      <c r="I323" s="230" t="s">
+      <c r="H323" s="245"/>
+      <c r="I323" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="J323" s="231"/>
-      <c r="K323" s="232"/>
-      <c r="L323" s="233" t="s">
+      <c r="J323" s="239"/>
+      <c r="K323" s="240"/>
+      <c r="L323" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="M323" s="234"/>
-      <c r="N323" s="235" t="s">
+      <c r="M323" s="245"/>
+      <c r="N323" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="O323" s="236"/>
-      <c r="P323" s="237" t="s">
+      <c r="O323" s="235"/>
+      <c r="P323" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="Q323" s="238"/>
-      <c r="U323" s="240"/>
+      <c r="Q323" s="237"/>
+      <c r="U323" s="233"/>
       <c r="V323" s="208"/>
-      <c r="W323" s="228"/>
-      <c r="X323" s="230" t="s">
+      <c r="W323" s="242"/>
+      <c r="X323" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="Y323" s="231"/>
-      <c r="Z323" s="232"/>
-      <c r="AA323" s="233" t="s">
+      <c r="Y323" s="239"/>
+      <c r="Z323" s="240"/>
+      <c r="AA323" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AB323" s="234"/>
-      <c r="AC323" s="230" t="s">
+      <c r="AB323" s="245"/>
+      <c r="AC323" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="AD323" s="231"/>
-      <c r="AE323" s="232"/>
-      <c r="AF323" s="233" t="s">
+      <c r="AD323" s="239"/>
+      <c r="AE323" s="240"/>
+      <c r="AF323" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AG323" s="234"/>
-      <c r="AH323" s="235" t="s">
+      <c r="AG323" s="245"/>
+      <c r="AH323" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AI323" s="236"/>
-      <c r="AJ323" s="237" t="s">
+      <c r="AI323" s="235"/>
+      <c r="AJ323" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="AK323" s="238"/>
+      <c r="AK323" s="237"/>
     </row>
     <row r="324" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="240"/>
+      <c r="A324" s="233"/>
       <c r="B324" s="208"/>
-      <c r="C324" s="229"/>
+      <c r="C324" s="243"/>
       <c r="D324" s="51" t="s">
         <v>6</v>
       </c>
       <c r="E324" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F324" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G324" s="53" t="s">
         <v>6</v>
       </c>
       <c r="H324" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I324" s="51" t="s">
         <v>6</v>
       </c>
       <c r="J324" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K324" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L324" s="53" t="s">
         <v>6</v>
       </c>
       <c r="M324" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N324" s="51" t="s">
         <v>6</v>
       </c>
       <c r="O324" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P324" s="52" t="s">
         <v>6</v>
       </c>
       <c r="Q324" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="U324" s="240"/>
+        <v>150</v>
+      </c>
+      <c r="U324" s="233"/>
       <c r="V324" s="208"/>
-      <c r="W324" s="229"/>
+      <c r="W324" s="243"/>
       <c r="X324" s="51" t="s">
         <v>6</v>
       </c>
       <c r="Y324" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Z324" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AA324" s="53" t="s">
         <v>6</v>
       </c>
       <c r="AB324" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AC324" s="51" t="s">
         <v>6</v>
       </c>
       <c r="AD324" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AE324" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AF324" s="53" t="s">
         <v>6</v>
       </c>
       <c r="AG324" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AH324" s="51" t="s">
         <v>6</v>
       </c>
       <c r="AI324" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ324" s="52" t="s">
         <v>6</v>
       </c>
       <c r="AK324" s="52" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="325" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A325" s="240"/>
+      <c r="A325" s="210"/>
       <c r="C325" s="55" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D325" s="56">
         <v>66122</v>
@@ -35773,9 +35773,9 @@
       <c r="Q325" s="63">
         <v>0</v>
       </c>
-      <c r="U325" s="240"/>
+      <c r="U325" s="210"/>
       <c r="W325" s="55" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X325" s="56">
         <v>66122</v>
@@ -35818,7 +35818,7 @@
     </row>
     <row r="326" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C326" s="64" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D326" s="69">
         <v>216</v>
@@ -35863,7 +35863,7 @@
         <v>0.3</v>
       </c>
       <c r="W326" s="64" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="X326" s="69">
         <v>216</v>
@@ -35910,7 +35910,7 @@
     </row>
     <row r="327" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C327" s="55" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D327" s="56">
         <v>5448</v>
@@ -35955,7 +35955,7 @@
         <v>0.9</v>
       </c>
       <c r="W327" s="55" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="X327" s="56">
         <v>5448</v>
@@ -36002,7 +36002,7 @@
     </row>
     <row r="328" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C328" s="64" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D328" s="65">
         <v>3142</v>
@@ -36047,7 +36047,7 @@
         <v>0.6</v>
       </c>
       <c r="W328" s="64" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="X328" s="65">
         <v>3142</v>
@@ -36094,7 +36094,7 @@
     </row>
     <row r="329" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C329" s="55" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D329" s="56">
         <v>1404</v>
@@ -36139,7 +36139,7 @@
         <v>0.4</v>
       </c>
       <c r="W329" s="55" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="X329" s="56">
         <v>1404</v>
@@ -36186,7 +36186,7 @@
     </row>
     <row r="330" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C330" s="64" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D330" s="65">
         <v>8322</v>
@@ -36231,7 +36231,7 @@
         <v>0.9</v>
       </c>
       <c r="W330" s="64" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="X330" s="65">
         <v>8322</v>
@@ -36278,7 +36278,7 @@
     </row>
     <row r="331" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C331" s="55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D331" s="56">
         <v>3477</v>
@@ -36323,7 +36323,7 @@
         <v>0.7</v>
       </c>
       <c r="W331" s="55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X331" s="56">
         <v>3477</v>
@@ -36370,7 +36370,7 @@
     </row>
     <row r="332" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C332" s="64" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D332" s="65">
         <v>3356</v>
@@ -36415,7 +36415,7 @@
         <v>0.6</v>
       </c>
       <c r="W332" s="64" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X332" s="65">
         <v>3356</v>
@@ -36462,7 +36462,7 @@
     </row>
     <row r="333" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C333" s="55" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D333" s="56">
         <v>3104</v>
@@ -36507,7 +36507,7 @@
         <v>0.5</v>
       </c>
       <c r="W333" s="55" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="X333" s="56">
         <v>3104</v>
@@ -36554,7 +36554,7 @@
     </row>
     <row r="334" spans="1:39" ht="24" x14ac:dyDescent="0.2">
       <c r="C334" s="64" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D334" s="65">
         <v>8241</v>
@@ -36599,7 +36599,7 @@
         <v>0.9</v>
       </c>
       <c r="W334" s="64" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="X334" s="65">
         <v>8241</v>
@@ -36646,7 +36646,7 @@
     </row>
     <row r="335" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C335" s="55" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D335" s="56">
         <v>13750</v>
@@ -36691,7 +36691,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W335" s="55" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X335" s="56">
         <v>13750</v>
@@ -36738,7 +36738,7 @@
     </row>
     <row r="336" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C336" s="64" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D336" s="65">
         <v>10127</v>
@@ -36783,7 +36783,7 @@
         <v>1</v>
       </c>
       <c r="W336" s="64" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="X336" s="65">
         <v>10127</v>
@@ -36830,7 +36830,7 @@
     </row>
     <row r="337" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C337" s="55" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D337" s="56">
         <v>3928</v>
@@ -36875,7 +36875,7 @@
         <v>0.7</v>
       </c>
       <c r="W337" s="55" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="X337" s="56">
         <v>3928</v>
@@ -36922,7 +36922,7 @@
     </row>
     <row r="338" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C338" s="64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D338" s="65">
         <v>1607</v>
@@ -36967,7 +36967,7 @@
         <v>0.4</v>
       </c>
       <c r="W338" s="64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="X338" s="65">
         <v>1607</v>
@@ -37014,11 +37014,11 @@
     </row>
     <row r="340" spans="1:39" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="211" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B340" s="212"/>
       <c r="C340" s="220" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D340" s="221"/>
       <c r="E340" s="221"/>
@@ -37059,11 +37059,11 @@
     </row>
     <row r="341" spans="1:39" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="213" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B341" s="214"/>
       <c r="C341" s="224" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D341" s="221"/>
       <c r="E341" s="221"/>
@@ -37104,7 +37104,7 @@
     </row>
     <row r="342" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C342" s="225" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D342" s="225"/>
       <c r="E342" s="225"/>
@@ -37126,7 +37126,7 @@
       <c r="U342" s="105"/>
       <c r="V342" s="105"/>
       <c r="W342" s="225" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="X342" s="225"/>
       <c r="Y342" s="225"/>
@@ -37146,217 +37146,217 @@
       <c r="AM342" s="226"/>
     </row>
     <row r="343" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="240" t="s">
-        <v>188</v>
+      <c r="A343" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="B343" s="208"/>
-      <c r="C343" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="D343" s="230" t="s">
+      <c r="C343" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="D343" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="E343" s="231"/>
-      <c r="F343" s="231"/>
-      <c r="G343" s="231"/>
-      <c r="H343" s="232"/>
-      <c r="I343" s="230" t="s">
+      <c r="E343" s="239"/>
+      <c r="F343" s="239"/>
+      <c r="G343" s="239"/>
+      <c r="H343" s="240"/>
+      <c r="I343" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="J343" s="231"/>
-      <c r="K343" s="231"/>
-      <c r="L343" s="231"/>
-      <c r="M343" s="232"/>
-      <c r="N343" s="230" t="s">
+      <c r="J343" s="239"/>
+      <c r="K343" s="239"/>
+      <c r="L343" s="239"/>
+      <c r="M343" s="240"/>
+      <c r="N343" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="O343" s="231"/>
-      <c r="P343" s="231"/>
-      <c r="Q343" s="232"/>
-      <c r="U343" s="240" t="s">
-        <v>188</v>
+      <c r="O343" s="239"/>
+      <c r="P343" s="239"/>
+      <c r="Q343" s="240"/>
+      <c r="U343" s="233" t="s">
+        <v>179</v>
       </c>
       <c r="V343" s="208"/>
-      <c r="W343" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="X343" s="230" t="s">
+      <c r="W343" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="X343" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="Y343" s="231"/>
-      <c r="Z343" s="231"/>
-      <c r="AA343" s="231"/>
-      <c r="AB343" s="232"/>
-      <c r="AC343" s="230" t="s">
+      <c r="Y343" s="239"/>
+      <c r="Z343" s="239"/>
+      <c r="AA343" s="239"/>
+      <c r="AB343" s="240"/>
+      <c r="AC343" s="238" t="s">
         <v>92</v>
       </c>
-      <c r="AD343" s="231"/>
-      <c r="AE343" s="231"/>
-      <c r="AF343" s="231"/>
-      <c r="AG343" s="232"/>
-      <c r="AH343" s="230" t="s">
+      <c r="AD343" s="239"/>
+      <c r="AE343" s="239"/>
+      <c r="AF343" s="239"/>
+      <c r="AG343" s="240"/>
+      <c r="AH343" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="AI343" s="231"/>
-      <c r="AJ343" s="231"/>
-      <c r="AK343" s="232"/>
+      <c r="AI343" s="239"/>
+      <c r="AJ343" s="239"/>
+      <c r="AK343" s="240"/>
     </row>
     <row r="344" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="240"/>
+      <c r="A344" s="233"/>
       <c r="B344" s="208"/>
-      <c r="C344" s="228"/>
-      <c r="D344" s="230" t="s">
+      <c r="C344" s="242"/>
+      <c r="D344" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="E344" s="231"/>
-      <c r="F344" s="232"/>
-      <c r="G344" s="233" t="s">
+      <c r="E344" s="239"/>
+      <c r="F344" s="240"/>
+      <c r="G344" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="H344" s="234"/>
-      <c r="I344" s="230" t="s">
+      <c r="H344" s="245"/>
+      <c r="I344" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="J344" s="231"/>
-      <c r="K344" s="232"/>
-      <c r="L344" s="233" t="s">
+      <c r="J344" s="239"/>
+      <c r="K344" s="240"/>
+      <c r="L344" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="M344" s="234"/>
-      <c r="N344" s="235" t="s">
+      <c r="M344" s="245"/>
+      <c r="N344" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="O344" s="236"/>
-      <c r="P344" s="237" t="s">
+      <c r="O344" s="235"/>
+      <c r="P344" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="Q344" s="238"/>
-      <c r="U344" s="240"/>
+      <c r="Q344" s="237"/>
+      <c r="U344" s="233"/>
       <c r="V344" s="208"/>
-      <c r="W344" s="228"/>
-      <c r="X344" s="230" t="s">
+      <c r="W344" s="242"/>
+      <c r="X344" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="Y344" s="231"/>
-      <c r="Z344" s="232"/>
-      <c r="AA344" s="233" t="s">
+      <c r="Y344" s="239"/>
+      <c r="Z344" s="240"/>
+      <c r="AA344" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AB344" s="234"/>
-      <c r="AC344" s="230" t="s">
+      <c r="AB344" s="245"/>
+      <c r="AC344" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="AD344" s="231"/>
-      <c r="AE344" s="232"/>
-      <c r="AF344" s="233" t="s">
+      <c r="AD344" s="239"/>
+      <c r="AE344" s="240"/>
+      <c r="AF344" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AG344" s="234"/>
-      <c r="AH344" s="235" t="s">
+      <c r="AG344" s="245"/>
+      <c r="AH344" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AI344" s="236"/>
-      <c r="AJ344" s="237" t="s">
+      <c r="AI344" s="235"/>
+      <c r="AJ344" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="AK344" s="238"/>
+      <c r="AK344" s="237"/>
     </row>
     <row r="345" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="240"/>
+      <c r="A345" s="233"/>
       <c r="B345" s="208"/>
-      <c r="C345" s="229"/>
+      <c r="C345" s="243"/>
       <c r="D345" s="51" t="s">
         <v>6</v>
       </c>
       <c r="E345" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F345" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G345" s="53" t="s">
         <v>6</v>
       </c>
       <c r="H345" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I345" s="51" t="s">
         <v>6</v>
       </c>
       <c r="J345" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K345" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L345" s="53" t="s">
         <v>6</v>
       </c>
       <c r="M345" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N345" s="51" t="s">
         <v>6</v>
       </c>
       <c r="O345" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P345" s="52" t="s">
         <v>6</v>
       </c>
       <c r="Q345" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="U345" s="240"/>
+        <v>150</v>
+      </c>
+      <c r="U345" s="233"/>
       <c r="V345" s="208"/>
-      <c r="W345" s="229"/>
+      <c r="W345" s="243"/>
       <c r="X345" s="51" t="s">
         <v>6</v>
       </c>
       <c r="Y345" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Z345" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AA345" s="53" t="s">
         <v>6</v>
       </c>
       <c r="AB345" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AC345" s="51" t="s">
         <v>6</v>
       </c>
       <c r="AD345" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AE345" s="52" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AF345" s="53" t="s">
         <v>6</v>
       </c>
       <c r="AG345" s="53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AH345" s="51" t="s">
         <v>6</v>
       </c>
       <c r="AI345" s="51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ345" s="52" t="s">
         <v>6</v>
       </c>
       <c r="AK345" s="52" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="346" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A346" s="240"/>
+      <c r="A346" s="210"/>
       <c r="C346" s="55" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D346" s="56">
         <v>45463</v>
@@ -37396,9 +37396,9 @@
       <c r="Q346" s="63">
         <v>0</v>
       </c>
-      <c r="U346" s="240"/>
+      <c r="U346" s="210"/>
       <c r="W346" s="55" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="X346" s="56">
         <v>45463</v>
@@ -37441,7 +37441,7 @@
     </row>
     <row r="347" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C347" s="64" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D347" s="65">
         <v>6457</v>
@@ -37486,7 +37486,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W347" s="64" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="X347" s="65">
         <v>6457</v>
@@ -37533,7 +37533,7 @@
     </row>
     <row r="348" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C348" s="55" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D348" s="56">
         <v>3543</v>
@@ -37578,7 +37578,7 @@
         <v>0.9</v>
       </c>
       <c r="W348" s="55" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="X348" s="56">
         <v>3543</v>
@@ -37625,7 +37625,7 @@
     </row>
     <row r="349" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C349" s="64" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D349" s="65">
         <v>5627</v>
@@ -37670,7 +37670,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W349" s="64" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="X349" s="65">
         <v>5627</v>
@@ -37717,7 +37717,7 @@
     </row>
     <row r="350" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C350" s="55" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D350" s="56">
         <v>3986</v>
@@ -37762,7 +37762,7 @@
         <v>0.9</v>
       </c>
       <c r="W350" s="55" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="X350" s="56">
         <v>3986</v>
@@ -37809,7 +37809,7 @@
     </row>
     <row r="351" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C351" s="64" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D351" s="65">
         <v>5817</v>
@@ -37854,7 +37854,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W351" s="64" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="X351" s="65">
         <v>5817</v>
@@ -37901,7 +37901,7 @@
     </row>
     <row r="352" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C352" s="55" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D352" s="56">
         <v>7489</v>
@@ -37946,7 +37946,7 @@
         <v>1.2</v>
       </c>
       <c r="W352" s="55" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="X352" s="56">
         <v>7489</v>
@@ -37993,7 +37993,7 @@
     </row>
     <row r="353" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C353" s="64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D353" s="65">
         <v>4571</v>
@@ -38038,7 +38038,7 @@
         <v>0.9</v>
       </c>
       <c r="W353" s="64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="X353" s="65">
         <v>4571</v>
@@ -38085,7 +38085,7 @@
     </row>
     <row r="354" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C354" s="55" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D354" s="56">
         <v>5273</v>
@@ -38130,7 +38130,7 @@
         <v>0.9</v>
       </c>
       <c r="W354" s="55" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="X354" s="56">
         <v>5273</v>
@@ -38177,7 +38177,7 @@
     </row>
     <row r="355" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C355" s="64" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D355" s="65">
         <v>1590</v>
@@ -38222,7 +38222,7 @@
         <v>0.5</v>
       </c>
       <c r="W355" s="64" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="X355" s="65">
         <v>1590</v>
@@ -38269,7 +38269,7 @@
     </row>
     <row r="356" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C356" s="55" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D356" s="56">
         <v>1110</v>
@@ -38314,7 +38314,7 @@
         <v>0.5</v>
       </c>
       <c r="W356" s="55" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="X356" s="56">
         <v>1110</v>
@@ -38361,7 +38361,7 @@
     </row>
     <row r="357" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C357" s="64" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D357" s="65">
         <v>42607</v>
@@ -38394,7 +38394,7 @@
       <c r="P357" s="72"/>
       <c r="Q357" s="72"/>
       <c r="W357" s="64" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="X357" s="65">
         <v>42607</v>
@@ -38429,7 +38429,7 @@
     </row>
     <row r="358" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C358" s="55" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D358" s="56">
         <v>59081</v>
@@ -38462,7 +38462,7 @@
       <c r="P358" s="63"/>
       <c r="Q358" s="63"/>
       <c r="W358" s="55" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="X358" s="56">
         <v>59081</v>
@@ -38529,7 +38529,7 @@
     </row>
     <row r="360" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C360" s="55" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D360" s="56">
         <v>8029</v>
@@ -38574,7 +38574,7 @@
         <v>1</v>
       </c>
       <c r="W360" s="55" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="X360" s="56">
         <v>8029</v>
@@ -38621,7 +38621,7 @@
     </row>
     <row r="361" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C361" s="64" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D361" s="65">
         <v>2803</v>
@@ -38666,7 +38666,7 @@
         <v>0.7</v>
       </c>
       <c r="W361" s="64" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="X361" s="65">
         <v>2803</v>
@@ -38713,7 +38713,7 @@
     </row>
     <row r="362" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C362" s="55" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D362" s="56">
         <v>5187</v>
@@ -38758,7 +38758,7 @@
         <v>1</v>
       </c>
       <c r="W362" s="55" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="X362" s="56">
         <v>5187</v>
@@ -38805,7 +38805,7 @@
     </row>
     <row r="363" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C363" s="64" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D363" s="65">
         <v>2547</v>
@@ -38850,7 +38850,7 @@
         <v>0.7</v>
       </c>
       <c r="W363" s="64" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="X363" s="65">
         <v>2547</v>
@@ -38897,7 +38897,7 @@
     </row>
     <row r="364" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C364" s="55" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D364" s="56">
         <v>16010</v>
@@ -38942,7 +38942,7 @@
         <v>1.5</v>
       </c>
       <c r="W364" s="55" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="X364" s="56">
         <v>16010</v>
@@ -39021,7 +39021,7 @@
     </row>
     <row r="366" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C366" s="55" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D366" s="56">
         <v>26193</v>
@@ -39062,7 +39062,7 @@
         <v>0</v>
       </c>
       <c r="W366" s="55" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="X366" s="56">
         <v>26193</v>
@@ -39105,7 +39105,7 @@
     </row>
     <row r="367" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C367" s="64" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D367" s="65">
         <v>3051</v>
@@ -39150,7 +39150,7 @@
         <v>1.4</v>
       </c>
       <c r="W367" s="64" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="X367" s="65">
         <v>3051</v>
@@ -39197,7 +39197,7 @@
     </row>
     <row r="368" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C368" s="55" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D368" s="56">
         <v>1868</v>
@@ -39242,7 +39242,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W368" s="55" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="X368" s="56">
         <v>1868</v>
@@ -39289,7 +39289,7 @@
     </row>
     <row r="369" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C369" s="64" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D369" s="65">
         <v>3983</v>
@@ -39334,7 +39334,7 @@
         <v>1.6</v>
       </c>
       <c r="W369" s="64" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="X369" s="65">
         <v>3983</v>
@@ -39381,7 +39381,7 @@
     </row>
     <row r="370" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C370" s="55" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D370" s="56">
         <v>2900</v>
@@ -39426,7 +39426,7 @@
         <v>1.3</v>
       </c>
       <c r="W370" s="55" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="X370" s="56">
         <v>2900</v>
@@ -39473,7 +39473,7 @@
     </row>
     <row r="371" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C371" s="64" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D371" s="65">
         <v>3825</v>
@@ -39518,7 +39518,7 @@
         <v>1.5</v>
       </c>
       <c r="W371" s="64" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="X371" s="65">
         <v>3825</v>
@@ -39565,7 +39565,7 @@
     </row>
     <row r="372" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C372" s="55" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D372" s="56">
         <v>4469</v>
@@ -39610,7 +39610,7 @@
         <v>1.6</v>
       </c>
       <c r="W372" s="55" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="X372" s="56">
         <v>4469</v>
@@ -39657,7 +39657,7 @@
     </row>
     <row r="373" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C373" s="64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D373" s="65">
         <v>2292</v>
@@ -39702,7 +39702,7 @@
         <v>1.2</v>
       </c>
       <c r="W373" s="64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="X373" s="65">
         <v>2292</v>
@@ -39749,7 +39749,7 @@
     </row>
     <row r="374" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C374" s="55" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D374" s="56">
         <v>2535</v>
@@ -39794,7 +39794,7 @@
         <v>1.2</v>
       </c>
       <c r="W374" s="55" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="X374" s="56">
         <v>2535</v>
@@ -39841,7 +39841,7 @@
     </row>
     <row r="375" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C375" s="64" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D375" s="65">
         <v>748</v>
@@ -39886,7 +39886,7 @@
         <v>0.7</v>
       </c>
       <c r="W375" s="64" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="X375" s="65">
         <v>748</v>
@@ -39933,7 +39933,7 @@
     </row>
     <row r="376" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C376" s="55" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D376" s="56">
         <v>522</v>
@@ -39978,7 +39978,7 @@
         <v>0.5</v>
       </c>
       <c r="W376" s="55" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="X376" s="56">
         <v>522</v>
@@ -40025,7 +40025,7 @@
     </row>
     <row r="377" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C377" s="64" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D377" s="65">
         <v>39903</v>
@@ -40058,7 +40058,7 @@
       <c r="P377" s="72"/>
       <c r="Q377" s="72"/>
       <c r="W377" s="64" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="X377" s="65">
         <v>39903</v>
@@ -40125,7 +40125,7 @@
     </row>
     <row r="379" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C379" s="64" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D379" s="65">
         <v>19270</v>
@@ -40166,7 +40166,7 @@
         <v>0</v>
       </c>
       <c r="W379" s="64" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="X379" s="65">
         <v>19270</v>
@@ -40209,7 +40209,7 @@
     </row>
     <row r="380" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C380" s="55" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D380" s="56">
         <v>41213</v>
@@ -40242,7 +40242,7 @@
       <c r="P380" s="63"/>
       <c r="Q380" s="63"/>
       <c r="W380" s="55" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="X380" s="56">
         <v>41213</v>
@@ -40309,7 +40309,7 @@
     </row>
     <row r="382" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C382" s="55" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D382" s="56">
         <v>20933</v>
@@ -40342,7 +40342,7 @@
       <c r="P382" s="63"/>
       <c r="Q382" s="63"/>
       <c r="W382" s="55" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="X382" s="56">
         <v>20933</v>
@@ -40377,64 +40377,72 @@
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:W2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="A322:A325"/>
-    <mergeCell ref="A343:A346"/>
-    <mergeCell ref="N305:O305"/>
-    <mergeCell ref="P305:Q305"/>
-    <mergeCell ref="I322:M322"/>
-    <mergeCell ref="N322:Q322"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="I130:M130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="L131:M131"/>
-    <mergeCell ref="G305:H305"/>
-    <mergeCell ref="I305:K305"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="D343:H343"/>
-    <mergeCell ref="I343:M343"/>
-    <mergeCell ref="N343:Q343"/>
-    <mergeCell ref="D344:F344"/>
-    <mergeCell ref="G344:H344"/>
-    <mergeCell ref="I344:K344"/>
-    <mergeCell ref="L344:M344"/>
-    <mergeCell ref="N344:O344"/>
-    <mergeCell ref="P344:Q344"/>
-    <mergeCell ref="U343:U346"/>
-    <mergeCell ref="U322:U325"/>
-    <mergeCell ref="U304:U307"/>
-    <mergeCell ref="U117:U120"/>
-    <mergeCell ref="U92:U95"/>
-    <mergeCell ref="U50:U53"/>
-    <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="N130:Q130"/>
-    <mergeCell ref="N304:Q304"/>
-    <mergeCell ref="AH50:AK50"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA51:AB51"/>
-    <mergeCell ref="AC51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AJ51:AK51"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A304:A306"/>
+    <mergeCell ref="A322:A324"/>
+    <mergeCell ref="A343:A345"/>
+    <mergeCell ref="U343:U345"/>
+    <mergeCell ref="U322:U324"/>
+    <mergeCell ref="U304:U306"/>
+    <mergeCell ref="U117:U119"/>
+    <mergeCell ref="U92:U94"/>
+    <mergeCell ref="U50:U52"/>
+    <mergeCell ref="X92:AB92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="X93:Z93"/>
+    <mergeCell ref="AA93:AB93"/>
+    <mergeCell ref="AC93:AE93"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="W304:W306"/>
+    <mergeCell ref="X304:AB304"/>
+    <mergeCell ref="W343:W345"/>
+    <mergeCell ref="X343:AB343"/>
+    <mergeCell ref="AC343:AG343"/>
+    <mergeCell ref="AH343:AK343"/>
+    <mergeCell ref="X344:Z344"/>
+    <mergeCell ref="AA344:AB344"/>
+    <mergeCell ref="AC344:AE344"/>
+    <mergeCell ref="AF344:AG344"/>
+    <mergeCell ref="AH344:AI344"/>
+    <mergeCell ref="AJ344:AK344"/>
+    <mergeCell ref="AF93:AG93"/>
+    <mergeCell ref="AH93:AI93"/>
+    <mergeCell ref="AJ93:AK93"/>
+    <mergeCell ref="X322:AB322"/>
+    <mergeCell ref="AC322:AG322"/>
+    <mergeCell ref="AH322:AK322"/>
+    <mergeCell ref="X323:Z323"/>
+    <mergeCell ref="AA323:AB323"/>
+    <mergeCell ref="AC323:AE323"/>
+    <mergeCell ref="AF323:AG323"/>
+    <mergeCell ref="AH323:AI323"/>
+    <mergeCell ref="AJ323:AK323"/>
+    <mergeCell ref="C322:C324"/>
+    <mergeCell ref="D322:H322"/>
+    <mergeCell ref="AC304:AG304"/>
+    <mergeCell ref="AH304:AK304"/>
+    <mergeCell ref="X305:Z305"/>
+    <mergeCell ref="AA305:AB305"/>
+    <mergeCell ref="AC305:AE305"/>
+    <mergeCell ref="AF305:AG305"/>
+    <mergeCell ref="AH305:AI305"/>
+    <mergeCell ref="AJ305:AK305"/>
+    <mergeCell ref="W322:W324"/>
+    <mergeCell ref="L323:M323"/>
+    <mergeCell ref="G323:H323"/>
+    <mergeCell ref="I323:K323"/>
+    <mergeCell ref="AH117:AK117"/>
+    <mergeCell ref="X118:Z118"/>
+    <mergeCell ref="AA118:AB118"/>
+    <mergeCell ref="AC118:AE118"/>
+    <mergeCell ref="AF118:AG118"/>
+    <mergeCell ref="AH118:AI118"/>
+    <mergeCell ref="AJ118:AK118"/>
+    <mergeCell ref="C304:C306"/>
+    <mergeCell ref="D304:H304"/>
+    <mergeCell ref="I304:M304"/>
+    <mergeCell ref="D305:F305"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="L305:M305"/>
     <mergeCell ref="AC92:AG92"/>
     <mergeCell ref="P118:Q118"/>
     <mergeCell ref="C92:C94"/>
@@ -40457,75 +40465,67 @@
     <mergeCell ref="W117:W119"/>
     <mergeCell ref="X117:AB117"/>
     <mergeCell ref="AC117:AG117"/>
-    <mergeCell ref="AH117:AK117"/>
-    <mergeCell ref="X118:Z118"/>
-    <mergeCell ref="AA118:AB118"/>
-    <mergeCell ref="AC118:AE118"/>
-    <mergeCell ref="AF118:AG118"/>
-    <mergeCell ref="AH118:AI118"/>
-    <mergeCell ref="AJ118:AK118"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="D304:H304"/>
-    <mergeCell ref="I304:M304"/>
-    <mergeCell ref="D305:F305"/>
-    <mergeCell ref="N323:O323"/>
-    <mergeCell ref="P323:Q323"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="I51:K51"/>
+    <mergeCell ref="AH50:AK50"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA51:AB51"/>
+    <mergeCell ref="AC51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AJ51:AK51"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="D51:F51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
     <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="L344:M344"/>
+    <mergeCell ref="N344:O344"/>
+    <mergeCell ref="P344:Q344"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="N130:Q130"/>
+    <mergeCell ref="N304:Q304"/>
+    <mergeCell ref="N323:O323"/>
+    <mergeCell ref="P323:Q323"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
     <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="L305:M305"/>
-    <mergeCell ref="C322:C324"/>
-    <mergeCell ref="D322:H322"/>
-    <mergeCell ref="AC304:AG304"/>
-    <mergeCell ref="AH304:AK304"/>
-    <mergeCell ref="X305:Z305"/>
-    <mergeCell ref="AA305:AB305"/>
-    <mergeCell ref="AC305:AE305"/>
-    <mergeCell ref="AF305:AG305"/>
-    <mergeCell ref="AH305:AI305"/>
-    <mergeCell ref="AJ305:AK305"/>
-    <mergeCell ref="W322:W324"/>
-    <mergeCell ref="L323:M323"/>
-    <mergeCell ref="G323:H323"/>
-    <mergeCell ref="I323:K323"/>
-    <mergeCell ref="AF93:AG93"/>
-    <mergeCell ref="AH93:AI93"/>
-    <mergeCell ref="AJ93:AK93"/>
-    <mergeCell ref="X322:AB322"/>
-    <mergeCell ref="AC322:AG322"/>
-    <mergeCell ref="AH322:AK322"/>
-    <mergeCell ref="X323:Z323"/>
-    <mergeCell ref="AA323:AB323"/>
-    <mergeCell ref="AC323:AE323"/>
-    <mergeCell ref="AF323:AG323"/>
-    <mergeCell ref="AH323:AI323"/>
-    <mergeCell ref="AJ323:AK323"/>
+    <mergeCell ref="N305:O305"/>
+    <mergeCell ref="P305:Q305"/>
+    <mergeCell ref="I322:M322"/>
+    <mergeCell ref="N322:Q322"/>
+    <mergeCell ref="D323:F323"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="I130:M130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="G305:H305"/>
+    <mergeCell ref="I305:K305"/>
+    <mergeCell ref="C343:C345"/>
+    <mergeCell ref="D343:H343"/>
+    <mergeCell ref="I343:M343"/>
+    <mergeCell ref="N343:Q343"/>
+    <mergeCell ref="D344:F344"/>
+    <mergeCell ref="G344:H344"/>
+    <mergeCell ref="I344:K344"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:W2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="I93:K93"/>
     <mergeCell ref="W92:W94"/>
-    <mergeCell ref="X92:AB92"/>
-    <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="X93:Z93"/>
-    <mergeCell ref="AA93:AB93"/>
-    <mergeCell ref="AC93:AE93"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="W304:W306"/>
-    <mergeCell ref="X304:AB304"/>
-    <mergeCell ref="W343:W345"/>
-    <mergeCell ref="X343:AB343"/>
-    <mergeCell ref="AC343:AG343"/>
-    <mergeCell ref="AH343:AK343"/>
-    <mergeCell ref="X344:Z344"/>
-    <mergeCell ref="AA344:AB344"/>
-    <mergeCell ref="AC344:AE344"/>
-    <mergeCell ref="AF344:AG344"/>
-    <mergeCell ref="AH344:AI344"/>
-    <mergeCell ref="AJ344:AK344"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A130:A132"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:B2" r:id="rId1" display="Download the example presentation"/>
@@ -40544,7 +40544,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -40576,7 +40576,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B1" s="18"/>
       <c r="D1" s="3"/>
@@ -40591,10 +40591,10 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="3"/>
@@ -40616,10 +40616,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="3"/>
@@ -40641,10 +40641,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="3"/>
@@ -40665,78 +40665,78 @@
       <c r="S4" s="27"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="245" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="245" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="246"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="245" t="s">
+      <c r="B7" s="247" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="247" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="248"/>
+      <c r="I7" s="248"/>
+      <c r="J7" s="248"/>
+      <c r="K7" s="249"/>
+      <c r="L7" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="246"/>
-      <c r="N7" s="246"/>
-      <c r="O7" s="246"/>
-      <c r="P7" s="247"/>
-      <c r="Q7" s="242" t="s">
-        <v>172</v>
-      </c>
-      <c r="R7" s="242"/>
-      <c r="S7" s="242"/>
-      <c r="T7" s="242"/>
-      <c r="U7" s="242"/>
-      <c r="V7" s="242"/>
+      <c r="M7" s="248"/>
+      <c r="N7" s="248"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="249"/>
+      <c r="Q7" s="252" t="s">
+        <v>166</v>
+      </c>
+      <c r="R7" s="252"/>
+      <c r="S7" s="252"/>
+      <c r="T7" s="252"/>
+      <c r="U7" s="252"/>
+      <c r="V7" s="252"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
     </row>
     <row r="8" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="245" t="s">
+      <c r="B8" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="246"/>
-      <c r="D8" s="247"/>
-      <c r="E8" s="248" t="s">
+      <c r="C8" s="248"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="249"/>
-      <c r="G8" s="245" t="s">
+      <c r="F8" s="251"/>
+      <c r="G8" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="246"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="248" t="s">
+      <c r="H8" s="248"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="249"/>
-      <c r="L8" s="245" t="s">
+      <c r="K8" s="251"/>
+      <c r="L8" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="246"/>
-      <c r="N8" s="247"/>
-      <c r="O8" s="248" t="s">
+      <c r="M8" s="248"/>
+      <c r="N8" s="249"/>
+      <c r="O8" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="249"/>
-      <c r="Q8" s="243" t="s">
-        <v>184</v>
-      </c>
-      <c r="R8" s="244"/>
-      <c r="S8" s="243" t="s">
-        <v>173</v>
-      </c>
-      <c r="T8" s="244"/>
-      <c r="U8" s="243" t="s">
-        <v>185</v>
-      </c>
-      <c r="V8" s="244"/>
+      <c r="P8" s="251"/>
+      <c r="Q8" s="253" t="s">
+        <v>176</v>
+      </c>
+      <c r="R8" s="254"/>
+      <c r="S8" s="253" t="s">
+        <v>167</v>
+      </c>
+      <c r="T8" s="254"/>
+      <c r="U8" s="253" t="s">
+        <v>177</v>
+      </c>
+      <c r="V8" s="254"/>
       <c r="W8" s="18"/>
       <c r="X8" s="18"/>
     </row>
@@ -40790,24 +40790,24 @@
         <v>3</v>
       </c>
       <c r="R9" s="92" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="S9" s="170" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="92" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="U9" s="119" t="s">
         <v>3</v>
       </c>
       <c r="V9" s="92" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="158" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="11"/>
@@ -40854,19 +40854,19 @@
         <v>84</v>
       </c>
       <c r="B11" s="10">
-        <f>'paste PFF data here'!D11</f>
+        <f>'Paste PFF data here'!D11</f>
         <v>129063</v>
       </c>
       <c r="C11" s="6">
-        <f>'paste PFF data here'!E11</f>
+        <f>'Paste PFF data here'!E11</f>
         <v>3140</v>
       </c>
       <c r="D11" s="129">
-        <f>'paste PFF data here'!F11</f>
+        <f>'Paste PFF data here'!F11</f>
         <v>1.5</v>
       </c>
       <c r="E11" s="29">
-        <f>'paste PFF data here'!G11</f>
+        <f>'Paste PFF data here'!G11</f>
         <v>1</v>
       </c>
       <c r="F11" s="30"/>
@@ -40910,53 +40910,53 @@
         <v>85</v>
       </c>
       <c r="B12" s="10">
-        <f>'paste PFF data here'!D53</f>
+        <f>'Paste PFF data here'!D53</f>
         <v>135837</v>
       </c>
       <c r="C12" s="6">
-        <f>'paste PFF data here'!E53</f>
+        <f>'Paste PFF data here'!E53</f>
         <v>2714</v>
       </c>
       <c r="D12" s="129">
-        <f>'paste PFF data here'!F53</f>
+        <f>'Paste PFF data here'!F53</f>
         <v>1.2</v>
       </c>
       <c r="E12" s="29">
-        <f>'paste PFF data here'!G53</f>
+        <f>'Paste PFF data here'!G53</f>
         <v>1</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="19">
-        <f>'paste PFF data here'!AC53</f>
+        <f>'Paste PFF data here'!AC53</f>
         <v>2606852</v>
       </c>
       <c r="H12" s="13">
-        <f>'paste PFF data here'!AD53</f>
+        <f>'Paste PFF data here'!AD53</f>
         <v>0</v>
       </c>
       <c r="I12" s="14">
-        <f>'paste PFF data here'!AE53</f>
+        <f>'Paste PFF data here'!AE53</f>
         <v>0</v>
       </c>
       <c r="J12" s="31">
-        <f>'paste PFF data here'!AF53</f>
+        <f>'Paste PFF data here'!AF53</f>
         <v>1</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="19">
-        <f>'paste PFF data here'!I53</f>
+        <f>'Paste PFF data here'!I53</f>
         <v>8461961</v>
       </c>
       <c r="M12" s="13">
-        <f>'paste PFF data here'!J53</f>
+        <f>'Paste PFF data here'!J53</f>
         <v>0</v>
       </c>
       <c r="N12" s="14">
-        <f>'paste PFF data here'!K53</f>
+        <f>'Paste PFF data here'!K53</f>
         <v>0</v>
       </c>
       <c r="O12" s="31">
-        <f>'paste PFF data here'!L53</f>
+        <f>'Paste PFF data here'!L53</f>
         <v>1</v>
       </c>
       <c r="P12" s="26"/>
@@ -40993,11 +40993,11 @@
       <c r="C13" s="118"/>
       <c r="D13" s="118"/>
       <c r="E13" s="29">
-        <f>'paste PFF data here'!P11</f>
+        <f>'Paste PFF data here'!P11</f>
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="F13" s="30">
-        <f>'paste PFF data here'!Q11</f>
+        <f>'Paste PFF data here'!Q11</f>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G13" s="39"/>
@@ -41037,7 +41037,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B14" s="138" t="str">
         <f>IF((($F13*100)/1.645)/(ABS($E13*100))*100&gt;=20,"not reliable--do not display % change","reliable--can display % change")</f>
@@ -41066,7 +41066,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="161" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B15" s="38" t="str">
         <f>IF(AND((ABS(F13)&lt;ABS(E13)),E13&gt;0),"significant increase",IF(AND((ABS(F13)&lt;ABS(E13)),E13&lt;0),"significant decrease","no significant change"))</f>
@@ -41140,47 +41140,47 @@
         <v>89</v>
       </c>
       <c r="B17" s="130">
-        <f>'paste PFF data here'!D79</f>
+        <f>'Paste PFF data here'!D79</f>
         <v>30.6</v>
       </c>
       <c r="C17" s="129">
-        <f>'paste PFF data here'!E79</f>
+        <f>'Paste PFF data here'!E79</f>
         <v>0.5</v>
       </c>
       <c r="D17" s="129">
-        <f>'paste PFF data here'!F79</f>
+        <f>'Paste PFF data here'!F79</f>
         <v>0.9</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
       <c r="G17" s="20">
-        <f>'paste PFF data here'!AC79</f>
+        <f>'Paste PFF data here'!AC79</f>
         <v>34.5</v>
       </c>
       <c r="H17" s="15">
-        <f>'paste PFF data here'!AD79</f>
+        <f>'Paste PFF data here'!AD79</f>
         <v>0.1</v>
       </c>
       <c r="I17" s="15">
-        <f>'paste PFF data here'!AE79</f>
+        <f>'Paste PFF data here'!AE79</f>
         <v>0.2</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L17" s="20">
-        <f>'paste PFF data here'!I79</f>
+        <f>'Paste PFF data here'!I79</f>
         <v>35.9</v>
       </c>
       <c r="M17" s="15">
-        <f>'paste PFF data here'!J79</f>
+        <f>'Paste PFF data here'!J79</f>
         <v>0.1</v>
       </c>
       <c r="N17" s="15">
-        <f>'paste PFF data here'!K79</f>
+        <f>'Paste PFF data here'!K79</f>
         <v>0.2</v>
       </c>
       <c r="O17" s="31"/>
@@ -41215,63 +41215,63 @@
         <v>10</v>
       </c>
       <c r="B18" s="19">
-        <f>'paste PFF data here'!D57</f>
+        <f>'Paste PFF data here'!D57</f>
         <v>8561</v>
       </c>
       <c r="C18" s="13">
-        <f>'paste PFF data here'!E57</f>
+        <f>'Paste PFF data here'!E57</f>
         <v>743</v>
       </c>
       <c r="D18" s="129">
-        <f>'paste PFF data here'!K15</f>
+        <f>'Paste PFF data here'!K15</f>
         <v>5.3</v>
       </c>
       <c r="E18" s="29">
-        <f>'paste PFF data here'!L15</f>
+        <f>'Paste PFF data here'!L15</f>
         <v>6.3E-2</v>
       </c>
       <c r="F18" s="30">
-        <f>'paste PFF data here'!M15</f>
+        <f>'Paste PFF data here'!M15</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G18" s="19">
-        <f>'paste PFF data here'!AC57</f>
+        <f>'Paste PFF data here'!AC57</f>
         <v>193851</v>
       </c>
       <c r="H18" s="13">
-        <f>'paste PFF data here'!AD57</f>
+        <f>'Paste PFF data here'!AD57</f>
         <v>113</v>
       </c>
       <c r="I18" s="15">
-        <f>'paste PFF data here'!AE57</f>
+        <f>'Paste PFF data here'!AE57</f>
         <v>0</v>
       </c>
       <c r="J18" s="31">
-        <f>'paste PFF data here'!AF57</f>
+        <f>'Paste PFF data here'!AF57</f>
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="K18" s="26">
-        <f>'paste PFF data here'!AG57</f>
+        <f>'Paste PFF data here'!AG57</f>
         <v>1E-3</v>
       </c>
       <c r="L18" s="19">
-        <f>'paste PFF data here'!I57</f>
+        <f>'Paste PFF data here'!I57</f>
         <v>555383</v>
       </c>
       <c r="M18" s="13">
-        <f>'paste PFF data here'!J57</f>
+        <f>'Paste PFF data here'!J57</f>
         <v>358</v>
       </c>
       <c r="N18" s="15">
-        <f>'paste PFF data here'!K57</f>
+        <f>'Paste PFF data here'!K57</f>
         <v>0</v>
       </c>
       <c r="O18" s="31">
-        <f>'paste PFF data here'!L57</f>
+        <f>'Paste PFF data here'!L57</f>
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="P18" s="26">
-        <f>'paste PFF data here'!M57</f>
+        <f>'Paste PFF data here'!M57</f>
         <v>1E-3</v>
       </c>
       <c r="Q18" s="89" t="str">
@@ -41304,11 +41304,11 @@
         <v>86</v>
       </c>
       <c r="B19" s="19">
-        <f>'paste PFF data here'!D58+'paste PFF data here'!D59+'paste PFF data here'!D60</f>
+        <f>'Paste PFF data here'!D58+'Paste PFF data here'!D59+'Paste PFF data here'!D60</f>
         <v>24451</v>
       </c>
       <c r="C19" s="13">
-        <f>SQRT(SUMSQ('paste PFF data here'!E58,'paste PFF data here'!E59,'paste PFF data here'!E60))</f>
+        <f>SQRT(SUMSQ('Paste PFF data here'!E58,'Paste PFF data here'!E59,'Paste PFF data here'!E60))</f>
         <v>1118.2048112935304</v>
       </c>
       <c r="D19" s="8">
@@ -41324,11 +41324,11 @@
         <v>7.4047918159101597E-3</v>
       </c>
       <c r="G19" s="19">
-        <f>'paste PFF data here'!AC58+'paste PFF data here'!AC59+'paste PFF data here'!AC60</f>
+        <f>'Paste PFF data here'!AC58+'Paste PFF data here'!AC59+'Paste PFF data here'!AC60</f>
         <v>471044</v>
       </c>
       <c r="H19" s="13">
-        <f>SQRT(SUMSQ('paste PFF data here'!AD58,'paste PFF data here'!AD59,'paste PFF data here'!AD60))</f>
+        <f>SQRT(SUMSQ('Paste PFF data here'!AD58,'Paste PFF data here'!AD59,'Paste PFF data here'!AD60))</f>
         <v>2457.65213160854</v>
       </c>
       <c r="I19" s="14">
@@ -41344,11 +41344,11 @@
         <v>9.4276626813050374E-4</v>
       </c>
       <c r="L19" s="19">
-        <f>'paste PFF data here'!I58+'paste PFF data here'!I59+'paste PFF data here'!I60</f>
+        <f>'Paste PFF data here'!I58+'Paste PFF data here'!I59+'Paste PFF data here'!I60</f>
         <v>1434064</v>
       </c>
       <c r="M19" s="13">
-        <f>SQRT(SUMSQ('paste PFF data here'!J58,'paste PFF data here'!J59,'paste PFF data here'!J60))</f>
+        <f>SQRT(SUMSQ('Paste PFF data here'!J58,'Paste PFF data here'!J59,'Paste PFF data here'!J60))</f>
         <v>5282.0837744208484</v>
       </c>
       <c r="N19" s="14">
@@ -41393,11 +41393,11 @@
         <v>87</v>
       </c>
       <c r="B20" s="19">
-        <f>'paste PFF data here'!D61+'paste PFF data here'!D62+'paste PFF data here'!D63+'paste PFF data here'!D64</f>
+        <f>'Paste PFF data here'!D61+'Paste PFF data here'!D62+'Paste PFF data here'!D63+'Paste PFF data here'!D64</f>
         <v>56921</v>
       </c>
       <c r="C20" s="13">
-        <f>SQRT(SUMSQ('paste PFF data here'!E61,'paste PFF data here'!E62,'paste PFF data here'!E63,'paste PFF data here'!E64))</f>
+        <f>SQRT(SUMSQ('Paste PFF data here'!E61,'Paste PFF data here'!E62,'Paste PFF data here'!E63,'Paste PFF data here'!E64))</f>
         <v>1701.1922289970644</v>
       </c>
       <c r="D20" s="8">
@@ -41413,11 +41413,11 @@
         <v>9.3139203513892786E-3</v>
       </c>
       <c r="G20" s="19">
-        <f>'paste PFF data here'!AC61+'paste PFF data here'!AC62+'paste PFF data here'!AC63+'paste PFF data here'!AC64</f>
+        <f>'Paste PFF data here'!AC61+'Paste PFF data here'!AC62+'Paste PFF data here'!AC63+'Paste PFF data here'!AC64</f>
         <v>846605</v>
       </c>
       <c r="H20" s="13">
-        <f>SQRT(SUMSQ('paste PFF data here'!AD61,'paste PFF data here'!AD62,'paste PFF data here'!AD63,'paste PFF data here'!AD64))</f>
+        <f>SQRT(SUMSQ('Paste PFF data here'!AD61,'Paste PFF data here'!AD62,'Paste PFF data here'!AD63,'Paste PFF data here'!AD64))</f>
         <v>2229.8791447071744</v>
       </c>
       <c r="I20" s="14">
@@ -41433,11 +41433,11 @@
         <v>8.5539153918487681E-4</v>
       </c>
       <c r="L20" s="19">
-        <f>'paste PFF data here'!I61+'paste PFF data here'!I62+'paste PFF data here'!I63+'paste PFF data here'!I64</f>
+        <f>'Paste PFF data here'!I61+'Paste PFF data here'!I62+'Paste PFF data here'!I63+'Paste PFF data here'!I64</f>
         <v>2727084</v>
       </c>
       <c r="M20" s="13">
-        <f>SQRT(SUMSQ('paste PFF data here'!J61,'paste PFF data here'!J62,'paste PFF data here'!J63,'paste PFF data here'!J64))</f>
+        <f>SQRT(SUMSQ('Paste PFF data here'!J61,'Paste PFF data here'!J62,'Paste PFF data here'!J63,'Paste PFF data here'!J64))</f>
         <v>4467.7483143077789</v>
       </c>
       <c r="N20" s="14">
@@ -41482,11 +41482,11 @@
         <v>88</v>
       </c>
       <c r="B21" s="19">
-        <f>'paste PFF data here'!D65+'paste PFF data here'!D66+'paste PFF data here'!D67+'paste PFF data here'!D68+'paste PFF data here'!D69</f>
+        <f>'Paste PFF data here'!D65+'Paste PFF data here'!D66+'Paste PFF data here'!D67+'Paste PFF data here'!D68+'Paste PFF data here'!D69</f>
         <v>34563</v>
       </c>
       <c r="C21" s="13">
-        <f>SQRT(SUMSQ('paste PFF data here'!E65,'paste PFF data here'!E66,'paste PFF data here'!E67,'paste PFF data here'!E68,'paste PFF data here'!E69))</f>
+        <f>SQRT(SUMSQ('Paste PFF data here'!E65,'Paste PFF data here'!E66,'Paste PFF data here'!E67,'Paste PFF data here'!E68,'Paste PFF data here'!E69))</f>
         <v>1262.610787218294</v>
       </c>
       <c r="D21" s="8">
@@ -41502,11 +41502,11 @@
         <v>7.7815939458235226E-3</v>
       </c>
       <c r="G21" s="19">
-        <f>'paste PFF data here'!AC65+'paste PFF data here'!AC66+'paste PFF data here'!AC67+'paste PFF data here'!AC68+'paste PFF data here'!AC69</f>
+        <f>'Paste PFF data here'!AC65+'Paste PFF data here'!AC66+'Paste PFF data here'!AC67+'Paste PFF data here'!AC68+'Paste PFF data here'!AC69</f>
         <v>777777</v>
       </c>
       <c r="H21" s="13">
-        <f>SQRT(SUMSQ('paste PFF data here'!AD65,'paste PFF data here'!AD66,'paste PFF data here'!AD67,'paste PFF data here'!AD68,'paste PFF data here'!AD69))</f>
+        <f>SQRT(SUMSQ('Paste PFF data here'!AD65,'Paste PFF data here'!AD66,'Paste PFF data here'!AD67,'Paste PFF data here'!AD68,'Paste PFF data here'!AD69))</f>
         <v>3261.424382076028</v>
       </c>
       <c r="I21" s="14">
@@ -41522,11 +41522,11 @@
         <v>1.2510968716582405E-3</v>
       </c>
       <c r="L21" s="19">
-        <f>'paste PFF data here'!I65+'paste PFF data here'!I66+'paste PFF data here'!I67+'paste PFF data here'!I68+'paste PFF data here'!I69</f>
+        <f>'Paste PFF data here'!I65+'Paste PFF data here'!I66+'Paste PFF data here'!I67+'Paste PFF data here'!I68+'Paste PFF data here'!I69</f>
         <v>2646100</v>
       </c>
       <c r="M21" s="13">
-        <f>SQRT(SUMSQ('paste PFF data here'!J65,'paste PFF data here'!J66,'paste PFF data here'!J67,'paste PFF data here'!J68,'paste PFF data here'!J69))</f>
+        <f>SQRT(SUMSQ('Paste PFF data here'!J65,'Paste PFF data here'!J66,'Paste PFF data here'!J67,'Paste PFF data here'!J68,'Paste PFF data here'!J69))</f>
         <v>6792.5868415501318</v>
       </c>
       <c r="N21" s="14">
@@ -41571,63 +41571,63 @@
         <v>29</v>
       </c>
       <c r="B22" s="47">
-        <f>'paste PFF data here'!D77</f>
+        <f>'Paste PFF data here'!D77</f>
         <v>11341</v>
       </c>
       <c r="C22" s="16">
-        <f>'paste PFF data here'!E77</f>
+        <f>'Paste PFF data here'!E77</f>
         <v>642</v>
       </c>
       <c r="D22" s="163">
-        <f>'paste PFF data here'!K35</f>
+        <f>'Paste PFF data here'!K35</f>
         <v>3.4</v>
       </c>
       <c r="E22" s="84">
-        <f>'paste PFF data here'!L35</f>
+        <f>'Paste PFF data here'!L35</f>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="F22" s="28">
-        <f>'paste PFF data here'!M35</f>
+        <f>'Paste PFF data here'!M35</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G22" s="47">
-        <f>'paste PFF data here'!AC77</f>
+        <f>'Paste PFF data here'!AC77</f>
         <v>317575</v>
       </c>
       <c r="H22" s="16">
-        <f>'paste PFF data here'!AD77</f>
+        <f>'Paste PFF data here'!AD77</f>
         <v>38</v>
       </c>
       <c r="I22" s="17">
-        <f>'paste PFF data here'!AE74</f>
+        <f>'Paste PFF data here'!AE74</f>
         <v>1.6</v>
       </c>
       <c r="J22" s="48">
-        <f>'paste PFF data here'!AF77</f>
+        <f>'Paste PFF data here'!AF77</f>
         <v>0.122</v>
       </c>
       <c r="K22" s="49">
-        <f>'paste PFF data here'!AG77</f>
+        <f>'Paste PFF data here'!AG77</f>
         <v>1E-3</v>
       </c>
       <c r="L22" s="47">
-        <f>'paste PFF data here'!I77</f>
+        <f>'Paste PFF data here'!I77</f>
         <v>1099330</v>
       </c>
       <c r="M22" s="16">
-        <f>'paste PFF data here'!J77</f>
+        <f>'Paste PFF data here'!J77</f>
         <v>214</v>
       </c>
       <c r="N22" s="17">
-        <f>'paste PFF data here'!K74</f>
+        <f>'Paste PFF data here'!K74</f>
         <v>0.9</v>
       </c>
       <c r="O22" s="48">
-        <f>'paste PFF data here'!L77</f>
+        <f>'Paste PFF data here'!L77</f>
         <v>0.13</v>
       </c>
       <c r="P22" s="49">
-        <f>'paste PFF data here'!M77</f>
+        <f>'Paste PFF data here'!M77</f>
         <v>1E-3</v>
       </c>
       <c r="Q22" s="94" t="str">
@@ -41699,7 +41699,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="158" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="11"/>
@@ -41746,50 +41746,50 @@
         <v>97</v>
       </c>
       <c r="B25" s="131">
-        <f>'paste PFF data here'!D111</f>
+        <f>'Paste PFF data here'!D111</f>
         <v>2.94</v>
       </c>
       <c r="C25" s="132">
-        <f>'paste PFF data here'!E111</f>
+        <f>'Paste PFF data here'!E111</f>
         <v>0.05</v>
       </c>
       <c r="D25" s="129">
-        <f>'paste PFF data here'!F111</f>
+        <f>'Paste PFF data here'!F111</f>
         <v>1</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="30"/>
       <c r="G25" s="23">
-        <f>'paste PFF data here'!AC111</f>
+        <f>'Paste PFF data here'!AC111</f>
         <v>2.73</v>
       </c>
       <c r="H25" s="24">
-        <f>'paste PFF data here'!AD111</f>
+        <f>'Paste PFF data here'!AD111</f>
         <v>0.01</v>
       </c>
       <c r="I25" s="25">
-        <f>'paste PFF data here'!AE111</f>
+        <f>'Paste PFF data here'!AE111</f>
         <v>0.2</v>
       </c>
       <c r="J25" s="32"/>
       <c r="K25" s="33"/>
       <c r="L25" s="21">
-        <f>'paste PFF data here'!I111</f>
+        <f>'Paste PFF data here'!I111</f>
         <v>2.65</v>
       </c>
       <c r="M25" s="22">
-        <f>'paste PFF data here'!J111</f>
+        <f>'Paste PFF data here'!J111</f>
         <v>0.01</v>
       </c>
       <c r="N25" s="15">
-        <f>'paste PFF data here'!K111</f>
+        <f>'Paste PFF data here'!K111</f>
         <v>0.2</v>
       </c>
       <c r="O25" s="31" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P25" s="26" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="89" t="str">
         <f t="shared" si="0"/>
@@ -41821,53 +41821,53 @@
         <v>96</v>
       </c>
       <c r="B26" s="10">
-        <f>'paste PFF data here'!D120</f>
+        <f>'Paste PFF data here'!D120</f>
         <v>45463</v>
       </c>
       <c r="C26" s="6">
-        <f>'paste PFF data here'!E120</f>
+        <f>'Paste PFF data here'!E120</f>
         <v>477</v>
       </c>
       <c r="D26" s="129">
-        <f>'paste PFF data here'!F120</f>
+        <f>'Paste PFF data here'!F120</f>
         <v>0.6</v>
       </c>
       <c r="E26" s="29">
-        <f>'paste PFF data here'!G120</f>
+        <f>'Paste PFF data here'!G120</f>
         <v>1</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="19">
-        <f>'paste PFF data here'!AC120</f>
+        <f>'Paste PFF data here'!AC120</f>
         <v>938803</v>
       </c>
       <c r="H26" s="13">
-        <f>'paste PFF data here'!AD120</f>
+        <f>'Paste PFF data here'!AD120</f>
         <v>2477</v>
       </c>
       <c r="I26" s="15">
-        <f>'paste PFF data here'!AE120</f>
+        <f>'Paste PFF data here'!AE120</f>
         <v>0.2</v>
       </c>
       <c r="J26" s="31">
-        <f>'paste PFF data here'!AF120</f>
+        <f>'Paste PFF data here'!AF120</f>
         <v>1</v>
       </c>
       <c r="K26" s="26"/>
       <c r="L26" s="19">
-        <f>'paste PFF data here'!I120</f>
+        <f>'Paste PFF data here'!I120</f>
         <v>3128246</v>
       </c>
       <c r="M26" s="13">
-        <f>'paste PFF data here'!J120</f>
+        <f>'Paste PFF data here'!J120</f>
         <v>6458</v>
       </c>
       <c r="N26" s="15">
-        <f>'paste PFF data here'!K120</f>
+        <f>'Paste PFF data here'!K120</f>
         <v>0.1</v>
       </c>
       <c r="O26" s="31">
-        <f>'paste PFF data here'!L120</f>
+        <f>'Paste PFF data here'!L120</f>
         <v>1</v>
       </c>
       <c r="P26" s="26"/>
@@ -41901,63 +41901,63 @@
         <v>94</v>
       </c>
       <c r="B27" s="10">
-        <f>'paste PFF data here'!D121</f>
+        <f>'Paste PFF data here'!D121</f>
         <v>6108</v>
       </c>
       <c r="C27" s="6">
-        <f>'paste PFF data here'!E121</f>
+        <f>'Paste PFF data here'!E121</f>
         <v>414</v>
       </c>
       <c r="D27" s="129">
-        <f>'paste PFF data here'!G121</f>
+        <f>'Paste PFF data here'!G121</f>
         <v>0.13400000000000001</v>
       </c>
       <c r="E27" s="29">
-        <f>'paste PFF data here'!G121</f>
+        <f>'Paste PFF data here'!G121</f>
         <v>0.13400000000000001</v>
       </c>
       <c r="F27" s="30">
-        <f>'paste PFF data here'!H121</f>
+        <f>'Paste PFF data here'!H121</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G27" s="19">
-        <f>'paste PFF data here'!AC121</f>
+        <f>'Paste PFF data here'!AC121</f>
         <v>276447</v>
       </c>
       <c r="H27" s="13">
-        <f>'paste PFF data here'!AD121</f>
+        <f>'Paste PFF data here'!AD121</f>
         <v>2632</v>
       </c>
       <c r="I27" s="15">
-        <f>'paste PFF data here'!AE121</f>
+        <f>'Paste PFF data here'!AE121</f>
         <v>0.6</v>
       </c>
       <c r="J27" s="31">
-        <f>'paste PFF data here'!AF121</f>
+        <f>'Paste PFF data here'!AF121</f>
         <v>0.29399999999999998</v>
       </c>
       <c r="K27" s="26">
-        <f>'paste PFF data here'!AG121</f>
+        <f>'Paste PFF data here'!AG121</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L27" s="19">
-        <f>'paste PFF data here'!I121</f>
+        <f>'Paste PFF data here'!I121</f>
         <v>1000242</v>
       </c>
       <c r="M27" s="13">
-        <f>'paste PFF data here'!J121</f>
+        <f>'Paste PFF data here'!J121</f>
         <v>6712</v>
       </c>
       <c r="N27" s="15">
-        <f>'paste PFF data here'!K121</f>
+        <f>'Paste PFF data here'!K121</f>
         <v>0.4</v>
       </c>
       <c r="O27" s="31">
-        <f>'paste PFF data here'!L121</f>
+        <f>'Paste PFF data here'!L121</f>
         <v>0.32</v>
       </c>
       <c r="P27" s="26">
-        <f>'paste PFF data here'!M121</f>
+        <f>'Paste PFF data here'!M121</f>
         <v>2E-3</v>
       </c>
       <c r="Q27" s="89" t="str">
@@ -41990,63 +41990,63 @@
         <v>95</v>
       </c>
       <c r="B28" s="4">
-        <f>'paste PFF data here'!D122</f>
+        <f>'Paste PFF data here'!D122</f>
         <v>39355</v>
       </c>
       <c r="C28" s="5">
-        <f>'paste PFF data here'!E122</f>
+        <f>'Paste PFF data here'!E122</f>
         <v>597</v>
       </c>
       <c r="D28" s="163">
-        <f>'paste PFF data here'!F122</f>
+        <f>'Paste PFF data here'!F122</f>
         <v>0.9</v>
       </c>
       <c r="E28" s="84">
-        <f>'paste PFF data here'!G122</f>
+        <f>'Paste PFF data here'!G122</f>
         <v>0.86599999999999999</v>
       </c>
       <c r="F28" s="28">
-        <f>'paste PFF data here'!H122</f>
+        <f>'Paste PFF data here'!H122</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G28" s="47">
-        <f>'paste PFF data here'!AC122</f>
+        <f>'Paste PFF data here'!AC122</f>
         <v>662356</v>
       </c>
       <c r="H28" s="16">
-        <f>'paste PFF data here'!AD122</f>
+        <f>'Paste PFF data here'!AD122</f>
         <v>2845</v>
       </c>
       <c r="I28" s="17">
-        <f>'paste PFF data here'!AE122</f>
+        <f>'Paste PFF data here'!AE122</f>
         <v>0.3</v>
       </c>
       <c r="J28" s="48">
-        <f>'paste PFF data here'!AF122</f>
+        <f>'Paste PFF data here'!AF122</f>
         <v>0.70599999999999996</v>
       </c>
       <c r="K28" s="49">
-        <f>'paste PFF data here'!AG122</f>
+        <f>'Paste PFF data here'!AG122</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L28" s="47">
-        <f>'paste PFF data here'!I122</f>
+        <f>'Paste PFF data here'!I122</f>
         <v>2128004</v>
       </c>
       <c r="M28" s="16">
-        <f>'paste PFF data here'!J122</f>
+        <f>'Paste PFF data here'!J122</f>
         <v>5994</v>
       </c>
       <c r="N28" s="17">
-        <f>'paste PFF data here'!K122</f>
+        <f>'Paste PFF data here'!K122</f>
         <v>0.2</v>
       </c>
       <c r="O28" s="48">
-        <f>'paste PFF data here'!L122</f>
+        <f>'Paste PFF data here'!L122</f>
         <v>0.68</v>
       </c>
       <c r="P28" s="49">
-        <f>'paste PFF data here'!M122</f>
+        <f>'Paste PFF data here'!M122</f>
         <v>2E-3</v>
       </c>
       <c r="Q28" s="94" t="str">
@@ -42118,7 +42118,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="139" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="B30" s="34"/>
       <c r="C30" s="11"/>
@@ -42147,19 +42147,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="133">
-        <f>'paste PFF data here'!D133</f>
+        <f>'Paste PFF data here'!D133</f>
         <v>127259</v>
       </c>
       <c r="C31" s="134">
-        <f>'paste PFF data here'!E133</f>
+        <f>'Paste PFF data here'!E133</f>
         <v>2527</v>
       </c>
       <c r="D31" s="135">
-        <f>'paste PFF data here'!F133</f>
+        <f>'Paste PFF data here'!F133</f>
         <v>1.2</v>
       </c>
       <c r="E31" s="136">
-        <f>'paste PFF data here'!G133</f>
+        <f>'Paste PFF data here'!G133</f>
         <v>1</v>
       </c>
       <c r="F31" s="137"/>
@@ -42185,23 +42185,23 @@
         <v>32</v>
       </c>
       <c r="B32" s="133">
-        <f>'paste PFF data here'!D134</f>
+        <f>'Paste PFF data here'!D134</f>
         <v>48927</v>
       </c>
       <c r="C32" s="134">
-        <f>'paste PFF data here'!E134</f>
+        <f>'Paste PFF data here'!E134</f>
         <v>1797</v>
       </c>
       <c r="D32" s="135">
-        <f>'paste PFF data here'!F134</f>
+        <f>'Paste PFF data here'!F134</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E32" s="136">
-        <f>'paste PFF data here'!G134</f>
+        <f>'Paste PFF data here'!G134</f>
         <v>0.38500000000000001</v>
       </c>
       <c r="F32" s="137">
-        <f>'paste PFF data here'!H134</f>
+        <f>'Paste PFF data here'!H134</f>
         <v>1.2E-2</v>
       </c>
       <c r="G32" s="44"/>
@@ -42223,27 +42223,27 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="168" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"1"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$C$220:$C$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"1"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"1"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$C$220:$C$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"1"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>Spanish or Spanish Creole</v>
       </c>
       <c r="B33" s="41">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"1"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$D$220:$D$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"1"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"1"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$D$220:$D$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"1"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>69582</v>
       </c>
       <c r="C33" s="42">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"1"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$E$220:$E$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"1"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"1"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$E$220:$E$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"1"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>2470</v>
       </c>
       <c r="D33" s="43">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"1"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"1"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"1"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"1"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E33" s="136">
-        <f>ROUND(IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"1"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$G$220:$G$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"1"),'paste PFF data here'!$D$220:$D$258,0))),3)</f>
+        <f>ROUND(IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"1"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$G$220:$G$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"1"),'Paste PFF data here'!$D$220:$D$258,0))),3)</f>
         <v>0.54700000000000004</v>
       </c>
       <c r="F33" s="137">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"1"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$H$220:$H$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"1"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"1"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$H$220:$H$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"1"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>1.6E-2</v>
       </c>
       <c r="G33" s="124"/>
@@ -42265,27 +42265,27 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="168" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"2"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$C$220:$C$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"2"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"2"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$C$220:$C$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"2"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>Chinese</v>
       </c>
       <c r="B34" s="41">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"2"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$D$220:$D$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"2"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"2"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$D$220:$D$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"2"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>2161</v>
       </c>
       <c r="C34" s="42">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"2"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$E$220:$E$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"2"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"2"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$E$220:$E$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"2"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>495</v>
       </c>
       <c r="D34" s="43">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"2"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"2"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"2"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"2"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>13.9</v>
       </c>
       <c r="E34" s="136">
-        <f>ROUND(IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"2"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$G$220:$G$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"2"),'paste PFF data here'!$D$220:$D$258,0))),3)</f>
+        <f>ROUND(IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"2"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$G$220:$G$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"2"),'Paste PFF data here'!$D$220:$D$258,0))),3)</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F34" s="137">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"2"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$H$220:$H$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"2"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"2"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$H$220:$H$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"2"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G34" s="124"/>
@@ -42307,27 +42307,27 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="168" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"3"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$C$220:$C$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"3"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"3"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$C$220:$C$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"3"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="B35" s="41" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"3"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$D$220:$D$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"3"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"3"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$D$220:$D$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"3"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="C35" s="42" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"3"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$E$220:$E$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"3"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"3"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$E$220:$E$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"3"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="D35" s="43" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"3"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"3"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"3"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"3"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="E35" s="136" t="str">
-        <f>IFERROR(ROUND(IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"3"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$G$220:$G$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"3"),'paste PFF data here'!$D$220:$D$258,0))),3),"-")</f>
+        <f>IFERROR(ROUND(IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"3"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$G$220:$G$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"3"),'Paste PFF data here'!$D$220:$D$258,0))),3),"-")</f>
         <v>-</v>
       </c>
       <c r="F35" s="137" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"3"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$H$220:$H$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"3"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"3"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$H$220:$H$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"3"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="G35" s="124"/>
@@ -42349,27 +42349,27 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="168" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"4"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$C$220:$C$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"4"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"4"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$C$220:$C$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"4"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="B36" s="41" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"4"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$D$220:$D$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"4"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"4"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$D$220:$D$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"4"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="C36" s="42" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"4"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$E$220:$E$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"4"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"4"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$E$220:$E$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"4"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="D36" s="43" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"4"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"4"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"4"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"4"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="E36" s="136" t="str">
-        <f>IFERROR(ROUND(IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"4"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$G$220:$G$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"4"),'paste PFF data here'!$D$220:$D$258,0))),3),"-")</f>
+        <f>IFERROR(ROUND(IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"4"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$G$220:$G$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"4"),'Paste PFF data here'!$D$220:$D$258,0))),3),"-")</f>
         <v>-</v>
       </c>
       <c r="F36" s="137" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"4"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$H$220:$H$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"4"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"4"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$H$220:$H$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"4"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="G36" s="124"/>
@@ -42391,27 +42391,27 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="168" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"5"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$C$220:$C$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"5"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"5"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$C$220:$C$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"5"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="B37" s="41" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"5"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$D$220:$D$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"5"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"5"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$D$220:$D$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"5"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="C37" s="42" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"5"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$E$220:$E$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"5"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"5"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$E$220:$E$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"5"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="D37" s="43" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"5"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"5"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"5"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"5"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="E37" s="136" t="str">
-        <f>IFERROR(ROUND(IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"5"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$G$220:$G$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"5"),'paste PFF data here'!$D$220:$D$258,0))),3),"-")</f>
+        <f>IFERROR(ROUND(IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"5"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$G$220:$G$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"5"),'Paste PFF data here'!$D$220:$D$258,0))),3),"-")</f>
         <v>-</v>
       </c>
       <c r="F37" s="137" t="str">
-        <f>IF(INDEX('paste PFF data here'!$F$220:$F$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"5"),'paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('paste PFF data here'!$H$220:$H$258,MATCH(LARGE('paste PFF data here'!$D$220:$D$258,"5"),'paste PFF data here'!$D$220:$D$258,0)))</f>
+        <f>IF(INDEX('Paste PFF data here'!$F$220:$F$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"5"),'Paste PFF data here'!$D$220:$D$258,0))&gt;=20,"-",INDEX('Paste PFF data here'!$H$220:$H$258,MATCH(LARGE('Paste PFF data here'!$D$220:$D$258,"5"),'Paste PFF data here'!$D$220:$D$258,0)))</f>
         <v>-</v>
       </c>
       <c r="G37" s="124"/>
@@ -42433,14 +42433,14 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="169" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B38" s="146">
-        <f>SUMIF('paste PFF data here'!$F$220:$F$258,"&gt;20",'paste PFF data here'!$D$220:$D$258)</f>
+        <f>SUMIF('Paste PFF data here'!$F$220:$F$258,"&gt;20",'Paste PFF data here'!$D$220:$D$258)</f>
         <v>6589</v>
       </c>
       <c r="C38" s="147">
-        <f t="array" ref="C38">SQRT(SUMSQ(IF('paste PFF data here'!$F$220:$F$258&gt;20,'paste PFF data here'!$E$220:$E$258)))</f>
+        <f t="array" ref="C38">SQRT(SUMSQ(IF('Paste PFF data here'!$F$220:$F$258&gt;20,'Paste PFF data here'!$E$220:$E$258)))</f>
         <v>819.80485482826953</v>
       </c>
       <c r="D38" s="148">
@@ -42516,7 +42516,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="139" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="11"/>
@@ -42563,53 +42563,53 @@
         <v>74</v>
       </c>
       <c r="B41" s="10">
-        <f>'paste PFF data here'!D307</f>
+        <f>'Paste PFF data here'!D307</f>
         <v>87885</v>
       </c>
       <c r="C41" s="6">
-        <f>'paste PFF data here'!E307</f>
+        <f>'Paste PFF data here'!E307</f>
         <v>1835</v>
       </c>
       <c r="D41" s="129">
-        <f>'paste PFF data here'!F307</f>
+        <f>'Paste PFF data here'!F307</f>
         <v>1.3</v>
       </c>
       <c r="E41" s="29">
-        <f>'paste PFF data here'!G307</f>
+        <f>'Paste PFF data here'!G307</f>
         <v>1</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="19">
-        <f>'paste PFF data here'!AC307</f>
+        <f>'Paste PFF data here'!AC307</f>
         <v>1753695</v>
       </c>
       <c r="H41" s="13">
-        <f>'paste PFF data here'!AD307</f>
+        <f>'Paste PFF data here'!AD307</f>
         <v>103</v>
       </c>
       <c r="I41" s="14">
-        <f>'paste PFF data here'!AE307</f>
+        <f>'Paste PFF data here'!AE307</f>
         <v>0</v>
       </c>
       <c r="J41" s="31">
-        <f>'paste PFF data here'!AF307</f>
+        <f>'Paste PFF data here'!AF307</f>
         <v>1</v>
       </c>
       <c r="K41" s="26"/>
       <c r="L41" s="19">
-        <f>'paste PFF data here'!I307</f>
+        <f>'Paste PFF data here'!I307</f>
         <v>5851772</v>
       </c>
       <c r="M41" s="13">
-        <f>'paste PFF data here'!J307</f>
+        <f>'Paste PFF data here'!J307</f>
         <v>363</v>
       </c>
       <c r="N41" s="14">
-        <f>'paste PFF data here'!K307</f>
+        <f>'Paste PFF data here'!K307</f>
         <v>0</v>
       </c>
       <c r="O41" s="31">
-        <f>'paste PFF data here'!L307</f>
+        <f>'Paste PFF data here'!L307</f>
         <v>1</v>
       </c>
       <c r="P41" s="26"/>
@@ -42643,63 +42643,63 @@
         <v>75</v>
       </c>
       <c r="B42" s="10">
-        <f>'paste PFF data here'!D308</f>
+        <f>'Paste PFF data here'!D308</f>
         <v>16479</v>
       </c>
       <c r="C42" s="6">
-        <f>'paste PFF data here'!E308</f>
+        <f>'Paste PFF data here'!E308</f>
         <v>1040</v>
       </c>
       <c r="D42" s="129">
-        <f>'paste PFF data here'!F308</f>
+        <f>'Paste PFF data here'!F308</f>
         <v>3.8</v>
       </c>
       <c r="E42" s="29">
-        <f>'paste PFF data here'!G308</f>
+        <f>'Paste PFF data here'!G308</f>
         <v>0.188</v>
       </c>
       <c r="F42" s="30">
-        <f>'paste PFF data here'!H308</f>
+        <f>'Paste PFF data here'!H308</f>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G42" s="19">
-        <f>'paste PFF data here'!AC308</f>
+        <f>'Paste PFF data here'!AC308</f>
         <v>173424</v>
       </c>
       <c r="H42" s="13">
-        <f>'paste PFF data here'!AD308</f>
+        <f>'Paste PFF data here'!AD308</f>
         <v>2742</v>
       </c>
       <c r="I42" s="14">
-        <f>'paste PFF data here'!AE308</f>
+        <f>'Paste PFF data here'!AE308</f>
         <v>1</v>
       </c>
       <c r="J42" s="31">
-        <f>'paste PFF data here'!AF308</f>
+        <f>'Paste PFF data here'!AF308</f>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="K42" s="26">
-        <f>'paste PFF data here'!AG308</f>
+        <f>'Paste PFF data here'!AG308</f>
         <v>2E-3</v>
       </c>
       <c r="L42" s="19">
-        <f>'paste PFF data here'!I308</f>
+        <f>'Paste PFF data here'!I308</f>
         <v>579784</v>
       </c>
       <c r="M42" s="13">
-        <f>'paste PFF data here'!J308</f>
+        <f>'Paste PFF data here'!J308</f>
         <v>6504</v>
       </c>
       <c r="N42" s="14">
-        <f>'paste PFF data here'!K308</f>
+        <f>'Paste PFF data here'!K308</f>
         <v>0.7</v>
       </c>
       <c r="O42" s="171">
-        <f>'paste PFF data here'!L308</f>
+        <f>'Paste PFF data here'!L308</f>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="P42" s="26">
-        <f>'paste PFF data here'!M308</f>
+        <f>'Paste PFF data here'!M308</f>
         <v>1E-3</v>
       </c>
       <c r="Q42" s="89" t="str">
@@ -42732,63 +42732,63 @@
         <v>76</v>
       </c>
       <c r="B43" s="10">
-        <f>'paste PFF data here'!D309</f>
+        <f>'Paste PFF data here'!D309</f>
         <v>14040</v>
       </c>
       <c r="C43" s="6">
-        <f>'paste PFF data here'!E309</f>
+        <f>'Paste PFF data here'!E309</f>
         <v>904</v>
       </c>
       <c r="D43" s="129">
-        <f>'paste PFF data here'!F309</f>
+        <f>'Paste PFF data here'!F309</f>
         <v>3.9</v>
       </c>
       <c r="E43" s="29">
-        <f>'paste PFF data here'!G309</f>
+        <f>'Paste PFF data here'!G309</f>
         <v>0.16</v>
       </c>
       <c r="F43" s="30">
-        <f>'paste PFF data here'!H309</f>
+        <f>'Paste PFF data here'!H309</f>
         <v>0.01</v>
       </c>
       <c r="G43" s="19">
-        <f>'paste PFF data here'!AC309</f>
+        <f>'Paste PFF data here'!AC309</f>
         <v>177622</v>
       </c>
       <c r="H43" s="13">
-        <f>'paste PFF data here'!AD309</f>
+        <f>'Paste PFF data here'!AD309</f>
         <v>3235</v>
       </c>
       <c r="I43" s="14">
-        <f>'paste PFF data here'!AE309</f>
+        <f>'Paste PFF data here'!AE309</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J43" s="31">
-        <f>'paste PFF data here'!AF309</f>
+        <f>'Paste PFF data here'!AF309</f>
         <v>0.10100000000000001</v>
       </c>
       <c r="K43" s="26">
-        <f>'paste PFF data here'!AG309</f>
+        <f>'Paste PFF data here'!AG309</f>
         <v>2E-3</v>
       </c>
       <c r="L43" s="19">
-        <f>'paste PFF data here'!I309</f>
+        <f>'Paste PFF data here'!I309</f>
         <v>544697</v>
       </c>
       <c r="M43" s="13">
-        <f>'paste PFF data here'!J309</f>
+        <f>'Paste PFF data here'!J309</f>
         <v>6155</v>
       </c>
       <c r="N43" s="14">
-        <f>'paste PFF data here'!K309</f>
+        <f>'Paste PFF data here'!K309</f>
         <v>0.7</v>
       </c>
       <c r="O43" s="171">
-        <f>'paste PFF data here'!L309</f>
+        <f>'Paste PFF data here'!L309</f>
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="P43" s="26">
-        <f>'paste PFF data here'!M309</f>
+        <f>'Paste PFF data here'!M309</f>
         <v>1E-3</v>
       </c>
       <c r="Q43" s="89" t="str">
@@ -42821,63 +42821,63 @@
         <v>77</v>
       </c>
       <c r="B44" s="10">
-        <f>'paste PFF data here'!D310</f>
+        <f>'Paste PFF data here'!D310</f>
         <v>20068</v>
       </c>
       <c r="C44" s="6">
-        <f>'paste PFF data here'!E310</f>
+        <f>'Paste PFF data here'!E310</f>
         <v>1038</v>
       </c>
       <c r="D44" s="129">
-        <f>'paste PFF data here'!F310</f>
+        <f>'Paste PFF data here'!F310</f>
         <v>3.1</v>
       </c>
       <c r="E44" s="29">
-        <f>'paste PFF data here'!G310</f>
+        <f>'Paste PFF data here'!G310</f>
         <v>0.22800000000000001</v>
       </c>
       <c r="F44" s="30">
-        <f>'paste PFF data here'!H310</f>
+        <f>'Paste PFF data here'!H310</f>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G44" s="19">
-        <f>'paste PFF data here'!AC310</f>
+        <f>'Paste PFF data here'!AC310</f>
         <v>452449</v>
       </c>
       <c r="H44" s="13">
-        <f>'paste PFF data here'!AD310</f>
+        <f>'Paste PFF data here'!AD310</f>
         <v>4592</v>
       </c>
       <c r="I44" s="14">
-        <f>'paste PFF data here'!AE310</f>
+        <f>'Paste PFF data here'!AE310</f>
         <v>0.6</v>
       </c>
       <c r="J44" s="31">
-        <f>'paste PFF data here'!AF310</f>
+        <f>'Paste PFF data here'!AF310</f>
         <v>0.25800000000000001</v>
       </c>
       <c r="K44" s="26">
-        <f>'paste PFF data here'!AG310</f>
+        <f>'Paste PFF data here'!AG310</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L44" s="19">
-        <f>'paste PFF data here'!I310</f>
+        <f>'Paste PFF data here'!I310</f>
         <v>1402714</v>
       </c>
       <c r="M44" s="13">
-        <f>'paste PFF data here'!J310</f>
+        <f>'Paste PFF data here'!J310</f>
         <v>8317</v>
       </c>
       <c r="N44" s="14">
-        <f>'paste PFF data here'!K310</f>
+        <f>'Paste PFF data here'!K310</f>
         <v>0.4</v>
       </c>
       <c r="O44" s="171">
-        <f>'paste PFF data here'!L310</f>
+        <f>'Paste PFF data here'!L310</f>
         <v>0.24</v>
       </c>
       <c r="P44" s="26">
-        <f>'paste PFF data here'!M310</f>
+        <f>'Paste PFF data here'!M310</f>
         <v>1E-3</v>
       </c>
       <c r="Q44" s="89" t="str">
@@ -42910,63 +42910,63 @@
         <v>78</v>
       </c>
       <c r="B45" s="10">
-        <f>'paste PFF data here'!D311</f>
+        <f>'Paste PFF data here'!D311</f>
         <v>12174</v>
       </c>
       <c r="C45" s="6">
-        <f>'paste PFF data here'!E311</f>
+        <f>'Paste PFF data here'!E311</f>
         <v>732</v>
       </c>
       <c r="D45" s="129">
-        <f>'paste PFF data here'!F311</f>
+        <f>'Paste PFF data here'!F311</f>
         <v>3.7</v>
       </c>
       <c r="E45" s="29">
-        <f>'paste PFF data here'!G311</f>
+        <f>'Paste PFF data here'!G311</f>
         <v>0.13900000000000001</v>
       </c>
       <c r="F45" s="30">
-        <f>'paste PFF data here'!H311</f>
+        <f>'Paste PFF data here'!H311</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G45" s="19">
-        <f>'paste PFF data here'!AC311</f>
+        <f>'Paste PFF data here'!AC311</f>
         <v>243487</v>
       </c>
       <c r="H45" s="13">
-        <f>'paste PFF data here'!AD311</f>
+        <f>'Paste PFF data here'!AD311</f>
         <v>3162</v>
       </c>
       <c r="I45" s="14">
-        <f>'paste PFF data here'!AE311</f>
+        <f>'Paste PFF data here'!AE311</f>
         <v>0.8</v>
       </c>
       <c r="J45" s="31">
-        <f>'paste PFF data here'!AF311</f>
+        <f>'Paste PFF data here'!AF311</f>
         <v>0.13900000000000001</v>
       </c>
       <c r="K45" s="26">
-        <f>'paste PFF data here'!AG311</f>
+        <f>'Paste PFF data here'!AG311</f>
         <v>2E-3</v>
       </c>
       <c r="L45" s="19">
-        <f>'paste PFF data here'!I311</f>
+        <f>'Paste PFF data here'!I311</f>
         <v>829201</v>
       </c>
       <c r="M45" s="13">
-        <f>'paste PFF data here'!J311</f>
+        <f>'Paste PFF data here'!J311</f>
         <v>7370</v>
       </c>
       <c r="N45" s="14">
-        <f>'paste PFF data here'!K311</f>
+        <f>'Paste PFF data here'!K311</f>
         <v>0.5</v>
       </c>
       <c r="O45" s="171">
-        <f>'paste PFF data here'!L311</f>
+        <f>'Paste PFF data here'!L311</f>
         <v>0.14199999999999999</v>
       </c>
       <c r="P45" s="26">
-        <f>'paste PFF data here'!M311</f>
+        <f>'Paste PFF data here'!M311</f>
         <v>1E-3</v>
       </c>
       <c r="Q45" s="89" t="str">
@@ -42999,63 +42999,63 @@
         <v>79</v>
       </c>
       <c r="B46" s="10">
-        <f>'paste PFF data here'!D312</f>
+        <f>'Paste PFF data here'!D312</f>
         <v>4209</v>
       </c>
       <c r="C46" s="6">
-        <f>'paste PFF data here'!E312</f>
+        <f>'Paste PFF data here'!E312</f>
         <v>453</v>
       </c>
       <c r="D46" s="129">
-        <f>'paste PFF data here'!F312</f>
+        <f>'Paste PFF data here'!F312</f>
         <v>6.5</v>
       </c>
       <c r="E46" s="29">
-        <f>'paste PFF data here'!G312</f>
+        <f>'Paste PFF data here'!G312</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F46" s="30">
-        <f>'paste PFF data here'!H312</f>
+        <f>'Paste PFF data here'!H312</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G46" s="19">
-        <f>'paste PFF data here'!AC312</f>
+        <f>'Paste PFF data here'!AC312</f>
         <v>109028</v>
       </c>
       <c r="H46" s="13">
-        <f>'paste PFF data here'!AD312</f>
+        <f>'Paste PFF data here'!AD312</f>
         <v>2207</v>
       </c>
       <c r="I46" s="14">
-        <f>'paste PFF data here'!AE312</f>
+        <f>'Paste PFF data here'!AE312</f>
         <v>1.2</v>
       </c>
       <c r="J46" s="31">
-        <f>'paste PFF data here'!AF312</f>
+        <f>'Paste PFF data here'!AF312</f>
         <v>6.2E-2</v>
       </c>
       <c r="K46" s="26">
-        <f>'paste PFF data here'!AG312</f>
+        <f>'Paste PFF data here'!AG312</f>
         <v>1E-3</v>
       </c>
       <c r="L46" s="19">
-        <f>'paste PFF data here'!I312</f>
+        <f>'Paste PFF data here'!I312</f>
         <v>375851</v>
       </c>
       <c r="M46" s="13">
-        <f>'paste PFF data here'!J312</f>
+        <f>'Paste PFF data here'!J312</f>
         <v>3955</v>
       </c>
       <c r="N46" s="14">
-        <f>'paste PFF data here'!K312</f>
+        <f>'Paste PFF data here'!K312</f>
         <v>0.6</v>
       </c>
       <c r="O46" s="171">
-        <f>'paste PFF data here'!L312</f>
+        <f>'Paste PFF data here'!L312</f>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="P46" s="26">
-        <f>'paste PFF data here'!M312</f>
+        <f>'Paste PFF data here'!M312</f>
         <v>1E-3</v>
       </c>
       <c r="Q46" s="89" t="str">
@@ -43088,63 +43088,63 @@
         <v>80</v>
       </c>
       <c r="B47" s="10">
-        <f>'paste PFF data here'!D313</f>
+        <f>'Paste PFF data here'!D313</f>
         <v>15744</v>
       </c>
       <c r="C47" s="6">
-        <f>'paste PFF data here'!E313</f>
+        <f>'Paste PFF data here'!E313</f>
         <v>855</v>
       </c>
       <c r="D47" s="129">
-        <f>'paste PFF data here'!F313</f>
+        <f>'Paste PFF data here'!F313</f>
         <v>3.3</v>
       </c>
       <c r="E47" s="29">
-        <f>'paste PFF data here'!G313</f>
+        <f>'Paste PFF data here'!G313</f>
         <v>0.17899999999999999</v>
       </c>
       <c r="F47" s="30">
-        <f>'paste PFF data here'!H313</f>
+        <f>'Paste PFF data here'!H313</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G47" s="19">
-        <f>'paste PFF data here'!AC313</f>
+        <f>'Paste PFF data here'!AC313</f>
         <v>362659</v>
       </c>
       <c r="H47" s="13">
-        <f>'paste PFF data here'!AD313</f>
+        <f>'Paste PFF data here'!AD313</f>
         <v>3466</v>
       </c>
       <c r="I47" s="14">
-        <f>'paste PFF data here'!AE313</f>
+        <f>'Paste PFF data here'!AE313</f>
         <v>0.6</v>
       </c>
       <c r="J47" s="31">
-        <f>'paste PFF data here'!AF313</f>
+        <f>'Paste PFF data here'!AF313</f>
         <v>0.20699999999999999</v>
       </c>
       <c r="K47" s="26">
-        <f>'paste PFF data here'!AG313</f>
+        <f>'Paste PFF data here'!AG313</f>
         <v>2E-3</v>
       </c>
       <c r="L47" s="19">
-        <f>'paste PFF data here'!I313</f>
+        <f>'Paste PFF data here'!I313</f>
         <v>1246538</v>
       </c>
       <c r="M47" s="13">
-        <f>'paste PFF data here'!J313</f>
+        <f>'Paste PFF data here'!J313</f>
         <v>6552</v>
       </c>
       <c r="N47" s="14">
-        <f>'paste PFF data here'!K313</f>
+        <f>'Paste PFF data here'!K313</f>
         <v>0.3</v>
       </c>
       <c r="O47" s="171">
-        <f>'paste PFF data here'!L313</f>
+        <f>'Paste PFF data here'!L313</f>
         <v>0.21299999999999999</v>
       </c>
       <c r="P47" s="26">
-        <f>'paste PFF data here'!M313</f>
+        <f>'Paste PFF data here'!M313</f>
         <v>1E-3</v>
       </c>
       <c r="Q47" s="89" t="str">
@@ -43177,63 +43177,63 @@
         <v>81</v>
       </c>
       <c r="B48" s="10">
-        <f>'paste PFF data here'!D314</f>
+        <f>'Paste PFF data here'!D314</f>
         <v>5171</v>
       </c>
       <c r="C48" s="6">
-        <f>'paste PFF data here'!E314</f>
+        <f>'Paste PFF data here'!E314</f>
         <v>470</v>
       </c>
       <c r="D48" s="129">
-        <f>'paste PFF data here'!F314</f>
+        <f>'Paste PFF data here'!F314</f>
         <v>5.5</v>
       </c>
       <c r="E48" s="29">
-        <f>'paste PFF data here'!G314</f>
+        <f>'Paste PFF data here'!G314</f>
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F48" s="30">
-        <f>'paste PFF data here'!H314</f>
+        <f>'Paste PFF data here'!H314</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G48" s="19">
-        <f>'paste PFF data here'!AC314</f>
+        <f>'Paste PFF data here'!AC314</f>
         <v>235026</v>
       </c>
       <c r="H48" s="13">
-        <f>'paste PFF data here'!AD314</f>
+        <f>'Paste PFF data here'!AD314</f>
         <v>3638</v>
       </c>
       <c r="I48" s="14">
-        <f>'paste PFF data here'!AE314</f>
+        <f>'Paste PFF data here'!AE314</f>
         <v>0.9</v>
       </c>
       <c r="J48" s="31">
-        <f>'paste PFF data here'!AF314</f>
+        <f>'Paste PFF data here'!AF314</f>
         <v>0.13400000000000001</v>
       </c>
       <c r="K48" s="26">
-        <f>'paste PFF data here'!AG314</f>
+        <f>'Paste PFF data here'!AG314</f>
         <v>2E-3</v>
       </c>
       <c r="L48" s="19">
-        <f>'paste PFF data here'!I314</f>
+        <f>'Paste PFF data here'!I314</f>
         <v>872987</v>
       </c>
       <c r="M48" s="13">
-        <f>'paste PFF data here'!J314</f>
+        <f>'Paste PFF data here'!J314</f>
         <v>8206</v>
       </c>
       <c r="N48" s="14">
-        <f>'paste PFF data here'!K314</f>
+        <f>'Paste PFF data here'!K314</f>
         <v>0.6</v>
       </c>
       <c r="O48" s="171">
-        <f>'paste PFF data here'!L314</f>
+        <f>'Paste PFF data here'!L314</f>
         <v>0.14899999999999999</v>
       </c>
       <c r="P48" s="26">
-        <f>'paste PFF data here'!M314</f>
+        <f>'Paste PFF data here'!M314</f>
         <v>1E-3</v>
       </c>
       <c r="Q48" s="89" t="str">
@@ -43305,7 +43305,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="174" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="6"/>
@@ -43352,53 +43352,53 @@
         <v>74</v>
       </c>
       <c r="B51" s="10">
-        <f>'paste PFF data here'!D307</f>
+        <f>'Paste PFF data here'!D307</f>
         <v>87885</v>
       </c>
       <c r="C51" s="6">
-        <f>'paste PFF data here'!E307</f>
+        <f>'Paste PFF data here'!E307</f>
         <v>1835</v>
       </c>
       <c r="D51" s="129">
-        <f>'paste PFF data here'!F307</f>
+        <f>'Paste PFF data here'!F307</f>
         <v>1.3</v>
       </c>
       <c r="E51" s="29">
-        <f>'paste PFF data here'!G307</f>
+        <f>'Paste PFF data here'!G307</f>
         <v>1</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="10">
-        <f>'paste PFF data here'!AC307</f>
+        <f>'Paste PFF data here'!AC307</f>
         <v>1753695</v>
       </c>
       <c r="H51" s="6">
-        <f>'paste PFF data here'!AD307</f>
+        <f>'Paste PFF data here'!AD307</f>
         <v>103</v>
       </c>
       <c r="I51" s="129">
-        <f>'paste PFF data here'!AE307</f>
+        <f>'Paste PFF data here'!AE307</f>
         <v>0</v>
       </c>
       <c r="J51" s="29">
-        <f>'paste PFF data here'!AF307</f>
+        <f>'Paste PFF data here'!AF307</f>
         <v>1</v>
       </c>
       <c r="K51" s="30"/>
       <c r="L51" s="10">
-        <f>'paste PFF data here'!I307</f>
+        <f>'Paste PFF data here'!I307</f>
         <v>5851772</v>
       </c>
       <c r="M51" s="6">
-        <f>'paste PFF data here'!J307</f>
+        <f>'Paste PFF data here'!J307</f>
         <v>363</v>
       </c>
       <c r="N51" s="129">
-        <f>'paste PFF data here'!K307</f>
+        <f>'Paste PFF data here'!K307</f>
         <v>0</v>
       </c>
       <c r="O51" s="29">
-        <f>'paste PFF data here'!L307</f>
+        <f>'Paste PFF data here'!L307</f>
         <v>1</v>
       </c>
       <c r="P51" s="30"/>
@@ -43432,63 +43432,63 @@
         <v>82</v>
       </c>
       <c r="B52" s="10">
-        <f>'paste PFF data here'!D316</f>
+        <f>'Paste PFF data here'!D316</f>
         <v>30519</v>
       </c>
       <c r="C52" s="6">
-        <f>'paste PFF data here'!E316</f>
+        <f>'Paste PFF data here'!E316</f>
         <v>1378</v>
       </c>
       <c r="D52" s="129">
-        <f>'paste PFF data here'!F316</f>
+        <f>'Paste PFF data here'!F316</f>
         <v>2.7</v>
       </c>
       <c r="E52" s="29">
-        <f>'paste PFF data here'!G316</f>
+        <f>'Paste PFF data here'!G316</f>
         <v>0.34699999999999998</v>
       </c>
       <c r="F52" s="30">
-        <f>'paste PFF data here'!H316</f>
+        <f>'Paste PFF data here'!H316</f>
         <v>1.4E-2</v>
       </c>
       <c r="G52" s="10">
-        <f>'paste PFF data here'!AC316</f>
+        <f>'Paste PFF data here'!AC316</f>
         <v>351046</v>
       </c>
       <c r="H52" s="6">
-        <f>'paste PFF data here'!AD316</f>
+        <f>'Paste PFF data here'!AD316</f>
         <v>4241</v>
       </c>
       <c r="I52" s="129">
-        <f>'paste PFF data here'!AE316</f>
+        <f>'Paste PFF data here'!AE316</f>
         <v>0.7</v>
       </c>
       <c r="J52" s="29">
-        <f>'paste PFF data here'!AF316</f>
+        <f>'Paste PFF data here'!AF316</f>
         <v>0.2</v>
       </c>
       <c r="K52" s="30">
-        <f>'paste PFF data here'!AG316</f>
+        <f>'Paste PFF data here'!AG316</f>
         <v>2E-3</v>
       </c>
       <c r="L52" s="10">
-        <f>'paste PFF data here'!I316</f>
+        <f>'Paste PFF data here'!I316</f>
         <v>1124481</v>
       </c>
       <c r="M52" s="6">
-        <f>'paste PFF data here'!J316</f>
+        <f>'Paste PFF data here'!J316</f>
         <v>8955</v>
       </c>
       <c r="N52" s="129">
-        <f>'paste PFF data here'!K316</f>
+        <f>'Paste PFF data here'!K316</f>
         <v>0.5</v>
       </c>
       <c r="O52" s="29">
-        <f>'paste PFF data here'!L316</f>
+        <f>'Paste PFF data here'!L316</f>
         <v>0.192</v>
       </c>
       <c r="P52" s="30">
-        <f>'paste PFF data here'!M316</f>
+        <f>'Paste PFF data here'!M316</f>
         <v>2E-3</v>
       </c>
       <c r="Q52" s="89" t="str">
@@ -43521,63 +43521,63 @@
         <v>77</v>
       </c>
       <c r="B53" s="10">
-        <f>'paste PFF data here'!D310</f>
+        <f>'Paste PFF data here'!D310</f>
         <v>20068</v>
       </c>
       <c r="C53" s="6">
-        <f>'paste PFF data here'!E310</f>
+        <f>'Paste PFF data here'!E310</f>
         <v>1038</v>
       </c>
       <c r="D53" s="129">
-        <f>'paste PFF data here'!F310</f>
+        <f>'Paste PFF data here'!F310</f>
         <v>3.1</v>
       </c>
       <c r="E53" s="29">
-        <f>'paste PFF data here'!G310</f>
+        <f>'Paste PFF data here'!G310</f>
         <v>0.22800000000000001</v>
       </c>
       <c r="F53" s="30">
-        <f>'paste PFF data here'!H310</f>
+        <f>'Paste PFF data here'!H310</f>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G53" s="10">
-        <f>'paste PFF data here'!AC310</f>
+        <f>'Paste PFF data here'!AC310</f>
         <v>452449</v>
       </c>
       <c r="H53" s="6">
-        <f>'paste PFF data here'!AD310</f>
+        <f>'Paste PFF data here'!AD310</f>
         <v>4592</v>
       </c>
       <c r="I53" s="129">
-        <f>'paste PFF data here'!AE310</f>
+        <f>'Paste PFF data here'!AE310</f>
         <v>0.6</v>
       </c>
       <c r="J53" s="29">
-        <f>'paste PFF data here'!AF310</f>
+        <f>'Paste PFF data here'!AF310</f>
         <v>0.25800000000000001</v>
       </c>
       <c r="K53" s="30">
-        <f>'paste PFF data here'!AG310</f>
+        <f>'Paste PFF data here'!AG310</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L53" s="10">
-        <f>'paste PFF data here'!I310</f>
+        <f>'Paste PFF data here'!I310</f>
         <v>1402714</v>
       </c>
       <c r="M53" s="6">
-        <f>'paste PFF data here'!J310</f>
+        <f>'Paste PFF data here'!J310</f>
         <v>8317</v>
       </c>
       <c r="N53" s="129">
-        <f>'paste PFF data here'!K310</f>
+        <f>'Paste PFF data here'!K310</f>
         <v>0.4</v>
       </c>
       <c r="O53" s="29">
-        <f>'paste PFF data here'!L310</f>
+        <f>'Paste PFF data here'!L310</f>
         <v>0.24</v>
       </c>
       <c r="P53" s="30">
-        <f>'paste PFF data here'!M310</f>
+        <f>'Paste PFF data here'!M310</f>
         <v>1E-3</v>
       </c>
       <c r="Q53" s="89" t="str">
@@ -43607,14 +43607,14 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="160" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B54" s="10">
-        <f>'paste PFF data here'!D311+'paste PFF data here'!D312</f>
+        <f>'Paste PFF data here'!D311+'Paste PFF data here'!D312</f>
         <v>16383</v>
       </c>
       <c r="C54" s="6">
-        <f>SQRT(SUMSQ('paste PFF data here'!E312,'paste PFF data here'!E313))</f>
+        <f>SQRT(SUMSQ('Paste PFF data here'!E312,'Paste PFF data here'!E313))</f>
         <v>967.59185610462839</v>
       </c>
       <c r="D54" s="8">
@@ -43630,11 +43630,11 @@
         <v>1.0298787844440669E-2</v>
       </c>
       <c r="G54" s="10">
-        <f>'paste PFF data here'!AC311+'paste PFF data here'!AC312</f>
+        <f>'Paste PFF data here'!AC311+'Paste PFF data here'!AC312</f>
         <v>352515</v>
       </c>
       <c r="H54" s="6">
-        <f>SQRT(SUMSQ('paste PFF data here'!AD311,'paste PFF data here'!AD312))</f>
+        <f>SQRT(SUMSQ('Paste PFF data here'!AD311,'Paste PFF data here'!AD312))</f>
         <v>3856.0462912159132</v>
       </c>
       <c r="I54" s="8">
@@ -43650,11 +43650,11 @@
         <v>2.1987806926974736E-3</v>
       </c>
       <c r="L54" s="10">
-        <f>'paste PFF data here'!I311+'paste PFF data here'!I312</f>
+        <f>'Paste PFF data here'!I311+'Paste PFF data here'!I312</f>
         <v>1205052</v>
       </c>
       <c r="M54" s="6">
-        <f>SQRT(SUMSQ('paste PFF data here'!J311,'paste PFF data here'!J312))</f>
+        <f>SQRT(SUMSQ('Paste PFF data here'!J311,'Paste PFF data here'!J312))</f>
         <v>8364.1452043828122</v>
       </c>
       <c r="N54" s="8">
@@ -43699,63 +43699,63 @@
         <v>83</v>
       </c>
       <c r="B55" s="4">
-        <f>'paste PFF data here'!D317</f>
+        <f>'Paste PFF data here'!D317</f>
         <v>20915</v>
       </c>
       <c r="C55" s="5">
-        <f>'paste PFF data here'!E317</f>
+        <f>'Paste PFF data here'!E317</f>
         <v>976</v>
       </c>
       <c r="D55" s="163">
-        <f>'paste PFF data here'!F317</f>
+        <f>'Paste PFF data here'!F317</f>
         <v>2.8</v>
       </c>
       <c r="E55" s="84">
-        <f>'paste PFF data here'!G317</f>
+        <f>'Paste PFF data here'!G317</f>
         <v>0.23799999999999999</v>
       </c>
       <c r="F55" s="28">
-        <f>'paste PFF data here'!H317</f>
+        <f>'Paste PFF data here'!H317</f>
         <v>0.01</v>
       </c>
       <c r="G55" s="4">
-        <f>'paste PFF data here'!AC317</f>
+        <f>'Paste PFF data here'!AC317</f>
         <v>597685</v>
       </c>
       <c r="H55" s="5">
-        <f>'paste PFF data here'!AD317</f>
+        <f>'Paste PFF data here'!AD317</f>
         <v>5025</v>
       </c>
       <c r="I55" s="163">
-        <f>'paste PFF data here'!AE317</f>
+        <f>'Paste PFF data here'!AE317</f>
         <v>0.5</v>
       </c>
       <c r="J55" s="84">
-        <f>'paste PFF data here'!AF317</f>
+        <f>'Paste PFF data here'!AF317</f>
         <v>0.34100000000000003</v>
       </c>
       <c r="K55" s="28">
-        <f>'paste PFF data here'!AG317</f>
+        <f>'Paste PFF data here'!AG317</f>
         <v>2E-3</v>
       </c>
       <c r="L55" s="4">
-        <f>'paste PFF data here'!I317</f>
+        <f>'Paste PFF data here'!I317</f>
         <v>2119525</v>
       </c>
       <c r="M55" s="5">
-        <f>'paste PFF data here'!J317</f>
+        <f>'Paste PFF data here'!J317</f>
         <v>10501</v>
       </c>
       <c r="N55" s="163">
-        <f>'paste PFF data here'!K317</f>
+        <f>'Paste PFF data here'!K317</f>
         <v>0.3</v>
       </c>
       <c r="O55" s="84">
-        <f>'paste PFF data here'!L317</f>
+        <f>'Paste PFF data here'!L317</f>
         <v>0.36199999999999999</v>
       </c>
       <c r="P55" s="28">
-        <f>'paste PFF data here'!M317</f>
+        <f>'Paste PFF data here'!M317</f>
         <v>2E-3</v>
       </c>
       <c r="Q55" s="94" t="str">
@@ -43827,7 +43827,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="139" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="B57" s="34"/>
       <c r="C57" s="11"/>
@@ -43871,56 +43871,56 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="159" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B58" s="10">
-        <f>'paste PFF data here'!D325</f>
+        <f>'Paste PFF data here'!D325</f>
         <v>66122</v>
       </c>
       <c r="C58" s="6">
-        <f>'paste PFF data here'!E325</f>
+        <f>'Paste PFF data here'!E325</f>
         <v>1781</v>
       </c>
       <c r="D58" s="129">
-        <f>'paste PFF data here'!F325</f>
+        <f>'Paste PFF data here'!F325</f>
         <v>1.6</v>
       </c>
       <c r="E58" s="29">
-        <f>'paste PFF data here'!G325</f>
+        <f>'Paste PFF data here'!G325</f>
         <v>1</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="19">
-        <f>'paste PFF data here'!AC325</f>
+        <f>'Paste PFF data here'!AC325</f>
         <v>1192489</v>
       </c>
       <c r="H58" s="13">
-        <f>'paste PFF data here'!AD325</f>
+        <f>'Paste PFF data here'!AD325</f>
         <v>4461</v>
       </c>
       <c r="I58" s="14">
-        <f>'paste PFF data here'!AE325</f>
+        <f>'Paste PFF data here'!AE325</f>
         <v>0.2</v>
       </c>
       <c r="J58" s="31">
-        <f>'paste PFF data here'!AF325</f>
+        <f>'Paste PFF data here'!AF325</f>
         <v>1</v>
       </c>
       <c r="K58" s="26"/>
       <c r="L58" s="19">
-        <f>'paste PFF data here'!I325</f>
+        <f>'Paste PFF data here'!I325</f>
         <v>3991617</v>
       </c>
       <c r="M58" s="13">
-        <f>'paste PFF data here'!J325</f>
+        <f>'Paste PFF data here'!J325</f>
         <v>9181</v>
       </c>
       <c r="N58" s="14">
-        <f>'paste PFF data here'!K325</f>
+        <f>'Paste PFF data here'!K325</f>
         <v>0.1</v>
       </c>
       <c r="O58" s="31">
-        <f>'paste PFF data here'!L325</f>
+        <f>'Paste PFF data here'!L325</f>
         <v>1</v>
       </c>
       <c r="P58" s="26"/>
@@ -43951,66 +43951,66 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="160" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B59" s="10">
-        <f>'paste PFF data here'!D326</f>
+        <f>'Paste PFF data here'!D326</f>
         <v>216</v>
       </c>
       <c r="C59" s="6">
-        <f>'paste PFF data here'!E326</f>
+        <f>'Paste PFF data here'!E326</f>
         <v>176</v>
       </c>
       <c r="D59" s="129">
-        <f>'paste PFF data here'!F326</f>
+        <f>'Paste PFF data here'!F326</f>
         <v>49.7</v>
       </c>
       <c r="E59" s="29">
-        <f>'paste PFF data here'!G326</f>
+        <f>'Paste PFF data here'!G326</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F59" s="30">
-        <f>'paste PFF data here'!H326</f>
+        <f>'Paste PFF data here'!H326</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G59" s="19">
-        <f>'paste PFF data here'!AC326</f>
+        <f>'Paste PFF data here'!AC326</f>
         <v>1401</v>
       </c>
       <c r="H59" s="13">
-        <f>'paste PFF data here'!AD326</f>
+        <f>'Paste PFF data here'!AD326</f>
         <v>260</v>
       </c>
       <c r="I59" s="14">
-        <f>'paste PFF data here'!AE326</f>
+        <f>'Paste PFF data here'!AE326</f>
         <v>11.3</v>
       </c>
       <c r="J59" s="31">
-        <f>'paste PFF data here'!AF326</f>
+        <f>'Paste PFF data here'!AF326</f>
         <v>1E-3</v>
       </c>
       <c r="K59" s="26">
-        <f>'paste PFF data here'!AG326</f>
+        <f>'Paste PFF data here'!AG326</f>
         <v>1E-3</v>
       </c>
       <c r="L59" s="19">
-        <f>'paste PFF data here'!I326</f>
+        <f>'Paste PFF data here'!I326</f>
         <v>4286</v>
       </c>
       <c r="M59" s="13">
-        <f>'paste PFF data here'!J326</f>
+        <f>'Paste PFF data here'!J326</f>
         <v>682</v>
       </c>
       <c r="N59" s="14">
-        <f>'paste PFF data here'!K326</f>
+        <f>'Paste PFF data here'!K326</f>
         <v>9.6999999999999993</v>
       </c>
       <c r="O59" s="31">
-        <f>'paste PFF data here'!L326</f>
+        <f>'Paste PFF data here'!L326</f>
         <v>1E-3</v>
       </c>
       <c r="P59" s="26">
-        <f>'paste PFF data here'!M326</f>
+        <f>'Paste PFF data here'!M326</f>
         <v>1E-3</v>
       </c>
       <c r="Q59" s="89" t="str">
@@ -44040,66 +44040,66 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="160" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B60" s="10">
-        <f>'paste PFF data here'!D327</f>
+        <f>'Paste PFF data here'!D327</f>
         <v>5448</v>
       </c>
       <c r="C60" s="6">
-        <f>'paste PFF data here'!E327</f>
+        <f>'Paste PFF data here'!E327</f>
         <v>614</v>
       </c>
       <c r="D60" s="129">
-        <f>'paste PFF data here'!F327</f>
+        <f>'Paste PFF data here'!F327</f>
         <v>6.8</v>
       </c>
       <c r="E60" s="29">
-        <f>'paste PFF data here'!G327</f>
+        <f>'Paste PFF data here'!G327</f>
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="F60" s="30">
-        <f>'paste PFF data here'!H327</f>
+        <f>'Paste PFF data here'!H327</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G60" s="19">
-        <f>'paste PFF data here'!AC327</f>
+        <f>'Paste PFF data here'!AC327</f>
         <v>60700</v>
       </c>
       <c r="H60" s="13">
-        <f>'paste PFF data here'!AD327</f>
+        <f>'Paste PFF data here'!AD327</f>
         <v>1721</v>
       </c>
       <c r="I60" s="14">
-        <f>'paste PFF data here'!AE327</f>
+        <f>'Paste PFF data here'!AE327</f>
         <v>1.7</v>
       </c>
       <c r="J60" s="31">
-        <f>'paste PFF data here'!AF327</f>
+        <f>'Paste PFF data here'!AF327</f>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="K60" s="26">
-        <f>'paste PFF data here'!AG327</f>
+        <f>'Paste PFF data here'!AG327</f>
         <v>1E-3</v>
       </c>
       <c r="L60" s="19">
-        <f>'paste PFF data here'!I327</f>
+        <f>'Paste PFF data here'!I327</f>
         <v>196634</v>
       </c>
       <c r="M60" s="13">
-        <f>'paste PFF data here'!J327</f>
+        <f>'Paste PFF data here'!J327</f>
         <v>3240</v>
       </c>
       <c r="N60" s="14">
-        <f>'paste PFF data here'!K327</f>
+        <f>'Paste PFF data here'!K327</f>
         <v>1</v>
       </c>
       <c r="O60" s="31">
-        <f>'paste PFF data here'!L327</f>
+        <f>'Paste PFF data here'!L327</f>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="P60" s="26">
-        <f>'paste PFF data here'!M327</f>
+        <f>'Paste PFF data here'!M327</f>
         <v>1E-3</v>
       </c>
       <c r="Q60" s="89" t="str">
@@ -44129,66 +44129,66 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="160" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B61" s="10">
-        <f>'paste PFF data here'!D328</f>
+        <f>'Paste PFF data here'!D328</f>
         <v>3142</v>
       </c>
       <c r="C61" s="6">
-        <f>'paste PFF data here'!E328</f>
+        <f>'Paste PFF data here'!E328</f>
         <v>409</v>
       </c>
       <c r="D61" s="129">
-        <f>'paste PFF data here'!F328</f>
+        <f>'Paste PFF data here'!F328</f>
         <v>7.9</v>
       </c>
       <c r="E61" s="29">
-        <f>'paste PFF data here'!G328</f>
+        <f>'Paste PFF data here'!G328</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F61" s="30">
-        <f>'paste PFF data here'!H328</f>
+        <f>'Paste PFF data here'!H328</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G61" s="19">
-        <f>'paste PFF data here'!AC328</f>
+        <f>'Paste PFF data here'!AC328</f>
         <v>44978</v>
       </c>
       <c r="H61" s="13">
-        <f>'paste PFF data here'!AD328</f>
+        <f>'Paste PFF data here'!AD328</f>
         <v>1317</v>
       </c>
       <c r="I61" s="14">
-        <f>'paste PFF data here'!AE328</f>
+        <f>'Paste PFF data here'!AE328</f>
         <v>1.8</v>
       </c>
       <c r="J61" s="31">
-        <f>'paste PFF data here'!AF328</f>
+        <f>'Paste PFF data here'!AF328</f>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="K61" s="26">
-        <f>'paste PFF data here'!AG328</f>
+        <f>'Paste PFF data here'!AG328</f>
         <v>1E-3</v>
       </c>
       <c r="L61" s="19">
-        <f>'paste PFF data here'!I328</f>
+        <f>'Paste PFF data here'!I328</f>
         <v>143497</v>
       </c>
       <c r="M61" s="13">
-        <f>'paste PFF data here'!J328</f>
+        <f>'Paste PFF data here'!J328</f>
         <v>2706</v>
       </c>
       <c r="N61" s="14">
-        <f>'paste PFF data here'!K328</f>
+        <f>'Paste PFF data here'!K328</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="O61" s="31">
-        <f>'paste PFF data here'!L328</f>
+        <f>'Paste PFF data here'!L328</f>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="P61" s="26">
-        <f>'paste PFF data here'!M328</f>
+        <f>'Paste PFF data here'!M328</f>
         <v>1E-3</v>
       </c>
       <c r="Q61" s="89" t="str">
@@ -44218,66 +44218,66 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="160" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B62" s="10">
-        <f>'paste PFF data here'!D329</f>
+        <f>'Paste PFF data here'!D329</f>
         <v>1404</v>
       </c>
       <c r="C62" s="6">
-        <f>'paste PFF data here'!E329</f>
+        <f>'Paste PFF data here'!E329</f>
         <v>250</v>
       </c>
       <c r="D62" s="129">
-        <f>'paste PFF data here'!F329</f>
+        <f>'Paste PFF data here'!F329</f>
         <v>10.8</v>
       </c>
       <c r="E62" s="29">
-        <f>'paste PFF data here'!G329</f>
+        <f>'Paste PFF data here'!G329</f>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="F62" s="30">
-        <f>'paste PFF data here'!H329</f>
+        <f>'Paste PFF data here'!H329</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G62" s="19">
-        <f>'paste PFF data here'!AC329</f>
+        <f>'Paste PFF data here'!AC329</f>
         <v>27631</v>
       </c>
       <c r="H62" s="13">
-        <f>'paste PFF data here'!AD329</f>
+        <f>'Paste PFF data here'!AD329</f>
         <v>969</v>
       </c>
       <c r="I62" s="14">
-        <f>'paste PFF data here'!AE329</f>
+        <f>'Paste PFF data here'!AE329</f>
         <v>2.1</v>
       </c>
       <c r="J62" s="31">
-        <f>'paste PFF data here'!AF329</f>
+        <f>'Paste PFF data here'!AF329</f>
         <v>2.3E-2</v>
       </c>
       <c r="K62" s="26">
-        <f>'paste PFF data here'!AG329</f>
+        <f>'Paste PFF data here'!AG329</f>
         <v>1E-3</v>
       </c>
       <c r="L62" s="19">
-        <f>'paste PFF data here'!I329</f>
+        <f>'Paste PFF data here'!I329</f>
         <v>88712</v>
       </c>
       <c r="M62" s="13">
-        <f>'paste PFF data here'!J329</f>
+        <f>'Paste PFF data here'!J329</f>
         <v>2569</v>
       </c>
       <c r="N62" s="14">
-        <f>'paste PFF data here'!K329</f>
+        <f>'Paste PFF data here'!K329</f>
         <v>1.8</v>
       </c>
       <c r="O62" s="31">
-        <f>'paste PFF data here'!L329</f>
+        <f>'Paste PFF data here'!L329</f>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="P62" s="26">
-        <f>'paste PFF data here'!M329</f>
+        <f>'Paste PFF data here'!M329</f>
         <v>1E-3</v>
       </c>
       <c r="Q62" s="89" t="str">
@@ -44307,66 +44307,66 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="160" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B63" s="10">
-        <f>'paste PFF data here'!D330</f>
+        <f>'Paste PFF data here'!D330</f>
         <v>8322</v>
       </c>
       <c r="C63" s="6">
-        <f>'paste PFF data here'!E330</f>
+        <f>'Paste PFF data here'!E330</f>
         <v>652</v>
       </c>
       <c r="D63" s="129">
-        <f>'paste PFF data here'!F330</f>
+        <f>'Paste PFF data here'!F330</f>
         <v>4.8</v>
       </c>
       <c r="E63" s="29">
-        <f>'paste PFF data here'!G330</f>
+        <f>'Paste PFF data here'!G330</f>
         <v>0.126</v>
       </c>
       <c r="F63" s="30">
-        <f>'paste PFF data here'!H330</f>
+        <f>'Paste PFF data here'!H330</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G63" s="19">
-        <f>'paste PFF data here'!AC330</f>
+        <f>'Paste PFF data here'!AC330</f>
         <v>116153</v>
       </c>
       <c r="H63" s="13">
-        <f>'paste PFF data here'!AD330</f>
+        <f>'Paste PFF data here'!AD330</f>
         <v>2440</v>
       </c>
       <c r="I63" s="14">
-        <f>'paste PFF data here'!AE330</f>
+        <f>'Paste PFF data here'!AE330</f>
         <v>1.3</v>
       </c>
       <c r="J63" s="31">
-        <f>'paste PFF data here'!AF330</f>
+        <f>'Paste PFF data here'!AF330</f>
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="K63" s="26">
-        <f>'paste PFF data here'!AG330</f>
+        <f>'Paste PFF data here'!AG330</f>
         <v>2E-3</v>
       </c>
       <c r="L63" s="19">
-        <f>'paste PFF data here'!I330</f>
+        <f>'Paste PFF data here'!I330</f>
         <v>389932</v>
       </c>
       <c r="M63" s="13">
-        <f>'paste PFF data here'!J330</f>
+        <f>'Paste PFF data here'!J330</f>
         <v>5140</v>
       </c>
       <c r="N63" s="14">
-        <f>'paste PFF data here'!K330</f>
+        <f>'Paste PFF data here'!K330</f>
         <v>0.8</v>
       </c>
       <c r="O63" s="31">
-        <f>'paste PFF data here'!L330</f>
+        <f>'Paste PFF data here'!L330</f>
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="P63" s="26">
-        <f>'paste PFF data here'!M330</f>
+        <f>'Paste PFF data here'!M330</f>
         <v>1E-3</v>
       </c>
       <c r="Q63" s="89" t="str">
@@ -44396,66 +44396,66 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="160" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B64" s="10">
-        <f>'paste PFF data here'!D331</f>
+        <f>'Paste PFF data here'!D331</f>
         <v>3477</v>
       </c>
       <c r="C64" s="6">
-        <f>'paste PFF data here'!E331</f>
+        <f>'Paste PFF data here'!E331</f>
         <v>441</v>
       </c>
       <c r="D64" s="129">
-        <f>'paste PFF data here'!F331</f>
+        <f>'Paste PFF data here'!F331</f>
         <v>7.7</v>
       </c>
       <c r="E64" s="29">
-        <f>'paste PFF data here'!G331</f>
+        <f>'Paste PFF data here'!G331</f>
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="F64" s="30">
-        <f>'paste PFF data here'!H331</f>
+        <f>'Paste PFF data here'!H331</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G64" s="19">
-        <f>'paste PFF data here'!AC331</f>
+        <f>'Paste PFF data here'!AC331</f>
         <v>73408</v>
       </c>
       <c r="H64" s="13">
-        <f>'paste PFF data here'!AD331</f>
+        <f>'Paste PFF data here'!AD331</f>
         <v>1919</v>
       </c>
       <c r="I64" s="14">
-        <f>'paste PFF data here'!AE331</f>
+        <f>'Paste PFF data here'!AE331</f>
         <v>1.6</v>
       </c>
       <c r="J64" s="31">
-        <f>'paste PFF data here'!AF331</f>
+        <f>'Paste PFF data here'!AF331</f>
         <v>6.2E-2</v>
       </c>
       <c r="K64" s="26">
-        <f>'paste PFF data here'!AG331</f>
+        <f>'Paste PFF data here'!AG331</f>
         <v>2E-3</v>
       </c>
       <c r="L64" s="19">
-        <f>'paste PFF data here'!I331</f>
+        <f>'Paste PFF data here'!I331</f>
         <v>239903</v>
       </c>
       <c r="M64" s="13">
-        <f>'paste PFF data here'!J331</f>
+        <f>'Paste PFF data here'!J331</f>
         <v>3576</v>
       </c>
       <c r="N64" s="14">
-        <f>'paste PFF data here'!K331</f>
+        <f>'Paste PFF data here'!K331</f>
         <v>0.9</v>
       </c>
       <c r="O64" s="31">
-        <f>'paste PFF data here'!L331</f>
+        <f>'Paste PFF data here'!L331</f>
         <v>0.06</v>
       </c>
       <c r="P64" s="26">
-        <f>'paste PFF data here'!M331</f>
+        <f>'Paste PFF data here'!M331</f>
         <v>1E-3</v>
       </c>
       <c r="Q64" s="89" t="str">
@@ -44485,66 +44485,66 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="160" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B65" s="10">
-        <f>'paste PFF data here'!D332</f>
+        <f>'Paste PFF data here'!D332</f>
         <v>3356</v>
       </c>
       <c r="C65" s="6">
-        <f>'paste PFF data here'!E332</f>
+        <f>'Paste PFF data here'!E332</f>
         <v>392</v>
       </c>
       <c r="D65" s="129">
-        <f>'paste PFF data here'!F332</f>
+        <f>'Paste PFF data here'!F332</f>
         <v>7.1</v>
       </c>
       <c r="E65" s="29">
-        <f>'paste PFF data here'!G332</f>
+        <f>'Paste PFF data here'!G332</f>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F65" s="30">
-        <f>'paste PFF data here'!H332</f>
+        <f>'Paste PFF data here'!H332</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G65" s="19">
-        <f>'paste PFF data here'!AC332</f>
+        <f>'Paste PFF data here'!AC332</f>
         <v>50138</v>
       </c>
       <c r="H65" s="13">
-        <f>'paste PFF data here'!AD332</f>
+        <f>'Paste PFF data here'!AD332</f>
         <v>1496</v>
       </c>
       <c r="I65" s="14">
-        <f>'paste PFF data here'!AE332</f>
+        <f>'Paste PFF data here'!AE332</f>
         <v>1.8</v>
       </c>
       <c r="J65" s="31">
-        <f>'paste PFF data here'!AF332</f>
+        <f>'Paste PFF data here'!AF332</f>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="K65" s="26">
-        <f>'paste PFF data here'!AG332</f>
+        <f>'Paste PFF data here'!AG332</f>
         <v>1E-3</v>
       </c>
       <c r="L65" s="19">
-        <f>'paste PFF data here'!I332</f>
+        <f>'Paste PFF data here'!I332</f>
         <v>152521</v>
       </c>
       <c r="M65" s="13">
-        <f>'paste PFF data here'!J332</f>
+        <f>'Paste PFF data here'!J332</f>
         <v>2828</v>
       </c>
       <c r="N65" s="14">
-        <f>'paste PFF data here'!K332</f>
+        <f>'Paste PFF data here'!K332</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="O65" s="31">
-        <f>'paste PFF data here'!L332</f>
+        <f>'Paste PFF data here'!L332</f>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="P65" s="26">
-        <f>'paste PFF data here'!M332</f>
+        <f>'Paste PFF data here'!M332</f>
         <v>1E-3</v>
       </c>
       <c r="Q65" s="89" t="str">
@@ -44574,66 +44574,66 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="160" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B66" s="10">
-        <f>'paste PFF data here'!D333</f>
+        <f>'Paste PFF data here'!D333</f>
         <v>3104</v>
       </c>
       <c r="C66" s="6">
-        <f>'paste PFF data here'!E333</f>
+        <f>'Paste PFF data here'!E333</f>
         <v>361</v>
       </c>
       <c r="D66" s="129">
-        <f>'paste PFF data here'!F333</f>
+        <f>'Paste PFF data here'!F333</f>
         <v>7.1</v>
       </c>
       <c r="E66" s="29">
-        <f>'paste PFF data here'!G333</f>
+        <f>'Paste PFF data here'!G333</f>
         <v>4.7E-2</v>
       </c>
       <c r="F66" s="30">
-        <f>'paste PFF data here'!H333</f>
+        <f>'Paste PFF data here'!H333</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G66" s="19">
-        <f>'paste PFF data here'!AC333</f>
+        <f>'Paste PFF data here'!AC333</f>
         <v>88517</v>
       </c>
       <c r="H66" s="13">
-        <f>'paste PFF data here'!AD333</f>
+        <f>'Paste PFF data here'!AD333</f>
         <v>1633</v>
       </c>
       <c r="I66" s="14">
-        <f>'paste PFF data here'!AE333</f>
+        <f>'Paste PFF data here'!AE333</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J66" s="31">
-        <f>'paste PFF data here'!AF333</f>
+        <f>'Paste PFF data here'!AF333</f>
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="K66" s="26">
-        <f>'paste PFF data here'!AG333</f>
+        <f>'Paste PFF data here'!AG333</f>
         <v>1E-3</v>
       </c>
       <c r="L66" s="19">
-        <f>'paste PFF data here'!I333</f>
+        <f>'Paste PFF data here'!I333</f>
         <v>386147</v>
       </c>
       <c r="M66" s="13">
-        <f>'paste PFF data here'!J333</f>
+        <f>'Paste PFF data here'!J333</f>
         <v>4433</v>
       </c>
       <c r="N66" s="14">
-        <f>'paste PFF data here'!K333</f>
+        <f>'Paste PFF data here'!K333</f>
         <v>0.7</v>
       </c>
       <c r="O66" s="31">
-        <f>'paste PFF data here'!L333</f>
+        <f>'Paste PFF data here'!L333</f>
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="P66" s="26">
-        <f>'paste PFF data here'!M333</f>
+        <f>'Paste PFF data here'!M333</f>
         <v>1E-3</v>
       </c>
       <c r="Q66" s="89" t="str">
@@ -44663,66 +44663,66 @@
     </row>
     <row r="67" spans="1:22" ht="24" x14ac:dyDescent="0.2">
       <c r="A67" s="160" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B67" s="10">
-        <f>'paste PFF data here'!D334</f>
+        <f>'Paste PFF data here'!D334</f>
         <v>8241</v>
       </c>
       <c r="C67" s="6">
-        <f>'paste PFF data here'!E334</f>
+        <f>'Paste PFF data here'!E334</f>
         <v>649</v>
       </c>
       <c r="D67" s="129">
-        <f>'paste PFF data here'!F334</f>
+        <f>'Paste PFF data here'!F334</f>
         <v>4.8</v>
       </c>
       <c r="E67" s="29">
-        <f>'paste PFF data here'!G334</f>
+        <f>'Paste PFF data here'!G334</f>
         <v>0.125</v>
       </c>
       <c r="F67" s="30">
-        <f>'paste PFF data here'!H334</f>
+        <f>'Paste PFF data here'!H334</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G67" s="19">
-        <f>'paste PFF data here'!AC334</f>
+        <f>'Paste PFF data here'!AC334</f>
         <v>155453</v>
       </c>
       <c r="H67" s="13">
-        <f>'paste PFF data here'!AD334</f>
+        <f>'Paste PFF data here'!AD334</f>
         <v>2272</v>
       </c>
       <c r="I67" s="14">
-        <f>'paste PFF data here'!AE334</f>
+        <f>'Paste PFF data here'!AE334</f>
         <v>0.9</v>
       </c>
       <c r="J67" s="31">
-        <f>'paste PFF data here'!AF334</f>
+        <f>'Paste PFF data here'!AF334</f>
         <v>0.13</v>
       </c>
       <c r="K67" s="26">
-        <f>'paste PFF data here'!AG334</f>
+        <f>'Paste PFF data here'!AG334</f>
         <v>2E-3</v>
       </c>
       <c r="L67" s="19">
-        <f>'paste PFF data here'!I334</f>
+        <f>'Paste PFF data here'!I334</f>
         <v>529998</v>
       </c>
       <c r="M67" s="13">
-        <f>'paste PFF data here'!J334</f>
+        <f>'Paste PFF data here'!J334</f>
         <v>5652</v>
       </c>
       <c r="N67" s="14">
-        <f>'paste PFF data here'!K334</f>
+        <f>'Paste PFF data here'!K334</f>
         <v>0.6</v>
       </c>
       <c r="O67" s="31">
-        <f>'paste PFF data here'!L334</f>
+        <f>'Paste PFF data here'!L334</f>
         <v>0.13300000000000001</v>
       </c>
       <c r="P67" s="26">
-        <f>'paste PFF data here'!M334</f>
+        <f>'Paste PFF data here'!M334</f>
         <v>1E-3</v>
       </c>
       <c r="Q67" s="89" t="str">
@@ -44752,66 +44752,66 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="160" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B68" s="10">
-        <f>'paste PFF data here'!D335</f>
+        <f>'Paste PFF data here'!D335</f>
         <v>13750</v>
       </c>
       <c r="C68" s="6">
-        <f>'paste PFF data here'!E335</f>
+        <f>'Paste PFF data here'!E335</f>
         <v>813</v>
       </c>
       <c r="D68" s="129">
-        <f>'paste PFF data here'!F335</f>
+        <f>'Paste PFF data here'!F335</f>
         <v>3.6</v>
       </c>
       <c r="E68" s="29">
-        <f>'paste PFF data here'!G335</f>
+        <f>'Paste PFF data here'!G335</f>
         <v>0.20799999999999999</v>
       </c>
       <c r="F68" s="30">
-        <f>'paste PFF data here'!H335</f>
+        <f>'Paste PFF data here'!H335</f>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G68" s="19">
-        <f>'paste PFF data here'!AC335</f>
+        <f>'Paste PFF data here'!AC335</f>
         <v>342526</v>
       </c>
       <c r="H68" s="13">
-        <f>'paste PFF data here'!AD335</f>
+        <f>'Paste PFF data here'!AD335</f>
         <v>3899</v>
       </c>
       <c r="I68" s="14">
-        <f>'paste PFF data here'!AE335</f>
+        <f>'Paste PFF data here'!AE335</f>
         <v>0.7</v>
       </c>
       <c r="J68" s="31">
-        <f>'paste PFF data here'!AF335</f>
+        <f>'Paste PFF data here'!AF335</f>
         <v>0.28699999999999998</v>
       </c>
       <c r="K68" s="26">
-        <f>'paste PFF data here'!AG335</f>
+        <f>'Paste PFF data here'!AG335</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L68" s="19">
-        <f>'paste PFF data here'!I335</f>
+        <f>'Paste PFF data here'!I335</f>
         <v>1055535</v>
       </c>
       <c r="M68" s="13">
-        <f>'paste PFF data here'!J335</f>
+        <f>'Paste PFF data here'!J335</f>
         <v>8105</v>
       </c>
       <c r="N68" s="14">
-        <f>'paste PFF data here'!K335</f>
+        <f>'Paste PFF data here'!K335</f>
         <v>0.5</v>
       </c>
       <c r="O68" s="31">
-        <f>'paste PFF data here'!L335</f>
+        <f>'Paste PFF data here'!L335</f>
         <v>0.26400000000000001</v>
       </c>
       <c r="P68" s="26">
-        <f>'paste PFF data here'!M335</f>
+        <f>'Paste PFF data here'!M335</f>
         <v>2E-3</v>
       </c>
       <c r="Q68" s="89" t="str">
@@ -44841,66 +44841,66 @@
     </row>
     <row r="69" spans="1:22" ht="24" x14ac:dyDescent="0.2">
       <c r="A69" s="160" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B69" s="10">
-        <f>'paste PFF data here'!D336</f>
+        <f>'Paste PFF data here'!D336</f>
         <v>10127</v>
       </c>
       <c r="C69" s="6">
-        <f>'paste PFF data here'!E336</f>
+        <f>'Paste PFF data here'!E336</f>
         <v>731</v>
       </c>
       <c r="D69" s="129">
-        <f>'paste PFF data here'!F336</f>
+        <f>'Paste PFF data here'!F336</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E69" s="29">
-        <f>'paste PFF data here'!G336</f>
+        <f>'Paste PFF data here'!G336</f>
         <v>0.153</v>
       </c>
       <c r="F69" s="30">
-        <f>'paste PFF data here'!H336</f>
+        <f>'Paste PFF data here'!H336</f>
         <v>0.01</v>
       </c>
       <c r="G69" s="19">
-        <f>'paste PFF data here'!AC336</f>
+        <f>'Paste PFF data here'!AC336</f>
         <v>123107</v>
       </c>
       <c r="H69" s="13">
-        <f>'paste PFF data here'!AD336</f>
+        <f>'Paste PFF data here'!AD336</f>
         <v>2139</v>
       </c>
       <c r="I69" s="14">
-        <f>'paste PFF data here'!AE336</f>
+        <f>'Paste PFF data here'!AE336</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J69" s="31">
-        <f>'paste PFF data here'!AF336</f>
+        <f>'Paste PFF data here'!AF336</f>
         <v>0.10299999999999999</v>
       </c>
       <c r="K69" s="26">
-        <f>'paste PFF data here'!AG336</f>
+        <f>'Paste PFF data here'!AG336</f>
         <v>2E-3</v>
       </c>
       <c r="L69" s="19">
-        <f>'paste PFF data here'!I336</f>
+        <f>'Paste PFF data here'!I336</f>
         <v>437325</v>
       </c>
       <c r="M69" s="13">
-        <f>'paste PFF data here'!J336</f>
+        <f>'Paste PFF data here'!J336</f>
         <v>5311</v>
       </c>
       <c r="N69" s="14">
-        <f>'paste PFF data here'!K336</f>
+        <f>'Paste PFF data here'!K336</f>
         <v>0.7</v>
       </c>
       <c r="O69" s="31">
-        <f>'paste PFF data here'!L336</f>
+        <f>'Paste PFF data here'!L336</f>
         <v>0.11</v>
       </c>
       <c r="P69" s="26">
-        <f>'paste PFF data here'!M336</f>
+        <f>'Paste PFF data here'!M336</f>
         <v>1E-3</v>
       </c>
       <c r="Q69" s="89" t="str">
@@ -44930,66 +44930,66 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="160" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B70" s="10">
-        <f>'paste PFF data here'!D337</f>
+        <f>'Paste PFF data here'!D337</f>
         <v>3928</v>
       </c>
       <c r="C70" s="6">
-        <f>'paste PFF data here'!E337</f>
+        <f>'Paste PFF data here'!E337</f>
         <v>444</v>
       </c>
       <c r="D70" s="129">
-        <f>'paste PFF data here'!F337</f>
+        <f>'Paste PFF data here'!F337</f>
         <v>6.9</v>
       </c>
       <c r="E70" s="29">
-        <f>'paste PFF data here'!G337</f>
+        <f>'Paste PFF data here'!G337</f>
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F70" s="30">
-        <f>'paste PFF data here'!H337</f>
+        <f>'Paste PFF data here'!H337</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G70" s="19">
-        <f>'paste PFF data here'!AC337</f>
+        <f>'Paste PFF data here'!AC337</f>
         <v>63501</v>
       </c>
       <c r="H70" s="13">
-        <f>'paste PFF data here'!AD337</f>
+        <f>'Paste PFF data here'!AD337</f>
         <v>1839</v>
       </c>
       <c r="I70" s="14">
-        <f>'paste PFF data here'!AE337</f>
+        <f>'Paste PFF data here'!AE337</f>
         <v>1.8</v>
       </c>
       <c r="J70" s="31">
-        <f>'paste PFF data here'!AF337</f>
+        <f>'Paste PFF data here'!AF337</f>
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="K70" s="26">
-        <f>'paste PFF data here'!AG337</f>
+        <f>'Paste PFF data here'!AG337</f>
         <v>2E-3</v>
       </c>
       <c r="L70" s="19">
-        <f>'paste PFF data here'!I337</f>
+        <f>'Paste PFF data here'!I337</f>
         <v>218051</v>
       </c>
       <c r="M70" s="13">
-        <f>'paste PFF data here'!J337</f>
+        <f>'Paste PFF data here'!J337</f>
         <v>4093</v>
       </c>
       <c r="N70" s="14">
-        <f>'paste PFF data here'!K337</f>
+        <f>'Paste PFF data here'!K337</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="O70" s="31">
-        <f>'paste PFF data here'!L337</f>
+        <f>'Paste PFF data here'!L337</f>
         <v>5.5E-2</v>
       </c>
       <c r="P70" s="26">
-        <f>'paste PFF data here'!M337</f>
+        <f>'Paste PFF data here'!M337</f>
         <v>1E-3</v>
       </c>
       <c r="Q70" s="89" t="str">
@@ -45019,66 +45019,66 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="164" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B71" s="4">
-        <f>'paste PFF data here'!D338</f>
+        <f>'Paste PFF data here'!D338</f>
         <v>1607</v>
       </c>
       <c r="C71" s="5">
-        <f>'paste PFF data here'!E338</f>
+        <f>'Paste PFF data here'!E338</f>
         <v>287</v>
       </c>
       <c r="D71" s="163">
-        <f>'paste PFF data here'!F338</f>
+        <f>'Paste PFF data here'!F338</f>
         <v>10.8</v>
       </c>
       <c r="E71" s="84">
-        <f>'paste PFF data here'!G338</f>
+        <f>'Paste PFF data here'!G338</f>
         <v>2.4E-2</v>
       </c>
       <c r="F71" s="28">
-        <f>'paste PFF data here'!H338</f>
+        <f>'Paste PFF data here'!H338</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G71" s="47">
-        <f>'paste PFF data here'!AC338</f>
+        <f>'Paste PFF data here'!AC338</f>
         <v>44976</v>
       </c>
       <c r="H71" s="16">
-        <f>'paste PFF data here'!AD338</f>
+        <f>'Paste PFF data here'!AD338</f>
         <v>1388</v>
       </c>
       <c r="I71" s="50">
-        <f>'paste PFF data here'!AE338</f>
+        <f>'Paste PFF data here'!AE338</f>
         <v>1.9</v>
       </c>
       <c r="J71" s="48">
-        <f>'paste PFF data here'!AF338</f>
+        <f>'Paste PFF data here'!AF338</f>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="K71" s="49">
-        <f>'paste PFF data here'!AG338</f>
+        <f>'Paste PFF data here'!AG338</f>
         <v>1E-3</v>
       </c>
       <c r="L71" s="47">
-        <f>'paste PFF data here'!I338</f>
+        <f>'Paste PFF data here'!I338</f>
         <v>149076</v>
       </c>
       <c r="M71" s="16">
-        <f>'paste PFF data here'!J338</f>
+        <f>'Paste PFF data here'!J338</f>
         <v>2813</v>
       </c>
       <c r="N71" s="50">
-        <f>'paste PFF data here'!K338</f>
+        <f>'Paste PFF data here'!K338</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="O71" s="48">
-        <f>'paste PFF data here'!L338</f>
+        <f>'Paste PFF data here'!L338</f>
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="P71" s="49">
-        <f>'paste PFF data here'!M338</f>
+        <f>'Paste PFF data here'!M338</f>
         <v>1E-3</v>
       </c>
       <c r="Q71" s="94" t="str">
@@ -45150,7 +45150,7 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="139" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="B73" s="34"/>
       <c r="C73" s="11"/>
@@ -45194,56 +45194,56 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="159" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B74" s="10">
-        <f>'paste PFF data here'!D346</f>
+        <f>'Paste PFF data here'!D346</f>
         <v>45463</v>
       </c>
       <c r="C74" s="6">
-        <f>'paste PFF data here'!E346</f>
+        <f>'Paste PFF data here'!E346</f>
         <v>477</v>
       </c>
       <c r="D74" s="129">
-        <f>'paste PFF data here'!F346</f>
+        <f>'Paste PFF data here'!F346</f>
         <v>0.6</v>
       </c>
       <c r="E74" s="29">
-        <f>'paste PFF data here'!G346</f>
+        <f>'Paste PFF data here'!G346</f>
         <v>1</v>
       </c>
       <c r="F74" s="30"/>
       <c r="G74" s="19">
-        <f>'paste PFF data here'!AC346</f>
+        <f>'Paste PFF data here'!AC346</f>
         <v>938803</v>
       </c>
       <c r="H74" s="13">
-        <f>'paste PFF data here'!AD346</f>
+        <f>'Paste PFF data here'!AD346</f>
         <v>2477</v>
       </c>
       <c r="I74" s="14">
-        <f>'paste PFF data here'!AE346</f>
+        <f>'Paste PFF data here'!AE346</f>
         <v>0.2</v>
       </c>
       <c r="J74" s="31">
-        <f>'paste PFF data here'!AF346</f>
+        <f>'Paste PFF data here'!AF346</f>
         <v>1</v>
       </c>
       <c r="K74" s="26"/>
       <c r="L74" s="19">
-        <f>'paste PFF data here'!I346</f>
+        <f>'Paste PFF data here'!I346</f>
         <v>3128246</v>
       </c>
       <c r="M74" s="13">
-        <f>'paste PFF data here'!J346</f>
+        <f>'Paste PFF data here'!J346</f>
         <v>6458</v>
       </c>
       <c r="N74" s="14">
-        <f>'paste PFF data here'!K346</f>
+        <f>'Paste PFF data here'!K346</f>
         <v>0.1</v>
       </c>
       <c r="O74" s="31">
-        <f>'paste PFF data here'!L346</f>
+        <f>'Paste PFF data here'!L346</f>
         <v>1</v>
       </c>
       <c r="P74" s="26"/>
@@ -45274,66 +45274,66 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="160" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B75" s="10">
-        <f>'paste PFF data here'!D347</f>
+        <f>'Paste PFF data here'!D347</f>
         <v>6457</v>
       </c>
       <c r="C75" s="6">
-        <f>'paste PFF data here'!E347</f>
+        <f>'Paste PFF data here'!E347</f>
         <v>514</v>
       </c>
       <c r="D75" s="129">
-        <f>'paste PFF data here'!F347</f>
+        <f>'Paste PFF data here'!F347</f>
         <v>4.8</v>
       </c>
       <c r="E75" s="29">
-        <f>'paste PFF data here'!G347</f>
+        <f>'Paste PFF data here'!G347</f>
         <v>0.14199999999999999</v>
       </c>
       <c r="F75" s="30">
-        <f>'paste PFF data here'!H347</f>
+        <f>'Paste PFF data here'!H347</f>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G75" s="19">
-        <f>'paste PFF data here'!AC347</f>
+        <f>'Paste PFF data here'!AC347</f>
         <v>103164</v>
       </c>
       <c r="H75" s="13">
-        <f>'paste PFF data here'!AD347</f>
+        <f>'Paste PFF data here'!AD347</f>
         <v>1723</v>
       </c>
       <c r="I75" s="14">
-        <f>'paste PFF data here'!AE347</f>
+        <f>'Paste PFF data here'!AE347</f>
         <v>1</v>
       </c>
       <c r="J75" s="31">
-        <f>'paste PFF data here'!AF347</f>
+        <f>'Paste PFF data here'!AF347</f>
         <v>0.11</v>
       </c>
       <c r="K75" s="26">
-        <f>'paste PFF data here'!AG347</f>
+        <f>'Paste PFF data here'!AG347</f>
         <v>2E-3</v>
       </c>
       <c r="L75" s="19">
-        <f>'paste PFF data here'!I347</f>
+        <f>'Paste PFF data here'!I347</f>
         <v>318712</v>
       </c>
       <c r="M75" s="13">
-        <f>'paste PFF data here'!J347</f>
+        <f>'Paste PFF data here'!J347</f>
         <v>3470</v>
       </c>
       <c r="N75" s="14">
-        <f>'paste PFF data here'!K347</f>
+        <f>'Paste PFF data here'!K347</f>
         <v>0.7</v>
       </c>
       <c r="O75" s="31">
-        <f>'paste PFF data here'!L347</f>
+        <f>'Paste PFF data here'!L347</f>
         <v>0.10199999999999999</v>
       </c>
       <c r="P75" s="26">
-        <f>'paste PFF data here'!M347</f>
+        <f>'Paste PFF data here'!M347</f>
         <v>1E-3</v>
       </c>
       <c r="Q75" s="89" t="str">
@@ -45363,66 +45363,66 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="160" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B76" s="10">
-        <f>'paste PFF data here'!D348</f>
+        <f>'Paste PFF data here'!D348</f>
         <v>3543</v>
       </c>
       <c r="C76" s="6">
-        <f>'paste PFF data here'!E348</f>
+        <f>'Paste PFF data here'!E348</f>
         <v>393</v>
       </c>
       <c r="D76" s="129">
-        <f>'paste PFF data here'!F348</f>
+        <f>'Paste PFF data here'!F348</f>
         <v>6.7</v>
       </c>
       <c r="E76" s="29">
-        <f>'paste PFF data here'!G348</f>
+        <f>'Paste PFF data here'!G348</f>
         <v>7.8E-2</v>
       </c>
       <c r="F76" s="30">
-        <f>'paste PFF data here'!H348</f>
+        <f>'Paste PFF data here'!H348</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G76" s="19">
-        <f>'paste PFF data here'!AC348</f>
+        <f>'Paste PFF data here'!AC348</f>
         <v>61462</v>
       </c>
       <c r="H76" s="13">
-        <f>'paste PFF data here'!AD348</f>
+        <f>'Paste PFF data here'!AD348</f>
         <v>1577</v>
       </c>
       <c r="I76" s="14">
-        <f>'paste PFF data here'!AE348</f>
+        <f>'Paste PFF data here'!AE348</f>
         <v>1.6</v>
       </c>
       <c r="J76" s="31">
-        <f>'paste PFF data here'!AF348</f>
+        <f>'Paste PFF data here'!AF348</f>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K76" s="26">
-        <f>'paste PFF data here'!AG348</f>
+        <f>'Paste PFF data here'!AG348</f>
         <v>2E-3</v>
       </c>
       <c r="L76" s="19">
-        <f>'paste PFF data here'!I348</f>
+        <f>'Paste PFF data here'!I348</f>
         <v>186560</v>
       </c>
       <c r="M76" s="13">
-        <f>'paste PFF data here'!J348</f>
+        <f>'Paste PFF data here'!J348</f>
         <v>3678</v>
       </c>
       <c r="N76" s="14">
-        <f>'paste PFF data here'!K348</f>
+        <f>'Paste PFF data here'!K348</f>
         <v>1.2</v>
       </c>
       <c r="O76" s="31">
-        <f>'paste PFF data here'!L348</f>
+        <f>'Paste PFF data here'!L348</f>
         <v>0.06</v>
       </c>
       <c r="P76" s="26">
-        <f>'paste PFF data here'!M348</f>
+        <f>'Paste PFF data here'!M348</f>
         <v>1E-3</v>
       </c>
       <c r="Q76" s="89" t="str">
@@ -45452,66 +45452,66 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="160" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B77" s="10">
-        <f>'paste PFF data here'!D349</f>
+        <f>'Paste PFF data here'!D349</f>
         <v>5627</v>
       </c>
       <c r="C77" s="6">
-        <f>'paste PFF data here'!E349</f>
+        <f>'Paste PFF data here'!E349</f>
         <v>496</v>
       </c>
       <c r="D77" s="129">
-        <f>'paste PFF data here'!F349</f>
+        <f>'Paste PFF data here'!F349</f>
         <v>5.4</v>
       </c>
       <c r="E77" s="29">
-        <f>'paste PFF data here'!G349</f>
+        <f>'Paste PFF data here'!G349</f>
         <v>0.124</v>
       </c>
       <c r="F77" s="30">
-        <f>'paste PFF data here'!H349</f>
+        <f>'Paste PFF data here'!H349</f>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G77" s="19">
-        <f>'paste PFF data here'!AC349</f>
+        <f>'Paste PFF data here'!AC349</f>
         <v>102273</v>
       </c>
       <c r="H77" s="13">
-        <f>'paste PFF data here'!AD349</f>
+        <f>'Paste PFF data here'!AD349</f>
         <v>2178</v>
       </c>
       <c r="I77" s="14">
-        <f>'paste PFF data here'!AE349</f>
+        <f>'Paste PFF data here'!AE349</f>
         <v>1.3</v>
       </c>
       <c r="J77" s="31">
-        <f>'paste PFF data here'!AF349</f>
+        <f>'Paste PFF data here'!AF349</f>
         <v>0.109</v>
       </c>
       <c r="K77" s="26">
-        <f>'paste PFF data here'!AG349</f>
+        <f>'Paste PFF data here'!AG349</f>
         <v>2E-3</v>
       </c>
       <c r="L77" s="19">
-        <f>'paste PFF data here'!I349</f>
+        <f>'Paste PFF data here'!I349</f>
         <v>317605</v>
       </c>
       <c r="M77" s="13">
-        <f>'paste PFF data here'!J349</f>
+        <f>'Paste PFF data here'!J349</f>
         <v>4307</v>
       </c>
       <c r="N77" s="14">
-        <f>'paste PFF data here'!K349</f>
+        <f>'Paste PFF data here'!K349</f>
         <v>0.8</v>
       </c>
       <c r="O77" s="31">
-        <f>'paste PFF data here'!L349</f>
+        <f>'Paste PFF data here'!L349</f>
         <v>0.10199999999999999</v>
       </c>
       <c r="P77" s="26">
-        <f>'paste PFF data here'!M349</f>
+        <f>'Paste PFF data here'!M349</f>
         <v>1E-3</v>
       </c>
       <c r="Q77" s="89" t="str">
@@ -45541,66 +45541,66 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="160" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B78" s="10">
-        <f>'paste PFF data here'!D350</f>
+        <f>'Paste PFF data here'!D350</f>
         <v>3986</v>
       </c>
       <c r="C78" s="6">
-        <f>'paste PFF data here'!E350</f>
+        <f>'Paste PFF data here'!E350</f>
         <v>414</v>
       </c>
       <c r="D78" s="129">
-        <f>'paste PFF data here'!F350</f>
+        <f>'Paste PFF data here'!F350</f>
         <v>6.3</v>
       </c>
       <c r="E78" s="29">
-        <f>'paste PFF data here'!G350</f>
+        <f>'Paste PFF data here'!G350</f>
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="F78" s="30">
-        <f>'paste PFF data here'!H350</f>
+        <f>'Paste PFF data here'!H350</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G78" s="19">
-        <f>'paste PFF data here'!AC350</f>
+        <f>'Paste PFF data here'!AC350</f>
         <v>87051</v>
       </c>
       <c r="H78" s="13">
-        <f>'paste PFF data here'!AD350</f>
+        <f>'Paste PFF data here'!AD350</f>
         <v>1950</v>
       </c>
       <c r="I78" s="14">
-        <f>'paste PFF data here'!AE350</f>
+        <f>'Paste PFF data here'!AE350</f>
         <v>1.4</v>
       </c>
       <c r="J78" s="31">
-        <f>'paste PFF data here'!AF350</f>
+        <f>'Paste PFF data here'!AF350</f>
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="K78" s="26">
-        <f>'paste PFF data here'!AG350</f>
+        <f>'Paste PFF data here'!AG350</f>
         <v>2E-3</v>
       </c>
       <c r="L78" s="19">
-        <f>'paste PFF data here'!I350</f>
+        <f>'Paste PFF data here'!I350</f>
         <v>273198</v>
       </c>
       <c r="M78" s="13">
-        <f>'paste PFF data here'!J350</f>
+        <f>'Paste PFF data here'!J350</f>
         <v>3742</v>
       </c>
       <c r="N78" s="14">
-        <f>'paste PFF data here'!K350</f>
+        <f>'Paste PFF data here'!K350</f>
         <v>0.8</v>
       </c>
       <c r="O78" s="31">
-        <f>'paste PFF data here'!L350</f>
+        <f>'Paste PFF data here'!L350</f>
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="P78" s="26">
-        <f>'paste PFF data here'!M350</f>
+        <f>'Paste PFF data here'!M350</f>
         <v>1E-3</v>
       </c>
       <c r="Q78" s="89" t="str">
@@ -45630,66 +45630,66 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="160" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B79" s="10">
-        <f>'paste PFF data here'!D351</f>
+        <f>'Paste PFF data here'!D351</f>
         <v>5817</v>
       </c>
       <c r="C79" s="6">
-        <f>'paste PFF data here'!E351</f>
+        <f>'Paste PFF data here'!E351</f>
         <v>487</v>
       </c>
       <c r="D79" s="129">
-        <f>'paste PFF data here'!F351</f>
+        <f>'Paste PFF data here'!F351</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="E79" s="29">
-        <f>'paste PFF data here'!G351</f>
+        <f>'Paste PFF data here'!G351</f>
         <v>0.128</v>
       </c>
       <c r="F79" s="30">
-        <f>'paste PFF data here'!H351</f>
+        <f>'Paste PFF data here'!H351</f>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G79" s="19">
-        <f>'paste PFF data here'!AC351</f>
+        <f>'Paste PFF data here'!AC351</f>
         <v>110186</v>
       </c>
       <c r="H79" s="13">
-        <f>'paste PFF data here'!AD351</f>
+        <f>'Paste PFF data here'!AD351</f>
         <v>1953</v>
       </c>
       <c r="I79" s="14">
-        <f>'paste PFF data here'!AE351</f>
+        <f>'Paste PFF data here'!AE351</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J79" s="31">
-        <f>'paste PFF data here'!AF351</f>
+        <f>'Paste PFF data here'!AF351</f>
         <v>0.11700000000000001</v>
       </c>
       <c r="K79" s="26">
-        <f>'paste PFF data here'!AG351</f>
+        <f>'Paste PFF data here'!AG351</f>
         <v>2E-3</v>
       </c>
       <c r="L79" s="19">
-        <f>'paste PFF data here'!I351</f>
+        <f>'Paste PFF data here'!I351</f>
         <v>347658</v>
       </c>
       <c r="M79" s="13">
-        <f>'paste PFF data here'!J351</f>
+        <f>'Paste PFF data here'!J351</f>
         <v>3799</v>
       </c>
       <c r="N79" s="14">
-        <f>'paste PFF data here'!K351</f>
+        <f>'Paste PFF data here'!K351</f>
         <v>0.7</v>
       </c>
       <c r="O79" s="31">
-        <f>'paste PFF data here'!L351</f>
+        <f>'Paste PFF data here'!L351</f>
         <v>0.111</v>
       </c>
       <c r="P79" s="26">
-        <f>'paste PFF data here'!M351</f>
+        <f>'Paste PFF data here'!M351</f>
         <v>1E-3</v>
       </c>
       <c r="Q79" s="89" t="str">
@@ -45719,66 +45719,66 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="160" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B80" s="10">
-        <f>'paste PFF data here'!D352</f>
+        <f>'Paste PFF data here'!D352</f>
         <v>7489</v>
       </c>
       <c r="C80" s="6">
-        <f>'paste PFF data here'!E352</f>
+        <f>'Paste PFF data here'!E352</f>
         <v>531</v>
       </c>
       <c r="D80" s="129">
-        <f>'paste PFF data here'!F352</f>
+        <f>'Paste PFF data here'!F352</f>
         <v>4.3</v>
       </c>
       <c r="E80" s="29">
-        <f>'paste PFF data here'!G352</f>
+        <f>'Paste PFF data here'!G352</f>
         <v>0.16500000000000001</v>
       </c>
       <c r="F80" s="30">
-        <f>'paste PFF data here'!H352</f>
+        <f>'Paste PFF data here'!H352</f>
         <v>1.2E-2</v>
       </c>
       <c r="G80" s="19">
-        <f>'paste PFF data here'!AC352</f>
+        <f>'Paste PFF data here'!AC352</f>
         <v>146420</v>
       </c>
       <c r="H80" s="13">
-        <f>'paste PFF data here'!AD352</f>
+        <f>'Paste PFF data here'!AD352</f>
         <v>2046</v>
       </c>
       <c r="I80" s="14">
-        <f>'paste PFF data here'!AE352</f>
+        <f>'Paste PFF data here'!AE352</f>
         <v>0.8</v>
       </c>
       <c r="J80" s="31">
-        <f>'paste PFF data here'!AF352</f>
+        <f>'Paste PFF data here'!AF352</f>
         <v>0.156</v>
       </c>
       <c r="K80" s="26">
-        <f>'paste PFF data here'!AG352</f>
+        <f>'Paste PFF data here'!AG352</f>
         <v>2E-3</v>
       </c>
       <c r="L80" s="19">
-        <f>'paste PFF data here'!I352</f>
+        <f>'Paste PFF data here'!I352</f>
         <v>479924</v>
       </c>
       <c r="M80" s="13">
-        <f>'paste PFF data here'!J352</f>
+        <f>'Paste PFF data here'!J352</f>
         <v>4343</v>
       </c>
       <c r="N80" s="14">
-        <f>'paste PFF data here'!K352</f>
+        <f>'Paste PFF data here'!K352</f>
         <v>0.6</v>
       </c>
       <c r="O80" s="31">
-        <f>'paste PFF data here'!L352</f>
+        <f>'Paste PFF data here'!L352</f>
         <v>0.153</v>
       </c>
       <c r="P80" s="26">
-        <f>'paste PFF data here'!M352</f>
+        <f>'Paste PFF data here'!M352</f>
         <v>1E-3</v>
       </c>
       <c r="Q80" s="89" t="str">
@@ -45808,66 +45808,66 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="160" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B81" s="10">
-        <f>'paste PFF data here'!D353</f>
+        <f>'Paste PFF data here'!D353</f>
         <v>4571</v>
       </c>
       <c r="C81" s="6">
-        <f>'paste PFF data here'!E353</f>
+        <f>'Paste PFF data here'!E353</f>
         <v>402</v>
       </c>
       <c r="D81" s="129">
-        <f>'paste PFF data here'!F353</f>
+        <f>'Paste PFF data here'!F353</f>
         <v>5.3</v>
       </c>
       <c r="E81" s="29">
-        <f>'paste PFF data here'!G353</f>
+        <f>'Paste PFF data here'!G353</f>
         <v>0.10100000000000001</v>
       </c>
       <c r="F81" s="30">
-        <f>'paste PFF data here'!H353</f>
+        <f>'Paste PFF data here'!H353</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G81" s="19">
-        <f>'paste PFF data here'!AC353</f>
+        <f>'Paste PFF data here'!AC353</f>
         <v>102042</v>
       </c>
       <c r="H81" s="13">
-        <f>'paste PFF data here'!AD353</f>
+        <f>'Paste PFF data here'!AD353</f>
         <v>1832</v>
       </c>
       <c r="I81" s="14">
-        <f>'paste PFF data here'!AE353</f>
+        <f>'Paste PFF data here'!AE353</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J81" s="31">
-        <f>'paste PFF data here'!AF353</f>
+        <f>'Paste PFF data here'!AF353</f>
         <v>0.109</v>
       </c>
       <c r="K81" s="26">
-        <f>'paste PFF data here'!AG353</f>
+        <f>'Paste PFF data here'!AG353</f>
         <v>2E-3</v>
       </c>
       <c r="L81" s="19">
-        <f>'paste PFF data here'!I353</f>
+        <f>'Paste PFF data here'!I353</f>
         <v>342454</v>
       </c>
       <c r="M81" s="13">
-        <f>'paste PFF data here'!J353</f>
+        <f>'Paste PFF data here'!J353</f>
         <v>3657</v>
       </c>
       <c r="N81" s="14">
-        <f>'paste PFF data here'!K353</f>
+        <f>'Paste PFF data here'!K353</f>
         <v>0.6</v>
       </c>
       <c r="O81" s="31">
-        <f>'paste PFF data here'!L353</f>
+        <f>'Paste PFF data here'!L353</f>
         <v>0.109</v>
       </c>
       <c r="P81" s="26">
-        <f>'paste PFF data here'!M353</f>
+        <f>'Paste PFF data here'!M353</f>
         <v>1E-3</v>
       </c>
       <c r="Q81" s="89" t="str">
@@ -45897,66 +45897,66 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="160" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B82" s="10">
-        <f>'paste PFF data here'!D354</f>
+        <f>'Paste PFF data here'!D354</f>
         <v>5273</v>
       </c>
       <c r="C82" s="6">
-        <f>'paste PFF data here'!E354</f>
+        <f>'Paste PFF data here'!E354</f>
         <v>426</v>
       </c>
       <c r="D82" s="129">
-        <f>'paste PFF data here'!F354</f>
+        <f>'Paste PFF data here'!F354</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="E82" s="29">
-        <f>'paste PFF data here'!G354</f>
+        <f>'Paste PFF data here'!G354</f>
         <v>0.11600000000000001</v>
       </c>
       <c r="F82" s="30">
-        <f>'paste PFF data here'!H354</f>
+        <f>'Paste PFF data here'!H354</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G82" s="19">
-        <f>'paste PFF data here'!AC354</f>
+        <f>'Paste PFF data here'!AC354</f>
         <v>117284</v>
       </c>
       <c r="H82" s="13">
-        <f>'paste PFF data here'!AD354</f>
+        <f>'Paste PFF data here'!AD354</f>
         <v>2023</v>
       </c>
       <c r="I82" s="14">
-        <f>'paste PFF data here'!AE354</f>
+        <f>'Paste PFF data here'!AE354</f>
         <v>1</v>
       </c>
       <c r="J82" s="31">
-        <f>'paste PFF data here'!AF354</f>
+        <f>'Paste PFF data here'!AF354</f>
         <v>0.125</v>
       </c>
       <c r="K82" s="26">
-        <f>'paste PFF data here'!AG354</f>
+        <f>'Paste PFF data here'!AG354</f>
         <v>2E-3</v>
       </c>
       <c r="L82" s="19">
-        <f>'paste PFF data here'!I354</f>
+        <f>'Paste PFF data here'!I354</f>
         <v>410434</v>
       </c>
       <c r="M82" s="13">
-        <f>'paste PFF data here'!J354</f>
+        <f>'Paste PFF data here'!J354</f>
         <v>4434</v>
       </c>
       <c r="N82" s="14">
-        <f>'paste PFF data here'!K354</f>
+        <f>'Paste PFF data here'!K354</f>
         <v>0.7</v>
       </c>
       <c r="O82" s="31">
-        <f>'paste PFF data here'!L354</f>
+        <f>'Paste PFF data here'!L354</f>
         <v>0.13100000000000001</v>
       </c>
       <c r="P82" s="26">
-        <f>'paste PFF data here'!M354</f>
+        <f>'Paste PFF data here'!M354</f>
         <v>1E-3</v>
       </c>
       <c r="Q82" s="89" t="str">
@@ -45986,66 +45986,66 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="160" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B83" s="10">
-        <f>'paste PFF data here'!D355</f>
+        <f>'Paste PFF data here'!D355</f>
         <v>1590</v>
       </c>
       <c r="C83" s="6">
-        <f>'paste PFF data here'!E355</f>
+        <f>'Paste PFF data here'!E355</f>
         <v>238</v>
       </c>
       <c r="D83" s="129">
-        <f>'paste PFF data here'!F355</f>
+        <f>'Paste PFF data here'!F355</f>
         <v>9.1</v>
       </c>
       <c r="E83" s="29">
-        <f>'paste PFF data here'!G355</f>
+        <f>'Paste PFF data here'!G355</f>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="F83" s="30">
-        <f>'paste PFF data here'!H355</f>
+        <f>'Paste PFF data here'!H355</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G83" s="19">
-        <f>'paste PFF data here'!AC355</f>
+        <f>'Paste PFF data here'!AC355</f>
         <v>51032</v>
       </c>
       <c r="H83" s="13">
-        <f>'paste PFF data here'!AD355</f>
+        <f>'Paste PFF data here'!AD355</f>
         <v>1385</v>
       </c>
       <c r="I83" s="14">
-        <f>'paste PFF data here'!AE355</f>
+        <f>'Paste PFF data here'!AE355</f>
         <v>1.6</v>
       </c>
       <c r="J83" s="31">
-        <f>'paste PFF data here'!AF355</f>
+        <f>'Paste PFF data here'!AF355</f>
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="K83" s="26">
-        <f>'paste PFF data here'!AG355</f>
+        <f>'Paste PFF data here'!AG355</f>
         <v>1E-3</v>
       </c>
       <c r="L83" s="19">
-        <f>'paste PFF data here'!I355</f>
+        <f>'Paste PFF data here'!I355</f>
         <v>191106</v>
       </c>
       <c r="M83" s="13">
-        <f>'paste PFF data here'!J355</f>
+        <f>'Paste PFF data here'!J355</f>
         <v>3205</v>
       </c>
       <c r="N83" s="14">
-        <f>'paste PFF data here'!K355</f>
+        <f>'Paste PFF data here'!K355</f>
         <v>1</v>
       </c>
       <c r="O83" s="31">
-        <f>'paste PFF data here'!L355</f>
+        <f>'Paste PFF data here'!L355</f>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="P83" s="26">
-        <f>'paste PFF data here'!M355</f>
+        <f>'Paste PFF data here'!M355</f>
         <v>1E-3</v>
       </c>
       <c r="Q83" s="89" t="str">
@@ -46075,66 +46075,66 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="160" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B84" s="10">
-        <f>'paste PFF data here'!D356</f>
+        <f>'Paste PFF data here'!D356</f>
         <v>1110</v>
       </c>
       <c r="C84" s="6">
-        <f>'paste PFF data here'!E356</f>
+        <f>'Paste PFF data here'!E356</f>
         <v>207</v>
       </c>
       <c r="D84" s="129">
-        <f>'paste PFF data here'!F356</f>
+        <f>'Paste PFF data here'!F356</f>
         <v>11.3</v>
       </c>
       <c r="E84" s="29">
-        <f>'paste PFF data here'!G356</f>
+        <f>'Paste PFF data here'!G356</f>
         <v>2.4E-2</v>
       </c>
       <c r="F84" s="30">
-        <f>'paste PFF data here'!H356</f>
+        <f>'Paste PFF data here'!H356</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G84" s="19">
-        <f>'paste PFF data here'!AC356</f>
+        <f>'Paste PFF data here'!AC356</f>
         <v>57889</v>
       </c>
       <c r="H84" s="13">
-        <f>'paste PFF data here'!AD356</f>
+        <f>'Paste PFF data here'!AD356</f>
         <v>1339</v>
       </c>
       <c r="I84" s="14">
-        <f>'paste PFF data here'!AE356</f>
+        <f>'Paste PFF data here'!AE356</f>
         <v>1.4</v>
       </c>
       <c r="J84" s="31">
-        <f>'paste PFF data here'!AF356</f>
+        <f>'Paste PFF data here'!AF356</f>
         <v>6.2E-2</v>
       </c>
       <c r="K84" s="26">
-        <f>'paste PFF data here'!AG356</f>
+        <f>'Paste PFF data here'!AG356</f>
         <v>1E-3</v>
       </c>
       <c r="L84" s="19">
-        <f>'paste PFF data here'!I356</f>
+        <f>'Paste PFF data here'!I356</f>
         <v>260595</v>
       </c>
       <c r="M84" s="13">
-        <f>'paste PFF data here'!J356</f>
+        <f>'Paste PFF data here'!J356</f>
         <v>3672</v>
       </c>
       <c r="N84" s="14">
-        <f>'paste PFF data here'!K356</f>
+        <f>'Paste PFF data here'!K356</f>
         <v>0.9</v>
       </c>
       <c r="O84" s="31">
-        <f>'paste PFF data here'!L356</f>
+        <f>'Paste PFF data here'!L356</f>
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="P84" s="26">
-        <f>'paste PFF data here'!M356</f>
+        <f>'Paste PFF data here'!M356</f>
         <v>1E-3</v>
       </c>
       <c r="Q84" s="89" t="str">
@@ -46164,46 +46164,46 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="166" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B85" s="172">
-        <f>'paste PFF data here'!D357</f>
+        <f>'Paste PFF data here'!D357</f>
         <v>42607</v>
       </c>
       <c r="C85" s="5">
-        <f>'paste PFF data here'!E357</f>
+        <f>'Paste PFF data here'!E357</f>
         <v>2416</v>
       </c>
       <c r="D85" s="163">
-        <f>'paste PFF data here'!F357</f>
+        <f>'Paste PFF data here'!F357</f>
         <v>3.4</v>
       </c>
       <c r="E85" s="84"/>
       <c r="F85" s="28"/>
       <c r="G85" s="173">
-        <f>'paste PFF data here'!AC357</f>
+        <f>'Paste PFF data here'!AC357</f>
         <v>50640</v>
       </c>
       <c r="H85" s="16">
-        <f>'paste PFF data here'!AD357</f>
+        <f>'Paste PFF data here'!AD357</f>
         <v>322</v>
       </c>
       <c r="I85" s="50">
-        <f>'paste PFF data here'!AE357</f>
+        <f>'Paste PFF data here'!AE357</f>
         <v>0.4</v>
       </c>
       <c r="J85" s="48"/>
       <c r="K85" s="49"/>
       <c r="L85" s="173">
-        <f>'paste PFF data here'!I357</f>
+        <f>'Paste PFF data here'!I357</f>
         <v>55191</v>
       </c>
       <c r="M85" s="16">
-        <f>'paste PFF data here'!J357</f>
+        <f>'Paste PFF data here'!J357</f>
         <v>304</v>
       </c>
       <c r="N85" s="50">
-        <f>'paste PFF data here'!K357</f>
+        <f>'Paste PFF data here'!K357</f>
         <v>0.3</v>
       </c>
       <c r="O85" s="48"/>
@@ -46235,12 +46235,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
     <mergeCell ref="Q7:V7"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="S8:T8"/>
@@ -46248,6 +46242,12 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="L7:P7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="L11:P12 L16:P18 L29:P50 L56:P85 L22:P25 L19:N21 P19:P21">
     <cfRule type="expression" dxfId="14" priority="52">
@@ -46374,7 +46374,7 @@
   <sheetData>
     <row r="3" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J3" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="10:10" x14ac:dyDescent="0.25">
@@ -46410,34 +46410,34 @@
   <sheetData>
     <row r="3" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M3" s="175" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="13:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M4" s="250" t="s">
-        <v>182</v>
-      </c>
-      <c r="N4" s="250"/>
-      <c r="O4" s="250"/>
-      <c r="P4" s="250"/>
+      <c r="M4" s="255" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4" s="255"/>
+      <c r="O4" s="255"/>
+      <c r="P4" s="255"/>
     </row>
     <row r="5" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="250"/>
-      <c r="P5" s="250"/>
+      <c r="M5" s="255"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="255"/>
+      <c r="P5" s="255"/>
     </row>
     <row r="6" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="250"/>
-      <c r="N6" s="250"/>
-      <c r="O6" s="250"/>
-      <c r="P6" s="250"/>
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="255"/>
+      <c r="P6" s="255"/>
     </row>
     <row r="7" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="250"/>
-      <c r="N7" s="250"/>
-      <c r="O7" s="250"/>
-      <c r="P7" s="250"/>
+      <c r="M7" s="255"/>
+      <c r="N7" s="255"/>
+      <c r="O7" s="255"/>
+      <c r="P7" s="255"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -46459,34 +46459,34 @@
   <sheetData>
     <row r="3" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M3" s="175" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M4" s="250" t="s">
-        <v>182</v>
-      </c>
-      <c r="N4" s="250"/>
-      <c r="O4" s="250"/>
-      <c r="P4" s="250"/>
+      <c r="M4" s="255" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4" s="255"/>
+      <c r="O4" s="255"/>
+      <c r="P4" s="255"/>
     </row>
     <row r="5" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="250"/>
-      <c r="P5" s="250"/>
+      <c r="M5" s="255"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="255"/>
+      <c r="P5" s="255"/>
     </row>
     <row r="6" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="250"/>
-      <c r="N6" s="250"/>
-      <c r="O6" s="250"/>
-      <c r="P6" s="250"/>
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="255"/>
+      <c r="P6" s="255"/>
     </row>
     <row r="7" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="250"/>
-      <c r="N7" s="250"/>
-      <c r="O7" s="250"/>
-      <c r="P7" s="250"/>
+      <c r="M7" s="255"/>
+      <c r="N7" s="255"/>
+      <c r="O7" s="255"/>
+      <c r="P7" s="255"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/demographic-profile/docs/demo-profile-worksheet.xlsx
+++ b/demographic-profile/docs/demo-profile-worksheet.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="214">
   <si>
     <t>Selected Area</t>
   </si>
@@ -562,11 +562,6 @@
     <t>*Reselect data to exclude null values from chart</t>
   </si>
   <si>
-    <t>To paste new data from PFF:
-1. Unmerge all cells in header rows
-2. Paste data in "Show Reliability Data" cell</t>
-  </si>
-  <si>
     <t>Profile and Table:</t>
   </si>
   <si>
@@ -744,6 +739,242 @@
   <si>
     <t>***PASTE NEW DATA FOR ALL 14 TABLES BEFORE CONSULTING OUTPUT SHEETS***</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To paste new data from PFF:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Make sure all header cells are</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> unmerged
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Paste data in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Show Reliability Data" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To paste new data from PFF:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Make sure all header cells are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">unmerged
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Paste data in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Show Reliability Data" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To paste new data from PFF:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Make sure all header cells are</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> unmerged
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Paste data in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Show Reliability Data" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To paste new data from PFF:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Make sure all header cells are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">unmerged
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Paste data in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Show Reliability Data" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cell</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -910,13 +1141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC99D"/>
+        <fgColor rgb="FFB5D9F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDA6A27"/>
+        <fgColor rgb="FF10527B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,53 +1943,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1772,32 +1968,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1814,23 +1992,76 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1918,9 +2149,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF10527B"/>
+      <color rgb="FFB5D9F7"/>
       <color rgb="FFFFC99D"/>
       <color rgb="FFDA6A27"/>
-      <color rgb="FF10527B"/>
     </mruColors>
   </colors>
   <extLst>
@@ -13839,15 +14071,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95253</xdr:colOff>
+      <xdr:colOff>64959</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>42021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>2262158</xdr:colOff>
+      <xdr:colOff>2981312</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
+      <xdr:rowOff>537882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13862,7 +14094,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -13870,14 +14102,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect b="15923"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2276478" y="142874"/>
-          <a:ext cx="16930655" cy="2124076"/>
+          <a:off x="2339753" y="42021"/>
+          <a:ext cx="17909823" cy="2333626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14643,13 +14874,13 @@
   </sheetPr>
   <dimension ref="A1:AM382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="0.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="68" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -14669,7 +14900,7 @@
     <col min="18" max="18" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.140625" style="9" customWidth="1"/>
-    <col min="21" max="21" width="32" style="9" customWidth="1"/>
+    <col min="21" max="21" width="35.28515625" style="9" customWidth="1"/>
     <col min="22" max="22" width="0.85546875" style="9" customWidth="1"/>
     <col min="23" max="23" width="61.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -14685,81 +14916,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="234" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="235"/>
-      <c r="R1" s="235"/>
-      <c r="S1" s="235"/>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
+      <c r="A1" s="219" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="219"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
     </row>
     <row r="2" spans="1:37" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="236" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="235"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="235"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="235"/>
-      <c r="U2" s="235"/>
-      <c r="V2" s="235"/>
-      <c r="W2" s="235"/>
+      <c r="A2" s="221" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="221"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
     </row>
     <row r="3" spans="1:37" s="110" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="226" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="216"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="215"/>
+      <c r="A3" s="232" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="236"/>
+      <c r="Q3" s="236"/>
+      <c r="R3" s="233"/>
+      <c r="S3" s="233"/>
       <c r="T3" s="111"/>
       <c r="U3" s="111"/>
       <c r="V3" s="111"/>
@@ -14779,52 +15010,52 @@
       <c r="AK3" s="115"/>
     </row>
     <row r="4" spans="1:37" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="237" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
+      <c r="A4" s="222" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="222"/>
     </row>
     <row r="5" spans="1:37" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="210" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="211"/>
+      <c r="C5" s="238" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="219" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="221"/>
-      <c r="L5" s="222"/>
-      <c r="M5" s="222"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="221"/>
-      <c r="Q5" s="221"/>
-      <c r="R5" s="214"/>
-      <c r="S5" s="214"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="240"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="240"/>
+      <c r="L5" s="241"/>
+      <c r="M5" s="241"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="239"/>
+      <c r="P5" s="240"/>
+      <c r="Q5" s="240"/>
+      <c r="R5" s="242"/>
+      <c r="S5" s="242"/>
       <c r="T5" s="111"/>
       <c r="U5" s="111"/>
       <c r="V5" s="111"/>
@@ -14845,28 +15076,28 @@
     </row>
     <row r="6" spans="1:37" s="110" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="213"/>
-      <c r="C6" s="223" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="221"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="222"/>
-      <c r="N6" s="220"/>
-      <c r="O6" s="220"/>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="214"/>
-      <c r="S6" s="214"/>
+      <c r="C6" s="243" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="240"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="239"/>
+      <c r="J6" s="239"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="239"/>
+      <c r="O6" s="239"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="242"/>
+      <c r="S6" s="242"/>
       <c r="T6" s="111"/>
       <c r="U6" s="111"/>
       <c r="V6" s="111"/>
@@ -14886,32 +15117,32 @@
       <c r="AK6" s="115"/>
     </row>
     <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="246" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="246"/>
-      <c r="K7" s="246"/>
-      <c r="L7" s="246"/>
-      <c r="M7" s="246"/>
-      <c r="N7" s="246"/>
-      <c r="O7" s="246"/>
-      <c r="P7" s="246"/>
-      <c r="Q7" s="246"/>
-      <c r="R7" s="246"/>
-      <c r="S7" s="246"/>
+      <c r="C7" s="244" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="244"/>
+      <c r="M7" s="244"/>
+      <c r="N7" s="244"/>
+      <c r="O7" s="244"/>
+      <c r="P7" s="244"/>
+      <c r="Q7" s="244"/>
+      <c r="R7" s="244"/>
+      <c r="S7" s="244"/>
       <c r="T7" s="96"/>
       <c r="U7" s="96"/>
       <c r="V7" s="96"/>
     </row>
     <row r="8" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="241" t="s">
-        <v>176</v>
+      <c r="A8" s="218" t="s">
+        <v>210</v>
       </c>
       <c r="B8" s="207"/>
       <c r="C8" s="198" t="s">
@@ -14944,7 +15175,7 @@
       <c r="V8" s="97"/>
     </row>
     <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="241"/>
+      <c r="A9" s="218"/>
       <c r="B9" s="207"/>
       <c r="C9" s="198"/>
       <c r="D9" s="199" t="s">
@@ -14982,7 +15213,7 @@
       <c r="V9" s="97"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A10" s="241"/>
+      <c r="A10" s="218"/>
       <c r="B10" s="207"/>
       <c r="C10" s="198"/>
       <c r="D10" s="203" t="s">
@@ -15038,7 +15269,7 @@
       <c r="V10" s="98"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A11" s="209"/>
+      <c r="A11" s="218"/>
       <c r="C11" s="191" t="s">
         <v>7</v>
       </c>
@@ -16803,257 +17034,257 @@
     </row>
     <row r="47" spans="1:39" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="210" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="211"/>
+      <c r="C47" s="238" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="211"/>
-      <c r="C47" s="219" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="216"/>
-      <c r="E47" s="216"/>
-      <c r="F47" s="217"/>
-      <c r="G47" s="218"/>
-      <c r="H47" s="218"/>
-      <c r="I47" s="216"/>
-      <c r="J47" s="216"/>
-      <c r="K47" s="217"/>
-      <c r="L47" s="218"/>
-      <c r="M47" s="218"/>
-      <c r="N47" s="216"/>
-      <c r="O47" s="216"/>
-      <c r="P47" s="217"/>
-      <c r="Q47" s="217"/>
-      <c r="R47" s="215"/>
-      <c r="S47" s="215"/>
-      <c r="T47" s="215"/>
-      <c r="U47" s="215"/>
-      <c r="V47" s="215"/>
-      <c r="W47" s="215"/>
-      <c r="X47" s="216"/>
-      <c r="Y47" s="216"/>
-      <c r="Z47" s="217"/>
-      <c r="AA47" s="218"/>
-      <c r="AB47" s="218"/>
-      <c r="AC47" s="216"/>
-      <c r="AD47" s="216"/>
-      <c r="AE47" s="217"/>
-      <c r="AF47" s="218"/>
-      <c r="AG47" s="218"/>
-      <c r="AH47" s="216"/>
-      <c r="AI47" s="216"/>
-      <c r="AJ47" s="217"/>
-      <c r="AK47" s="217"/>
+      <c r="D47" s="235"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="236"/>
+      <c r="G47" s="237"/>
+      <c r="H47" s="237"/>
+      <c r="I47" s="235"/>
+      <c r="J47" s="235"/>
+      <c r="K47" s="236"/>
+      <c r="L47" s="237"/>
+      <c r="M47" s="237"/>
+      <c r="N47" s="235"/>
+      <c r="O47" s="235"/>
+      <c r="P47" s="236"/>
+      <c r="Q47" s="236"/>
+      <c r="R47" s="233"/>
+      <c r="S47" s="233"/>
+      <c r="T47" s="233"/>
+      <c r="U47" s="233"/>
+      <c r="V47" s="233"/>
+      <c r="W47" s="233"/>
+      <c r="X47" s="235"/>
+      <c r="Y47" s="235"/>
+      <c r="Z47" s="236"/>
+      <c r="AA47" s="237"/>
+      <c r="AB47" s="237"/>
+      <c r="AC47" s="235"/>
+      <c r="AD47" s="235"/>
+      <c r="AE47" s="236"/>
+      <c r="AF47" s="237"/>
+      <c r="AG47" s="237"/>
+      <c r="AH47" s="235"/>
+      <c r="AI47" s="235"/>
+      <c r="AJ47" s="236"/>
+      <c r="AK47" s="236"/>
       <c r="AL47" s="111"/>
       <c r="AM47" s="111"/>
     </row>
     <row r="48" spans="1:39" s="110" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B48" s="213"/>
-      <c r="C48" s="223" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="216"/>
-      <c r="E48" s="216"/>
-      <c r="F48" s="217"/>
-      <c r="G48" s="218"/>
-      <c r="H48" s="218"/>
-      <c r="I48" s="216"/>
-      <c r="J48" s="216"/>
-      <c r="K48" s="217"/>
-      <c r="L48" s="218"/>
-      <c r="M48" s="218"/>
-      <c r="N48" s="216"/>
-      <c r="O48" s="216"/>
-      <c r="P48" s="217"/>
-      <c r="Q48" s="217"/>
-      <c r="R48" s="215"/>
-      <c r="S48" s="215"/>
-      <c r="T48" s="215"/>
-      <c r="U48" s="215"/>
-      <c r="V48" s="215"/>
-      <c r="W48" s="215"/>
-      <c r="X48" s="216"/>
-      <c r="Y48" s="216"/>
-      <c r="Z48" s="217"/>
-      <c r="AA48" s="218"/>
-      <c r="AB48" s="218"/>
-      <c r="AC48" s="216"/>
-      <c r="AD48" s="216"/>
-      <c r="AE48" s="217"/>
-      <c r="AF48" s="218"/>
-      <c r="AG48" s="218"/>
-      <c r="AH48" s="216"/>
-      <c r="AI48" s="216"/>
-      <c r="AJ48" s="217"/>
-      <c r="AK48" s="217"/>
+      <c r="C48" s="243" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="235"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="236"/>
+      <c r="G48" s="237"/>
+      <c r="H48" s="237"/>
+      <c r="I48" s="235"/>
+      <c r="J48" s="235"/>
+      <c r="K48" s="236"/>
+      <c r="L48" s="237"/>
+      <c r="M48" s="237"/>
+      <c r="N48" s="235"/>
+      <c r="O48" s="235"/>
+      <c r="P48" s="236"/>
+      <c r="Q48" s="236"/>
+      <c r="R48" s="233"/>
+      <c r="S48" s="233"/>
+      <c r="T48" s="233"/>
+      <c r="U48" s="233"/>
+      <c r="V48" s="233"/>
+      <c r="W48" s="233"/>
+      <c r="X48" s="235"/>
+      <c r="Y48" s="235"/>
+      <c r="Z48" s="236"/>
+      <c r="AA48" s="237"/>
+      <c r="AB48" s="237"/>
+      <c r="AC48" s="235"/>
+      <c r="AD48" s="235"/>
+      <c r="AE48" s="236"/>
+      <c r="AF48" s="237"/>
+      <c r="AG48" s="237"/>
+      <c r="AH48" s="235"/>
+      <c r="AI48" s="235"/>
+      <c r="AJ48" s="236"/>
+      <c r="AK48" s="236"/>
       <c r="AL48" s="111"/>
       <c r="AM48" s="111"/>
     </row>
     <row r="49" spans="1:39" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="224" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" s="224"/>
-      <c r="E49" s="224"/>
-      <c r="F49" s="224"/>
-      <c r="G49" s="224"/>
-      <c r="H49" s="224"/>
-      <c r="I49" s="224"/>
-      <c r="J49" s="224"/>
-      <c r="K49" s="224"/>
-      <c r="L49" s="224"/>
-      <c r="M49" s="224"/>
-      <c r="N49" s="224"/>
-      <c r="O49" s="224"/>
-      <c r="P49" s="224"/>
-      <c r="Q49" s="224"/>
-      <c r="R49" s="225"/>
-      <c r="S49" s="225"/>
+      <c r="C49" s="245" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="245"/>
+      <c r="E49" s="245"/>
+      <c r="F49" s="245"/>
+      <c r="G49" s="245"/>
+      <c r="H49" s="245"/>
+      <c r="I49" s="245"/>
+      <c r="J49" s="245"/>
+      <c r="K49" s="245"/>
+      <c r="L49" s="245"/>
+      <c r="M49" s="245"/>
+      <c r="N49" s="245"/>
+      <c r="O49" s="245"/>
+      <c r="P49" s="245"/>
+      <c r="Q49" s="245"/>
+      <c r="R49" s="214"/>
+      <c r="S49" s="214"/>
       <c r="T49" s="107"/>
       <c r="U49" s="107"/>
       <c r="V49" s="107"/>
-      <c r="W49" s="224" t="s">
+      <c r="W49" s="245" t="s">
+        <v>181</v>
+      </c>
+      <c r="X49" s="245"/>
+      <c r="Y49" s="245"/>
+      <c r="Z49" s="245"/>
+      <c r="AA49" s="245"/>
+      <c r="AB49" s="245"/>
+      <c r="AC49" s="245"/>
+      <c r="AD49" s="245"/>
+      <c r="AE49" s="245"/>
+      <c r="AF49" s="245"/>
+      <c r="AG49" s="245"/>
+      <c r="AH49" s="245"/>
+      <c r="AI49" s="245"/>
+      <c r="AJ49" s="245"/>
+      <c r="AK49" s="245"/>
+      <c r="AL49" s="214"/>
+      <c r="AM49" s="214"/>
+    </row>
+    <row r="50" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="218" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="207"/>
+      <c r="C50" s="246" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="249" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="250"/>
+      <c r="F50" s="250"/>
+      <c r="G50" s="250"/>
+      <c r="H50" s="251"/>
+      <c r="I50" s="249" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="250"/>
+      <c r="K50" s="250"/>
+      <c r="L50" s="250"/>
+      <c r="M50" s="251"/>
+      <c r="N50" s="249" t="s">
+        <v>2</v>
+      </c>
+      <c r="O50" s="250"/>
+      <c r="P50" s="250"/>
+      <c r="Q50" s="251"/>
+      <c r="U50" s="218" t="s">
+        <v>210</v>
+      </c>
+      <c r="V50" s="207"/>
+      <c r="W50" s="246" t="s">
+        <v>148</v>
+      </c>
+      <c r="X50" s="249" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="250"/>
+      <c r="Z50" s="250"/>
+      <c r="AA50" s="250"/>
+      <c r="AB50" s="251"/>
+      <c r="AC50" s="249" t="s">
         <v>182</v>
       </c>
-      <c r="X49" s="224"/>
-      <c r="Y49" s="224"/>
-      <c r="Z49" s="224"/>
-      <c r="AA49" s="224"/>
-      <c r="AB49" s="224"/>
-      <c r="AC49" s="224"/>
-      <c r="AD49" s="224"/>
-      <c r="AE49" s="224"/>
-      <c r="AF49" s="224"/>
-      <c r="AG49" s="224"/>
-      <c r="AH49" s="224"/>
-      <c r="AI49" s="224"/>
-      <c r="AJ49" s="224"/>
-      <c r="AK49" s="224"/>
-      <c r="AL49" s="225"/>
-      <c r="AM49" s="225"/>
-    </row>
-    <row r="50" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="241" t="s">
-        <v>176</v>
-      </c>
-      <c r="B50" s="207"/>
-      <c r="C50" s="238" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="229" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="230"/>
-      <c r="F50" s="230"/>
-      <c r="G50" s="230"/>
-      <c r="H50" s="231"/>
-      <c r="I50" s="229" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50" s="230"/>
-      <c r="K50" s="230"/>
-      <c r="L50" s="230"/>
-      <c r="M50" s="231"/>
-      <c r="N50" s="229" t="s">
+      <c r="AD50" s="250"/>
+      <c r="AE50" s="250"/>
+      <c r="AF50" s="250"/>
+      <c r="AG50" s="251"/>
+      <c r="AH50" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="O50" s="230"/>
-      <c r="P50" s="230"/>
-      <c r="Q50" s="231"/>
-      <c r="U50" s="241" t="s">
-        <v>176</v>
-      </c>
-      <c r="V50" s="207"/>
-      <c r="W50" s="238" t="s">
-        <v>148</v>
-      </c>
-      <c r="X50" s="229" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="230"/>
-      <c r="Z50" s="230"/>
-      <c r="AA50" s="230"/>
-      <c r="AB50" s="231"/>
-      <c r="AC50" s="229" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD50" s="230"/>
-      <c r="AE50" s="230"/>
-      <c r="AF50" s="230"/>
-      <c r="AG50" s="231"/>
-      <c r="AH50" s="229" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI50" s="230"/>
-      <c r="AJ50" s="230"/>
-      <c r="AK50" s="231"/>
+      <c r="AI50" s="250"/>
+      <c r="AJ50" s="250"/>
+      <c r="AK50" s="251"/>
     </row>
     <row r="51" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="241"/>
+      <c r="A51" s="218"/>
       <c r="B51" s="207"/>
-      <c r="C51" s="239"/>
-      <c r="D51" s="229" t="s">
+      <c r="C51" s="247"/>
+      <c r="D51" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="230"/>
-      <c r="F51" s="231"/>
-      <c r="G51" s="229" t="s">
+      <c r="E51" s="250"/>
+      <c r="F51" s="251"/>
+      <c r="G51" s="249" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="231"/>
-      <c r="I51" s="229" t="s">
+      <c r="H51" s="251"/>
+      <c r="I51" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="230"/>
-      <c r="K51" s="231"/>
-      <c r="L51" s="229" t="s">
+      <c r="J51" s="250"/>
+      <c r="K51" s="251"/>
+      <c r="L51" s="249" t="s">
         <v>4</v>
       </c>
-      <c r="M51" s="231"/>
-      <c r="N51" s="229" t="s">
+      <c r="M51" s="251"/>
+      <c r="N51" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="O51" s="231"/>
-      <c r="P51" s="229" t="s">
+      <c r="O51" s="251"/>
+      <c r="P51" s="249" t="s">
         <v>5</v>
       </c>
-      <c r="Q51" s="231"/>
-      <c r="U51" s="241"/>
+      <c r="Q51" s="251"/>
+      <c r="U51" s="218"/>
       <c r="V51" s="207"/>
-      <c r="W51" s="239"/>
-      <c r="X51" s="229" t="s">
+      <c r="W51" s="247"/>
+      <c r="X51" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="Y51" s="230"/>
-      <c r="Z51" s="231"/>
-      <c r="AA51" s="232" t="s">
+      <c r="Y51" s="250"/>
+      <c r="Z51" s="251"/>
+      <c r="AA51" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="AB51" s="233"/>
-      <c r="AC51" s="229" t="s">
+      <c r="AB51" s="253"/>
+      <c r="AC51" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="230"/>
-      <c r="AE51" s="231"/>
-      <c r="AF51" s="232" t="s">
+      <c r="AD51" s="250"/>
+      <c r="AE51" s="251"/>
+      <c r="AF51" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="AG51" s="233"/>
-      <c r="AH51" s="242" t="s">
+      <c r="AG51" s="253"/>
+      <c r="AH51" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="AI51" s="243"/>
-      <c r="AJ51" s="244" t="s">
+      <c r="AI51" s="255"/>
+      <c r="AJ51" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="AK51" s="245"/>
+      <c r="AK51" s="257"/>
     </row>
     <row r="52" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="241"/>
+      <c r="A52" s="218"/>
       <c r="B52" s="207"/>
-      <c r="C52" s="240"/>
+      <c r="C52" s="248"/>
       <c r="D52" s="54" t="s">
         <v>6</v>
       </c>
@@ -17096,9 +17327,9 @@
       <c r="Q52" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="U52" s="241"/>
+      <c r="U52" s="218"/>
       <c r="V52" s="207"/>
-      <c r="W52" s="240"/>
+      <c r="W52" s="248"/>
       <c r="X52" s="51" t="s">
         <v>6</v>
       </c>
@@ -17143,7 +17374,7 @@
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A53" s="209"/>
+      <c r="A53" s="218"/>
       <c r="C53" s="55" t="s">
         <v>7</v>
       </c>
@@ -17185,7 +17416,7 @@
       <c r="Q53" s="63">
         <v>0</v>
       </c>
-      <c r="U53" s="209"/>
+      <c r="U53" s="218"/>
       <c r="W53" s="55" t="s">
         <v>7</v>
       </c>
@@ -20018,263 +20249,263 @@
     </row>
     <row r="89" spans="1:39" s="110" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="210" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B89" s="211"/>
-      <c r="C89" s="219" t="s">
-        <v>186</v>
-      </c>
-      <c r="D89" s="216"/>
-      <c r="E89" s="216"/>
-      <c r="F89" s="217"/>
-      <c r="G89" s="218"/>
-      <c r="H89" s="218"/>
-      <c r="I89" s="216"/>
-      <c r="J89" s="216"/>
-      <c r="K89" s="217"/>
-      <c r="L89" s="218"/>
-      <c r="M89" s="218"/>
-      <c r="N89" s="216"/>
-      <c r="O89" s="216"/>
-      <c r="P89" s="217"/>
-      <c r="Q89" s="217"/>
-      <c r="R89" s="215"/>
-      <c r="S89" s="215"/>
-      <c r="T89" s="215"/>
-      <c r="U89" s="215"/>
-      <c r="V89" s="215"/>
-      <c r="W89" s="215"/>
-      <c r="X89" s="216"/>
-      <c r="Y89" s="216"/>
-      <c r="Z89" s="217"/>
-      <c r="AA89" s="218"/>
-      <c r="AB89" s="218"/>
-      <c r="AC89" s="216"/>
-      <c r="AD89" s="216"/>
-      <c r="AE89" s="217"/>
-      <c r="AF89" s="218"/>
-      <c r="AG89" s="218"/>
-      <c r="AH89" s="216"/>
-      <c r="AI89" s="216"/>
-      <c r="AJ89" s="217"/>
-      <c r="AK89" s="217"/>
+      <c r="C89" s="238" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" s="235"/>
+      <c r="E89" s="235"/>
+      <c r="F89" s="236"/>
+      <c r="G89" s="237"/>
+      <c r="H89" s="237"/>
+      <c r="I89" s="235"/>
+      <c r="J89" s="235"/>
+      <c r="K89" s="236"/>
+      <c r="L89" s="237"/>
+      <c r="M89" s="237"/>
+      <c r="N89" s="235"/>
+      <c r="O89" s="235"/>
+      <c r="P89" s="236"/>
+      <c r="Q89" s="236"/>
+      <c r="R89" s="233"/>
+      <c r="S89" s="233"/>
+      <c r="T89" s="233"/>
+      <c r="U89" s="233"/>
+      <c r="V89" s="233"/>
+      <c r="W89" s="233"/>
+      <c r="X89" s="235"/>
+      <c r="Y89" s="235"/>
+      <c r="Z89" s="236"/>
+      <c r="AA89" s="237"/>
+      <c r="AB89" s="237"/>
+      <c r="AC89" s="235"/>
+      <c r="AD89" s="235"/>
+      <c r="AE89" s="236"/>
+      <c r="AF89" s="237"/>
+      <c r="AG89" s="237"/>
+      <c r="AH89" s="235"/>
+      <c r="AI89" s="235"/>
+      <c r="AJ89" s="236"/>
+      <c r="AK89" s="236"/>
       <c r="AL89" s="111"/>
       <c r="AM89" s="111"/>
     </row>
     <row r="90" spans="1:39" s="110" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B90" s="213"/>
-      <c r="C90" s="223" t="s">
-        <v>184</v>
-      </c>
-      <c r="D90" s="216"/>
-      <c r="E90" s="216"/>
-      <c r="F90" s="217"/>
-      <c r="G90" s="218"/>
-      <c r="H90" s="218"/>
-      <c r="I90" s="216"/>
-      <c r="J90" s="216"/>
-      <c r="K90" s="217"/>
-      <c r="L90" s="218"/>
-      <c r="M90" s="218"/>
-      <c r="N90" s="216"/>
-      <c r="O90" s="216"/>
-      <c r="P90" s="217"/>
-      <c r="Q90" s="217"/>
-      <c r="R90" s="215"/>
-      <c r="S90" s="215"/>
-      <c r="T90" s="215"/>
-      <c r="U90" s="215"/>
-      <c r="V90" s="215"/>
-      <c r="W90" s="215"/>
-      <c r="X90" s="216"/>
-      <c r="Y90" s="216"/>
-      <c r="Z90" s="217"/>
-      <c r="AA90" s="218"/>
-      <c r="AB90" s="218"/>
-      <c r="AC90" s="216"/>
-      <c r="AD90" s="216"/>
-      <c r="AE90" s="217"/>
-      <c r="AF90" s="218"/>
-      <c r="AG90" s="218"/>
-      <c r="AH90" s="216"/>
-      <c r="AI90" s="216"/>
-      <c r="AJ90" s="217"/>
-      <c r="AK90" s="217"/>
+      <c r="C90" s="243" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="235"/>
+      <c r="E90" s="235"/>
+      <c r="F90" s="236"/>
+      <c r="G90" s="237"/>
+      <c r="H90" s="237"/>
+      <c r="I90" s="235"/>
+      <c r="J90" s="235"/>
+      <c r="K90" s="236"/>
+      <c r="L90" s="237"/>
+      <c r="M90" s="237"/>
+      <c r="N90" s="235"/>
+      <c r="O90" s="235"/>
+      <c r="P90" s="236"/>
+      <c r="Q90" s="236"/>
+      <c r="R90" s="233"/>
+      <c r="S90" s="233"/>
+      <c r="T90" s="233"/>
+      <c r="U90" s="233"/>
+      <c r="V90" s="233"/>
+      <c r="W90" s="233"/>
+      <c r="X90" s="235"/>
+      <c r="Y90" s="235"/>
+      <c r="Z90" s="236"/>
+      <c r="AA90" s="237"/>
+      <c r="AB90" s="237"/>
+      <c r="AC90" s="235"/>
+      <c r="AD90" s="235"/>
+      <c r="AE90" s="236"/>
+      <c r="AF90" s="237"/>
+      <c r="AG90" s="237"/>
+      <c r="AH90" s="235"/>
+      <c r="AI90" s="235"/>
+      <c r="AJ90" s="236"/>
+      <c r="AK90" s="236"/>
       <c r="AL90" s="111"/>
       <c r="AM90" s="111"/>
     </row>
     <row r="91" spans="1:39" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="224" t="s">
-        <v>208</v>
-      </c>
-      <c r="D91" s="224"/>
-      <c r="E91" s="224"/>
-      <c r="F91" s="224"/>
-      <c r="G91" s="224"/>
-      <c r="H91" s="224"/>
-      <c r="I91" s="224"/>
-      <c r="J91" s="224"/>
-      <c r="K91" s="224"/>
-      <c r="L91" s="224"/>
-      <c r="M91" s="224"/>
-      <c r="N91" s="224"/>
-      <c r="O91" s="224"/>
-      <c r="P91" s="224"/>
-      <c r="Q91" s="224"/>
-      <c r="R91" s="225"/>
-      <c r="S91" s="225"/>
+      <c r="C91" s="245" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" s="245"/>
+      <c r="E91" s="245"/>
+      <c r="F91" s="245"/>
+      <c r="G91" s="245"/>
+      <c r="H91" s="245"/>
+      <c r="I91" s="245"/>
+      <c r="J91" s="245"/>
+      <c r="K91" s="245"/>
+      <c r="L91" s="245"/>
+      <c r="M91" s="245"/>
+      <c r="N91" s="245"/>
+      <c r="O91" s="245"/>
+      <c r="P91" s="245"/>
+      <c r="Q91" s="245"/>
+      <c r="R91" s="214"/>
+      <c r="S91" s="214"/>
       <c r="T91" s="107"/>
       <c r="U91" s="107"/>
       <c r="V91" s="107"/>
-      <c r="W91" s="224" t="s">
-        <v>182</v>
-      </c>
-      <c r="X91" s="224"/>
-      <c r="Y91" s="224"/>
-      <c r="Z91" s="224"/>
-      <c r="AA91" s="224"/>
-      <c r="AB91" s="224"/>
-      <c r="AC91" s="224"/>
-      <c r="AD91" s="224"/>
-      <c r="AE91" s="224"/>
-      <c r="AF91" s="224"/>
-      <c r="AG91" s="224"/>
-      <c r="AH91" s="224"/>
-      <c r="AI91" s="224"/>
-      <c r="AJ91" s="224"/>
-      <c r="AK91" s="224"/>
-      <c r="AL91" s="225"/>
-      <c r="AM91" s="225"/>
+      <c r="W91" s="245" t="s">
+        <v>181</v>
+      </c>
+      <c r="X91" s="245"/>
+      <c r="Y91" s="245"/>
+      <c r="Z91" s="245"/>
+      <c r="AA91" s="245"/>
+      <c r="AB91" s="245"/>
+      <c r="AC91" s="245"/>
+      <c r="AD91" s="245"/>
+      <c r="AE91" s="245"/>
+      <c r="AF91" s="245"/>
+      <c r="AG91" s="245"/>
+      <c r="AH91" s="245"/>
+      <c r="AI91" s="245"/>
+      <c r="AJ91" s="245"/>
+      <c r="AK91" s="245"/>
+      <c r="AL91" s="214"/>
+      <c r="AM91" s="214"/>
     </row>
     <row r="92" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="241" t="s">
-        <v>176</v>
+      <c r="A92" s="218" t="s">
+        <v>212</v>
       </c>
       <c r="B92" s="207"/>
-      <c r="C92" s="238" t="s">
+      <c r="C92" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="D92" s="229" t="s">
+      <c r="D92" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="230"/>
-      <c r="F92" s="230"/>
-      <c r="G92" s="230"/>
-      <c r="H92" s="231"/>
-      <c r="I92" s="229" t="s">
+      <c r="E92" s="250"/>
+      <c r="F92" s="250"/>
+      <c r="G92" s="250"/>
+      <c r="H92" s="251"/>
+      <c r="I92" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="J92" s="230"/>
-      <c r="K92" s="230"/>
-      <c r="L92" s="230"/>
-      <c r="M92" s="231"/>
-      <c r="N92" s="229" t="s">
+      <c r="J92" s="250"/>
+      <c r="K92" s="250"/>
+      <c r="L92" s="250"/>
+      <c r="M92" s="251"/>
+      <c r="N92" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="O92" s="230"/>
-      <c r="P92" s="230"/>
-      <c r="Q92" s="231"/>
+      <c r="O92" s="250"/>
+      <c r="P92" s="250"/>
+      <c r="Q92" s="251"/>
       <c r="R92" s="75"/>
       <c r="S92" s="75"/>
       <c r="T92" s="101"/>
-      <c r="U92" s="241" t="s">
-        <v>176</v>
+      <c r="U92" s="218" t="s">
+        <v>210</v>
       </c>
       <c r="V92" s="207"/>
-      <c r="W92" s="238" t="s">
+      <c r="W92" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="X92" s="229" t="s">
+      <c r="X92" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="Y92" s="230"/>
-      <c r="Z92" s="230"/>
-      <c r="AA92" s="230"/>
-      <c r="AB92" s="231"/>
-      <c r="AC92" s="229" t="s">
+      <c r="Y92" s="250"/>
+      <c r="Z92" s="250"/>
+      <c r="AA92" s="250"/>
+      <c r="AB92" s="251"/>
+      <c r="AC92" s="249" t="s">
         <v>92</v>
       </c>
-      <c r="AD92" s="230"/>
-      <c r="AE92" s="230"/>
-      <c r="AF92" s="230"/>
-      <c r="AG92" s="231"/>
-      <c r="AH92" s="229" t="s">
+      <c r="AD92" s="250"/>
+      <c r="AE92" s="250"/>
+      <c r="AF92" s="250"/>
+      <c r="AG92" s="251"/>
+      <c r="AH92" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="AI92" s="230"/>
-      <c r="AJ92" s="230"/>
-      <c r="AK92" s="231"/>
+      <c r="AI92" s="250"/>
+      <c r="AJ92" s="250"/>
+      <c r="AK92" s="251"/>
     </row>
     <row r="93" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="241"/>
+      <c r="A93" s="218"/>
       <c r="B93" s="207"/>
-      <c r="C93" s="239"/>
-      <c r="D93" s="229" t="s">
+      <c r="C93" s="247"/>
+      <c r="D93" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="230"/>
-      <c r="F93" s="231"/>
-      <c r="G93" s="232" t="s">
+      <c r="E93" s="250"/>
+      <c r="F93" s="251"/>
+      <c r="G93" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="H93" s="233"/>
-      <c r="I93" s="229" t="s">
+      <c r="H93" s="253"/>
+      <c r="I93" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="J93" s="230"/>
-      <c r="K93" s="231"/>
-      <c r="L93" s="232" t="s">
+      <c r="J93" s="250"/>
+      <c r="K93" s="251"/>
+      <c r="L93" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="M93" s="233"/>
-      <c r="N93" s="242" t="s">
+      <c r="M93" s="253"/>
+      <c r="N93" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="O93" s="243"/>
-      <c r="P93" s="244" t="s">
+      <c r="O93" s="255"/>
+      <c r="P93" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="Q93" s="245"/>
+      <c r="Q93" s="257"/>
       <c r="R93" s="75"/>
       <c r="S93" s="75"/>
       <c r="T93" s="101"/>
-      <c r="U93" s="241"/>
+      <c r="U93" s="218"/>
       <c r="V93" s="207"/>
-      <c r="W93" s="239"/>
-      <c r="X93" s="229" t="s">
+      <c r="W93" s="247"/>
+      <c r="X93" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="Y93" s="230"/>
-      <c r="Z93" s="231"/>
-      <c r="AA93" s="232" t="s">
+      <c r="Y93" s="250"/>
+      <c r="Z93" s="251"/>
+      <c r="AA93" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="AB93" s="233"/>
-      <c r="AC93" s="229" t="s">
+      <c r="AB93" s="253"/>
+      <c r="AC93" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="AD93" s="230"/>
-      <c r="AE93" s="231"/>
-      <c r="AF93" s="232" t="s">
+      <c r="AD93" s="250"/>
+      <c r="AE93" s="251"/>
+      <c r="AF93" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="AG93" s="233"/>
-      <c r="AH93" s="242" t="s">
+      <c r="AG93" s="253"/>
+      <c r="AH93" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="AI93" s="243"/>
-      <c r="AJ93" s="244" t="s">
+      <c r="AI93" s="255"/>
+      <c r="AJ93" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="AK93" s="245"/>
+      <c r="AK93" s="257"/>
     </row>
     <row r="94" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="241"/>
+      <c r="A94" s="218"/>
       <c r="B94" s="207"/>
-      <c r="C94" s="240"/>
+      <c r="C94" s="248"/>
       <c r="D94" s="51" t="s">
         <v>6</v>
       </c>
@@ -20320,9 +20551,9 @@
       <c r="R94" s="76"/>
       <c r="S94" s="76"/>
       <c r="T94" s="102"/>
-      <c r="U94" s="241"/>
+      <c r="U94" s="218"/>
       <c r="V94" s="207"/>
-      <c r="W94" s="240"/>
+      <c r="W94" s="248"/>
       <c r="X94" s="51" t="s">
         <v>6</v>
       </c>
@@ -20367,7 +20598,7 @@
       </c>
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A95" s="209"/>
+      <c r="A95" s="218"/>
       <c r="C95" s="55" t="s">
         <v>112</v>
       </c>
@@ -20412,7 +20643,7 @@
       <c r="R95" s="55"/>
       <c r="S95" s="55"/>
       <c r="T95" s="103"/>
-      <c r="U95" s="209"/>
+      <c r="U95" s="218"/>
       <c r="V95" s="103"/>
       <c r="W95" s="55" t="s">
         <v>112</v>
@@ -21939,263 +22170,263 @@
     </row>
     <row r="114" spans="1:39" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="210" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B114" s="211"/>
-      <c r="C114" s="219" t="s">
-        <v>188</v>
-      </c>
-      <c r="D114" s="220"/>
-      <c r="E114" s="220"/>
-      <c r="F114" s="221"/>
-      <c r="G114" s="222"/>
-      <c r="H114" s="222"/>
-      <c r="I114" s="220"/>
-      <c r="J114" s="220"/>
-      <c r="K114" s="221"/>
-      <c r="L114" s="222"/>
-      <c r="M114" s="222"/>
-      <c r="N114" s="220"/>
-      <c r="O114" s="220"/>
-      <c r="P114" s="221"/>
-      <c r="Q114" s="221"/>
-      <c r="R114" s="214"/>
-      <c r="S114" s="214"/>
-      <c r="T114" s="214"/>
-      <c r="U114" s="214"/>
-      <c r="V114" s="214"/>
-      <c r="W114" s="214"/>
-      <c r="X114" s="220"/>
-      <c r="Y114" s="220"/>
-      <c r="Z114" s="221"/>
-      <c r="AA114" s="222"/>
-      <c r="AB114" s="222"/>
-      <c r="AC114" s="220"/>
-      <c r="AD114" s="220"/>
-      <c r="AE114" s="221"/>
-      <c r="AF114" s="222"/>
-      <c r="AG114" s="222"/>
-      <c r="AH114" s="220"/>
-      <c r="AI114" s="220"/>
-      <c r="AJ114" s="221"/>
-      <c r="AK114" s="221"/>
+      <c r="C114" s="238" t="s">
+        <v>187</v>
+      </c>
+      <c r="D114" s="239"/>
+      <c r="E114" s="239"/>
+      <c r="F114" s="240"/>
+      <c r="G114" s="241"/>
+      <c r="H114" s="241"/>
+      <c r="I114" s="239"/>
+      <c r="J114" s="239"/>
+      <c r="K114" s="240"/>
+      <c r="L114" s="241"/>
+      <c r="M114" s="241"/>
+      <c r="N114" s="239"/>
+      <c r="O114" s="239"/>
+      <c r="P114" s="240"/>
+      <c r="Q114" s="240"/>
+      <c r="R114" s="242"/>
+      <c r="S114" s="242"/>
+      <c r="T114" s="242"/>
+      <c r="U114" s="242"/>
+      <c r="V114" s="242"/>
+      <c r="W114" s="242"/>
+      <c r="X114" s="239"/>
+      <c r="Y114" s="239"/>
+      <c r="Z114" s="240"/>
+      <c r="AA114" s="241"/>
+      <c r="AB114" s="241"/>
+      <c r="AC114" s="239"/>
+      <c r="AD114" s="239"/>
+      <c r="AE114" s="240"/>
+      <c r="AF114" s="241"/>
+      <c r="AG114" s="241"/>
+      <c r="AH114" s="239"/>
+      <c r="AI114" s="239"/>
+      <c r="AJ114" s="240"/>
+      <c r="AK114" s="240"/>
       <c r="AL114" s="104"/>
       <c r="AM114" s="104"/>
     </row>
     <row r="115" spans="1:39" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B115" s="213"/>
-      <c r="C115" s="223" t="s">
-        <v>184</v>
-      </c>
-      <c r="D115" s="220"/>
-      <c r="E115" s="220"/>
-      <c r="F115" s="221"/>
-      <c r="G115" s="222"/>
-      <c r="H115" s="222"/>
-      <c r="I115" s="220"/>
-      <c r="J115" s="220"/>
-      <c r="K115" s="221"/>
-      <c r="L115" s="222"/>
-      <c r="M115" s="222"/>
-      <c r="N115" s="220"/>
-      <c r="O115" s="220"/>
-      <c r="P115" s="221"/>
-      <c r="Q115" s="221"/>
-      <c r="R115" s="214"/>
-      <c r="S115" s="214"/>
-      <c r="T115" s="214"/>
-      <c r="U115" s="214"/>
-      <c r="V115" s="214"/>
-      <c r="W115" s="214"/>
-      <c r="X115" s="220"/>
-      <c r="Y115" s="220"/>
-      <c r="Z115" s="221"/>
-      <c r="AA115" s="222"/>
-      <c r="AB115" s="222"/>
-      <c r="AC115" s="220"/>
-      <c r="AD115" s="220"/>
-      <c r="AE115" s="221"/>
-      <c r="AF115" s="222"/>
-      <c r="AG115" s="222"/>
-      <c r="AH115" s="220"/>
-      <c r="AI115" s="220"/>
-      <c r="AJ115" s="221"/>
-      <c r="AK115" s="221"/>
+      <c r="C115" s="243" t="s">
+        <v>183</v>
+      </c>
+      <c r="D115" s="239"/>
+      <c r="E115" s="239"/>
+      <c r="F115" s="240"/>
+      <c r="G115" s="241"/>
+      <c r="H115" s="241"/>
+      <c r="I115" s="239"/>
+      <c r="J115" s="239"/>
+      <c r="K115" s="240"/>
+      <c r="L115" s="241"/>
+      <c r="M115" s="241"/>
+      <c r="N115" s="239"/>
+      <c r="O115" s="239"/>
+      <c r="P115" s="240"/>
+      <c r="Q115" s="240"/>
+      <c r="R115" s="242"/>
+      <c r="S115" s="242"/>
+      <c r="T115" s="242"/>
+      <c r="U115" s="242"/>
+      <c r="V115" s="242"/>
+      <c r="W115" s="242"/>
+      <c r="X115" s="239"/>
+      <c r="Y115" s="239"/>
+      <c r="Z115" s="240"/>
+      <c r="AA115" s="241"/>
+      <c r="AB115" s="241"/>
+      <c r="AC115" s="239"/>
+      <c r="AD115" s="239"/>
+      <c r="AE115" s="240"/>
+      <c r="AF115" s="241"/>
+      <c r="AG115" s="241"/>
+      <c r="AH115" s="239"/>
+      <c r="AI115" s="239"/>
+      <c r="AJ115" s="240"/>
+      <c r="AK115" s="240"/>
       <c r="AL115" s="104"/>
       <c r="AM115" s="104"/>
     </row>
     <row r="116" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="224" t="s">
-        <v>208</v>
-      </c>
-      <c r="D116" s="224"/>
-      <c r="E116" s="224"/>
-      <c r="F116" s="224"/>
-      <c r="G116" s="224"/>
-      <c r="H116" s="224"/>
-      <c r="I116" s="224"/>
-      <c r="J116" s="224"/>
-      <c r="K116" s="224"/>
-      <c r="L116" s="224"/>
-      <c r="M116" s="224"/>
-      <c r="N116" s="224"/>
-      <c r="O116" s="224"/>
-      <c r="P116" s="224"/>
-      <c r="Q116" s="224"/>
-      <c r="R116" s="225"/>
-      <c r="S116" s="225"/>
+      <c r="C116" s="245" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" s="245"/>
+      <c r="E116" s="245"/>
+      <c r="F116" s="245"/>
+      <c r="G116" s="245"/>
+      <c r="H116" s="245"/>
+      <c r="I116" s="245"/>
+      <c r="J116" s="245"/>
+      <c r="K116" s="245"/>
+      <c r="L116" s="245"/>
+      <c r="M116" s="245"/>
+      <c r="N116" s="245"/>
+      <c r="O116" s="245"/>
+      <c r="P116" s="245"/>
+      <c r="Q116" s="245"/>
+      <c r="R116" s="214"/>
+      <c r="S116" s="214"/>
       <c r="T116" s="105"/>
       <c r="U116" s="105"/>
       <c r="V116" s="105"/>
-      <c r="W116" s="224" t="s">
-        <v>182</v>
-      </c>
-      <c r="X116" s="224"/>
-      <c r="Y116" s="224"/>
-      <c r="Z116" s="224"/>
-      <c r="AA116" s="224"/>
-      <c r="AB116" s="224"/>
-      <c r="AC116" s="224"/>
-      <c r="AD116" s="224"/>
-      <c r="AE116" s="224"/>
-      <c r="AF116" s="224"/>
-      <c r="AG116" s="224"/>
-      <c r="AH116" s="224"/>
-      <c r="AI116" s="224"/>
-      <c r="AJ116" s="224"/>
-      <c r="AK116" s="224"/>
-      <c r="AL116" s="225"/>
-      <c r="AM116" s="225"/>
+      <c r="W116" s="245" t="s">
+        <v>181</v>
+      </c>
+      <c r="X116" s="245"/>
+      <c r="Y116" s="245"/>
+      <c r="Z116" s="245"/>
+      <c r="AA116" s="245"/>
+      <c r="AB116" s="245"/>
+      <c r="AC116" s="245"/>
+      <c r="AD116" s="245"/>
+      <c r="AE116" s="245"/>
+      <c r="AF116" s="245"/>
+      <c r="AG116" s="245"/>
+      <c r="AH116" s="245"/>
+      <c r="AI116" s="245"/>
+      <c r="AJ116" s="245"/>
+      <c r="AK116" s="245"/>
+      <c r="AL116" s="214"/>
+      <c r="AM116" s="214"/>
     </row>
     <row r="117" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="241" t="s">
-        <v>176</v>
+      <c r="A117" s="218" t="s">
+        <v>211</v>
       </c>
       <c r="B117" s="207"/>
-      <c r="C117" s="238" t="s">
+      <c r="C117" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="D117" s="229" t="s">
+      <c r="D117" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="E117" s="230"/>
-      <c r="F117" s="230"/>
-      <c r="G117" s="230"/>
-      <c r="H117" s="231"/>
-      <c r="I117" s="229" t="s">
+      <c r="E117" s="250"/>
+      <c r="F117" s="250"/>
+      <c r="G117" s="250"/>
+      <c r="H117" s="251"/>
+      <c r="I117" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="J117" s="230"/>
-      <c r="K117" s="230"/>
-      <c r="L117" s="230"/>
-      <c r="M117" s="231"/>
-      <c r="N117" s="229" t="s">
+      <c r="J117" s="250"/>
+      <c r="K117" s="250"/>
+      <c r="L117" s="250"/>
+      <c r="M117" s="251"/>
+      <c r="N117" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="O117" s="230"/>
-      <c r="P117" s="230"/>
-      <c r="Q117" s="231"/>
+      <c r="O117" s="250"/>
+      <c r="P117" s="250"/>
+      <c r="Q117" s="251"/>
       <c r="R117" s="75"/>
       <c r="S117" s="75"/>
       <c r="T117" s="101"/>
-      <c r="U117" s="241" t="s">
-        <v>176</v>
+      <c r="U117" s="218" t="s">
+        <v>211</v>
       </c>
       <c r="V117" s="207"/>
-      <c r="W117" s="238" t="s">
+      <c r="W117" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="X117" s="229" t="s">
+      <c r="X117" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="Y117" s="230"/>
-      <c r="Z117" s="230"/>
-      <c r="AA117" s="230"/>
-      <c r="AB117" s="231"/>
-      <c r="AC117" s="229" t="s">
+      <c r="Y117" s="250"/>
+      <c r="Z117" s="250"/>
+      <c r="AA117" s="250"/>
+      <c r="AB117" s="251"/>
+      <c r="AC117" s="249" t="s">
         <v>92</v>
       </c>
-      <c r="AD117" s="230"/>
-      <c r="AE117" s="230"/>
-      <c r="AF117" s="230"/>
-      <c r="AG117" s="231"/>
-      <c r="AH117" s="229" t="s">
+      <c r="AD117" s="250"/>
+      <c r="AE117" s="250"/>
+      <c r="AF117" s="250"/>
+      <c r="AG117" s="251"/>
+      <c r="AH117" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="AI117" s="230"/>
-      <c r="AJ117" s="230"/>
-      <c r="AK117" s="231"/>
+      <c r="AI117" s="250"/>
+      <c r="AJ117" s="250"/>
+      <c r="AK117" s="251"/>
     </row>
     <row r="118" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="241"/>
+      <c r="A118" s="218"/>
       <c r="B118" s="207"/>
-      <c r="C118" s="239"/>
-      <c r="D118" s="229" t="s">
+      <c r="C118" s="247"/>
+      <c r="D118" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="230"/>
-      <c r="F118" s="231"/>
-      <c r="G118" s="232" t="s">
+      <c r="E118" s="250"/>
+      <c r="F118" s="251"/>
+      <c r="G118" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="H118" s="233"/>
-      <c r="I118" s="229" t="s">
+      <c r="H118" s="253"/>
+      <c r="I118" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="J118" s="230"/>
-      <c r="K118" s="231"/>
-      <c r="L118" s="232" t="s">
+      <c r="J118" s="250"/>
+      <c r="K118" s="251"/>
+      <c r="L118" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="M118" s="233"/>
-      <c r="N118" s="242" t="s">
+      <c r="M118" s="253"/>
+      <c r="N118" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="O118" s="243"/>
-      <c r="P118" s="244" t="s">
+      <c r="O118" s="255"/>
+      <c r="P118" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="Q118" s="245"/>
+      <c r="Q118" s="257"/>
       <c r="R118" s="75"/>
       <c r="S118" s="75"/>
       <c r="T118" s="101"/>
-      <c r="U118" s="241"/>
+      <c r="U118" s="218"/>
       <c r="V118" s="207"/>
-      <c r="W118" s="239"/>
-      <c r="X118" s="229" t="s">
+      <c r="W118" s="247"/>
+      <c r="X118" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="Y118" s="230"/>
-      <c r="Z118" s="231"/>
-      <c r="AA118" s="232" t="s">
+      <c r="Y118" s="250"/>
+      <c r="Z118" s="251"/>
+      <c r="AA118" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="AB118" s="233"/>
-      <c r="AC118" s="229" t="s">
+      <c r="AB118" s="253"/>
+      <c r="AC118" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="AD118" s="230"/>
-      <c r="AE118" s="231"/>
-      <c r="AF118" s="232" t="s">
+      <c r="AD118" s="250"/>
+      <c r="AE118" s="251"/>
+      <c r="AF118" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="AG118" s="233"/>
-      <c r="AH118" s="242" t="s">
+      <c r="AG118" s="253"/>
+      <c r="AH118" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="AI118" s="243"/>
-      <c r="AJ118" s="244" t="s">
+      <c r="AI118" s="255"/>
+      <c r="AJ118" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="AK118" s="245"/>
+      <c r="AK118" s="257"/>
     </row>
     <row r="119" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="241"/>
+      <c r="A119" s="218"/>
       <c r="B119" s="207"/>
-      <c r="C119" s="240"/>
+      <c r="C119" s="248"/>
       <c r="D119" s="51" t="s">
         <v>6</v>
       </c>
@@ -22241,9 +22472,9 @@
       <c r="R119" s="76"/>
       <c r="S119" s="76"/>
       <c r="T119" s="102"/>
-      <c r="U119" s="241"/>
+      <c r="U119" s="218"/>
       <c r="V119" s="207"/>
-      <c r="W119" s="240"/>
+      <c r="W119" s="248"/>
       <c r="X119" s="51" t="s">
         <v>6</v>
       </c>
@@ -22288,7 +22519,7 @@
       </c>
     </row>
     <row r="120" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A120" s="209"/>
+      <c r="A120" s="218"/>
       <c r="C120" s="55" t="s">
         <v>30</v>
       </c>
@@ -22333,7 +22564,7 @@
       <c r="R120" s="55"/>
       <c r="S120" s="55"/>
       <c r="T120" s="103"/>
-      <c r="U120" s="209"/>
+      <c r="U120" s="218"/>
       <c r="V120" s="103"/>
       <c r="W120" s="55" t="s">
         <v>30</v>
@@ -22793,114 +23024,114 @@
     </row>
     <row r="127" spans="1:39" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="210" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B127" s="211"/>
-      <c r="C127" s="219" t="s">
-        <v>187</v>
-      </c>
-      <c r="D127" s="220"/>
-      <c r="E127" s="220"/>
-      <c r="F127" s="221"/>
-      <c r="G127" s="222"/>
-      <c r="H127" s="222"/>
-      <c r="I127" s="220"/>
-      <c r="J127" s="220"/>
-      <c r="K127" s="221"/>
-      <c r="L127" s="222"/>
-      <c r="M127" s="222"/>
-      <c r="N127" s="220"/>
-      <c r="O127" s="220"/>
-      <c r="P127" s="221"/>
-      <c r="Q127" s="221"/>
-      <c r="R127" s="214"/>
-      <c r="S127" s="214"/>
-      <c r="T127" s="214"/>
-      <c r="U127" s="214"/>
-      <c r="V127" s="214"/>
-      <c r="W127" s="214"/>
-      <c r="X127" s="220"/>
-      <c r="Y127" s="220"/>
-      <c r="Z127" s="221"/>
-      <c r="AA127" s="222"/>
-      <c r="AB127" s="222"/>
-      <c r="AC127" s="220"/>
-      <c r="AD127" s="220"/>
-      <c r="AE127" s="221"/>
-      <c r="AF127" s="222"/>
-      <c r="AG127" s="222"/>
-      <c r="AH127" s="220"/>
-      <c r="AI127" s="220"/>
-      <c r="AJ127" s="221"/>
-      <c r="AK127" s="221"/>
+      <c r="C127" s="238" t="s">
+        <v>186</v>
+      </c>
+      <c r="D127" s="239"/>
+      <c r="E127" s="239"/>
+      <c r="F127" s="240"/>
+      <c r="G127" s="241"/>
+      <c r="H127" s="241"/>
+      <c r="I127" s="239"/>
+      <c r="J127" s="239"/>
+      <c r="K127" s="240"/>
+      <c r="L127" s="241"/>
+      <c r="M127" s="241"/>
+      <c r="N127" s="239"/>
+      <c r="O127" s="239"/>
+      <c r="P127" s="240"/>
+      <c r="Q127" s="240"/>
+      <c r="R127" s="242"/>
+      <c r="S127" s="242"/>
+      <c r="T127" s="242"/>
+      <c r="U127" s="242"/>
+      <c r="V127" s="242"/>
+      <c r="W127" s="242"/>
+      <c r="X127" s="239"/>
+      <c r="Y127" s="239"/>
+      <c r="Z127" s="240"/>
+      <c r="AA127" s="241"/>
+      <c r="AB127" s="241"/>
+      <c r="AC127" s="239"/>
+      <c r="AD127" s="239"/>
+      <c r="AE127" s="240"/>
+      <c r="AF127" s="241"/>
+      <c r="AG127" s="241"/>
+      <c r="AH127" s="239"/>
+      <c r="AI127" s="239"/>
+      <c r="AJ127" s="240"/>
+      <c r="AK127" s="240"/>
       <c r="AL127" s="104"/>
       <c r="AM127" s="104"/>
     </row>
     <row r="128" spans="1:39" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B128" s="213"/>
-      <c r="C128" s="223" t="s">
-        <v>184</v>
-      </c>
-      <c r="D128" s="220"/>
-      <c r="E128" s="220"/>
-      <c r="F128" s="221"/>
-      <c r="G128" s="222"/>
-      <c r="H128" s="222"/>
-      <c r="I128" s="220"/>
-      <c r="J128" s="220"/>
-      <c r="K128" s="221"/>
-      <c r="L128" s="222"/>
-      <c r="M128" s="222"/>
-      <c r="N128" s="220"/>
-      <c r="O128" s="220"/>
-      <c r="P128" s="221"/>
-      <c r="Q128" s="221"/>
-      <c r="R128" s="214"/>
-      <c r="S128" s="214"/>
-      <c r="T128" s="214"/>
-      <c r="U128" s="214"/>
-      <c r="V128" s="214"/>
-      <c r="W128" s="214"/>
-      <c r="X128" s="220"/>
-      <c r="Y128" s="220"/>
-      <c r="Z128" s="221"/>
-      <c r="AA128" s="222"/>
-      <c r="AB128" s="222"/>
-      <c r="AC128" s="220"/>
-      <c r="AD128" s="220"/>
-      <c r="AE128" s="221"/>
-      <c r="AF128" s="222"/>
-      <c r="AG128" s="222"/>
-      <c r="AH128" s="220"/>
-      <c r="AI128" s="220"/>
-      <c r="AJ128" s="221"/>
-      <c r="AK128" s="221"/>
+      <c r="C128" s="243" t="s">
+        <v>183</v>
+      </c>
+      <c r="D128" s="239"/>
+      <c r="E128" s="239"/>
+      <c r="F128" s="240"/>
+      <c r="G128" s="241"/>
+      <c r="H128" s="241"/>
+      <c r="I128" s="239"/>
+      <c r="J128" s="239"/>
+      <c r="K128" s="240"/>
+      <c r="L128" s="241"/>
+      <c r="M128" s="241"/>
+      <c r="N128" s="239"/>
+      <c r="O128" s="239"/>
+      <c r="P128" s="240"/>
+      <c r="Q128" s="240"/>
+      <c r="R128" s="242"/>
+      <c r="S128" s="242"/>
+      <c r="T128" s="242"/>
+      <c r="U128" s="242"/>
+      <c r="V128" s="242"/>
+      <c r="W128" s="242"/>
+      <c r="X128" s="239"/>
+      <c r="Y128" s="239"/>
+      <c r="Z128" s="240"/>
+      <c r="AA128" s="241"/>
+      <c r="AB128" s="241"/>
+      <c r="AC128" s="239"/>
+      <c r="AD128" s="239"/>
+      <c r="AE128" s="240"/>
+      <c r="AF128" s="241"/>
+      <c r="AG128" s="241"/>
+      <c r="AH128" s="239"/>
+      <c r="AI128" s="239"/>
+      <c r="AJ128" s="240"/>
+      <c r="AK128" s="240"/>
       <c r="AL128" s="104"/>
       <c r="AM128" s="104"/>
     </row>
     <row r="129" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="224" t="s">
-        <v>181</v>
-      </c>
-      <c r="D129" s="224"/>
-      <c r="E129" s="224"/>
-      <c r="F129" s="224"/>
-      <c r="G129" s="224"/>
-      <c r="H129" s="224"/>
-      <c r="I129" s="224"/>
-      <c r="J129" s="224"/>
-      <c r="K129" s="224"/>
-      <c r="L129" s="224"/>
-      <c r="M129" s="224"/>
-      <c r="N129" s="224"/>
-      <c r="O129" s="224"/>
-      <c r="P129" s="224"/>
-      <c r="Q129" s="224"/>
-      <c r="R129" s="225"/>
-      <c r="S129" s="225"/>
+      <c r="C129" s="245" t="s">
+        <v>180</v>
+      </c>
+      <c r="D129" s="245"/>
+      <c r="E129" s="245"/>
+      <c r="F129" s="245"/>
+      <c r="G129" s="245"/>
+      <c r="H129" s="245"/>
+      <c r="I129" s="245"/>
+      <c r="J129" s="245"/>
+      <c r="K129" s="245"/>
+      <c r="L129" s="245"/>
+      <c r="M129" s="245"/>
+      <c r="N129" s="245"/>
+      <c r="O129" s="245"/>
+      <c r="P129" s="245"/>
+      <c r="Q129" s="245"/>
+      <c r="R129" s="214"/>
+      <c r="S129" s="214"/>
       <c r="T129" s="105"/>
       <c r="U129" s="105"/>
       <c r="V129" s="105"/>
@@ -22923,33 +23154,33 @@
       <c r="AM129" s="208"/>
     </row>
     <row r="130" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="241" t="s">
-        <v>176</v>
+      <c r="A130" s="218" t="s">
+        <v>211</v>
       </c>
       <c r="B130" s="207"/>
-      <c r="C130" s="238" t="s">
+      <c r="C130" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="D130" s="229" t="s">
+      <c r="D130" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="E130" s="230"/>
-      <c r="F130" s="230"/>
-      <c r="G130" s="230"/>
-      <c r="H130" s="231"/>
-      <c r="I130" s="229" t="s">
+      <c r="E130" s="250"/>
+      <c r="F130" s="250"/>
+      <c r="G130" s="250"/>
+      <c r="H130" s="251"/>
+      <c r="I130" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="J130" s="230"/>
-      <c r="K130" s="230"/>
-      <c r="L130" s="230"/>
-      <c r="M130" s="231"/>
-      <c r="N130" s="229" t="s">
+      <c r="J130" s="250"/>
+      <c r="K130" s="250"/>
+      <c r="L130" s="250"/>
+      <c r="M130" s="251"/>
+      <c r="N130" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="O130" s="230"/>
-      <c r="P130" s="230"/>
-      <c r="Q130" s="231"/>
+      <c r="O130" s="250"/>
+      <c r="P130" s="250"/>
+      <c r="Q130" s="251"/>
       <c r="R130" s="81"/>
       <c r="S130" s="81"/>
       <c r="T130" s="104"/>
@@ -22974,35 +23205,35 @@
       <c r="AM130" s="177"/>
     </row>
     <row r="131" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="241"/>
+      <c r="A131" s="218"/>
       <c r="B131" s="207"/>
-      <c r="C131" s="239"/>
-      <c r="D131" s="229" t="s">
+      <c r="C131" s="247"/>
+      <c r="D131" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="E131" s="230"/>
-      <c r="F131" s="231"/>
-      <c r="G131" s="232" t="s">
+      <c r="E131" s="250"/>
+      <c r="F131" s="251"/>
+      <c r="G131" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="H131" s="233"/>
-      <c r="I131" s="229" t="s">
+      <c r="H131" s="253"/>
+      <c r="I131" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="J131" s="230"/>
-      <c r="K131" s="231"/>
-      <c r="L131" s="232" t="s">
+      <c r="J131" s="250"/>
+      <c r="K131" s="251"/>
+      <c r="L131" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="M131" s="233"/>
-      <c r="N131" s="242" t="s">
+      <c r="M131" s="253"/>
+      <c r="N131" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="O131" s="243"/>
-      <c r="P131" s="244" t="s">
+      <c r="O131" s="255"/>
+      <c r="P131" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="Q131" s="245"/>
+      <c r="Q131" s="257"/>
       <c r="R131" s="81"/>
       <c r="S131" s="81"/>
       <c r="T131" s="104"/>
@@ -23027,9 +23258,9 @@
       <c r="AM131" s="177"/>
     </row>
     <row r="132" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="241"/>
+      <c r="A132" s="218"/>
       <c r="B132" s="207"/>
-      <c r="C132" s="240"/>
+      <c r="C132" s="248"/>
       <c r="D132" s="51" t="s">
         <v>6</v>
       </c>
@@ -23096,7 +23327,7 @@
       <c r="AM132" s="177"/>
     </row>
     <row r="133" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A133" s="209"/>
+      <c r="A133" s="218"/>
       <c r="C133" s="55" t="s">
         <v>31</v>
       </c>
@@ -34126,263 +34357,263 @@
     </row>
     <row r="301" spans="1:39" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="210" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B301" s="211"/>
-      <c r="C301" s="219" t="s">
-        <v>189</v>
-      </c>
-      <c r="D301" s="220"/>
-      <c r="E301" s="220"/>
-      <c r="F301" s="221"/>
-      <c r="G301" s="222"/>
-      <c r="H301" s="222"/>
-      <c r="I301" s="220"/>
-      <c r="J301" s="220"/>
-      <c r="K301" s="221"/>
-      <c r="L301" s="222"/>
-      <c r="M301" s="222"/>
-      <c r="N301" s="220"/>
-      <c r="O301" s="220"/>
-      <c r="P301" s="221"/>
-      <c r="Q301" s="221"/>
-      <c r="R301" s="214"/>
-      <c r="S301" s="214"/>
-      <c r="T301" s="214"/>
-      <c r="U301" s="214"/>
-      <c r="V301" s="214"/>
-      <c r="W301" s="214"/>
-      <c r="X301" s="220"/>
-      <c r="Y301" s="220"/>
-      <c r="Z301" s="221"/>
-      <c r="AA301" s="222"/>
-      <c r="AB301" s="222"/>
-      <c r="AC301" s="220"/>
-      <c r="AD301" s="220"/>
-      <c r="AE301" s="221"/>
-      <c r="AF301" s="222"/>
-      <c r="AG301" s="222"/>
-      <c r="AH301" s="220"/>
-      <c r="AI301" s="220"/>
-      <c r="AJ301" s="221"/>
-      <c r="AK301" s="221"/>
+      <c r="C301" s="238" t="s">
+        <v>188</v>
+      </c>
+      <c r="D301" s="239"/>
+      <c r="E301" s="239"/>
+      <c r="F301" s="240"/>
+      <c r="G301" s="241"/>
+      <c r="H301" s="241"/>
+      <c r="I301" s="239"/>
+      <c r="J301" s="239"/>
+      <c r="K301" s="240"/>
+      <c r="L301" s="241"/>
+      <c r="M301" s="241"/>
+      <c r="N301" s="239"/>
+      <c r="O301" s="239"/>
+      <c r="P301" s="240"/>
+      <c r="Q301" s="240"/>
+      <c r="R301" s="242"/>
+      <c r="S301" s="242"/>
+      <c r="T301" s="242"/>
+      <c r="U301" s="242"/>
+      <c r="V301" s="242"/>
+      <c r="W301" s="242"/>
+      <c r="X301" s="239"/>
+      <c r="Y301" s="239"/>
+      <c r="Z301" s="240"/>
+      <c r="AA301" s="241"/>
+      <c r="AB301" s="241"/>
+      <c r="AC301" s="239"/>
+      <c r="AD301" s="239"/>
+      <c r="AE301" s="240"/>
+      <c r="AF301" s="241"/>
+      <c r="AG301" s="241"/>
+      <c r="AH301" s="239"/>
+      <c r="AI301" s="239"/>
+      <c r="AJ301" s="240"/>
+      <c r="AK301" s="240"/>
       <c r="AL301" s="104"/>
       <c r="AM301" s="104"/>
     </row>
     <row r="302" spans="1:39" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B302" s="213"/>
-      <c r="C302" s="223" t="s">
-        <v>184</v>
-      </c>
-      <c r="D302" s="220"/>
-      <c r="E302" s="220"/>
-      <c r="F302" s="221"/>
-      <c r="G302" s="222"/>
-      <c r="H302" s="222"/>
-      <c r="I302" s="220"/>
-      <c r="J302" s="220"/>
-      <c r="K302" s="221"/>
-      <c r="L302" s="222"/>
-      <c r="M302" s="222"/>
-      <c r="N302" s="220"/>
-      <c r="O302" s="220"/>
-      <c r="P302" s="221"/>
-      <c r="Q302" s="221"/>
-      <c r="R302" s="214"/>
-      <c r="S302" s="214"/>
-      <c r="T302" s="214"/>
-      <c r="U302" s="214"/>
-      <c r="V302" s="214"/>
-      <c r="W302" s="214"/>
-      <c r="X302" s="220"/>
-      <c r="Y302" s="220"/>
-      <c r="Z302" s="221"/>
-      <c r="AA302" s="222"/>
-      <c r="AB302" s="222"/>
-      <c r="AC302" s="220"/>
-      <c r="AD302" s="220"/>
-      <c r="AE302" s="221"/>
-      <c r="AF302" s="222"/>
-      <c r="AG302" s="222"/>
-      <c r="AH302" s="220"/>
-      <c r="AI302" s="220"/>
-      <c r="AJ302" s="221"/>
-      <c r="AK302" s="221"/>
+      <c r="C302" s="243" t="s">
+        <v>183</v>
+      </c>
+      <c r="D302" s="239"/>
+      <c r="E302" s="239"/>
+      <c r="F302" s="240"/>
+      <c r="G302" s="241"/>
+      <c r="H302" s="241"/>
+      <c r="I302" s="239"/>
+      <c r="J302" s="239"/>
+      <c r="K302" s="240"/>
+      <c r="L302" s="241"/>
+      <c r="M302" s="241"/>
+      <c r="N302" s="239"/>
+      <c r="O302" s="239"/>
+      <c r="P302" s="240"/>
+      <c r="Q302" s="240"/>
+      <c r="R302" s="242"/>
+      <c r="S302" s="242"/>
+      <c r="T302" s="242"/>
+      <c r="U302" s="242"/>
+      <c r="V302" s="242"/>
+      <c r="W302" s="242"/>
+      <c r="X302" s="239"/>
+      <c r="Y302" s="239"/>
+      <c r="Z302" s="240"/>
+      <c r="AA302" s="241"/>
+      <c r="AB302" s="241"/>
+      <c r="AC302" s="239"/>
+      <c r="AD302" s="239"/>
+      <c r="AE302" s="240"/>
+      <c r="AF302" s="241"/>
+      <c r="AG302" s="241"/>
+      <c r="AH302" s="239"/>
+      <c r="AI302" s="239"/>
+      <c r="AJ302" s="240"/>
+      <c r="AK302" s="240"/>
       <c r="AL302" s="104"/>
       <c r="AM302" s="104"/>
     </row>
     <row r="303" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C303" s="224" t="s">
-        <v>208</v>
-      </c>
-      <c r="D303" s="224"/>
-      <c r="E303" s="224"/>
-      <c r="F303" s="224"/>
-      <c r="G303" s="224"/>
-      <c r="H303" s="224"/>
-      <c r="I303" s="224"/>
-      <c r="J303" s="224"/>
-      <c r="K303" s="224"/>
-      <c r="L303" s="224"/>
-      <c r="M303" s="224"/>
-      <c r="N303" s="224"/>
-      <c r="O303" s="224"/>
-      <c r="P303" s="224"/>
-      <c r="Q303" s="224"/>
-      <c r="R303" s="225"/>
-      <c r="S303" s="225"/>
+      <c r="C303" s="245" t="s">
+        <v>207</v>
+      </c>
+      <c r="D303" s="245"/>
+      <c r="E303" s="245"/>
+      <c r="F303" s="245"/>
+      <c r="G303" s="245"/>
+      <c r="H303" s="245"/>
+      <c r="I303" s="245"/>
+      <c r="J303" s="245"/>
+      <c r="K303" s="245"/>
+      <c r="L303" s="245"/>
+      <c r="M303" s="245"/>
+      <c r="N303" s="245"/>
+      <c r="O303" s="245"/>
+      <c r="P303" s="245"/>
+      <c r="Q303" s="245"/>
+      <c r="R303" s="214"/>
+      <c r="S303" s="214"/>
       <c r="T303" s="105"/>
       <c r="U303" s="105"/>
       <c r="V303" s="105"/>
-      <c r="W303" s="224" t="s">
-        <v>182</v>
-      </c>
-      <c r="X303" s="224"/>
-      <c r="Y303" s="224"/>
-      <c r="Z303" s="224"/>
-      <c r="AA303" s="224"/>
-      <c r="AB303" s="224"/>
-      <c r="AC303" s="224"/>
-      <c r="AD303" s="224"/>
-      <c r="AE303" s="224"/>
-      <c r="AF303" s="224"/>
-      <c r="AG303" s="224"/>
-      <c r="AH303" s="224"/>
-      <c r="AI303" s="224"/>
-      <c r="AJ303" s="224"/>
-      <c r="AK303" s="224"/>
-      <c r="AL303" s="225"/>
-      <c r="AM303" s="225"/>
+      <c r="W303" s="245" t="s">
+        <v>181</v>
+      </c>
+      <c r="X303" s="245"/>
+      <c r="Y303" s="245"/>
+      <c r="Z303" s="245"/>
+      <c r="AA303" s="245"/>
+      <c r="AB303" s="245"/>
+      <c r="AC303" s="245"/>
+      <c r="AD303" s="245"/>
+      <c r="AE303" s="245"/>
+      <c r="AF303" s="245"/>
+      <c r="AG303" s="245"/>
+      <c r="AH303" s="245"/>
+      <c r="AI303" s="245"/>
+      <c r="AJ303" s="245"/>
+      <c r="AK303" s="245"/>
+      <c r="AL303" s="214"/>
+      <c r="AM303" s="214"/>
     </row>
     <row r="304" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="241" t="s">
-        <v>176</v>
+      <c r="A304" s="218" t="s">
+        <v>213</v>
       </c>
       <c r="B304" s="207"/>
-      <c r="C304" s="238" t="s">
+      <c r="C304" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="D304" s="229" t="s">
+      <c r="D304" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="E304" s="230"/>
-      <c r="F304" s="230"/>
-      <c r="G304" s="230"/>
-      <c r="H304" s="231"/>
-      <c r="I304" s="229" t="s">
+      <c r="E304" s="250"/>
+      <c r="F304" s="250"/>
+      <c r="G304" s="250"/>
+      <c r="H304" s="251"/>
+      <c r="I304" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="J304" s="230"/>
-      <c r="K304" s="230"/>
-      <c r="L304" s="230"/>
-      <c r="M304" s="231"/>
-      <c r="N304" s="229" t="s">
+      <c r="J304" s="250"/>
+      <c r="K304" s="250"/>
+      <c r="L304" s="250"/>
+      <c r="M304" s="251"/>
+      <c r="N304" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="O304" s="230"/>
-      <c r="P304" s="230"/>
-      <c r="Q304" s="231"/>
+      <c r="O304" s="250"/>
+      <c r="P304" s="250"/>
+      <c r="Q304" s="251"/>
       <c r="R304" s="75"/>
       <c r="S304" s="75"/>
       <c r="T304" s="101"/>
-      <c r="U304" s="241" t="s">
-        <v>176</v>
+      <c r="U304" s="218" t="s">
+        <v>211</v>
       </c>
       <c r="V304" s="207"/>
-      <c r="W304" s="238" t="s">
+      <c r="W304" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="X304" s="229" t="s">
+      <c r="X304" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="Y304" s="230"/>
-      <c r="Z304" s="230"/>
-      <c r="AA304" s="230"/>
-      <c r="AB304" s="231"/>
-      <c r="AC304" s="229" t="s">
+      <c r="Y304" s="250"/>
+      <c r="Z304" s="250"/>
+      <c r="AA304" s="250"/>
+      <c r="AB304" s="251"/>
+      <c r="AC304" s="249" t="s">
         <v>92</v>
       </c>
-      <c r="AD304" s="230"/>
-      <c r="AE304" s="230"/>
-      <c r="AF304" s="230"/>
-      <c r="AG304" s="231"/>
-      <c r="AH304" s="229" t="s">
+      <c r="AD304" s="250"/>
+      <c r="AE304" s="250"/>
+      <c r="AF304" s="250"/>
+      <c r="AG304" s="251"/>
+      <c r="AH304" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="AI304" s="230"/>
-      <c r="AJ304" s="230"/>
-      <c r="AK304" s="231"/>
+      <c r="AI304" s="250"/>
+      <c r="AJ304" s="250"/>
+      <c r="AK304" s="251"/>
     </row>
     <row r="305" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="241"/>
+      <c r="A305" s="218"/>
       <c r="B305" s="207"/>
-      <c r="C305" s="239"/>
-      <c r="D305" s="229" t="s">
+      <c r="C305" s="247"/>
+      <c r="D305" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="E305" s="230"/>
-      <c r="F305" s="231"/>
-      <c r="G305" s="232" t="s">
+      <c r="E305" s="250"/>
+      <c r="F305" s="251"/>
+      <c r="G305" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="H305" s="233"/>
-      <c r="I305" s="229" t="s">
+      <c r="H305" s="253"/>
+      <c r="I305" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="J305" s="230"/>
-      <c r="K305" s="231"/>
-      <c r="L305" s="232" t="s">
+      <c r="J305" s="250"/>
+      <c r="K305" s="251"/>
+      <c r="L305" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="M305" s="233"/>
-      <c r="N305" s="242" t="s">
+      <c r="M305" s="253"/>
+      <c r="N305" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="O305" s="243"/>
-      <c r="P305" s="244" t="s">
+      <c r="O305" s="255"/>
+      <c r="P305" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="Q305" s="245"/>
+      <c r="Q305" s="257"/>
       <c r="R305" s="75"/>
       <c r="S305" s="75"/>
       <c r="T305" s="101"/>
-      <c r="U305" s="241"/>
+      <c r="U305" s="218"/>
       <c r="V305" s="207"/>
-      <c r="W305" s="239"/>
-      <c r="X305" s="229" t="s">
+      <c r="W305" s="247"/>
+      <c r="X305" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="Y305" s="230"/>
-      <c r="Z305" s="231"/>
-      <c r="AA305" s="232" t="s">
+      <c r="Y305" s="250"/>
+      <c r="Z305" s="251"/>
+      <c r="AA305" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="AB305" s="233"/>
-      <c r="AC305" s="229" t="s">
+      <c r="AB305" s="253"/>
+      <c r="AC305" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="AD305" s="230"/>
-      <c r="AE305" s="231"/>
-      <c r="AF305" s="232" t="s">
+      <c r="AD305" s="250"/>
+      <c r="AE305" s="251"/>
+      <c r="AF305" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="AG305" s="233"/>
-      <c r="AH305" s="242" t="s">
+      <c r="AG305" s="253"/>
+      <c r="AH305" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="AI305" s="243"/>
-      <c r="AJ305" s="244" t="s">
+      <c r="AI305" s="255"/>
+      <c r="AJ305" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="AK305" s="245"/>
+      <c r="AK305" s="257"/>
     </row>
     <row r="306" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="241"/>
+      <c r="A306" s="218"/>
       <c r="B306" s="207"/>
-      <c r="C306" s="240"/>
+      <c r="C306" s="248"/>
       <c r="D306" s="51" t="s">
         <v>6</v>
       </c>
@@ -34428,9 +34659,9 @@
       <c r="R306" s="76"/>
       <c r="S306" s="76"/>
       <c r="T306" s="102"/>
-      <c r="U306" s="241"/>
+      <c r="U306" s="218"/>
       <c r="V306" s="207"/>
-      <c r="W306" s="240"/>
+      <c r="W306" s="248"/>
       <c r="X306" s="51" t="s">
         <v>6</v>
       </c>
@@ -34475,7 +34706,7 @@
       </c>
     </row>
     <row r="307" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A307" s="209"/>
+      <c r="A307" s="218"/>
       <c r="C307" s="55" t="s">
         <v>74</v>
       </c>
@@ -34520,7 +34751,7 @@
       <c r="R307" s="55"/>
       <c r="S307" s="55"/>
       <c r="T307" s="103"/>
-      <c r="U307" s="209"/>
+      <c r="U307" s="218"/>
       <c r="V307" s="103"/>
       <c r="W307" s="55" t="s">
         <v>74</v>
@@ -35476,257 +35707,257 @@
     </row>
     <row r="319" spans="1:39" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="210" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B319" s="211"/>
-      <c r="C319" s="219" t="s">
-        <v>190</v>
-      </c>
-      <c r="D319" s="220"/>
-      <c r="E319" s="220"/>
-      <c r="F319" s="221"/>
-      <c r="G319" s="222"/>
-      <c r="H319" s="222"/>
-      <c r="I319" s="220"/>
-      <c r="J319" s="220"/>
-      <c r="K319" s="221"/>
-      <c r="L319" s="222"/>
-      <c r="M319" s="222"/>
-      <c r="N319" s="220"/>
-      <c r="O319" s="220"/>
-      <c r="P319" s="221"/>
-      <c r="Q319" s="221"/>
-      <c r="R319" s="214"/>
-      <c r="S319" s="214"/>
-      <c r="T319" s="214"/>
-      <c r="U319" s="214"/>
-      <c r="V319" s="214"/>
-      <c r="W319" s="214"/>
-      <c r="X319" s="220"/>
-      <c r="Y319" s="220"/>
-      <c r="Z319" s="221"/>
-      <c r="AA319" s="222"/>
-      <c r="AB319" s="222"/>
-      <c r="AC319" s="220"/>
-      <c r="AD319" s="220"/>
-      <c r="AE319" s="221"/>
-      <c r="AF319" s="222"/>
-      <c r="AG319" s="222"/>
-      <c r="AH319" s="220"/>
-      <c r="AI319" s="220"/>
-      <c r="AJ319" s="221"/>
-      <c r="AK319" s="221"/>
+      <c r="C319" s="238" t="s">
+        <v>189</v>
+      </c>
+      <c r="D319" s="239"/>
+      <c r="E319" s="239"/>
+      <c r="F319" s="240"/>
+      <c r="G319" s="241"/>
+      <c r="H319" s="241"/>
+      <c r="I319" s="239"/>
+      <c r="J319" s="239"/>
+      <c r="K319" s="240"/>
+      <c r="L319" s="241"/>
+      <c r="M319" s="241"/>
+      <c r="N319" s="239"/>
+      <c r="O319" s="239"/>
+      <c r="P319" s="240"/>
+      <c r="Q319" s="240"/>
+      <c r="R319" s="242"/>
+      <c r="S319" s="242"/>
+      <c r="T319" s="242"/>
+      <c r="U319" s="242"/>
+      <c r="V319" s="242"/>
+      <c r="W319" s="242"/>
+      <c r="X319" s="239"/>
+      <c r="Y319" s="239"/>
+      <c r="Z319" s="240"/>
+      <c r="AA319" s="241"/>
+      <c r="AB319" s="241"/>
+      <c r="AC319" s="239"/>
+      <c r="AD319" s="239"/>
+      <c r="AE319" s="240"/>
+      <c r="AF319" s="241"/>
+      <c r="AG319" s="241"/>
+      <c r="AH319" s="239"/>
+      <c r="AI319" s="239"/>
+      <c r="AJ319" s="240"/>
+      <c r="AK319" s="240"/>
       <c r="AL319" s="104"/>
       <c r="AM319" s="104"/>
     </row>
     <row r="320" spans="1:39" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B320" s="213"/>
-      <c r="C320" s="223" t="s">
-        <v>184</v>
-      </c>
-      <c r="D320" s="220"/>
-      <c r="E320" s="220"/>
-      <c r="F320" s="221"/>
-      <c r="G320" s="222"/>
-      <c r="H320" s="222"/>
-      <c r="I320" s="220"/>
-      <c r="J320" s="220"/>
-      <c r="K320" s="221"/>
-      <c r="L320" s="222"/>
-      <c r="M320" s="222"/>
-      <c r="N320" s="220"/>
-      <c r="O320" s="220"/>
-      <c r="P320" s="221"/>
-      <c r="Q320" s="221"/>
-      <c r="R320" s="214"/>
-      <c r="S320" s="214"/>
-      <c r="T320" s="214"/>
-      <c r="U320" s="214"/>
-      <c r="V320" s="214"/>
-      <c r="W320" s="214"/>
-      <c r="X320" s="220"/>
-      <c r="Y320" s="220"/>
-      <c r="Z320" s="221"/>
-      <c r="AA320" s="222"/>
-      <c r="AB320" s="222"/>
-      <c r="AC320" s="220"/>
-      <c r="AD320" s="220"/>
-      <c r="AE320" s="221"/>
-      <c r="AF320" s="222"/>
-      <c r="AG320" s="222"/>
-      <c r="AH320" s="220"/>
-      <c r="AI320" s="220"/>
-      <c r="AJ320" s="221"/>
-      <c r="AK320" s="221"/>
+      <c r="C320" s="243" t="s">
+        <v>183</v>
+      </c>
+      <c r="D320" s="239"/>
+      <c r="E320" s="239"/>
+      <c r="F320" s="240"/>
+      <c r="G320" s="241"/>
+      <c r="H320" s="241"/>
+      <c r="I320" s="239"/>
+      <c r="J320" s="239"/>
+      <c r="K320" s="240"/>
+      <c r="L320" s="241"/>
+      <c r="M320" s="241"/>
+      <c r="N320" s="239"/>
+      <c r="O320" s="239"/>
+      <c r="P320" s="240"/>
+      <c r="Q320" s="240"/>
+      <c r="R320" s="242"/>
+      <c r="S320" s="242"/>
+      <c r="T320" s="242"/>
+      <c r="U320" s="242"/>
+      <c r="V320" s="242"/>
+      <c r="W320" s="242"/>
+      <c r="X320" s="239"/>
+      <c r="Y320" s="239"/>
+      <c r="Z320" s="240"/>
+      <c r="AA320" s="241"/>
+      <c r="AB320" s="241"/>
+      <c r="AC320" s="239"/>
+      <c r="AD320" s="239"/>
+      <c r="AE320" s="240"/>
+      <c r="AF320" s="241"/>
+      <c r="AG320" s="241"/>
+      <c r="AH320" s="239"/>
+      <c r="AI320" s="239"/>
+      <c r="AJ320" s="240"/>
+      <c r="AK320" s="240"/>
       <c r="AL320" s="104"/>
       <c r="AM320" s="104"/>
     </row>
     <row r="321" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C321" s="224" t="s">
-        <v>208</v>
-      </c>
-      <c r="D321" s="224"/>
-      <c r="E321" s="224"/>
-      <c r="F321" s="224"/>
-      <c r="G321" s="224"/>
-      <c r="H321" s="224"/>
-      <c r="I321" s="224"/>
-      <c r="J321" s="224"/>
-      <c r="K321" s="224"/>
-      <c r="L321" s="224"/>
-      <c r="M321" s="224"/>
-      <c r="N321" s="224"/>
-      <c r="O321" s="224"/>
-      <c r="P321" s="224"/>
-      <c r="Q321" s="224"/>
-      <c r="R321" s="225"/>
-      <c r="S321" s="225"/>
+      <c r="C321" s="245" t="s">
+        <v>207</v>
+      </c>
+      <c r="D321" s="245"/>
+      <c r="E321" s="245"/>
+      <c r="F321" s="245"/>
+      <c r="G321" s="245"/>
+      <c r="H321" s="245"/>
+      <c r="I321" s="245"/>
+      <c r="J321" s="245"/>
+      <c r="K321" s="245"/>
+      <c r="L321" s="245"/>
+      <c r="M321" s="245"/>
+      <c r="N321" s="245"/>
+      <c r="O321" s="245"/>
+      <c r="P321" s="245"/>
+      <c r="Q321" s="245"/>
+      <c r="R321" s="214"/>
+      <c r="S321" s="214"/>
       <c r="T321" s="105"/>
       <c r="U321" s="105"/>
       <c r="V321" s="105"/>
-      <c r="W321" s="224" t="s">
-        <v>182</v>
-      </c>
-      <c r="X321" s="224"/>
-      <c r="Y321" s="224"/>
-      <c r="Z321" s="224"/>
-      <c r="AA321" s="224"/>
-      <c r="AB321" s="224"/>
-      <c r="AC321" s="224"/>
-      <c r="AD321" s="224"/>
-      <c r="AE321" s="224"/>
-      <c r="AF321" s="224"/>
-      <c r="AG321" s="224"/>
-      <c r="AH321" s="224"/>
-      <c r="AI321" s="224"/>
-      <c r="AJ321" s="224"/>
-      <c r="AK321" s="224"/>
-      <c r="AL321" s="225"/>
-      <c r="AM321" s="225"/>
+      <c r="W321" s="245" t="s">
+        <v>181</v>
+      </c>
+      <c r="X321" s="245"/>
+      <c r="Y321" s="245"/>
+      <c r="Z321" s="245"/>
+      <c r="AA321" s="245"/>
+      <c r="AB321" s="245"/>
+      <c r="AC321" s="245"/>
+      <c r="AD321" s="245"/>
+      <c r="AE321" s="245"/>
+      <c r="AF321" s="245"/>
+      <c r="AG321" s="245"/>
+      <c r="AH321" s="245"/>
+      <c r="AI321" s="245"/>
+      <c r="AJ321" s="245"/>
+      <c r="AK321" s="245"/>
+      <c r="AL321" s="214"/>
+      <c r="AM321" s="214"/>
     </row>
     <row r="322" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="241" t="s">
-        <v>176</v>
+      <c r="A322" s="218" t="s">
+        <v>211</v>
       </c>
       <c r="B322" s="207"/>
-      <c r="C322" s="238" t="s">
+      <c r="C322" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="D322" s="229" t="s">
+      <c r="D322" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="E322" s="230"/>
-      <c r="F322" s="230"/>
-      <c r="G322" s="230"/>
-      <c r="H322" s="231"/>
-      <c r="I322" s="229" t="s">
+      <c r="E322" s="250"/>
+      <c r="F322" s="250"/>
+      <c r="G322" s="250"/>
+      <c r="H322" s="251"/>
+      <c r="I322" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="J322" s="230"/>
-      <c r="K322" s="230"/>
-      <c r="L322" s="230"/>
-      <c r="M322" s="231"/>
-      <c r="N322" s="229" t="s">
+      <c r="J322" s="250"/>
+      <c r="K322" s="250"/>
+      <c r="L322" s="250"/>
+      <c r="M322" s="251"/>
+      <c r="N322" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="O322" s="230"/>
-      <c r="P322" s="230"/>
-      <c r="Q322" s="231"/>
-      <c r="U322" s="241" t="s">
-        <v>176</v>
+      <c r="O322" s="250"/>
+      <c r="P322" s="250"/>
+      <c r="Q322" s="251"/>
+      <c r="U322" s="218" t="s">
+        <v>211</v>
       </c>
       <c r="V322" s="207"/>
-      <c r="W322" s="238" t="s">
+      <c r="W322" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="X322" s="229" t="s">
+      <c r="X322" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="Y322" s="230"/>
-      <c r="Z322" s="230"/>
-      <c r="AA322" s="230"/>
-      <c r="AB322" s="231"/>
-      <c r="AC322" s="229" t="s">
+      <c r="Y322" s="250"/>
+      <c r="Z322" s="250"/>
+      <c r="AA322" s="250"/>
+      <c r="AB322" s="251"/>
+      <c r="AC322" s="249" t="s">
         <v>92</v>
       </c>
-      <c r="AD322" s="230"/>
-      <c r="AE322" s="230"/>
-      <c r="AF322" s="230"/>
-      <c r="AG322" s="231"/>
-      <c r="AH322" s="229" t="s">
+      <c r="AD322" s="250"/>
+      <c r="AE322" s="250"/>
+      <c r="AF322" s="250"/>
+      <c r="AG322" s="251"/>
+      <c r="AH322" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="AI322" s="230"/>
-      <c r="AJ322" s="230"/>
-      <c r="AK322" s="231"/>
+      <c r="AI322" s="250"/>
+      <c r="AJ322" s="250"/>
+      <c r="AK322" s="251"/>
     </row>
     <row r="323" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="241"/>
+      <c r="A323" s="218"/>
       <c r="B323" s="207"/>
-      <c r="C323" s="239"/>
-      <c r="D323" s="229" t="s">
+      <c r="C323" s="247"/>
+      <c r="D323" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="E323" s="230"/>
-      <c r="F323" s="231"/>
-      <c r="G323" s="232" t="s">
+      <c r="E323" s="250"/>
+      <c r="F323" s="251"/>
+      <c r="G323" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="H323" s="233"/>
-      <c r="I323" s="229" t="s">
+      <c r="H323" s="253"/>
+      <c r="I323" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="J323" s="230"/>
-      <c r="K323" s="231"/>
-      <c r="L323" s="232" t="s">
+      <c r="J323" s="250"/>
+      <c r="K323" s="251"/>
+      <c r="L323" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="M323" s="233"/>
-      <c r="N323" s="242" t="s">
+      <c r="M323" s="253"/>
+      <c r="N323" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="O323" s="243"/>
-      <c r="P323" s="244" t="s">
+      <c r="O323" s="255"/>
+      <c r="P323" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="Q323" s="245"/>
-      <c r="U323" s="241"/>
+      <c r="Q323" s="257"/>
+      <c r="U323" s="218"/>
       <c r="V323" s="207"/>
-      <c r="W323" s="239"/>
-      <c r="X323" s="229" t="s">
+      <c r="W323" s="247"/>
+      <c r="X323" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="Y323" s="230"/>
-      <c r="Z323" s="231"/>
-      <c r="AA323" s="232" t="s">
+      <c r="Y323" s="250"/>
+      <c r="Z323" s="251"/>
+      <c r="AA323" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="AB323" s="233"/>
-      <c r="AC323" s="229" t="s">
+      <c r="AB323" s="253"/>
+      <c r="AC323" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="AD323" s="230"/>
-      <c r="AE323" s="231"/>
-      <c r="AF323" s="232" t="s">
+      <c r="AD323" s="250"/>
+      <c r="AE323" s="251"/>
+      <c r="AF323" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="AG323" s="233"/>
-      <c r="AH323" s="242" t="s">
+      <c r="AG323" s="253"/>
+      <c r="AH323" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="AI323" s="243"/>
-      <c r="AJ323" s="244" t="s">
+      <c r="AI323" s="255"/>
+      <c r="AJ323" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="AK323" s="245"/>
+      <c r="AK323" s="257"/>
     </row>
     <row r="324" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="241"/>
+      <c r="A324" s="218"/>
       <c r="B324" s="207"/>
-      <c r="C324" s="240"/>
+      <c r="C324" s="248"/>
       <c r="D324" s="51" t="s">
         <v>6</v>
       </c>
@@ -35769,9 +36000,9 @@
       <c r="Q324" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="U324" s="241"/>
+      <c r="U324" s="218"/>
       <c r="V324" s="207"/>
-      <c r="W324" s="240"/>
+      <c r="W324" s="248"/>
       <c r="X324" s="51" t="s">
         <v>6</v>
       </c>
@@ -35816,7 +36047,7 @@
       </c>
     </row>
     <row r="325" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A325" s="209"/>
+      <c r="A325" s="218"/>
       <c r="C325" s="55" t="s">
         <v>98</v>
       </c>
@@ -35858,7 +36089,7 @@
       <c r="Q325" s="63">
         <v>0</v>
       </c>
-      <c r="U325" s="209"/>
+      <c r="U325" s="218"/>
       <c r="W325" s="55" t="s">
         <v>98</v>
       </c>
@@ -37099,257 +37330,257 @@
     </row>
     <row r="340" spans="1:39" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="210" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B340" s="211"/>
-      <c r="C340" s="219" t="s">
-        <v>191</v>
-      </c>
-      <c r="D340" s="220"/>
-      <c r="E340" s="220"/>
-      <c r="F340" s="221"/>
-      <c r="G340" s="222"/>
-      <c r="H340" s="222"/>
-      <c r="I340" s="220"/>
-      <c r="J340" s="220"/>
-      <c r="K340" s="221"/>
-      <c r="L340" s="222"/>
-      <c r="M340" s="222"/>
-      <c r="N340" s="220"/>
-      <c r="O340" s="220"/>
-      <c r="P340" s="221"/>
-      <c r="Q340" s="221"/>
-      <c r="R340" s="214"/>
-      <c r="S340" s="214"/>
-      <c r="T340" s="214"/>
-      <c r="U340" s="214"/>
-      <c r="V340" s="214"/>
-      <c r="W340" s="214"/>
-      <c r="X340" s="220"/>
-      <c r="Y340" s="220"/>
-      <c r="Z340" s="221"/>
-      <c r="AA340" s="222"/>
-      <c r="AB340" s="222"/>
-      <c r="AC340" s="220"/>
-      <c r="AD340" s="220"/>
-      <c r="AE340" s="221"/>
-      <c r="AF340" s="222"/>
-      <c r="AG340" s="222"/>
-      <c r="AH340" s="220"/>
-      <c r="AI340" s="220"/>
-      <c r="AJ340" s="221"/>
-      <c r="AK340" s="221"/>
+      <c r="C340" s="238" t="s">
+        <v>190</v>
+      </c>
+      <c r="D340" s="239"/>
+      <c r="E340" s="239"/>
+      <c r="F340" s="240"/>
+      <c r="G340" s="241"/>
+      <c r="H340" s="241"/>
+      <c r="I340" s="239"/>
+      <c r="J340" s="239"/>
+      <c r="K340" s="240"/>
+      <c r="L340" s="241"/>
+      <c r="M340" s="241"/>
+      <c r="N340" s="239"/>
+      <c r="O340" s="239"/>
+      <c r="P340" s="240"/>
+      <c r="Q340" s="240"/>
+      <c r="R340" s="242"/>
+      <c r="S340" s="242"/>
+      <c r="T340" s="242"/>
+      <c r="U340" s="242"/>
+      <c r="V340" s="242"/>
+      <c r="W340" s="242"/>
+      <c r="X340" s="239"/>
+      <c r="Y340" s="239"/>
+      <c r="Z340" s="240"/>
+      <c r="AA340" s="241"/>
+      <c r="AB340" s="241"/>
+      <c r="AC340" s="239"/>
+      <c r="AD340" s="239"/>
+      <c r="AE340" s="240"/>
+      <c r="AF340" s="241"/>
+      <c r="AG340" s="241"/>
+      <c r="AH340" s="239"/>
+      <c r="AI340" s="239"/>
+      <c r="AJ340" s="240"/>
+      <c r="AK340" s="240"/>
       <c r="AL340" s="104"/>
       <c r="AM340" s="104"/>
     </row>
     <row r="341" spans="1:39" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B341" s="213"/>
-      <c r="C341" s="223" t="s">
-        <v>184</v>
-      </c>
-      <c r="D341" s="220"/>
-      <c r="E341" s="220"/>
-      <c r="F341" s="221"/>
-      <c r="G341" s="222"/>
-      <c r="H341" s="222"/>
-      <c r="I341" s="220"/>
-      <c r="J341" s="220"/>
-      <c r="K341" s="221"/>
-      <c r="L341" s="222"/>
-      <c r="M341" s="222"/>
-      <c r="N341" s="220"/>
-      <c r="O341" s="220"/>
-      <c r="P341" s="221"/>
-      <c r="Q341" s="221"/>
-      <c r="R341" s="214"/>
-      <c r="S341" s="214"/>
-      <c r="T341" s="214"/>
-      <c r="U341" s="214"/>
-      <c r="V341" s="214"/>
-      <c r="W341" s="214"/>
-      <c r="X341" s="220"/>
-      <c r="Y341" s="220"/>
-      <c r="Z341" s="221"/>
-      <c r="AA341" s="222"/>
-      <c r="AB341" s="222"/>
-      <c r="AC341" s="220"/>
-      <c r="AD341" s="220"/>
-      <c r="AE341" s="221"/>
-      <c r="AF341" s="222"/>
-      <c r="AG341" s="222"/>
-      <c r="AH341" s="220"/>
-      <c r="AI341" s="220"/>
-      <c r="AJ341" s="221"/>
-      <c r="AK341" s="221"/>
+      <c r="C341" s="243" t="s">
+        <v>183</v>
+      </c>
+      <c r="D341" s="239"/>
+      <c r="E341" s="239"/>
+      <c r="F341" s="240"/>
+      <c r="G341" s="241"/>
+      <c r="H341" s="241"/>
+      <c r="I341" s="239"/>
+      <c r="J341" s="239"/>
+      <c r="K341" s="240"/>
+      <c r="L341" s="241"/>
+      <c r="M341" s="241"/>
+      <c r="N341" s="239"/>
+      <c r="O341" s="239"/>
+      <c r="P341" s="240"/>
+      <c r="Q341" s="240"/>
+      <c r="R341" s="242"/>
+      <c r="S341" s="242"/>
+      <c r="T341" s="242"/>
+      <c r="U341" s="242"/>
+      <c r="V341" s="242"/>
+      <c r="W341" s="242"/>
+      <c r="X341" s="239"/>
+      <c r="Y341" s="239"/>
+      <c r="Z341" s="240"/>
+      <c r="AA341" s="241"/>
+      <c r="AB341" s="241"/>
+      <c r="AC341" s="239"/>
+      <c r="AD341" s="239"/>
+      <c r="AE341" s="240"/>
+      <c r="AF341" s="241"/>
+      <c r="AG341" s="241"/>
+      <c r="AH341" s="239"/>
+      <c r="AI341" s="239"/>
+      <c r="AJ341" s="240"/>
+      <c r="AK341" s="240"/>
       <c r="AL341" s="104"/>
       <c r="AM341" s="104"/>
     </row>
     <row r="342" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C342" s="224" t="s">
-        <v>209</v>
-      </c>
-      <c r="D342" s="224"/>
-      <c r="E342" s="224"/>
-      <c r="F342" s="224"/>
-      <c r="G342" s="224"/>
-      <c r="H342" s="224"/>
-      <c r="I342" s="224"/>
-      <c r="J342" s="224"/>
-      <c r="K342" s="224"/>
-      <c r="L342" s="224"/>
-      <c r="M342" s="224"/>
-      <c r="N342" s="224"/>
-      <c r="O342" s="224"/>
-      <c r="P342" s="224"/>
-      <c r="Q342" s="224"/>
-      <c r="R342" s="225"/>
-      <c r="S342" s="225"/>
+      <c r="C342" s="245" t="s">
+        <v>208</v>
+      </c>
+      <c r="D342" s="245"/>
+      <c r="E342" s="245"/>
+      <c r="F342" s="245"/>
+      <c r="G342" s="245"/>
+      <c r="H342" s="245"/>
+      <c r="I342" s="245"/>
+      <c r="J342" s="245"/>
+      <c r="K342" s="245"/>
+      <c r="L342" s="245"/>
+      <c r="M342" s="245"/>
+      <c r="N342" s="245"/>
+      <c r="O342" s="245"/>
+      <c r="P342" s="245"/>
+      <c r="Q342" s="245"/>
+      <c r="R342" s="214"/>
+      <c r="S342" s="214"/>
       <c r="T342" s="105"/>
       <c r="U342" s="105"/>
       <c r="V342" s="105"/>
-      <c r="W342" s="224" t="s">
-        <v>182</v>
-      </c>
-      <c r="X342" s="224"/>
-      <c r="Y342" s="224"/>
-      <c r="Z342" s="224"/>
-      <c r="AA342" s="224"/>
-      <c r="AB342" s="224"/>
-      <c r="AC342" s="224"/>
-      <c r="AD342" s="224"/>
-      <c r="AE342" s="224"/>
-      <c r="AF342" s="224"/>
-      <c r="AG342" s="224"/>
-      <c r="AH342" s="224"/>
-      <c r="AI342" s="224"/>
-      <c r="AJ342" s="224"/>
-      <c r="AK342" s="224"/>
-      <c r="AL342" s="225"/>
-      <c r="AM342" s="225"/>
+      <c r="W342" s="245" t="s">
+        <v>181</v>
+      </c>
+      <c r="X342" s="245"/>
+      <c r="Y342" s="245"/>
+      <c r="Z342" s="245"/>
+      <c r="AA342" s="245"/>
+      <c r="AB342" s="245"/>
+      <c r="AC342" s="245"/>
+      <c r="AD342" s="245"/>
+      <c r="AE342" s="245"/>
+      <c r="AF342" s="245"/>
+      <c r="AG342" s="245"/>
+      <c r="AH342" s="245"/>
+      <c r="AI342" s="245"/>
+      <c r="AJ342" s="245"/>
+      <c r="AK342" s="245"/>
+      <c r="AL342" s="214"/>
+      <c r="AM342" s="214"/>
     </row>
     <row r="343" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="241" t="s">
-        <v>176</v>
+      <c r="A343" s="218" t="s">
+        <v>211</v>
       </c>
       <c r="B343" s="207"/>
-      <c r="C343" s="238" t="s">
+      <c r="C343" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="D343" s="229" t="s">
+      <c r="D343" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="E343" s="230"/>
-      <c r="F343" s="230"/>
-      <c r="G343" s="230"/>
-      <c r="H343" s="231"/>
-      <c r="I343" s="229" t="s">
+      <c r="E343" s="250"/>
+      <c r="F343" s="250"/>
+      <c r="G343" s="250"/>
+      <c r="H343" s="251"/>
+      <c r="I343" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="J343" s="230"/>
-      <c r="K343" s="230"/>
-      <c r="L343" s="230"/>
-      <c r="M343" s="231"/>
-      <c r="N343" s="229" t="s">
+      <c r="J343" s="250"/>
+      <c r="K343" s="250"/>
+      <c r="L343" s="250"/>
+      <c r="M343" s="251"/>
+      <c r="N343" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="O343" s="230"/>
-      <c r="P343" s="230"/>
-      <c r="Q343" s="231"/>
-      <c r="U343" s="241" t="s">
-        <v>176</v>
+      <c r="O343" s="250"/>
+      <c r="P343" s="250"/>
+      <c r="Q343" s="251"/>
+      <c r="U343" s="218" t="s">
+        <v>211</v>
       </c>
       <c r="V343" s="207"/>
-      <c r="W343" s="238" t="s">
+      <c r="W343" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="X343" s="229" t="s">
+      <c r="X343" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="Y343" s="230"/>
-      <c r="Z343" s="230"/>
-      <c r="AA343" s="230"/>
-      <c r="AB343" s="231"/>
-      <c r="AC343" s="229" t="s">
+      <c r="Y343" s="250"/>
+      <c r="Z343" s="250"/>
+      <c r="AA343" s="250"/>
+      <c r="AB343" s="251"/>
+      <c r="AC343" s="249" t="s">
         <v>92</v>
       </c>
-      <c r="AD343" s="230"/>
-      <c r="AE343" s="230"/>
-      <c r="AF343" s="230"/>
-      <c r="AG343" s="231"/>
-      <c r="AH343" s="229" t="s">
+      <c r="AD343" s="250"/>
+      <c r="AE343" s="250"/>
+      <c r="AF343" s="250"/>
+      <c r="AG343" s="251"/>
+      <c r="AH343" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="AI343" s="230"/>
-      <c r="AJ343" s="230"/>
-      <c r="AK343" s="231"/>
+      <c r="AI343" s="250"/>
+      <c r="AJ343" s="250"/>
+      <c r="AK343" s="251"/>
     </row>
     <row r="344" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="241"/>
+      <c r="A344" s="218"/>
       <c r="B344" s="207"/>
-      <c r="C344" s="239"/>
-      <c r="D344" s="229" t="s">
+      <c r="C344" s="247"/>
+      <c r="D344" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="E344" s="230"/>
-      <c r="F344" s="231"/>
-      <c r="G344" s="232" t="s">
+      <c r="E344" s="250"/>
+      <c r="F344" s="251"/>
+      <c r="G344" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="H344" s="233"/>
-      <c r="I344" s="229" t="s">
+      <c r="H344" s="253"/>
+      <c r="I344" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="J344" s="230"/>
-      <c r="K344" s="231"/>
-      <c r="L344" s="232" t="s">
+      <c r="J344" s="250"/>
+      <c r="K344" s="251"/>
+      <c r="L344" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="M344" s="233"/>
-      <c r="N344" s="242" t="s">
+      <c r="M344" s="253"/>
+      <c r="N344" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="O344" s="243"/>
-      <c r="P344" s="244" t="s">
+      <c r="O344" s="255"/>
+      <c r="P344" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="Q344" s="245"/>
-      <c r="U344" s="241"/>
+      <c r="Q344" s="257"/>
+      <c r="U344" s="218"/>
       <c r="V344" s="207"/>
-      <c r="W344" s="239"/>
-      <c r="X344" s="229" t="s">
+      <c r="W344" s="247"/>
+      <c r="X344" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="Y344" s="230"/>
-      <c r="Z344" s="231"/>
-      <c r="AA344" s="232" t="s">
+      <c r="Y344" s="250"/>
+      <c r="Z344" s="251"/>
+      <c r="AA344" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="AB344" s="233"/>
-      <c r="AC344" s="229" t="s">
+      <c r="AB344" s="253"/>
+      <c r="AC344" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="AD344" s="230"/>
-      <c r="AE344" s="231"/>
-      <c r="AF344" s="232" t="s">
+      <c r="AD344" s="250"/>
+      <c r="AE344" s="251"/>
+      <c r="AF344" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="AG344" s="233"/>
-      <c r="AH344" s="242" t="s">
+      <c r="AG344" s="253"/>
+      <c r="AH344" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="AI344" s="243"/>
-      <c r="AJ344" s="244" t="s">
+      <c r="AI344" s="255"/>
+      <c r="AJ344" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="AK344" s="245"/>
+      <c r="AK344" s="257"/>
     </row>
     <row r="345" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="241"/>
+      <c r="A345" s="218"/>
       <c r="B345" s="207"/>
-      <c r="C345" s="240"/>
+      <c r="C345" s="248"/>
       <c r="D345" s="51" t="s">
         <v>6</v>
       </c>
@@ -37392,9 +37623,9 @@
       <c r="Q345" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="U345" s="241"/>
+      <c r="U345" s="218"/>
       <c r="V345" s="207"/>
-      <c r="W345" s="240"/>
+      <c r="W345" s="248"/>
       <c r="X345" s="51" t="s">
         <v>6</v>
       </c>
@@ -37439,7 +37670,7 @@
       </c>
     </row>
     <row r="346" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A346" s="209"/>
+      <c r="A346" s="218"/>
       <c r="C346" s="55" t="s">
         <v>112</v>
       </c>
@@ -37481,7 +37712,7 @@
       <c r="Q346" s="63">
         <v>0</v>
       </c>
-      <c r="U346" s="209"/>
+      <c r="U346" s="218"/>
       <c r="W346" s="55" t="s">
         <v>112</v>
       </c>
@@ -40461,156 +40692,26 @@
       <c r="AK382" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="149">
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="D343:H343"/>
-    <mergeCell ref="I343:M343"/>
-    <mergeCell ref="N343:Q343"/>
-    <mergeCell ref="P344:Q344"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="L131:M131"/>
-    <mergeCell ref="G305:H305"/>
-    <mergeCell ref="I305:K305"/>
-    <mergeCell ref="X92:AB92"/>
-    <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="X93:Z93"/>
-    <mergeCell ref="AA93:AB93"/>
-    <mergeCell ref="AC93:AE93"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="W304:W306"/>
-    <mergeCell ref="X304:AB304"/>
-    <mergeCell ref="W343:W345"/>
-    <mergeCell ref="X343:AB343"/>
-    <mergeCell ref="AC343:AG343"/>
-    <mergeCell ref="AH343:AK343"/>
-    <mergeCell ref="X344:Z344"/>
-    <mergeCell ref="AA344:AB344"/>
-    <mergeCell ref="AC344:AE344"/>
-    <mergeCell ref="AF344:AG344"/>
-    <mergeCell ref="AH344:AI344"/>
-    <mergeCell ref="AJ344:AK344"/>
-    <mergeCell ref="AF93:AG93"/>
-    <mergeCell ref="AH93:AI93"/>
-    <mergeCell ref="AJ93:AK93"/>
-    <mergeCell ref="X322:AB322"/>
-    <mergeCell ref="AC322:AG322"/>
-    <mergeCell ref="AH322:AK322"/>
-    <mergeCell ref="X323:Z323"/>
-    <mergeCell ref="AA323:AB323"/>
-    <mergeCell ref="AC323:AE323"/>
-    <mergeCell ref="AF323:AG323"/>
-    <mergeCell ref="AH323:AI323"/>
-    <mergeCell ref="AJ323:AK323"/>
-    <mergeCell ref="C322:C324"/>
-    <mergeCell ref="D322:H322"/>
-    <mergeCell ref="AC304:AG304"/>
-    <mergeCell ref="AH304:AK304"/>
-    <mergeCell ref="X305:Z305"/>
-    <mergeCell ref="AA305:AB305"/>
-    <mergeCell ref="AC305:AE305"/>
-    <mergeCell ref="AF305:AG305"/>
-    <mergeCell ref="AH305:AI305"/>
-    <mergeCell ref="AJ305:AK305"/>
-    <mergeCell ref="W322:W324"/>
-    <mergeCell ref="L323:M323"/>
-    <mergeCell ref="G323:H323"/>
-    <mergeCell ref="I323:K323"/>
-    <mergeCell ref="N323:O323"/>
-    <mergeCell ref="P323:Q323"/>
-    <mergeCell ref="I322:M322"/>
-    <mergeCell ref="N322:Q322"/>
-    <mergeCell ref="AH117:AK117"/>
-    <mergeCell ref="X118:Z118"/>
-    <mergeCell ref="AA118:AB118"/>
-    <mergeCell ref="AC118:AE118"/>
-    <mergeCell ref="AF118:AG118"/>
-    <mergeCell ref="AH118:AI118"/>
-    <mergeCell ref="AJ118:AK118"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="D304:H304"/>
-    <mergeCell ref="I304:M304"/>
-    <mergeCell ref="D305:F305"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="L305:M305"/>
-    <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="N130:Q130"/>
-    <mergeCell ref="N304:Q304"/>
-    <mergeCell ref="N305:O305"/>
-    <mergeCell ref="P305:Q305"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="I130:M130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="AC92:AG92"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="I92:M92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="C7:S7"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="X50:AB50"/>
-    <mergeCell ref="AC50:AG50"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="I117:M117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:K118"/>
-    <mergeCell ref="L118:M118"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="W117:W119"/>
-    <mergeCell ref="X117:AB117"/>
-    <mergeCell ref="AC117:AG117"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="AH50:AK50"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA51:AB51"/>
-    <mergeCell ref="AC51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AJ51:AK51"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="U50:U52"/>
-    <mergeCell ref="D344:F344"/>
-    <mergeCell ref="G344:H344"/>
-    <mergeCell ref="I344:K344"/>
+  <mergeCells count="19">
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="A322:A325"/>
+    <mergeCell ref="A343:A346"/>
+    <mergeCell ref="U343:U346"/>
+    <mergeCell ref="U322:U325"/>
+    <mergeCell ref="U304:U307"/>
+    <mergeCell ref="U117:U120"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:W2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:S4"/>
-    <mergeCell ref="I93:K93"/>
-    <mergeCell ref="W92:W94"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="A304:A306"/>
-    <mergeCell ref="A322:A324"/>
-    <mergeCell ref="A343:A345"/>
-    <mergeCell ref="U343:U345"/>
-    <mergeCell ref="U322:U324"/>
-    <mergeCell ref="U304:U306"/>
-    <mergeCell ref="U117:U119"/>
-    <mergeCell ref="U92:U94"/>
-    <mergeCell ref="L344:M344"/>
-    <mergeCell ref="N344:O344"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="U92:U95"/>
+    <mergeCell ref="U50:U53"/>
+    <mergeCell ref="C7:S7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:B2" r:id="rId1" display="Download the example presentation"/>
@@ -40661,7 +40762,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="18"/>
       <c r="D1" s="3"/>
@@ -40676,7 +40777,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>127</v>
@@ -40701,7 +40802,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>171</v>
@@ -40771,8 +40872,8 @@
       <c r="S5" s="27"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="228" t="s">
-        <v>206</v>
+      <c r="A6" s="215" t="s">
+        <v>205</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="18"/>
@@ -40794,78 +40895,78 @@
       <c r="S6" s="27"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="247" t="s">
+      <c r="B9" s="226" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="248"/>
-      <c r="D9" s="248"/>
-      <c r="E9" s="248"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="247" t="s">
-        <v>183</v>
-      </c>
-      <c r="H9" s="248"/>
-      <c r="I9" s="248"/>
-      <c r="J9" s="248"/>
-      <c r="K9" s="249"/>
-      <c r="L9" s="247" t="s">
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="226" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="227"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="227"/>
+      <c r="K9" s="228"/>
+      <c r="L9" s="226" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="248"/>
-      <c r="N9" s="248"/>
-      <c r="O9" s="248"/>
-      <c r="P9" s="249"/>
-      <c r="Q9" s="252" t="s">
+      <c r="M9" s="227"/>
+      <c r="N9" s="227"/>
+      <c r="O9" s="227"/>
+      <c r="P9" s="228"/>
+      <c r="Q9" s="223" t="s">
         <v>166</v>
       </c>
-      <c r="R9" s="252"/>
-      <c r="S9" s="252"/>
-      <c r="T9" s="252"/>
-      <c r="U9" s="252"/>
-      <c r="V9" s="252"/>
+      <c r="R9" s="223"/>
+      <c r="S9" s="223"/>
+      <c r="T9" s="223"/>
+      <c r="U9" s="223"/>
+      <c r="V9" s="223"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
     </row>
     <row r="10" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="247" t="s">
+      <c r="B10" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="248"/>
-      <c r="D10" s="249"/>
-      <c r="E10" s="250" t="s">
+      <c r="C10" s="227"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="251"/>
-      <c r="G10" s="247" t="s">
+      <c r="F10" s="230"/>
+      <c r="G10" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="248"/>
-      <c r="I10" s="249"/>
-      <c r="J10" s="250" t="s">
+      <c r="H10" s="227"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="251"/>
-      <c r="L10" s="247" t="s">
+      <c r="K10" s="230"/>
+      <c r="L10" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="248"/>
-      <c r="N10" s="249"/>
-      <c r="O10" s="250" t="s">
+      <c r="M10" s="227"/>
+      <c r="N10" s="228"/>
+      <c r="O10" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="251"/>
-      <c r="Q10" s="253" t="s">
+      <c r="P10" s="230"/>
+      <c r="Q10" s="224" t="s">
+        <v>202</v>
+      </c>
+      <c r="R10" s="225"/>
+      <c r="S10" s="224" t="s">
+        <v>167</v>
+      </c>
+      <c r="T10" s="225"/>
+      <c r="U10" s="224" t="s">
         <v>203</v>
       </c>
-      <c r="R10" s="254"/>
-      <c r="S10" s="253" t="s">
-        <v>167</v>
-      </c>
-      <c r="T10" s="254"/>
-      <c r="U10" s="253" t="s">
-        <v>204</v>
-      </c>
-      <c r="V10" s="254"/>
+      <c r="V10" s="225"/>
       <c r="W10" s="18"/>
       <c r="X10" s="18"/>
     </row>
@@ -40936,7 +41037,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="157" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="11"/>
@@ -41168,7 +41269,7 @@
       <c r="A16" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="256" t="str">
+      <c r="B16" s="216" t="str">
         <f>IF((($F15*100)/1.645)/(ABS($E15*100))*100&gt;=20,"not reliable--do not display % change","reliable--can display % change")</f>
         <v>not reliable--do not display % change</v>
       </c>
@@ -41197,7 +41298,7 @@
       <c r="A17" s="160" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="257" t="str">
+      <c r="B17" s="217" t="str">
         <f>IF(AND((ABS(F15)&lt;ABS(E15)),E15&gt;0),"significant increase",IF(AND((ABS(F15)&lt;ABS(E15)),E15&lt;0),"significant decrease","no significant change"))</f>
         <v>significant increase</v>
       </c>
@@ -41828,7 +41929,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="157" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="11"/>
@@ -42247,7 +42348,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="138" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="11"/>
@@ -42645,7 +42746,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="138" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" s="34"/>
       <c r="C42" s="11"/>
@@ -43956,7 +44057,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="138" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" s="34"/>
       <c r="C59" s="11"/>
@@ -45279,7 +45380,7 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="138" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B75" s="34"/>
       <c r="C75" s="11"/>
@@ -46364,6 +46465,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="Q9:V9"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
@@ -46371,12 +46478,6 @@
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="L9:P9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="L13:P14 L18:P20 L31:P52 L58:P87 L24:P27 L21:N23 P21:P23">
     <cfRule type="expression" dxfId="14" priority="52">
@@ -46543,30 +46644,30 @@
       </c>
     </row>
     <row r="4" spans="13:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M4" s="255" t="s">
+      <c r="M4" s="231" t="s">
         <v>174</v>
       </c>
-      <c r="N4" s="255"/>
-      <c r="O4" s="255"/>
-      <c r="P4" s="255"/>
+      <c r="N4" s="231"/>
+      <c r="O4" s="231"/>
+      <c r="P4" s="231"/>
     </row>
     <row r="5" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M5" s="255"/>
-      <c r="N5" s="255"/>
-      <c r="O5" s="255"/>
-      <c r="P5" s="255"/>
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="231"/>
+      <c r="P5" s="231"/>
     </row>
     <row r="6" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="255"/>
-      <c r="N6" s="255"/>
-      <c r="O6" s="255"/>
-      <c r="P6" s="255"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="231"/>
     </row>
     <row r="7" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="255"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
+      <c r="M7" s="231"/>
+      <c r="N7" s="231"/>
+      <c r="O7" s="231"/>
+      <c r="P7" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -46592,30 +46693,30 @@
       </c>
     </row>
     <row r="4" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M4" s="255" t="s">
+      <c r="M4" s="231" t="s">
         <v>174</v>
       </c>
-      <c r="N4" s="255"/>
-      <c r="O4" s="255"/>
-      <c r="P4" s="255"/>
+      <c r="N4" s="231"/>
+      <c r="O4" s="231"/>
+      <c r="P4" s="231"/>
     </row>
     <row r="5" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M5" s="255"/>
-      <c r="N5" s="255"/>
-      <c r="O5" s="255"/>
-      <c r="P5" s="255"/>
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="231"/>
+      <c r="P5" s="231"/>
     </row>
     <row r="6" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="255"/>
-      <c r="N6" s="255"/>
-      <c r="O6" s="255"/>
-      <c r="P6" s="255"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="231"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="231"/>
     </row>
     <row r="7" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="255"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
+      <c r="M7" s="231"/>
+      <c r="N7" s="231"/>
+      <c r="O7" s="231"/>
+      <c r="P7" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/demographic-profile/docs/demo-profile-worksheet.xlsx
+++ b/demographic-profile/docs/demo-profile-worksheet.xlsx
@@ -673,9 +673,6 @@
     <t>No Statistically Significant Difference w/ Borough or NYC (***)</t>
   </si>
   <si>
-    <t>This worksheet is designed to make it even easier to go from your study area's NYC Population Factfinder profile to the clear, concise demographic profile presentation featured on the Guide to Planning Resources.</t>
-  </si>
-  <si>
     <t>ACS data are derived from a survey and are subject to sampling variability. Grayed values are not statistically reliable.</t>
   </si>
   <si>
@@ -974,6 +971,9 @@
       </rPr>
       <t>cell</t>
     </r>
+  </si>
+  <si>
+    <t>This worksheet is designed to make it even easier to go from your study area's NYC Population Factfinder profile to a clear, concise presentation like the one featured on the Guide to Planning Resources.</t>
   </si>
 </sst>
 </file>
@@ -1953,48 +1953,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2020,9 +1978,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2062,6 +2017,51 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14077,7 +14077,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>2981312</xdr:colOff>
+      <xdr:colOff>3057512</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>537882</xdr:rowOff>
     </xdr:to>
@@ -14874,14 +14874,14 @@
   </sheetPr>
   <dimension ref="A1:AM382"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="0.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="0.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="68" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -14900,7 +14900,7 @@
     <col min="18" max="18" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.140625" style="9" customWidth="1"/>
-    <col min="21" max="21" width="35.28515625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="34.140625" style="9" customWidth="1"/>
     <col min="22" max="22" width="0.85546875" style="9" customWidth="1"/>
     <col min="23" max="23" width="61.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -14916,81 +14916,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="219" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="220"/>
-      <c r="S1" s="220"/>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
+      <c r="A1" s="244" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="244"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="245"/>
+      <c r="P1" s="245"/>
+      <c r="Q1" s="245"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="245"/>
+      <c r="T1" s="245"/>
+      <c r="U1" s="245"/>
+      <c r="V1" s="245"/>
+      <c r="W1" s="245"/>
     </row>
     <row r="2" spans="1:37" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="246" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
     </row>
     <row r="3" spans="1:37" s="110" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="218" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="235"/>
-      <c r="O3" s="235"/>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="236"/>
-      <c r="R3" s="233"/>
-      <c r="S3" s="233"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="221"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="222"/>
+      <c r="Q3" s="222"/>
+      <c r="R3" s="219"/>
+      <c r="S3" s="219"/>
       <c r="T3" s="111"/>
       <c r="U3" s="111"/>
       <c r="V3" s="111"/>
@@ -15010,52 +15010,52 @@
       <c r="AK3" s="115"/>
     </row>
     <row r="4" spans="1:37" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="222" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="222"/>
-      <c r="O4" s="222"/>
-      <c r="P4" s="222"/>
-      <c r="Q4" s="222"/>
-      <c r="R4" s="222"/>
-      <c r="S4" s="222"/>
+      <c r="A4" s="247" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="247"/>
+      <c r="L4" s="247"/>
+      <c r="M4" s="247"/>
+      <c r="N4" s="247"/>
+      <c r="O4" s="247"/>
+      <c r="P4" s="247"/>
+      <c r="Q4" s="247"/>
+      <c r="R4" s="247"/>
+      <c r="S4" s="247"/>
     </row>
     <row r="5" spans="1:37" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="210" t="s">
         <v>176</v>
       </c>
       <c r="B5" s="211"/>
-      <c r="C5" s="238" t="s">
+      <c r="C5" s="224" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="241"/>
-      <c r="M5" s="241"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="240"/>
-      <c r="Q5" s="240"/>
-      <c r="R5" s="242"/>
-      <c r="S5" s="242"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="225"/>
+      <c r="J5" s="225"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="227"/>
+      <c r="M5" s="227"/>
+      <c r="N5" s="225"/>
+      <c r="O5" s="225"/>
+      <c r="P5" s="226"/>
+      <c r="Q5" s="226"/>
+      <c r="R5" s="228"/>
+      <c r="S5" s="228"/>
       <c r="T5" s="111"/>
       <c r="U5" s="111"/>
       <c r="V5" s="111"/>
@@ -15079,25 +15079,25 @@
         <v>179</v>
       </c>
       <c r="B6" s="213"/>
-      <c r="C6" s="243" t="s">
+      <c r="C6" s="229" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="240"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="240"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="241"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="239"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="240"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="227"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="225"/>
+      <c r="P6" s="226"/>
+      <c r="Q6" s="226"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
       <c r="T6" s="111"/>
       <c r="U6" s="111"/>
       <c r="V6" s="111"/>
@@ -15117,32 +15117,32 @@
       <c r="AK6" s="115"/>
     </row>
     <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="248" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="244"/>
-      <c r="L7" s="244"/>
-      <c r="M7" s="244"/>
-      <c r="N7" s="244"/>
-      <c r="O7" s="244"/>
-      <c r="P7" s="244"/>
-      <c r="Q7" s="244"/>
-      <c r="R7" s="244"/>
-      <c r="S7" s="244"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="248"/>
+      <c r="I7" s="248"/>
+      <c r="J7" s="248"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="248"/>
+      <c r="M7" s="248"/>
+      <c r="N7" s="248"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
       <c r="T7" s="96"/>
       <c r="U7" s="96"/>
       <c r="V7" s="96"/>
     </row>
     <row r="8" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="218" t="s">
-        <v>210</v>
+      <c r="A8" s="243" t="s">
+        <v>209</v>
       </c>
       <c r="B8" s="207"/>
       <c r="C8" s="198" t="s">
@@ -15175,7 +15175,7 @@
       <c r="V8" s="97"/>
     </row>
     <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="218"/>
+      <c r="A9" s="243"/>
       <c r="B9" s="207"/>
       <c r="C9" s="198"/>
       <c r="D9" s="199" t="s">
@@ -15213,7 +15213,7 @@
       <c r="V9" s="97"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A10" s="218"/>
+      <c r="A10" s="243"/>
       <c r="B10" s="207"/>
       <c r="C10" s="198"/>
       <c r="D10" s="203" t="s">
@@ -15269,7 +15269,7 @@
       <c r="V10" s="98"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A11" s="218"/>
+      <c r="A11" s="209"/>
       <c r="C11" s="191" t="s">
         <v>7</v>
       </c>
@@ -17037,43 +17037,43 @@
         <v>176</v>
       </c>
       <c r="B47" s="211"/>
-      <c r="C47" s="238" t="s">
+      <c r="C47" s="224" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="235"/>
-      <c r="E47" s="235"/>
-      <c r="F47" s="236"/>
-      <c r="G47" s="237"/>
-      <c r="H47" s="237"/>
-      <c r="I47" s="235"/>
-      <c r="J47" s="235"/>
-      <c r="K47" s="236"/>
-      <c r="L47" s="237"/>
-      <c r="M47" s="237"/>
-      <c r="N47" s="235"/>
-      <c r="O47" s="235"/>
-      <c r="P47" s="236"/>
-      <c r="Q47" s="236"/>
-      <c r="R47" s="233"/>
-      <c r="S47" s="233"/>
-      <c r="T47" s="233"/>
-      <c r="U47" s="233"/>
-      <c r="V47" s="233"/>
-      <c r="W47" s="233"/>
-      <c r="X47" s="235"/>
-      <c r="Y47" s="235"/>
-      <c r="Z47" s="236"/>
-      <c r="AA47" s="237"/>
-      <c r="AB47" s="237"/>
-      <c r="AC47" s="235"/>
-      <c r="AD47" s="235"/>
-      <c r="AE47" s="236"/>
-      <c r="AF47" s="237"/>
-      <c r="AG47" s="237"/>
-      <c r="AH47" s="235"/>
-      <c r="AI47" s="235"/>
-      <c r="AJ47" s="236"/>
-      <c r="AK47" s="236"/>
+      <c r="D47" s="221"/>
+      <c r="E47" s="221"/>
+      <c r="F47" s="222"/>
+      <c r="G47" s="223"/>
+      <c r="H47" s="223"/>
+      <c r="I47" s="221"/>
+      <c r="J47" s="221"/>
+      <c r="K47" s="222"/>
+      <c r="L47" s="223"/>
+      <c r="M47" s="223"/>
+      <c r="N47" s="221"/>
+      <c r="O47" s="221"/>
+      <c r="P47" s="222"/>
+      <c r="Q47" s="222"/>
+      <c r="R47" s="219"/>
+      <c r="S47" s="219"/>
+      <c r="T47" s="219"/>
+      <c r="U47" s="219"/>
+      <c r="V47" s="219"/>
+      <c r="W47" s="219"/>
+      <c r="X47" s="221"/>
+      <c r="Y47" s="221"/>
+      <c r="Z47" s="222"/>
+      <c r="AA47" s="223"/>
+      <c r="AB47" s="223"/>
+      <c r="AC47" s="221"/>
+      <c r="AD47" s="221"/>
+      <c r="AE47" s="222"/>
+      <c r="AF47" s="223"/>
+      <c r="AG47" s="223"/>
+      <c r="AH47" s="221"/>
+      <c r="AI47" s="221"/>
+      <c r="AJ47" s="222"/>
+      <c r="AK47" s="222"/>
       <c r="AL47" s="111"/>
       <c r="AM47" s="111"/>
     </row>
@@ -17082,209 +17082,209 @@
         <v>179</v>
       </c>
       <c r="B48" s="213"/>
-      <c r="C48" s="243" t="s">
+      <c r="C48" s="229" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="235"/>
-      <c r="E48" s="235"/>
-      <c r="F48" s="236"/>
-      <c r="G48" s="237"/>
-      <c r="H48" s="237"/>
-      <c r="I48" s="235"/>
-      <c r="J48" s="235"/>
-      <c r="K48" s="236"/>
-      <c r="L48" s="237"/>
-      <c r="M48" s="237"/>
-      <c r="N48" s="235"/>
-      <c r="O48" s="235"/>
-      <c r="P48" s="236"/>
-      <c r="Q48" s="236"/>
-      <c r="R48" s="233"/>
-      <c r="S48" s="233"/>
-      <c r="T48" s="233"/>
-      <c r="U48" s="233"/>
-      <c r="V48" s="233"/>
-      <c r="W48" s="233"/>
-      <c r="X48" s="235"/>
-      <c r="Y48" s="235"/>
-      <c r="Z48" s="236"/>
-      <c r="AA48" s="237"/>
-      <c r="AB48" s="237"/>
-      <c r="AC48" s="235"/>
-      <c r="AD48" s="235"/>
-      <c r="AE48" s="236"/>
-      <c r="AF48" s="237"/>
-      <c r="AG48" s="237"/>
-      <c r="AH48" s="235"/>
-      <c r="AI48" s="235"/>
-      <c r="AJ48" s="236"/>
-      <c r="AK48" s="236"/>
+      <c r="D48" s="221"/>
+      <c r="E48" s="221"/>
+      <c r="F48" s="222"/>
+      <c r="G48" s="223"/>
+      <c r="H48" s="223"/>
+      <c r="I48" s="221"/>
+      <c r="J48" s="221"/>
+      <c r="K48" s="222"/>
+      <c r="L48" s="223"/>
+      <c r="M48" s="223"/>
+      <c r="N48" s="221"/>
+      <c r="O48" s="221"/>
+      <c r="P48" s="222"/>
+      <c r="Q48" s="222"/>
+      <c r="R48" s="219"/>
+      <c r="S48" s="219"/>
+      <c r="T48" s="219"/>
+      <c r="U48" s="219"/>
+      <c r="V48" s="219"/>
+      <c r="W48" s="219"/>
+      <c r="X48" s="221"/>
+      <c r="Y48" s="221"/>
+      <c r="Z48" s="222"/>
+      <c r="AA48" s="223"/>
+      <c r="AB48" s="223"/>
+      <c r="AC48" s="221"/>
+      <c r="AD48" s="221"/>
+      <c r="AE48" s="222"/>
+      <c r="AF48" s="223"/>
+      <c r="AG48" s="223"/>
+      <c r="AH48" s="221"/>
+      <c r="AI48" s="221"/>
+      <c r="AJ48" s="222"/>
+      <c r="AK48" s="222"/>
       <c r="AL48" s="111"/>
       <c r="AM48" s="111"/>
     </row>
     <row r="49" spans="1:39" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="245" t="s">
-        <v>206</v>
-      </c>
-      <c r="D49" s="245"/>
-      <c r="E49" s="245"/>
-      <c r="F49" s="245"/>
-      <c r="G49" s="245"/>
-      <c r="H49" s="245"/>
-      <c r="I49" s="245"/>
-      <c r="J49" s="245"/>
-      <c r="K49" s="245"/>
-      <c r="L49" s="245"/>
-      <c r="M49" s="245"/>
-      <c r="N49" s="245"/>
-      <c r="O49" s="245"/>
-      <c r="P49" s="245"/>
-      <c r="Q49" s="245"/>
+      <c r="C49" s="230" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49" s="230"/>
+      <c r="E49" s="230"/>
+      <c r="F49" s="230"/>
+      <c r="G49" s="230"/>
+      <c r="H49" s="230"/>
+      <c r="I49" s="230"/>
+      <c r="J49" s="230"/>
+      <c r="K49" s="230"/>
+      <c r="L49" s="230"/>
+      <c r="M49" s="230"/>
+      <c r="N49" s="230"/>
+      <c r="O49" s="230"/>
+      <c r="P49" s="230"/>
+      <c r="Q49" s="230"/>
       <c r="R49" s="214"/>
       <c r="S49" s="214"/>
       <c r="T49" s="107"/>
       <c r="U49" s="107"/>
       <c r="V49" s="107"/>
-      <c r="W49" s="245" t="s">
+      <c r="W49" s="230" t="s">
         <v>181</v>
       </c>
-      <c r="X49" s="245"/>
-      <c r="Y49" s="245"/>
-      <c r="Z49" s="245"/>
-      <c r="AA49" s="245"/>
-      <c r="AB49" s="245"/>
-      <c r="AC49" s="245"/>
-      <c r="AD49" s="245"/>
-      <c r="AE49" s="245"/>
-      <c r="AF49" s="245"/>
-      <c r="AG49" s="245"/>
-      <c r="AH49" s="245"/>
-      <c r="AI49" s="245"/>
-      <c r="AJ49" s="245"/>
-      <c r="AK49" s="245"/>
+      <c r="X49" s="230"/>
+      <c r="Y49" s="230"/>
+      <c r="Z49" s="230"/>
+      <c r="AA49" s="230"/>
+      <c r="AB49" s="230"/>
+      <c r="AC49" s="230"/>
+      <c r="AD49" s="230"/>
+      <c r="AE49" s="230"/>
+      <c r="AF49" s="230"/>
+      <c r="AG49" s="230"/>
+      <c r="AH49" s="230"/>
+      <c r="AI49" s="230"/>
+      <c r="AJ49" s="230"/>
+      <c r="AK49" s="230"/>
       <c r="AL49" s="214"/>
       <c r="AM49" s="214"/>
     </row>
     <row r="50" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="218" t="s">
-        <v>211</v>
+      <c r="A50" s="243" t="s">
+        <v>210</v>
       </c>
       <c r="B50" s="207"/>
-      <c r="C50" s="246" t="s">
+      <c r="C50" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="249" t="s">
+      <c r="D50" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="250"/>
-      <c r="F50" s="250"/>
-      <c r="G50" s="250"/>
-      <c r="H50" s="251"/>
-      <c r="I50" s="249" t="s">
+      <c r="E50" s="235"/>
+      <c r="F50" s="235"/>
+      <c r="G50" s="235"/>
+      <c r="H50" s="236"/>
+      <c r="I50" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="250"/>
-      <c r="K50" s="250"/>
-      <c r="L50" s="250"/>
-      <c r="M50" s="251"/>
-      <c r="N50" s="249" t="s">
+      <c r="J50" s="235"/>
+      <c r="K50" s="235"/>
+      <c r="L50" s="235"/>
+      <c r="M50" s="236"/>
+      <c r="N50" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="O50" s="250"/>
-      <c r="P50" s="250"/>
-      <c r="Q50" s="251"/>
-      <c r="U50" s="218" t="s">
-        <v>210</v>
+      <c r="O50" s="235"/>
+      <c r="P50" s="235"/>
+      <c r="Q50" s="236"/>
+      <c r="U50" s="243" t="s">
+        <v>209</v>
       </c>
       <c r="V50" s="207"/>
-      <c r="W50" s="246" t="s">
+      <c r="W50" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="X50" s="249" t="s">
+      <c r="X50" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="Y50" s="250"/>
-      <c r="Z50" s="250"/>
-      <c r="AA50" s="250"/>
-      <c r="AB50" s="251"/>
-      <c r="AC50" s="249" t="s">
+      <c r="Y50" s="235"/>
+      <c r="Z50" s="235"/>
+      <c r="AA50" s="235"/>
+      <c r="AB50" s="236"/>
+      <c r="AC50" s="234" t="s">
         <v>182</v>
       </c>
-      <c r="AD50" s="250"/>
-      <c r="AE50" s="250"/>
-      <c r="AF50" s="250"/>
-      <c r="AG50" s="251"/>
-      <c r="AH50" s="249" t="s">
+      <c r="AD50" s="235"/>
+      <c r="AE50" s="235"/>
+      <c r="AF50" s="235"/>
+      <c r="AG50" s="236"/>
+      <c r="AH50" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="AI50" s="250"/>
-      <c r="AJ50" s="250"/>
-      <c r="AK50" s="251"/>
+      <c r="AI50" s="235"/>
+      <c r="AJ50" s="235"/>
+      <c r="AK50" s="236"/>
     </row>
     <row r="51" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="218"/>
+      <c r="A51" s="243"/>
       <c r="B51" s="207"/>
-      <c r="C51" s="247"/>
-      <c r="D51" s="249" t="s">
+      <c r="C51" s="232"/>
+      <c r="D51" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="250"/>
-      <c r="F51" s="251"/>
-      <c r="G51" s="249" t="s">
+      <c r="E51" s="235"/>
+      <c r="F51" s="236"/>
+      <c r="G51" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="251"/>
-      <c r="I51" s="249" t="s">
+      <c r="H51" s="236"/>
+      <c r="I51" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="250"/>
-      <c r="K51" s="251"/>
-      <c r="L51" s="249" t="s">
+      <c r="J51" s="235"/>
+      <c r="K51" s="236"/>
+      <c r="L51" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="M51" s="251"/>
-      <c r="N51" s="249" t="s">
+      <c r="M51" s="236"/>
+      <c r="N51" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="O51" s="251"/>
-      <c r="P51" s="249" t="s">
+      <c r="O51" s="236"/>
+      <c r="P51" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="Q51" s="251"/>
-      <c r="U51" s="218"/>
+      <c r="Q51" s="236"/>
+      <c r="U51" s="243"/>
       <c r="V51" s="207"/>
-      <c r="W51" s="247"/>
-      <c r="X51" s="249" t="s">
+      <c r="W51" s="232"/>
+      <c r="X51" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="Y51" s="250"/>
-      <c r="Z51" s="251"/>
-      <c r="AA51" s="252" t="s">
+      <c r="Y51" s="235"/>
+      <c r="Z51" s="236"/>
+      <c r="AA51" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AB51" s="253"/>
-      <c r="AC51" s="249" t="s">
+      <c r="AB51" s="238"/>
+      <c r="AC51" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="250"/>
-      <c r="AE51" s="251"/>
-      <c r="AF51" s="252" t="s">
+      <c r="AD51" s="235"/>
+      <c r="AE51" s="236"/>
+      <c r="AF51" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AG51" s="253"/>
-      <c r="AH51" s="254" t="s">
+      <c r="AG51" s="238"/>
+      <c r="AH51" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="AI51" s="255"/>
-      <c r="AJ51" s="256" t="s">
+      <c r="AI51" s="240"/>
+      <c r="AJ51" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="AK51" s="257"/>
+      <c r="AK51" s="242"/>
     </row>
     <row r="52" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="218"/>
+      <c r="A52" s="243"/>
       <c r="B52" s="207"/>
-      <c r="C52" s="248"/>
+      <c r="C52" s="233"/>
       <c r="D52" s="54" t="s">
         <v>6</v>
       </c>
@@ -17327,9 +17327,9 @@
       <c r="Q52" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="U52" s="218"/>
+      <c r="U52" s="243"/>
       <c r="V52" s="207"/>
-      <c r="W52" s="248"/>
+      <c r="W52" s="233"/>
       <c r="X52" s="51" t="s">
         <v>6</v>
       </c>
@@ -17374,7 +17374,7 @@
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A53" s="218"/>
+      <c r="A53" s="209"/>
       <c r="C53" s="55" t="s">
         <v>7</v>
       </c>
@@ -17416,7 +17416,7 @@
       <c r="Q53" s="63">
         <v>0</v>
       </c>
-      <c r="U53" s="218"/>
+      <c r="U53" s="209"/>
       <c r="W53" s="55" t="s">
         <v>7</v>
       </c>
@@ -20252,43 +20252,43 @@
         <v>176</v>
       </c>
       <c r="B89" s="211"/>
-      <c r="C89" s="238" t="s">
+      <c r="C89" s="224" t="s">
         <v>185</v>
       </c>
-      <c r="D89" s="235"/>
-      <c r="E89" s="235"/>
-      <c r="F89" s="236"/>
-      <c r="G89" s="237"/>
-      <c r="H89" s="237"/>
-      <c r="I89" s="235"/>
-      <c r="J89" s="235"/>
-      <c r="K89" s="236"/>
-      <c r="L89" s="237"/>
-      <c r="M89" s="237"/>
-      <c r="N89" s="235"/>
-      <c r="O89" s="235"/>
-      <c r="P89" s="236"/>
-      <c r="Q89" s="236"/>
-      <c r="R89" s="233"/>
-      <c r="S89" s="233"/>
-      <c r="T89" s="233"/>
-      <c r="U89" s="233"/>
-      <c r="V89" s="233"/>
-      <c r="W89" s="233"/>
-      <c r="X89" s="235"/>
-      <c r="Y89" s="235"/>
-      <c r="Z89" s="236"/>
-      <c r="AA89" s="237"/>
-      <c r="AB89" s="237"/>
-      <c r="AC89" s="235"/>
-      <c r="AD89" s="235"/>
-      <c r="AE89" s="236"/>
-      <c r="AF89" s="237"/>
-      <c r="AG89" s="237"/>
-      <c r="AH89" s="235"/>
-      <c r="AI89" s="235"/>
-      <c r="AJ89" s="236"/>
-      <c r="AK89" s="236"/>
+      <c r="D89" s="221"/>
+      <c r="E89" s="221"/>
+      <c r="F89" s="222"/>
+      <c r="G89" s="223"/>
+      <c r="H89" s="223"/>
+      <c r="I89" s="221"/>
+      <c r="J89" s="221"/>
+      <c r="K89" s="222"/>
+      <c r="L89" s="223"/>
+      <c r="M89" s="223"/>
+      <c r="N89" s="221"/>
+      <c r="O89" s="221"/>
+      <c r="P89" s="222"/>
+      <c r="Q89" s="222"/>
+      <c r="R89" s="219"/>
+      <c r="S89" s="219"/>
+      <c r="T89" s="219"/>
+      <c r="U89" s="219"/>
+      <c r="V89" s="219"/>
+      <c r="W89" s="219"/>
+      <c r="X89" s="221"/>
+      <c r="Y89" s="221"/>
+      <c r="Z89" s="222"/>
+      <c r="AA89" s="223"/>
+      <c r="AB89" s="223"/>
+      <c r="AC89" s="221"/>
+      <c r="AD89" s="221"/>
+      <c r="AE89" s="222"/>
+      <c r="AF89" s="223"/>
+      <c r="AG89" s="223"/>
+      <c r="AH89" s="221"/>
+      <c r="AI89" s="221"/>
+      <c r="AJ89" s="222"/>
+      <c r="AK89" s="222"/>
       <c r="AL89" s="111"/>
       <c r="AM89" s="111"/>
     </row>
@@ -20297,215 +20297,215 @@
         <v>179</v>
       </c>
       <c r="B90" s="213"/>
-      <c r="C90" s="243" t="s">
+      <c r="C90" s="229" t="s">
         <v>183</v>
       </c>
-      <c r="D90" s="235"/>
-      <c r="E90" s="235"/>
-      <c r="F90" s="236"/>
-      <c r="G90" s="237"/>
-      <c r="H90" s="237"/>
-      <c r="I90" s="235"/>
-      <c r="J90" s="235"/>
-      <c r="K90" s="236"/>
-      <c r="L90" s="237"/>
-      <c r="M90" s="237"/>
-      <c r="N90" s="235"/>
-      <c r="O90" s="235"/>
-      <c r="P90" s="236"/>
-      <c r="Q90" s="236"/>
-      <c r="R90" s="233"/>
-      <c r="S90" s="233"/>
-      <c r="T90" s="233"/>
-      <c r="U90" s="233"/>
-      <c r="V90" s="233"/>
-      <c r="W90" s="233"/>
-      <c r="X90" s="235"/>
-      <c r="Y90" s="235"/>
-      <c r="Z90" s="236"/>
-      <c r="AA90" s="237"/>
-      <c r="AB90" s="237"/>
-      <c r="AC90" s="235"/>
-      <c r="AD90" s="235"/>
-      <c r="AE90" s="236"/>
-      <c r="AF90" s="237"/>
-      <c r="AG90" s="237"/>
-      <c r="AH90" s="235"/>
-      <c r="AI90" s="235"/>
-      <c r="AJ90" s="236"/>
-      <c r="AK90" s="236"/>
+      <c r="D90" s="221"/>
+      <c r="E90" s="221"/>
+      <c r="F90" s="222"/>
+      <c r="G90" s="223"/>
+      <c r="H90" s="223"/>
+      <c r="I90" s="221"/>
+      <c r="J90" s="221"/>
+      <c r="K90" s="222"/>
+      <c r="L90" s="223"/>
+      <c r="M90" s="223"/>
+      <c r="N90" s="221"/>
+      <c r="O90" s="221"/>
+      <c r="P90" s="222"/>
+      <c r="Q90" s="222"/>
+      <c r="R90" s="219"/>
+      <c r="S90" s="219"/>
+      <c r="T90" s="219"/>
+      <c r="U90" s="219"/>
+      <c r="V90" s="219"/>
+      <c r="W90" s="219"/>
+      <c r="X90" s="221"/>
+      <c r="Y90" s="221"/>
+      <c r="Z90" s="222"/>
+      <c r="AA90" s="223"/>
+      <c r="AB90" s="223"/>
+      <c r="AC90" s="221"/>
+      <c r="AD90" s="221"/>
+      <c r="AE90" s="222"/>
+      <c r="AF90" s="223"/>
+      <c r="AG90" s="223"/>
+      <c r="AH90" s="221"/>
+      <c r="AI90" s="221"/>
+      <c r="AJ90" s="222"/>
+      <c r="AK90" s="222"/>
       <c r="AL90" s="111"/>
       <c r="AM90" s="111"/>
     </row>
     <row r="91" spans="1:39" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="245" t="s">
-        <v>207</v>
-      </c>
-      <c r="D91" s="245"/>
-      <c r="E91" s="245"/>
-      <c r="F91" s="245"/>
-      <c r="G91" s="245"/>
-      <c r="H91" s="245"/>
-      <c r="I91" s="245"/>
-      <c r="J91" s="245"/>
-      <c r="K91" s="245"/>
-      <c r="L91" s="245"/>
-      <c r="M91" s="245"/>
-      <c r="N91" s="245"/>
-      <c r="O91" s="245"/>
-      <c r="P91" s="245"/>
-      <c r="Q91" s="245"/>
+      <c r="C91" s="230" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" s="230"/>
+      <c r="E91" s="230"/>
+      <c r="F91" s="230"/>
+      <c r="G91" s="230"/>
+      <c r="H91" s="230"/>
+      <c r="I91" s="230"/>
+      <c r="J91" s="230"/>
+      <c r="K91" s="230"/>
+      <c r="L91" s="230"/>
+      <c r="M91" s="230"/>
+      <c r="N91" s="230"/>
+      <c r="O91" s="230"/>
+      <c r="P91" s="230"/>
+      <c r="Q91" s="230"/>
       <c r="R91" s="214"/>
       <c r="S91" s="214"/>
       <c r="T91" s="107"/>
       <c r="U91" s="107"/>
       <c r="V91" s="107"/>
-      <c r="W91" s="245" t="s">
+      <c r="W91" s="230" t="s">
         <v>181</v>
       </c>
-      <c r="X91" s="245"/>
-      <c r="Y91" s="245"/>
-      <c r="Z91" s="245"/>
-      <c r="AA91" s="245"/>
-      <c r="AB91" s="245"/>
-      <c r="AC91" s="245"/>
-      <c r="AD91" s="245"/>
-      <c r="AE91" s="245"/>
-      <c r="AF91" s="245"/>
-      <c r="AG91" s="245"/>
-      <c r="AH91" s="245"/>
-      <c r="AI91" s="245"/>
-      <c r="AJ91" s="245"/>
-      <c r="AK91" s="245"/>
+      <c r="X91" s="230"/>
+      <c r="Y91" s="230"/>
+      <c r="Z91" s="230"/>
+      <c r="AA91" s="230"/>
+      <c r="AB91" s="230"/>
+      <c r="AC91" s="230"/>
+      <c r="AD91" s="230"/>
+      <c r="AE91" s="230"/>
+      <c r="AF91" s="230"/>
+      <c r="AG91" s="230"/>
+      <c r="AH91" s="230"/>
+      <c r="AI91" s="230"/>
+      <c r="AJ91" s="230"/>
+      <c r="AK91" s="230"/>
       <c r="AL91" s="214"/>
       <c r="AM91" s="214"/>
     </row>
     <row r="92" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="218" t="s">
-        <v>212</v>
+      <c r="A92" s="243" t="s">
+        <v>211</v>
       </c>
       <c r="B92" s="207"/>
-      <c r="C92" s="246" t="s">
+      <c r="C92" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="D92" s="249" t="s">
+      <c r="D92" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="250"/>
-      <c r="F92" s="250"/>
-      <c r="G92" s="250"/>
-      <c r="H92" s="251"/>
-      <c r="I92" s="249" t="s">
+      <c r="E92" s="235"/>
+      <c r="F92" s="235"/>
+      <c r="G92" s="235"/>
+      <c r="H92" s="236"/>
+      <c r="I92" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="J92" s="250"/>
-      <c r="K92" s="250"/>
-      <c r="L92" s="250"/>
-      <c r="M92" s="251"/>
-      <c r="N92" s="249" t="s">
+      <c r="J92" s="235"/>
+      <c r="K92" s="235"/>
+      <c r="L92" s="235"/>
+      <c r="M92" s="236"/>
+      <c r="N92" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="O92" s="250"/>
-      <c r="P92" s="250"/>
-      <c r="Q92" s="251"/>
+      <c r="O92" s="235"/>
+      <c r="P92" s="235"/>
+      <c r="Q92" s="236"/>
       <c r="R92" s="75"/>
       <c r="S92" s="75"/>
       <c r="T92" s="101"/>
-      <c r="U92" s="218" t="s">
-        <v>210</v>
+      <c r="U92" s="243" t="s">
+        <v>209</v>
       </c>
       <c r="V92" s="207"/>
-      <c r="W92" s="246" t="s">
+      <c r="W92" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="X92" s="249" t="s">
+      <c r="X92" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="Y92" s="250"/>
-      <c r="Z92" s="250"/>
-      <c r="AA92" s="250"/>
-      <c r="AB92" s="251"/>
-      <c r="AC92" s="249" t="s">
+      <c r="Y92" s="235"/>
+      <c r="Z92" s="235"/>
+      <c r="AA92" s="235"/>
+      <c r="AB92" s="236"/>
+      <c r="AC92" s="234" t="s">
         <v>92</v>
       </c>
-      <c r="AD92" s="250"/>
-      <c r="AE92" s="250"/>
-      <c r="AF92" s="250"/>
-      <c r="AG92" s="251"/>
-      <c r="AH92" s="249" t="s">
+      <c r="AD92" s="235"/>
+      <c r="AE92" s="235"/>
+      <c r="AF92" s="235"/>
+      <c r="AG92" s="236"/>
+      <c r="AH92" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="AI92" s="250"/>
-      <c r="AJ92" s="250"/>
-      <c r="AK92" s="251"/>
+      <c r="AI92" s="235"/>
+      <c r="AJ92" s="235"/>
+      <c r="AK92" s="236"/>
     </row>
     <row r="93" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="218"/>
+      <c r="A93" s="243"/>
       <c r="B93" s="207"/>
-      <c r="C93" s="247"/>
-      <c r="D93" s="249" t="s">
+      <c r="C93" s="232"/>
+      <c r="D93" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="250"/>
-      <c r="F93" s="251"/>
-      <c r="G93" s="252" t="s">
+      <c r="E93" s="235"/>
+      <c r="F93" s="236"/>
+      <c r="G93" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="H93" s="253"/>
-      <c r="I93" s="249" t="s">
+      <c r="H93" s="238"/>
+      <c r="I93" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="J93" s="250"/>
-      <c r="K93" s="251"/>
-      <c r="L93" s="252" t="s">
+      <c r="J93" s="235"/>
+      <c r="K93" s="236"/>
+      <c r="L93" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="M93" s="253"/>
-      <c r="N93" s="254" t="s">
+      <c r="M93" s="238"/>
+      <c r="N93" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="O93" s="255"/>
-      <c r="P93" s="256" t="s">
+      <c r="O93" s="240"/>
+      <c r="P93" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="Q93" s="257"/>
+      <c r="Q93" s="242"/>
       <c r="R93" s="75"/>
       <c r="S93" s="75"/>
       <c r="T93" s="101"/>
-      <c r="U93" s="218"/>
+      <c r="U93" s="243"/>
       <c r="V93" s="207"/>
-      <c r="W93" s="247"/>
-      <c r="X93" s="249" t="s">
+      <c r="W93" s="232"/>
+      <c r="X93" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="Y93" s="250"/>
-      <c r="Z93" s="251"/>
-      <c r="AA93" s="252" t="s">
+      <c r="Y93" s="235"/>
+      <c r="Z93" s="236"/>
+      <c r="AA93" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AB93" s="253"/>
-      <c r="AC93" s="249" t="s">
+      <c r="AB93" s="238"/>
+      <c r="AC93" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AD93" s="250"/>
-      <c r="AE93" s="251"/>
-      <c r="AF93" s="252" t="s">
+      <c r="AD93" s="235"/>
+      <c r="AE93" s="236"/>
+      <c r="AF93" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AG93" s="253"/>
-      <c r="AH93" s="254" t="s">
+      <c r="AG93" s="238"/>
+      <c r="AH93" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="AI93" s="255"/>
-      <c r="AJ93" s="256" t="s">
+      <c r="AI93" s="240"/>
+      <c r="AJ93" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="AK93" s="257"/>
+      <c r="AK93" s="242"/>
     </row>
     <row r="94" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="218"/>
+      <c r="A94" s="243"/>
       <c r="B94" s="207"/>
-      <c r="C94" s="248"/>
+      <c r="C94" s="233"/>
       <c r="D94" s="51" t="s">
         <v>6</v>
       </c>
@@ -20551,9 +20551,9 @@
       <c r="R94" s="76"/>
       <c r="S94" s="76"/>
       <c r="T94" s="102"/>
-      <c r="U94" s="218"/>
+      <c r="U94" s="243"/>
       <c r="V94" s="207"/>
-      <c r="W94" s="248"/>
+      <c r="W94" s="233"/>
       <c r="X94" s="51" t="s">
         <v>6</v>
       </c>
@@ -20598,7 +20598,7 @@
       </c>
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A95" s="218"/>
+      <c r="A95" s="209"/>
       <c r="C95" s="55" t="s">
         <v>112</v>
       </c>
@@ -20643,7 +20643,7 @@
       <c r="R95" s="55"/>
       <c r="S95" s="55"/>
       <c r="T95" s="103"/>
-      <c r="U95" s="218"/>
+      <c r="U95" s="209"/>
       <c r="V95" s="103"/>
       <c r="W95" s="55" t="s">
         <v>112</v>
@@ -22173,43 +22173,43 @@
         <v>176</v>
       </c>
       <c r="B114" s="211"/>
-      <c r="C114" s="238" t="s">
+      <c r="C114" s="224" t="s">
         <v>187</v>
       </c>
-      <c r="D114" s="239"/>
-      <c r="E114" s="239"/>
-      <c r="F114" s="240"/>
-      <c r="G114" s="241"/>
-      <c r="H114" s="241"/>
-      <c r="I114" s="239"/>
-      <c r="J114" s="239"/>
-      <c r="K114" s="240"/>
-      <c r="L114" s="241"/>
-      <c r="M114" s="241"/>
-      <c r="N114" s="239"/>
-      <c r="O114" s="239"/>
-      <c r="P114" s="240"/>
-      <c r="Q114" s="240"/>
-      <c r="R114" s="242"/>
-      <c r="S114" s="242"/>
-      <c r="T114" s="242"/>
-      <c r="U114" s="242"/>
-      <c r="V114" s="242"/>
-      <c r="W114" s="242"/>
-      <c r="X114" s="239"/>
-      <c r="Y114" s="239"/>
-      <c r="Z114" s="240"/>
-      <c r="AA114" s="241"/>
-      <c r="AB114" s="241"/>
-      <c r="AC114" s="239"/>
-      <c r="AD114" s="239"/>
-      <c r="AE114" s="240"/>
-      <c r="AF114" s="241"/>
-      <c r="AG114" s="241"/>
-      <c r="AH114" s="239"/>
-      <c r="AI114" s="239"/>
-      <c r="AJ114" s="240"/>
-      <c r="AK114" s="240"/>
+      <c r="D114" s="225"/>
+      <c r="E114" s="225"/>
+      <c r="F114" s="226"/>
+      <c r="G114" s="227"/>
+      <c r="H114" s="227"/>
+      <c r="I114" s="225"/>
+      <c r="J114" s="225"/>
+      <c r="K114" s="226"/>
+      <c r="L114" s="227"/>
+      <c r="M114" s="227"/>
+      <c r="N114" s="225"/>
+      <c r="O114" s="225"/>
+      <c r="P114" s="226"/>
+      <c r="Q114" s="226"/>
+      <c r="R114" s="228"/>
+      <c r="S114" s="228"/>
+      <c r="T114" s="228"/>
+      <c r="U114" s="228"/>
+      <c r="V114" s="228"/>
+      <c r="W114" s="228"/>
+      <c r="X114" s="225"/>
+      <c r="Y114" s="225"/>
+      <c r="Z114" s="226"/>
+      <c r="AA114" s="227"/>
+      <c r="AB114" s="227"/>
+      <c r="AC114" s="225"/>
+      <c r="AD114" s="225"/>
+      <c r="AE114" s="226"/>
+      <c r="AF114" s="227"/>
+      <c r="AG114" s="227"/>
+      <c r="AH114" s="225"/>
+      <c r="AI114" s="225"/>
+      <c r="AJ114" s="226"/>
+      <c r="AK114" s="226"/>
       <c r="AL114" s="104"/>
       <c r="AM114" s="104"/>
     </row>
@@ -22218,215 +22218,215 @@
         <v>179</v>
       </c>
       <c r="B115" s="213"/>
-      <c r="C115" s="243" t="s">
+      <c r="C115" s="229" t="s">
         <v>183</v>
       </c>
-      <c r="D115" s="239"/>
-      <c r="E115" s="239"/>
-      <c r="F115" s="240"/>
-      <c r="G115" s="241"/>
-      <c r="H115" s="241"/>
-      <c r="I115" s="239"/>
-      <c r="J115" s="239"/>
-      <c r="K115" s="240"/>
-      <c r="L115" s="241"/>
-      <c r="M115" s="241"/>
-      <c r="N115" s="239"/>
-      <c r="O115" s="239"/>
-      <c r="P115" s="240"/>
-      <c r="Q115" s="240"/>
-      <c r="R115" s="242"/>
-      <c r="S115" s="242"/>
-      <c r="T115" s="242"/>
-      <c r="U115" s="242"/>
-      <c r="V115" s="242"/>
-      <c r="W115" s="242"/>
-      <c r="X115" s="239"/>
-      <c r="Y115" s="239"/>
-      <c r="Z115" s="240"/>
-      <c r="AA115" s="241"/>
-      <c r="AB115" s="241"/>
-      <c r="AC115" s="239"/>
-      <c r="AD115" s="239"/>
-      <c r="AE115" s="240"/>
-      <c r="AF115" s="241"/>
-      <c r="AG115" s="241"/>
-      <c r="AH115" s="239"/>
-      <c r="AI115" s="239"/>
-      <c r="AJ115" s="240"/>
-      <c r="AK115" s="240"/>
+      <c r="D115" s="225"/>
+      <c r="E115" s="225"/>
+      <c r="F115" s="226"/>
+      <c r="G115" s="227"/>
+      <c r="H115" s="227"/>
+      <c r="I115" s="225"/>
+      <c r="J115" s="225"/>
+      <c r="K115" s="226"/>
+      <c r="L115" s="227"/>
+      <c r="M115" s="227"/>
+      <c r="N115" s="225"/>
+      <c r="O115" s="225"/>
+      <c r="P115" s="226"/>
+      <c r="Q115" s="226"/>
+      <c r="R115" s="228"/>
+      <c r="S115" s="228"/>
+      <c r="T115" s="228"/>
+      <c r="U115" s="228"/>
+      <c r="V115" s="228"/>
+      <c r="W115" s="228"/>
+      <c r="X115" s="225"/>
+      <c r="Y115" s="225"/>
+      <c r="Z115" s="226"/>
+      <c r="AA115" s="227"/>
+      <c r="AB115" s="227"/>
+      <c r="AC115" s="225"/>
+      <c r="AD115" s="225"/>
+      <c r="AE115" s="226"/>
+      <c r="AF115" s="227"/>
+      <c r="AG115" s="227"/>
+      <c r="AH115" s="225"/>
+      <c r="AI115" s="225"/>
+      <c r="AJ115" s="226"/>
+      <c r="AK115" s="226"/>
       <c r="AL115" s="104"/>
       <c r="AM115" s="104"/>
     </row>
     <row r="116" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="245" t="s">
-        <v>207</v>
-      </c>
-      <c r="D116" s="245"/>
-      <c r="E116" s="245"/>
-      <c r="F116" s="245"/>
-      <c r="G116" s="245"/>
-      <c r="H116" s="245"/>
-      <c r="I116" s="245"/>
-      <c r="J116" s="245"/>
-      <c r="K116" s="245"/>
-      <c r="L116" s="245"/>
-      <c r="M116" s="245"/>
-      <c r="N116" s="245"/>
-      <c r="O116" s="245"/>
-      <c r="P116" s="245"/>
-      <c r="Q116" s="245"/>
+      <c r="C116" s="230" t="s">
+        <v>206</v>
+      </c>
+      <c r="D116" s="230"/>
+      <c r="E116" s="230"/>
+      <c r="F116" s="230"/>
+      <c r="G116" s="230"/>
+      <c r="H116" s="230"/>
+      <c r="I116" s="230"/>
+      <c r="J116" s="230"/>
+      <c r="K116" s="230"/>
+      <c r="L116" s="230"/>
+      <c r="M116" s="230"/>
+      <c r="N116" s="230"/>
+      <c r="O116" s="230"/>
+      <c r="P116" s="230"/>
+      <c r="Q116" s="230"/>
       <c r="R116" s="214"/>
       <c r="S116" s="214"/>
       <c r="T116" s="105"/>
       <c r="U116" s="105"/>
       <c r="V116" s="105"/>
-      <c r="W116" s="245" t="s">
+      <c r="W116" s="230" t="s">
         <v>181</v>
       </c>
-      <c r="X116" s="245"/>
-      <c r="Y116" s="245"/>
-      <c r="Z116" s="245"/>
-      <c r="AA116" s="245"/>
-      <c r="AB116" s="245"/>
-      <c r="AC116" s="245"/>
-      <c r="AD116" s="245"/>
-      <c r="AE116" s="245"/>
-      <c r="AF116" s="245"/>
-      <c r="AG116" s="245"/>
-      <c r="AH116" s="245"/>
-      <c r="AI116" s="245"/>
-      <c r="AJ116" s="245"/>
-      <c r="AK116" s="245"/>
+      <c r="X116" s="230"/>
+      <c r="Y116" s="230"/>
+      <c r="Z116" s="230"/>
+      <c r="AA116" s="230"/>
+      <c r="AB116" s="230"/>
+      <c r="AC116" s="230"/>
+      <c r="AD116" s="230"/>
+      <c r="AE116" s="230"/>
+      <c r="AF116" s="230"/>
+      <c r="AG116" s="230"/>
+      <c r="AH116" s="230"/>
+      <c r="AI116" s="230"/>
+      <c r="AJ116" s="230"/>
+      <c r="AK116" s="230"/>
       <c r="AL116" s="214"/>
       <c r="AM116" s="214"/>
     </row>
     <row r="117" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="218" t="s">
-        <v>211</v>
+      <c r="A117" s="243" t="s">
+        <v>210</v>
       </c>
       <c r="B117" s="207"/>
-      <c r="C117" s="246" t="s">
+      <c r="C117" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="D117" s="249" t="s">
+      <c r="D117" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="E117" s="250"/>
-      <c r="F117" s="250"/>
-      <c r="G117" s="250"/>
-      <c r="H117" s="251"/>
-      <c r="I117" s="249" t="s">
+      <c r="E117" s="235"/>
+      <c r="F117" s="235"/>
+      <c r="G117" s="235"/>
+      <c r="H117" s="236"/>
+      <c r="I117" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="J117" s="250"/>
-      <c r="K117" s="250"/>
-      <c r="L117" s="250"/>
-      <c r="M117" s="251"/>
-      <c r="N117" s="249" t="s">
+      <c r="J117" s="235"/>
+      <c r="K117" s="235"/>
+      <c r="L117" s="235"/>
+      <c r="M117" s="236"/>
+      <c r="N117" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="O117" s="250"/>
-      <c r="P117" s="250"/>
-      <c r="Q117" s="251"/>
+      <c r="O117" s="235"/>
+      <c r="P117" s="235"/>
+      <c r="Q117" s="236"/>
       <c r="R117" s="75"/>
       <c r="S117" s="75"/>
       <c r="T117" s="101"/>
-      <c r="U117" s="218" t="s">
-        <v>211</v>
+      <c r="U117" s="243" t="s">
+        <v>210</v>
       </c>
       <c r="V117" s="207"/>
-      <c r="W117" s="246" t="s">
+      <c r="W117" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="X117" s="249" t="s">
+      <c r="X117" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="Y117" s="250"/>
-      <c r="Z117" s="250"/>
-      <c r="AA117" s="250"/>
-      <c r="AB117" s="251"/>
-      <c r="AC117" s="249" t="s">
+      <c r="Y117" s="235"/>
+      <c r="Z117" s="235"/>
+      <c r="AA117" s="235"/>
+      <c r="AB117" s="236"/>
+      <c r="AC117" s="234" t="s">
         <v>92</v>
       </c>
-      <c r="AD117" s="250"/>
-      <c r="AE117" s="250"/>
-      <c r="AF117" s="250"/>
-      <c r="AG117" s="251"/>
-      <c r="AH117" s="249" t="s">
+      <c r="AD117" s="235"/>
+      <c r="AE117" s="235"/>
+      <c r="AF117" s="235"/>
+      <c r="AG117" s="236"/>
+      <c r="AH117" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="AI117" s="250"/>
-      <c r="AJ117" s="250"/>
-      <c r="AK117" s="251"/>
+      <c r="AI117" s="235"/>
+      <c r="AJ117" s="235"/>
+      <c r="AK117" s="236"/>
     </row>
     <row r="118" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="218"/>
+      <c r="A118" s="243"/>
       <c r="B118" s="207"/>
-      <c r="C118" s="247"/>
-      <c r="D118" s="249" t="s">
+      <c r="C118" s="232"/>
+      <c r="D118" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="250"/>
-      <c r="F118" s="251"/>
-      <c r="G118" s="252" t="s">
+      <c r="E118" s="235"/>
+      <c r="F118" s="236"/>
+      <c r="G118" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="H118" s="253"/>
-      <c r="I118" s="249" t="s">
+      <c r="H118" s="238"/>
+      <c r="I118" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="J118" s="250"/>
-      <c r="K118" s="251"/>
-      <c r="L118" s="252" t="s">
+      <c r="J118" s="235"/>
+      <c r="K118" s="236"/>
+      <c r="L118" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="M118" s="253"/>
-      <c r="N118" s="254" t="s">
+      <c r="M118" s="238"/>
+      <c r="N118" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="O118" s="255"/>
-      <c r="P118" s="256" t="s">
+      <c r="O118" s="240"/>
+      <c r="P118" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="Q118" s="257"/>
+      <c r="Q118" s="242"/>
       <c r="R118" s="75"/>
       <c r="S118" s="75"/>
       <c r="T118" s="101"/>
-      <c r="U118" s="218"/>
+      <c r="U118" s="243"/>
       <c r="V118" s="207"/>
-      <c r="W118" s="247"/>
-      <c r="X118" s="249" t="s">
+      <c r="W118" s="232"/>
+      <c r="X118" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="Y118" s="250"/>
-      <c r="Z118" s="251"/>
-      <c r="AA118" s="252" t="s">
+      <c r="Y118" s="235"/>
+      <c r="Z118" s="236"/>
+      <c r="AA118" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AB118" s="253"/>
-      <c r="AC118" s="249" t="s">
+      <c r="AB118" s="238"/>
+      <c r="AC118" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AD118" s="250"/>
-      <c r="AE118" s="251"/>
-      <c r="AF118" s="252" t="s">
+      <c r="AD118" s="235"/>
+      <c r="AE118" s="236"/>
+      <c r="AF118" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AG118" s="253"/>
-      <c r="AH118" s="254" t="s">
+      <c r="AG118" s="238"/>
+      <c r="AH118" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="AI118" s="255"/>
-      <c r="AJ118" s="256" t="s">
+      <c r="AI118" s="240"/>
+      <c r="AJ118" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="AK118" s="257"/>
+      <c r="AK118" s="242"/>
     </row>
     <row r="119" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="218"/>
+      <c r="A119" s="243"/>
       <c r="B119" s="207"/>
-      <c r="C119" s="248"/>
+      <c r="C119" s="233"/>
       <c r="D119" s="51" t="s">
         <v>6</v>
       </c>
@@ -22472,9 +22472,9 @@
       <c r="R119" s="76"/>
       <c r="S119" s="76"/>
       <c r="T119" s="102"/>
-      <c r="U119" s="218"/>
+      <c r="U119" s="243"/>
       <c r="V119" s="207"/>
-      <c r="W119" s="248"/>
+      <c r="W119" s="233"/>
       <c r="X119" s="51" t="s">
         <v>6</v>
       </c>
@@ -22519,7 +22519,7 @@
       </c>
     </row>
     <row r="120" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A120" s="218"/>
+      <c r="A120" s="209"/>
       <c r="C120" s="55" t="s">
         <v>30</v>
       </c>
@@ -22564,7 +22564,7 @@
       <c r="R120" s="55"/>
       <c r="S120" s="55"/>
       <c r="T120" s="103"/>
-      <c r="U120" s="218"/>
+      <c r="U120" s="209"/>
       <c r="V120" s="103"/>
       <c r="W120" s="55" t="s">
         <v>30</v>
@@ -23027,43 +23027,43 @@
         <v>176</v>
       </c>
       <c r="B127" s="211"/>
-      <c r="C127" s="238" t="s">
+      <c r="C127" s="224" t="s">
         <v>186</v>
       </c>
-      <c r="D127" s="239"/>
-      <c r="E127" s="239"/>
-      <c r="F127" s="240"/>
-      <c r="G127" s="241"/>
-      <c r="H127" s="241"/>
-      <c r="I127" s="239"/>
-      <c r="J127" s="239"/>
-      <c r="K127" s="240"/>
-      <c r="L127" s="241"/>
-      <c r="M127" s="241"/>
-      <c r="N127" s="239"/>
-      <c r="O127" s="239"/>
-      <c r="P127" s="240"/>
-      <c r="Q127" s="240"/>
-      <c r="R127" s="242"/>
-      <c r="S127" s="242"/>
-      <c r="T127" s="242"/>
-      <c r="U127" s="242"/>
-      <c r="V127" s="242"/>
-      <c r="W127" s="242"/>
-      <c r="X127" s="239"/>
-      <c r="Y127" s="239"/>
-      <c r="Z127" s="240"/>
-      <c r="AA127" s="241"/>
-      <c r="AB127" s="241"/>
-      <c r="AC127" s="239"/>
-      <c r="AD127" s="239"/>
-      <c r="AE127" s="240"/>
-      <c r="AF127" s="241"/>
-      <c r="AG127" s="241"/>
-      <c r="AH127" s="239"/>
-      <c r="AI127" s="239"/>
-      <c r="AJ127" s="240"/>
-      <c r="AK127" s="240"/>
+      <c r="D127" s="225"/>
+      <c r="E127" s="225"/>
+      <c r="F127" s="226"/>
+      <c r="G127" s="227"/>
+      <c r="H127" s="227"/>
+      <c r="I127" s="225"/>
+      <c r="J127" s="225"/>
+      <c r="K127" s="226"/>
+      <c r="L127" s="227"/>
+      <c r="M127" s="227"/>
+      <c r="N127" s="225"/>
+      <c r="O127" s="225"/>
+      <c r="P127" s="226"/>
+      <c r="Q127" s="226"/>
+      <c r="R127" s="228"/>
+      <c r="S127" s="228"/>
+      <c r="T127" s="228"/>
+      <c r="U127" s="228"/>
+      <c r="V127" s="228"/>
+      <c r="W127" s="228"/>
+      <c r="X127" s="225"/>
+      <c r="Y127" s="225"/>
+      <c r="Z127" s="226"/>
+      <c r="AA127" s="227"/>
+      <c r="AB127" s="227"/>
+      <c r="AC127" s="225"/>
+      <c r="AD127" s="225"/>
+      <c r="AE127" s="226"/>
+      <c r="AF127" s="227"/>
+      <c r="AG127" s="227"/>
+      <c r="AH127" s="225"/>
+      <c r="AI127" s="225"/>
+      <c r="AJ127" s="226"/>
+      <c r="AK127" s="226"/>
       <c r="AL127" s="104"/>
       <c r="AM127" s="104"/>
     </row>
@@ -23072,64 +23072,64 @@
         <v>179</v>
       </c>
       <c r="B128" s="213"/>
-      <c r="C128" s="243" t="s">
+      <c r="C128" s="229" t="s">
         <v>183</v>
       </c>
-      <c r="D128" s="239"/>
-      <c r="E128" s="239"/>
-      <c r="F128" s="240"/>
-      <c r="G128" s="241"/>
-      <c r="H128" s="241"/>
-      <c r="I128" s="239"/>
-      <c r="J128" s="239"/>
-      <c r="K128" s="240"/>
-      <c r="L128" s="241"/>
-      <c r="M128" s="241"/>
-      <c r="N128" s="239"/>
-      <c r="O128" s="239"/>
-      <c r="P128" s="240"/>
-      <c r="Q128" s="240"/>
-      <c r="R128" s="242"/>
-      <c r="S128" s="242"/>
-      <c r="T128" s="242"/>
-      <c r="U128" s="242"/>
-      <c r="V128" s="242"/>
-      <c r="W128" s="242"/>
-      <c r="X128" s="239"/>
-      <c r="Y128" s="239"/>
-      <c r="Z128" s="240"/>
-      <c r="AA128" s="241"/>
-      <c r="AB128" s="241"/>
-      <c r="AC128" s="239"/>
-      <c r="AD128" s="239"/>
-      <c r="AE128" s="240"/>
-      <c r="AF128" s="241"/>
-      <c r="AG128" s="241"/>
-      <c r="AH128" s="239"/>
-      <c r="AI128" s="239"/>
-      <c r="AJ128" s="240"/>
-      <c r="AK128" s="240"/>
+      <c r="D128" s="225"/>
+      <c r="E128" s="225"/>
+      <c r="F128" s="226"/>
+      <c r="G128" s="227"/>
+      <c r="H128" s="227"/>
+      <c r="I128" s="225"/>
+      <c r="J128" s="225"/>
+      <c r="K128" s="226"/>
+      <c r="L128" s="227"/>
+      <c r="M128" s="227"/>
+      <c r="N128" s="225"/>
+      <c r="O128" s="225"/>
+      <c r="P128" s="226"/>
+      <c r="Q128" s="226"/>
+      <c r="R128" s="228"/>
+      <c r="S128" s="228"/>
+      <c r="T128" s="228"/>
+      <c r="U128" s="228"/>
+      <c r="V128" s="228"/>
+      <c r="W128" s="228"/>
+      <c r="X128" s="225"/>
+      <c r="Y128" s="225"/>
+      <c r="Z128" s="226"/>
+      <c r="AA128" s="227"/>
+      <c r="AB128" s="227"/>
+      <c r="AC128" s="225"/>
+      <c r="AD128" s="225"/>
+      <c r="AE128" s="226"/>
+      <c r="AF128" s="227"/>
+      <c r="AG128" s="227"/>
+      <c r="AH128" s="225"/>
+      <c r="AI128" s="225"/>
+      <c r="AJ128" s="226"/>
+      <c r="AK128" s="226"/>
       <c r="AL128" s="104"/>
       <c r="AM128" s="104"/>
     </row>
     <row r="129" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="245" t="s">
+      <c r="C129" s="230" t="s">
         <v>180</v>
       </c>
-      <c r="D129" s="245"/>
-      <c r="E129" s="245"/>
-      <c r="F129" s="245"/>
-      <c r="G129" s="245"/>
-      <c r="H129" s="245"/>
-      <c r="I129" s="245"/>
-      <c r="J129" s="245"/>
-      <c r="K129" s="245"/>
-      <c r="L129" s="245"/>
-      <c r="M129" s="245"/>
-      <c r="N129" s="245"/>
-      <c r="O129" s="245"/>
-      <c r="P129" s="245"/>
-      <c r="Q129" s="245"/>
+      <c r="D129" s="230"/>
+      <c r="E129" s="230"/>
+      <c r="F129" s="230"/>
+      <c r="G129" s="230"/>
+      <c r="H129" s="230"/>
+      <c r="I129" s="230"/>
+      <c r="J129" s="230"/>
+      <c r="K129" s="230"/>
+      <c r="L129" s="230"/>
+      <c r="M129" s="230"/>
+      <c r="N129" s="230"/>
+      <c r="O129" s="230"/>
+      <c r="P129" s="230"/>
+      <c r="Q129" s="230"/>
       <c r="R129" s="214"/>
       <c r="S129" s="214"/>
       <c r="T129" s="105"/>
@@ -23154,33 +23154,33 @@
       <c r="AM129" s="208"/>
     </row>
     <row r="130" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="218" t="s">
-        <v>211</v>
+      <c r="A130" s="243" t="s">
+        <v>210</v>
       </c>
       <c r="B130" s="207"/>
-      <c r="C130" s="246" t="s">
+      <c r="C130" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="D130" s="249" t="s">
+      <c r="D130" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="E130" s="250"/>
-      <c r="F130" s="250"/>
-      <c r="G130" s="250"/>
-      <c r="H130" s="251"/>
-      <c r="I130" s="249" t="s">
+      <c r="E130" s="235"/>
+      <c r="F130" s="235"/>
+      <c r="G130" s="235"/>
+      <c r="H130" s="236"/>
+      <c r="I130" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="J130" s="250"/>
-      <c r="K130" s="250"/>
-      <c r="L130" s="250"/>
-      <c r="M130" s="251"/>
-      <c r="N130" s="249" t="s">
+      <c r="J130" s="235"/>
+      <c r="K130" s="235"/>
+      <c r="L130" s="235"/>
+      <c r="M130" s="236"/>
+      <c r="N130" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="O130" s="250"/>
-      <c r="P130" s="250"/>
-      <c r="Q130" s="251"/>
+      <c r="O130" s="235"/>
+      <c r="P130" s="235"/>
+      <c r="Q130" s="236"/>
       <c r="R130" s="81"/>
       <c r="S130" s="81"/>
       <c r="T130" s="104"/>
@@ -23205,35 +23205,35 @@
       <c r="AM130" s="177"/>
     </row>
     <row r="131" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="218"/>
+      <c r="A131" s="243"/>
       <c r="B131" s="207"/>
-      <c r="C131" s="247"/>
-      <c r="D131" s="249" t="s">
+      <c r="C131" s="232"/>
+      <c r="D131" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="E131" s="250"/>
-      <c r="F131" s="251"/>
-      <c r="G131" s="252" t="s">
+      <c r="E131" s="235"/>
+      <c r="F131" s="236"/>
+      <c r="G131" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="H131" s="253"/>
-      <c r="I131" s="249" t="s">
+      <c r="H131" s="238"/>
+      <c r="I131" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="J131" s="250"/>
-      <c r="K131" s="251"/>
-      <c r="L131" s="252" t="s">
+      <c r="J131" s="235"/>
+      <c r="K131" s="236"/>
+      <c r="L131" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="M131" s="253"/>
-      <c r="N131" s="254" t="s">
+      <c r="M131" s="238"/>
+      <c r="N131" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="O131" s="255"/>
-      <c r="P131" s="256" t="s">
+      <c r="O131" s="240"/>
+      <c r="P131" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="Q131" s="257"/>
+      <c r="Q131" s="242"/>
       <c r="R131" s="81"/>
       <c r="S131" s="81"/>
       <c r="T131" s="104"/>
@@ -23258,9 +23258,9 @@
       <c r="AM131" s="177"/>
     </row>
     <row r="132" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="218"/>
+      <c r="A132" s="243"/>
       <c r="B132" s="207"/>
-      <c r="C132" s="248"/>
+      <c r="C132" s="233"/>
       <c r="D132" s="51" t="s">
         <v>6</v>
       </c>
@@ -23327,7 +23327,7 @@
       <c r="AM132" s="177"/>
     </row>
     <row r="133" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A133" s="218"/>
+      <c r="A133" s="209"/>
       <c r="C133" s="55" t="s">
         <v>31</v>
       </c>
@@ -34360,43 +34360,43 @@
         <v>176</v>
       </c>
       <c r="B301" s="211"/>
-      <c r="C301" s="238" t="s">
+      <c r="C301" s="224" t="s">
         <v>188</v>
       </c>
-      <c r="D301" s="239"/>
-      <c r="E301" s="239"/>
-      <c r="F301" s="240"/>
-      <c r="G301" s="241"/>
-      <c r="H301" s="241"/>
-      <c r="I301" s="239"/>
-      <c r="J301" s="239"/>
-      <c r="K301" s="240"/>
-      <c r="L301" s="241"/>
-      <c r="M301" s="241"/>
-      <c r="N301" s="239"/>
-      <c r="O301" s="239"/>
-      <c r="P301" s="240"/>
-      <c r="Q301" s="240"/>
-      <c r="R301" s="242"/>
-      <c r="S301" s="242"/>
-      <c r="T301" s="242"/>
-      <c r="U301" s="242"/>
-      <c r="V301" s="242"/>
-      <c r="W301" s="242"/>
-      <c r="X301" s="239"/>
-      <c r="Y301" s="239"/>
-      <c r="Z301" s="240"/>
-      <c r="AA301" s="241"/>
-      <c r="AB301" s="241"/>
-      <c r="AC301" s="239"/>
-      <c r="AD301" s="239"/>
-      <c r="AE301" s="240"/>
-      <c r="AF301" s="241"/>
-      <c r="AG301" s="241"/>
-      <c r="AH301" s="239"/>
-      <c r="AI301" s="239"/>
-      <c r="AJ301" s="240"/>
-      <c r="AK301" s="240"/>
+      <c r="D301" s="225"/>
+      <c r="E301" s="225"/>
+      <c r="F301" s="226"/>
+      <c r="G301" s="227"/>
+      <c r="H301" s="227"/>
+      <c r="I301" s="225"/>
+      <c r="J301" s="225"/>
+      <c r="K301" s="226"/>
+      <c r="L301" s="227"/>
+      <c r="M301" s="227"/>
+      <c r="N301" s="225"/>
+      <c r="O301" s="225"/>
+      <c r="P301" s="226"/>
+      <c r="Q301" s="226"/>
+      <c r="R301" s="228"/>
+      <c r="S301" s="228"/>
+      <c r="T301" s="228"/>
+      <c r="U301" s="228"/>
+      <c r="V301" s="228"/>
+      <c r="W301" s="228"/>
+      <c r="X301" s="225"/>
+      <c r="Y301" s="225"/>
+      <c r="Z301" s="226"/>
+      <c r="AA301" s="227"/>
+      <c r="AB301" s="227"/>
+      <c r="AC301" s="225"/>
+      <c r="AD301" s="225"/>
+      <c r="AE301" s="226"/>
+      <c r="AF301" s="227"/>
+      <c r="AG301" s="227"/>
+      <c r="AH301" s="225"/>
+      <c r="AI301" s="225"/>
+      <c r="AJ301" s="226"/>
+      <c r="AK301" s="226"/>
       <c r="AL301" s="104"/>
       <c r="AM301" s="104"/>
     </row>
@@ -34405,215 +34405,215 @@
         <v>179</v>
       </c>
       <c r="B302" s="213"/>
-      <c r="C302" s="243" t="s">
+      <c r="C302" s="229" t="s">
         <v>183</v>
       </c>
-      <c r="D302" s="239"/>
-      <c r="E302" s="239"/>
-      <c r="F302" s="240"/>
-      <c r="G302" s="241"/>
-      <c r="H302" s="241"/>
-      <c r="I302" s="239"/>
-      <c r="J302" s="239"/>
-      <c r="K302" s="240"/>
-      <c r="L302" s="241"/>
-      <c r="M302" s="241"/>
-      <c r="N302" s="239"/>
-      <c r="O302" s="239"/>
-      <c r="P302" s="240"/>
-      <c r="Q302" s="240"/>
-      <c r="R302" s="242"/>
-      <c r="S302" s="242"/>
-      <c r="T302" s="242"/>
-      <c r="U302" s="242"/>
-      <c r="V302" s="242"/>
-      <c r="W302" s="242"/>
-      <c r="X302" s="239"/>
-      <c r="Y302" s="239"/>
-      <c r="Z302" s="240"/>
-      <c r="AA302" s="241"/>
-      <c r="AB302" s="241"/>
-      <c r="AC302" s="239"/>
-      <c r="AD302" s="239"/>
-      <c r="AE302" s="240"/>
-      <c r="AF302" s="241"/>
-      <c r="AG302" s="241"/>
-      <c r="AH302" s="239"/>
-      <c r="AI302" s="239"/>
-      <c r="AJ302" s="240"/>
-      <c r="AK302" s="240"/>
+      <c r="D302" s="225"/>
+      <c r="E302" s="225"/>
+      <c r="F302" s="226"/>
+      <c r="G302" s="227"/>
+      <c r="H302" s="227"/>
+      <c r="I302" s="225"/>
+      <c r="J302" s="225"/>
+      <c r="K302" s="226"/>
+      <c r="L302" s="227"/>
+      <c r="M302" s="227"/>
+      <c r="N302" s="225"/>
+      <c r="O302" s="225"/>
+      <c r="P302" s="226"/>
+      <c r="Q302" s="226"/>
+      <c r="R302" s="228"/>
+      <c r="S302" s="228"/>
+      <c r="T302" s="228"/>
+      <c r="U302" s="228"/>
+      <c r="V302" s="228"/>
+      <c r="W302" s="228"/>
+      <c r="X302" s="225"/>
+      <c r="Y302" s="225"/>
+      <c r="Z302" s="226"/>
+      <c r="AA302" s="227"/>
+      <c r="AB302" s="227"/>
+      <c r="AC302" s="225"/>
+      <c r="AD302" s="225"/>
+      <c r="AE302" s="226"/>
+      <c r="AF302" s="227"/>
+      <c r="AG302" s="227"/>
+      <c r="AH302" s="225"/>
+      <c r="AI302" s="225"/>
+      <c r="AJ302" s="226"/>
+      <c r="AK302" s="226"/>
       <c r="AL302" s="104"/>
       <c r="AM302" s="104"/>
     </row>
     <row r="303" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C303" s="245" t="s">
-        <v>207</v>
-      </c>
-      <c r="D303" s="245"/>
-      <c r="E303" s="245"/>
-      <c r="F303" s="245"/>
-      <c r="G303" s="245"/>
-      <c r="H303" s="245"/>
-      <c r="I303" s="245"/>
-      <c r="J303" s="245"/>
-      <c r="K303" s="245"/>
-      <c r="L303" s="245"/>
-      <c r="M303" s="245"/>
-      <c r="N303" s="245"/>
-      <c r="O303" s="245"/>
-      <c r="P303" s="245"/>
-      <c r="Q303" s="245"/>
+      <c r="C303" s="230" t="s">
+        <v>206</v>
+      </c>
+      <c r="D303" s="230"/>
+      <c r="E303" s="230"/>
+      <c r="F303" s="230"/>
+      <c r="G303" s="230"/>
+      <c r="H303" s="230"/>
+      <c r="I303" s="230"/>
+      <c r="J303" s="230"/>
+      <c r="K303" s="230"/>
+      <c r="L303" s="230"/>
+      <c r="M303" s="230"/>
+      <c r="N303" s="230"/>
+      <c r="O303" s="230"/>
+      <c r="P303" s="230"/>
+      <c r="Q303" s="230"/>
       <c r="R303" s="214"/>
       <c r="S303" s="214"/>
       <c r="T303" s="105"/>
       <c r="U303" s="105"/>
       <c r="V303" s="105"/>
-      <c r="W303" s="245" t="s">
+      <c r="W303" s="230" t="s">
         <v>181</v>
       </c>
-      <c r="X303" s="245"/>
-      <c r="Y303" s="245"/>
-      <c r="Z303" s="245"/>
-      <c r="AA303" s="245"/>
-      <c r="AB303" s="245"/>
-      <c r="AC303" s="245"/>
-      <c r="AD303" s="245"/>
-      <c r="AE303" s="245"/>
-      <c r="AF303" s="245"/>
-      <c r="AG303" s="245"/>
-      <c r="AH303" s="245"/>
-      <c r="AI303" s="245"/>
-      <c r="AJ303" s="245"/>
-      <c r="AK303" s="245"/>
+      <c r="X303" s="230"/>
+      <c r="Y303" s="230"/>
+      <c r="Z303" s="230"/>
+      <c r="AA303" s="230"/>
+      <c r="AB303" s="230"/>
+      <c r="AC303" s="230"/>
+      <c r="AD303" s="230"/>
+      <c r="AE303" s="230"/>
+      <c r="AF303" s="230"/>
+      <c r="AG303" s="230"/>
+      <c r="AH303" s="230"/>
+      <c r="AI303" s="230"/>
+      <c r="AJ303" s="230"/>
+      <c r="AK303" s="230"/>
       <c r="AL303" s="214"/>
       <c r="AM303" s="214"/>
     </row>
     <row r="304" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="218" t="s">
-        <v>213</v>
+      <c r="A304" s="243" t="s">
+        <v>212</v>
       </c>
       <c r="B304" s="207"/>
-      <c r="C304" s="246" t="s">
+      <c r="C304" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="D304" s="249" t="s">
+      <c r="D304" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="E304" s="250"/>
-      <c r="F304" s="250"/>
-      <c r="G304" s="250"/>
-      <c r="H304" s="251"/>
-      <c r="I304" s="249" t="s">
+      <c r="E304" s="235"/>
+      <c r="F304" s="235"/>
+      <c r="G304" s="235"/>
+      <c r="H304" s="236"/>
+      <c r="I304" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="J304" s="250"/>
-      <c r="K304" s="250"/>
-      <c r="L304" s="250"/>
-      <c r="M304" s="251"/>
-      <c r="N304" s="249" t="s">
+      <c r="J304" s="235"/>
+      <c r="K304" s="235"/>
+      <c r="L304" s="235"/>
+      <c r="M304" s="236"/>
+      <c r="N304" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="O304" s="250"/>
-      <c r="P304" s="250"/>
-      <c r="Q304" s="251"/>
+      <c r="O304" s="235"/>
+      <c r="P304" s="235"/>
+      <c r="Q304" s="236"/>
       <c r="R304" s="75"/>
       <c r="S304" s="75"/>
       <c r="T304" s="101"/>
-      <c r="U304" s="218" t="s">
-        <v>211</v>
+      <c r="U304" s="243" t="s">
+        <v>210</v>
       </c>
       <c r="V304" s="207"/>
-      <c r="W304" s="246" t="s">
+      <c r="W304" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="X304" s="249" t="s">
+      <c r="X304" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="Y304" s="250"/>
-      <c r="Z304" s="250"/>
-      <c r="AA304" s="250"/>
-      <c r="AB304" s="251"/>
-      <c r="AC304" s="249" t="s">
+      <c r="Y304" s="235"/>
+      <c r="Z304" s="235"/>
+      <c r="AA304" s="235"/>
+      <c r="AB304" s="236"/>
+      <c r="AC304" s="234" t="s">
         <v>92</v>
       </c>
-      <c r="AD304" s="250"/>
-      <c r="AE304" s="250"/>
-      <c r="AF304" s="250"/>
-      <c r="AG304" s="251"/>
-      <c r="AH304" s="249" t="s">
+      <c r="AD304" s="235"/>
+      <c r="AE304" s="235"/>
+      <c r="AF304" s="235"/>
+      <c r="AG304" s="236"/>
+      <c r="AH304" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="AI304" s="250"/>
-      <c r="AJ304" s="250"/>
-      <c r="AK304" s="251"/>
+      <c r="AI304" s="235"/>
+      <c r="AJ304" s="235"/>
+      <c r="AK304" s="236"/>
     </row>
     <row r="305" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="218"/>
+      <c r="A305" s="243"/>
       <c r="B305" s="207"/>
-      <c r="C305" s="247"/>
-      <c r="D305" s="249" t="s">
+      <c r="C305" s="232"/>
+      <c r="D305" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="E305" s="250"/>
-      <c r="F305" s="251"/>
-      <c r="G305" s="252" t="s">
+      <c r="E305" s="235"/>
+      <c r="F305" s="236"/>
+      <c r="G305" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="H305" s="253"/>
-      <c r="I305" s="249" t="s">
+      <c r="H305" s="238"/>
+      <c r="I305" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="J305" s="250"/>
-      <c r="K305" s="251"/>
-      <c r="L305" s="252" t="s">
+      <c r="J305" s="235"/>
+      <c r="K305" s="236"/>
+      <c r="L305" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="M305" s="253"/>
-      <c r="N305" s="254" t="s">
+      <c r="M305" s="238"/>
+      <c r="N305" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="O305" s="255"/>
-      <c r="P305" s="256" t="s">
+      <c r="O305" s="240"/>
+      <c r="P305" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="Q305" s="257"/>
+      <c r="Q305" s="242"/>
       <c r="R305" s="75"/>
       <c r="S305" s="75"/>
       <c r="T305" s="101"/>
-      <c r="U305" s="218"/>
+      <c r="U305" s="243"/>
       <c r="V305" s="207"/>
-      <c r="W305" s="247"/>
-      <c r="X305" s="249" t="s">
+      <c r="W305" s="232"/>
+      <c r="X305" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="Y305" s="250"/>
-      <c r="Z305" s="251"/>
-      <c r="AA305" s="252" t="s">
+      <c r="Y305" s="235"/>
+      <c r="Z305" s="236"/>
+      <c r="AA305" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AB305" s="253"/>
-      <c r="AC305" s="249" t="s">
+      <c r="AB305" s="238"/>
+      <c r="AC305" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AD305" s="250"/>
-      <c r="AE305" s="251"/>
-      <c r="AF305" s="252" t="s">
+      <c r="AD305" s="235"/>
+      <c r="AE305" s="236"/>
+      <c r="AF305" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AG305" s="253"/>
-      <c r="AH305" s="254" t="s">
+      <c r="AG305" s="238"/>
+      <c r="AH305" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="AI305" s="255"/>
-      <c r="AJ305" s="256" t="s">
+      <c r="AI305" s="240"/>
+      <c r="AJ305" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="AK305" s="257"/>
+      <c r="AK305" s="242"/>
     </row>
     <row r="306" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="218"/>
+      <c r="A306" s="243"/>
       <c r="B306" s="207"/>
-      <c r="C306" s="248"/>
+      <c r="C306" s="233"/>
       <c r="D306" s="51" t="s">
         <v>6</v>
       </c>
@@ -34659,9 +34659,9 @@
       <c r="R306" s="76"/>
       <c r="S306" s="76"/>
       <c r="T306" s="102"/>
-      <c r="U306" s="218"/>
+      <c r="U306" s="243"/>
       <c r="V306" s="207"/>
-      <c r="W306" s="248"/>
+      <c r="W306" s="233"/>
       <c r="X306" s="51" t="s">
         <v>6</v>
       </c>
@@ -34706,7 +34706,7 @@
       </c>
     </row>
     <row r="307" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A307" s="218"/>
+      <c r="A307" s="209"/>
       <c r="C307" s="55" t="s">
         <v>74</v>
       </c>
@@ -34751,7 +34751,7 @@
       <c r="R307" s="55"/>
       <c r="S307" s="55"/>
       <c r="T307" s="103"/>
-      <c r="U307" s="218"/>
+      <c r="U307" s="209"/>
       <c r="V307" s="103"/>
       <c r="W307" s="55" t="s">
         <v>74</v>
@@ -35710,43 +35710,43 @@
         <v>176</v>
       </c>
       <c r="B319" s="211"/>
-      <c r="C319" s="238" t="s">
+      <c r="C319" s="224" t="s">
         <v>189</v>
       </c>
-      <c r="D319" s="239"/>
-      <c r="E319" s="239"/>
-      <c r="F319" s="240"/>
-      <c r="G319" s="241"/>
-      <c r="H319" s="241"/>
-      <c r="I319" s="239"/>
-      <c r="J319" s="239"/>
-      <c r="K319" s="240"/>
-      <c r="L319" s="241"/>
-      <c r="M319" s="241"/>
-      <c r="N319" s="239"/>
-      <c r="O319" s="239"/>
-      <c r="P319" s="240"/>
-      <c r="Q319" s="240"/>
-      <c r="R319" s="242"/>
-      <c r="S319" s="242"/>
-      <c r="T319" s="242"/>
-      <c r="U319" s="242"/>
-      <c r="V319" s="242"/>
-      <c r="W319" s="242"/>
-      <c r="X319" s="239"/>
-      <c r="Y319" s="239"/>
-      <c r="Z319" s="240"/>
-      <c r="AA319" s="241"/>
-      <c r="AB319" s="241"/>
-      <c r="AC319" s="239"/>
-      <c r="AD319" s="239"/>
-      <c r="AE319" s="240"/>
-      <c r="AF319" s="241"/>
-      <c r="AG319" s="241"/>
-      <c r="AH319" s="239"/>
-      <c r="AI319" s="239"/>
-      <c r="AJ319" s="240"/>
-      <c r="AK319" s="240"/>
+      <c r="D319" s="225"/>
+      <c r="E319" s="225"/>
+      <c r="F319" s="226"/>
+      <c r="G319" s="227"/>
+      <c r="H319" s="227"/>
+      <c r="I319" s="225"/>
+      <c r="J319" s="225"/>
+      <c r="K319" s="226"/>
+      <c r="L319" s="227"/>
+      <c r="M319" s="227"/>
+      <c r="N319" s="225"/>
+      <c r="O319" s="225"/>
+      <c r="P319" s="226"/>
+      <c r="Q319" s="226"/>
+      <c r="R319" s="228"/>
+      <c r="S319" s="228"/>
+      <c r="T319" s="228"/>
+      <c r="U319" s="228"/>
+      <c r="V319" s="228"/>
+      <c r="W319" s="228"/>
+      <c r="X319" s="225"/>
+      <c r="Y319" s="225"/>
+      <c r="Z319" s="226"/>
+      <c r="AA319" s="227"/>
+      <c r="AB319" s="227"/>
+      <c r="AC319" s="225"/>
+      <c r="AD319" s="225"/>
+      <c r="AE319" s="226"/>
+      <c r="AF319" s="227"/>
+      <c r="AG319" s="227"/>
+      <c r="AH319" s="225"/>
+      <c r="AI319" s="225"/>
+      <c r="AJ319" s="226"/>
+      <c r="AK319" s="226"/>
       <c r="AL319" s="104"/>
       <c r="AM319" s="104"/>
     </row>
@@ -35755,209 +35755,209 @@
         <v>179</v>
       </c>
       <c r="B320" s="213"/>
-      <c r="C320" s="243" t="s">
+      <c r="C320" s="229" t="s">
         <v>183</v>
       </c>
-      <c r="D320" s="239"/>
-      <c r="E320" s="239"/>
-      <c r="F320" s="240"/>
-      <c r="G320" s="241"/>
-      <c r="H320" s="241"/>
-      <c r="I320" s="239"/>
-      <c r="J320" s="239"/>
-      <c r="K320" s="240"/>
-      <c r="L320" s="241"/>
-      <c r="M320" s="241"/>
-      <c r="N320" s="239"/>
-      <c r="O320" s="239"/>
-      <c r="P320" s="240"/>
-      <c r="Q320" s="240"/>
-      <c r="R320" s="242"/>
-      <c r="S320" s="242"/>
-      <c r="T320" s="242"/>
-      <c r="U320" s="242"/>
-      <c r="V320" s="242"/>
-      <c r="W320" s="242"/>
-      <c r="X320" s="239"/>
-      <c r="Y320" s="239"/>
-      <c r="Z320" s="240"/>
-      <c r="AA320" s="241"/>
-      <c r="AB320" s="241"/>
-      <c r="AC320" s="239"/>
-      <c r="AD320" s="239"/>
-      <c r="AE320" s="240"/>
-      <c r="AF320" s="241"/>
-      <c r="AG320" s="241"/>
-      <c r="AH320" s="239"/>
-      <c r="AI320" s="239"/>
-      <c r="AJ320" s="240"/>
-      <c r="AK320" s="240"/>
+      <c r="D320" s="225"/>
+      <c r="E320" s="225"/>
+      <c r="F320" s="226"/>
+      <c r="G320" s="227"/>
+      <c r="H320" s="227"/>
+      <c r="I320" s="225"/>
+      <c r="J320" s="225"/>
+      <c r="K320" s="226"/>
+      <c r="L320" s="227"/>
+      <c r="M320" s="227"/>
+      <c r="N320" s="225"/>
+      <c r="O320" s="225"/>
+      <c r="P320" s="226"/>
+      <c r="Q320" s="226"/>
+      <c r="R320" s="228"/>
+      <c r="S320" s="228"/>
+      <c r="T320" s="228"/>
+      <c r="U320" s="228"/>
+      <c r="V320" s="228"/>
+      <c r="W320" s="228"/>
+      <c r="X320" s="225"/>
+      <c r="Y320" s="225"/>
+      <c r="Z320" s="226"/>
+      <c r="AA320" s="227"/>
+      <c r="AB320" s="227"/>
+      <c r="AC320" s="225"/>
+      <c r="AD320" s="225"/>
+      <c r="AE320" s="226"/>
+      <c r="AF320" s="227"/>
+      <c r="AG320" s="227"/>
+      <c r="AH320" s="225"/>
+      <c r="AI320" s="225"/>
+      <c r="AJ320" s="226"/>
+      <c r="AK320" s="226"/>
       <c r="AL320" s="104"/>
       <c r="AM320" s="104"/>
     </row>
     <row r="321" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C321" s="245" t="s">
-        <v>207</v>
-      </c>
-      <c r="D321" s="245"/>
-      <c r="E321" s="245"/>
-      <c r="F321" s="245"/>
-      <c r="G321" s="245"/>
-      <c r="H321" s="245"/>
-      <c r="I321" s="245"/>
-      <c r="J321" s="245"/>
-      <c r="K321" s="245"/>
-      <c r="L321" s="245"/>
-      <c r="M321" s="245"/>
-      <c r="N321" s="245"/>
-      <c r="O321" s="245"/>
-      <c r="P321" s="245"/>
-      <c r="Q321" s="245"/>
+      <c r="C321" s="230" t="s">
+        <v>206</v>
+      </c>
+      <c r="D321" s="230"/>
+      <c r="E321" s="230"/>
+      <c r="F321" s="230"/>
+      <c r="G321" s="230"/>
+      <c r="H321" s="230"/>
+      <c r="I321" s="230"/>
+      <c r="J321" s="230"/>
+      <c r="K321" s="230"/>
+      <c r="L321" s="230"/>
+      <c r="M321" s="230"/>
+      <c r="N321" s="230"/>
+      <c r="O321" s="230"/>
+      <c r="P321" s="230"/>
+      <c r="Q321" s="230"/>
       <c r="R321" s="214"/>
       <c r="S321" s="214"/>
       <c r="T321" s="105"/>
       <c r="U321" s="105"/>
       <c r="V321" s="105"/>
-      <c r="W321" s="245" t="s">
+      <c r="W321" s="230" t="s">
         <v>181</v>
       </c>
-      <c r="X321" s="245"/>
-      <c r="Y321" s="245"/>
-      <c r="Z321" s="245"/>
-      <c r="AA321" s="245"/>
-      <c r="AB321" s="245"/>
-      <c r="AC321" s="245"/>
-      <c r="AD321" s="245"/>
-      <c r="AE321" s="245"/>
-      <c r="AF321" s="245"/>
-      <c r="AG321" s="245"/>
-      <c r="AH321" s="245"/>
-      <c r="AI321" s="245"/>
-      <c r="AJ321" s="245"/>
-      <c r="AK321" s="245"/>
+      <c r="X321" s="230"/>
+      <c r="Y321" s="230"/>
+      <c r="Z321" s="230"/>
+      <c r="AA321" s="230"/>
+      <c r="AB321" s="230"/>
+      <c r="AC321" s="230"/>
+      <c r="AD321" s="230"/>
+      <c r="AE321" s="230"/>
+      <c r="AF321" s="230"/>
+      <c r="AG321" s="230"/>
+      <c r="AH321" s="230"/>
+      <c r="AI321" s="230"/>
+      <c r="AJ321" s="230"/>
+      <c r="AK321" s="230"/>
       <c r="AL321" s="214"/>
       <c r="AM321" s="214"/>
     </row>
     <row r="322" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="218" t="s">
-        <v>211</v>
+      <c r="A322" s="243" t="s">
+        <v>210</v>
       </c>
       <c r="B322" s="207"/>
-      <c r="C322" s="246" t="s">
+      <c r="C322" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="D322" s="249" t="s">
+      <c r="D322" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="E322" s="250"/>
-      <c r="F322" s="250"/>
-      <c r="G322" s="250"/>
-      <c r="H322" s="251"/>
-      <c r="I322" s="249" t="s">
+      <c r="E322" s="235"/>
+      <c r="F322" s="235"/>
+      <c r="G322" s="235"/>
+      <c r="H322" s="236"/>
+      <c r="I322" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="J322" s="250"/>
-      <c r="K322" s="250"/>
-      <c r="L322" s="250"/>
-      <c r="M322" s="251"/>
-      <c r="N322" s="249" t="s">
+      <c r="J322" s="235"/>
+      <c r="K322" s="235"/>
+      <c r="L322" s="235"/>
+      <c r="M322" s="236"/>
+      <c r="N322" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="O322" s="250"/>
-      <c r="P322" s="250"/>
-      <c r="Q322" s="251"/>
-      <c r="U322" s="218" t="s">
-        <v>211</v>
+      <c r="O322" s="235"/>
+      <c r="P322" s="235"/>
+      <c r="Q322" s="236"/>
+      <c r="U322" s="243" t="s">
+        <v>210</v>
       </c>
       <c r="V322" s="207"/>
-      <c r="W322" s="246" t="s">
+      <c r="W322" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="X322" s="249" t="s">
+      <c r="X322" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="Y322" s="250"/>
-      <c r="Z322" s="250"/>
-      <c r="AA322" s="250"/>
-      <c r="AB322" s="251"/>
-      <c r="AC322" s="249" t="s">
+      <c r="Y322" s="235"/>
+      <c r="Z322" s="235"/>
+      <c r="AA322" s="235"/>
+      <c r="AB322" s="236"/>
+      <c r="AC322" s="234" t="s">
         <v>92</v>
       </c>
-      <c r="AD322" s="250"/>
-      <c r="AE322" s="250"/>
-      <c r="AF322" s="250"/>
-      <c r="AG322" s="251"/>
-      <c r="AH322" s="249" t="s">
+      <c r="AD322" s="235"/>
+      <c r="AE322" s="235"/>
+      <c r="AF322" s="235"/>
+      <c r="AG322" s="236"/>
+      <c r="AH322" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="AI322" s="250"/>
-      <c r="AJ322" s="250"/>
-      <c r="AK322" s="251"/>
+      <c r="AI322" s="235"/>
+      <c r="AJ322" s="235"/>
+      <c r="AK322" s="236"/>
     </row>
     <row r="323" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="218"/>
+      <c r="A323" s="243"/>
       <c r="B323" s="207"/>
-      <c r="C323" s="247"/>
-      <c r="D323" s="249" t="s">
+      <c r="C323" s="232"/>
+      <c r="D323" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="E323" s="250"/>
-      <c r="F323" s="251"/>
-      <c r="G323" s="252" t="s">
+      <c r="E323" s="235"/>
+      <c r="F323" s="236"/>
+      <c r="G323" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="H323" s="253"/>
-      <c r="I323" s="249" t="s">
+      <c r="H323" s="238"/>
+      <c r="I323" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="J323" s="250"/>
-      <c r="K323" s="251"/>
-      <c r="L323" s="252" t="s">
+      <c r="J323" s="235"/>
+      <c r="K323" s="236"/>
+      <c r="L323" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="M323" s="253"/>
-      <c r="N323" s="254" t="s">
+      <c r="M323" s="238"/>
+      <c r="N323" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="O323" s="255"/>
-      <c r="P323" s="256" t="s">
+      <c r="O323" s="240"/>
+      <c r="P323" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="Q323" s="257"/>
-      <c r="U323" s="218"/>
+      <c r="Q323" s="242"/>
+      <c r="U323" s="243"/>
       <c r="V323" s="207"/>
-      <c r="W323" s="247"/>
-      <c r="X323" s="249" t="s">
+      <c r="W323" s="232"/>
+      <c r="X323" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="Y323" s="250"/>
-      <c r="Z323" s="251"/>
-      <c r="AA323" s="252" t="s">
+      <c r="Y323" s="235"/>
+      <c r="Z323" s="236"/>
+      <c r="AA323" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AB323" s="253"/>
-      <c r="AC323" s="249" t="s">
+      <c r="AB323" s="238"/>
+      <c r="AC323" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AD323" s="250"/>
-      <c r="AE323" s="251"/>
-      <c r="AF323" s="252" t="s">
+      <c r="AD323" s="235"/>
+      <c r="AE323" s="236"/>
+      <c r="AF323" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AG323" s="253"/>
-      <c r="AH323" s="254" t="s">
+      <c r="AG323" s="238"/>
+      <c r="AH323" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="AI323" s="255"/>
-      <c r="AJ323" s="256" t="s">
+      <c r="AI323" s="240"/>
+      <c r="AJ323" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="AK323" s="257"/>
+      <c r="AK323" s="242"/>
     </row>
     <row r="324" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="218"/>
+      <c r="A324" s="243"/>
       <c r="B324" s="207"/>
-      <c r="C324" s="248"/>
+      <c r="C324" s="233"/>
       <c r="D324" s="51" t="s">
         <v>6</v>
       </c>
@@ -36000,9 +36000,9 @@
       <c r="Q324" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="U324" s="218"/>
+      <c r="U324" s="243"/>
       <c r="V324" s="207"/>
-      <c r="W324" s="248"/>
+      <c r="W324" s="233"/>
       <c r="X324" s="51" t="s">
         <v>6</v>
       </c>
@@ -36047,7 +36047,7 @@
       </c>
     </row>
     <row r="325" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A325" s="218"/>
+      <c r="A325" s="209"/>
       <c r="C325" s="55" t="s">
         <v>98</v>
       </c>
@@ -36089,7 +36089,7 @@
       <c r="Q325" s="63">
         <v>0</v>
       </c>
-      <c r="U325" s="218"/>
+      <c r="U325" s="209"/>
       <c r="W325" s="55" t="s">
         <v>98</v>
       </c>
@@ -37333,43 +37333,43 @@
         <v>176</v>
       </c>
       <c r="B340" s="211"/>
-      <c r="C340" s="238" t="s">
+      <c r="C340" s="224" t="s">
         <v>190</v>
       </c>
-      <c r="D340" s="239"/>
-      <c r="E340" s="239"/>
-      <c r="F340" s="240"/>
-      <c r="G340" s="241"/>
-      <c r="H340" s="241"/>
-      <c r="I340" s="239"/>
-      <c r="J340" s="239"/>
-      <c r="K340" s="240"/>
-      <c r="L340" s="241"/>
-      <c r="M340" s="241"/>
-      <c r="N340" s="239"/>
-      <c r="O340" s="239"/>
-      <c r="P340" s="240"/>
-      <c r="Q340" s="240"/>
-      <c r="R340" s="242"/>
-      <c r="S340" s="242"/>
-      <c r="T340" s="242"/>
-      <c r="U340" s="242"/>
-      <c r="V340" s="242"/>
-      <c r="W340" s="242"/>
-      <c r="X340" s="239"/>
-      <c r="Y340" s="239"/>
-      <c r="Z340" s="240"/>
-      <c r="AA340" s="241"/>
-      <c r="AB340" s="241"/>
-      <c r="AC340" s="239"/>
-      <c r="AD340" s="239"/>
-      <c r="AE340" s="240"/>
-      <c r="AF340" s="241"/>
-      <c r="AG340" s="241"/>
-      <c r="AH340" s="239"/>
-      <c r="AI340" s="239"/>
-      <c r="AJ340" s="240"/>
-      <c r="AK340" s="240"/>
+      <c r="D340" s="225"/>
+      <c r="E340" s="225"/>
+      <c r="F340" s="226"/>
+      <c r="G340" s="227"/>
+      <c r="H340" s="227"/>
+      <c r="I340" s="225"/>
+      <c r="J340" s="225"/>
+      <c r="K340" s="226"/>
+      <c r="L340" s="227"/>
+      <c r="M340" s="227"/>
+      <c r="N340" s="225"/>
+      <c r="O340" s="225"/>
+      <c r="P340" s="226"/>
+      <c r="Q340" s="226"/>
+      <c r="R340" s="228"/>
+      <c r="S340" s="228"/>
+      <c r="T340" s="228"/>
+      <c r="U340" s="228"/>
+      <c r="V340" s="228"/>
+      <c r="W340" s="228"/>
+      <c r="X340" s="225"/>
+      <c r="Y340" s="225"/>
+      <c r="Z340" s="226"/>
+      <c r="AA340" s="227"/>
+      <c r="AB340" s="227"/>
+      <c r="AC340" s="225"/>
+      <c r="AD340" s="225"/>
+      <c r="AE340" s="226"/>
+      <c r="AF340" s="227"/>
+      <c r="AG340" s="227"/>
+      <c r="AH340" s="225"/>
+      <c r="AI340" s="225"/>
+      <c r="AJ340" s="226"/>
+      <c r="AK340" s="226"/>
       <c r="AL340" s="104"/>
       <c r="AM340" s="104"/>
     </row>
@@ -37378,209 +37378,209 @@
         <v>179</v>
       </c>
       <c r="B341" s="213"/>
-      <c r="C341" s="243" t="s">
+      <c r="C341" s="229" t="s">
         <v>183</v>
       </c>
-      <c r="D341" s="239"/>
-      <c r="E341" s="239"/>
-      <c r="F341" s="240"/>
-      <c r="G341" s="241"/>
-      <c r="H341" s="241"/>
-      <c r="I341" s="239"/>
-      <c r="J341" s="239"/>
-      <c r="K341" s="240"/>
-      <c r="L341" s="241"/>
-      <c r="M341" s="241"/>
-      <c r="N341" s="239"/>
-      <c r="O341" s="239"/>
-      <c r="P341" s="240"/>
-      <c r="Q341" s="240"/>
-      <c r="R341" s="242"/>
-      <c r="S341" s="242"/>
-      <c r="T341" s="242"/>
-      <c r="U341" s="242"/>
-      <c r="V341" s="242"/>
-      <c r="W341" s="242"/>
-      <c r="X341" s="239"/>
-      <c r="Y341" s="239"/>
-      <c r="Z341" s="240"/>
-      <c r="AA341" s="241"/>
-      <c r="AB341" s="241"/>
-      <c r="AC341" s="239"/>
-      <c r="AD341" s="239"/>
-      <c r="AE341" s="240"/>
-      <c r="AF341" s="241"/>
-      <c r="AG341" s="241"/>
-      <c r="AH341" s="239"/>
-      <c r="AI341" s="239"/>
-      <c r="AJ341" s="240"/>
-      <c r="AK341" s="240"/>
+      <c r="D341" s="225"/>
+      <c r="E341" s="225"/>
+      <c r="F341" s="226"/>
+      <c r="G341" s="227"/>
+      <c r="H341" s="227"/>
+      <c r="I341" s="225"/>
+      <c r="J341" s="225"/>
+      <c r="K341" s="226"/>
+      <c r="L341" s="227"/>
+      <c r="M341" s="227"/>
+      <c r="N341" s="225"/>
+      <c r="O341" s="225"/>
+      <c r="P341" s="226"/>
+      <c r="Q341" s="226"/>
+      <c r="R341" s="228"/>
+      <c r="S341" s="228"/>
+      <c r="T341" s="228"/>
+      <c r="U341" s="228"/>
+      <c r="V341" s="228"/>
+      <c r="W341" s="228"/>
+      <c r="X341" s="225"/>
+      <c r="Y341" s="225"/>
+      <c r="Z341" s="226"/>
+      <c r="AA341" s="227"/>
+      <c r="AB341" s="227"/>
+      <c r="AC341" s="225"/>
+      <c r="AD341" s="225"/>
+      <c r="AE341" s="226"/>
+      <c r="AF341" s="227"/>
+      <c r="AG341" s="227"/>
+      <c r="AH341" s="225"/>
+      <c r="AI341" s="225"/>
+      <c r="AJ341" s="226"/>
+      <c r="AK341" s="226"/>
       <c r="AL341" s="104"/>
       <c r="AM341" s="104"/>
     </row>
     <row r="342" spans="1:39" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C342" s="245" t="s">
-        <v>208</v>
-      </c>
-      <c r="D342" s="245"/>
-      <c r="E342" s="245"/>
-      <c r="F342" s="245"/>
-      <c r="G342" s="245"/>
-      <c r="H342" s="245"/>
-      <c r="I342" s="245"/>
-      <c r="J342" s="245"/>
-      <c r="K342" s="245"/>
-      <c r="L342" s="245"/>
-      <c r="M342" s="245"/>
-      <c r="N342" s="245"/>
-      <c r="O342" s="245"/>
-      <c r="P342" s="245"/>
-      <c r="Q342" s="245"/>
+      <c r="C342" s="230" t="s">
+        <v>207</v>
+      </c>
+      <c r="D342" s="230"/>
+      <c r="E342" s="230"/>
+      <c r="F342" s="230"/>
+      <c r="G342" s="230"/>
+      <c r="H342" s="230"/>
+      <c r="I342" s="230"/>
+      <c r="J342" s="230"/>
+      <c r="K342" s="230"/>
+      <c r="L342" s="230"/>
+      <c r="M342" s="230"/>
+      <c r="N342" s="230"/>
+      <c r="O342" s="230"/>
+      <c r="P342" s="230"/>
+      <c r="Q342" s="230"/>
       <c r="R342" s="214"/>
       <c r="S342" s="214"/>
       <c r="T342" s="105"/>
       <c r="U342" s="105"/>
       <c r="V342" s="105"/>
-      <c r="W342" s="245" t="s">
+      <c r="W342" s="230" t="s">
         <v>181</v>
       </c>
-      <c r="X342" s="245"/>
-      <c r="Y342" s="245"/>
-      <c r="Z342" s="245"/>
-      <c r="AA342" s="245"/>
-      <c r="AB342" s="245"/>
-      <c r="AC342" s="245"/>
-      <c r="AD342" s="245"/>
-      <c r="AE342" s="245"/>
-      <c r="AF342" s="245"/>
-      <c r="AG342" s="245"/>
-      <c r="AH342" s="245"/>
-      <c r="AI342" s="245"/>
-      <c r="AJ342" s="245"/>
-      <c r="AK342" s="245"/>
+      <c r="X342" s="230"/>
+      <c r="Y342" s="230"/>
+      <c r="Z342" s="230"/>
+      <c r="AA342" s="230"/>
+      <c r="AB342" s="230"/>
+      <c r="AC342" s="230"/>
+      <c r="AD342" s="230"/>
+      <c r="AE342" s="230"/>
+      <c r="AF342" s="230"/>
+      <c r="AG342" s="230"/>
+      <c r="AH342" s="230"/>
+      <c r="AI342" s="230"/>
+      <c r="AJ342" s="230"/>
+      <c r="AK342" s="230"/>
       <c r="AL342" s="214"/>
       <c r="AM342" s="214"/>
     </row>
     <row r="343" spans="1:39" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="218" t="s">
-        <v>211</v>
+      <c r="A343" s="243" t="s">
+        <v>210</v>
       </c>
       <c r="B343" s="207"/>
-      <c r="C343" s="246" t="s">
+      <c r="C343" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="D343" s="249" t="s">
+      <c r="D343" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="E343" s="250"/>
-      <c r="F343" s="250"/>
-      <c r="G343" s="250"/>
-      <c r="H343" s="251"/>
-      <c r="I343" s="249" t="s">
+      <c r="E343" s="235"/>
+      <c r="F343" s="235"/>
+      <c r="G343" s="235"/>
+      <c r="H343" s="236"/>
+      <c r="I343" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="J343" s="250"/>
-      <c r="K343" s="250"/>
-      <c r="L343" s="250"/>
-      <c r="M343" s="251"/>
-      <c r="N343" s="249" t="s">
+      <c r="J343" s="235"/>
+      <c r="K343" s="235"/>
+      <c r="L343" s="235"/>
+      <c r="M343" s="236"/>
+      <c r="N343" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="O343" s="250"/>
-      <c r="P343" s="250"/>
-      <c r="Q343" s="251"/>
-      <c r="U343" s="218" t="s">
-        <v>211</v>
+      <c r="O343" s="235"/>
+      <c r="P343" s="235"/>
+      <c r="Q343" s="236"/>
+      <c r="U343" s="243" t="s">
+        <v>210</v>
       </c>
       <c r="V343" s="207"/>
-      <c r="W343" s="246" t="s">
+      <c r="W343" s="231" t="s">
         <v>148</v>
       </c>
-      <c r="X343" s="249" t="s">
+      <c r="X343" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="Y343" s="250"/>
-      <c r="Z343" s="250"/>
-      <c r="AA343" s="250"/>
-      <c r="AB343" s="251"/>
-      <c r="AC343" s="249" t="s">
+      <c r="Y343" s="235"/>
+      <c r="Z343" s="235"/>
+      <c r="AA343" s="235"/>
+      <c r="AB343" s="236"/>
+      <c r="AC343" s="234" t="s">
         <v>92</v>
       </c>
-      <c r="AD343" s="250"/>
-      <c r="AE343" s="250"/>
-      <c r="AF343" s="250"/>
-      <c r="AG343" s="251"/>
-      <c r="AH343" s="249" t="s">
+      <c r="AD343" s="235"/>
+      <c r="AE343" s="235"/>
+      <c r="AF343" s="235"/>
+      <c r="AG343" s="236"/>
+      <c r="AH343" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="AI343" s="250"/>
-      <c r="AJ343" s="250"/>
-      <c r="AK343" s="251"/>
+      <c r="AI343" s="235"/>
+      <c r="AJ343" s="235"/>
+      <c r="AK343" s="236"/>
     </row>
     <row r="344" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="218"/>
+      <c r="A344" s="243"/>
       <c r="B344" s="207"/>
-      <c r="C344" s="247"/>
-      <c r="D344" s="249" t="s">
+      <c r="C344" s="232"/>
+      <c r="D344" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="E344" s="250"/>
-      <c r="F344" s="251"/>
-      <c r="G344" s="252" t="s">
+      <c r="E344" s="235"/>
+      <c r="F344" s="236"/>
+      <c r="G344" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="H344" s="253"/>
-      <c r="I344" s="249" t="s">
+      <c r="H344" s="238"/>
+      <c r="I344" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="J344" s="250"/>
-      <c r="K344" s="251"/>
-      <c r="L344" s="252" t="s">
+      <c r="J344" s="235"/>
+      <c r="K344" s="236"/>
+      <c r="L344" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="M344" s="253"/>
-      <c r="N344" s="254" t="s">
+      <c r="M344" s="238"/>
+      <c r="N344" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="O344" s="255"/>
-      <c r="P344" s="256" t="s">
+      <c r="O344" s="240"/>
+      <c r="P344" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="Q344" s="257"/>
-      <c r="U344" s="218"/>
+      <c r="Q344" s="242"/>
+      <c r="U344" s="243"/>
       <c r="V344" s="207"/>
-      <c r="W344" s="247"/>
-      <c r="X344" s="249" t="s">
+      <c r="W344" s="232"/>
+      <c r="X344" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="Y344" s="250"/>
-      <c r="Z344" s="251"/>
-      <c r="AA344" s="252" t="s">
+      <c r="Y344" s="235"/>
+      <c r="Z344" s="236"/>
+      <c r="AA344" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AB344" s="253"/>
-      <c r="AC344" s="249" t="s">
+      <c r="AB344" s="238"/>
+      <c r="AC344" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AD344" s="250"/>
-      <c r="AE344" s="251"/>
-      <c r="AF344" s="252" t="s">
+      <c r="AD344" s="235"/>
+      <c r="AE344" s="236"/>
+      <c r="AF344" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AG344" s="253"/>
-      <c r="AH344" s="254" t="s">
+      <c r="AG344" s="238"/>
+      <c r="AH344" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="AI344" s="255"/>
-      <c r="AJ344" s="256" t="s">
+      <c r="AI344" s="240"/>
+      <c r="AJ344" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="AK344" s="257"/>
+      <c r="AK344" s="242"/>
     </row>
     <row r="345" spans="1:39" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="218"/>
+      <c r="A345" s="243"/>
       <c r="B345" s="207"/>
-      <c r="C345" s="248"/>
+      <c r="C345" s="233"/>
       <c r="D345" s="51" t="s">
         <v>6</v>
       </c>
@@ -37623,9 +37623,9 @@
       <c r="Q345" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="U345" s="218"/>
+      <c r="U345" s="243"/>
       <c r="V345" s="207"/>
-      <c r="W345" s="248"/>
+      <c r="W345" s="233"/>
       <c r="X345" s="51" t="s">
         <v>6</v>
       </c>
@@ -37670,7 +37670,7 @@
       </c>
     </row>
     <row r="346" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A346" s="218"/>
+      <c r="A346" s="209"/>
       <c r="C346" s="55" t="s">
         <v>112</v>
       </c>
@@ -37712,7 +37712,7 @@
       <c r="Q346" s="63">
         <v>0</v>
       </c>
-      <c r="U346" s="218"/>
+      <c r="U346" s="209"/>
       <c r="W346" s="55" t="s">
         <v>112</v>
       </c>
@@ -40693,25 +40693,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="A322:A325"/>
-    <mergeCell ref="A343:A346"/>
-    <mergeCell ref="U343:U346"/>
-    <mergeCell ref="U322:U325"/>
-    <mergeCell ref="U304:U307"/>
-    <mergeCell ref="U117:U120"/>
+    <mergeCell ref="U50:U52"/>
+    <mergeCell ref="U343:U345"/>
+    <mergeCell ref="U322:U324"/>
+    <mergeCell ref="U304:U306"/>
+    <mergeCell ref="U117:U119"/>
+    <mergeCell ref="U92:U94"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A304:A306"/>
+    <mergeCell ref="A322:A324"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:W2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="U92:U95"/>
-    <mergeCell ref="U50:U53"/>
     <mergeCell ref="C7:S7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A343:A345"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:B2" r:id="rId1" display="Download the example presentation"/>
@@ -40873,7 +40873,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="215" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="18"/>
@@ -40895,78 +40895,78 @@
       <c r="S6" s="27"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="226" t="s">
+      <c r="B9" s="249" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="227"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="227"/>
-      <c r="F9" s="228"/>
-      <c r="G9" s="226" t="s">
+      <c r="C9" s="250"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="249" t="s">
         <v>182</v>
       </c>
-      <c r="H9" s="227"/>
-      <c r="I9" s="227"/>
-      <c r="J9" s="227"/>
-      <c r="K9" s="228"/>
-      <c r="L9" s="226" t="s">
+      <c r="H9" s="250"/>
+      <c r="I9" s="250"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="227"/>
-      <c r="N9" s="227"/>
-      <c r="O9" s="227"/>
-      <c r="P9" s="228"/>
-      <c r="Q9" s="223" t="s">
+      <c r="M9" s="250"/>
+      <c r="N9" s="250"/>
+      <c r="O9" s="250"/>
+      <c r="P9" s="251"/>
+      <c r="Q9" s="254" t="s">
         <v>166</v>
       </c>
-      <c r="R9" s="223"/>
-      <c r="S9" s="223"/>
-      <c r="T9" s="223"/>
-      <c r="U9" s="223"/>
-      <c r="V9" s="223"/>
+      <c r="R9" s="254"/>
+      <c r="S9" s="254"/>
+      <c r="T9" s="254"/>
+      <c r="U9" s="254"/>
+      <c r="V9" s="254"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
     </row>
     <row r="10" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="226" t="s">
+      <c r="B10" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="227"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="229" t="s">
+      <c r="C10" s="250"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="230"/>
-      <c r="G10" s="226" t="s">
+      <c r="F10" s="253"/>
+      <c r="G10" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="227"/>
-      <c r="I10" s="228"/>
-      <c r="J10" s="229" t="s">
+      <c r="H10" s="250"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="230"/>
-      <c r="L10" s="226" t="s">
+      <c r="K10" s="253"/>
+      <c r="L10" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="227"/>
-      <c r="N10" s="228"/>
-      <c r="O10" s="229" t="s">
+      <c r="M10" s="250"/>
+      <c r="N10" s="251"/>
+      <c r="O10" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="230"/>
-      <c r="Q10" s="224" t="s">
+      <c r="P10" s="253"/>
+      <c r="Q10" s="255" t="s">
         <v>202</v>
       </c>
-      <c r="R10" s="225"/>
-      <c r="S10" s="224" t="s">
+      <c r="R10" s="256"/>
+      <c r="S10" s="255" t="s">
         <v>167</v>
       </c>
-      <c r="T10" s="225"/>
-      <c r="U10" s="224" t="s">
+      <c r="T10" s="256"/>
+      <c r="U10" s="255" t="s">
         <v>203</v>
       </c>
-      <c r="V10" s="225"/>
+      <c r="V10" s="256"/>
       <c r="W10" s="18"/>
       <c r="X10" s="18"/>
     </row>
@@ -46465,12 +46465,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="Q9:V9"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
@@ -46478,6 +46472,12 @@
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="L9:P9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="L13:P14 L18:P20 L31:P52 L58:P87 L24:P27 L21:N23 P21:P23">
     <cfRule type="expression" dxfId="14" priority="52">
@@ -46644,30 +46644,30 @@
       </c>
     </row>
     <row r="4" spans="13:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M4" s="231" t="s">
+      <c r="M4" s="257" t="s">
         <v>174</v>
       </c>
-      <c r="N4" s="231"/>
-      <c r="O4" s="231"/>
-      <c r="P4" s="231"/>
+      <c r="N4" s="257"/>
+      <c r="O4" s="257"/>
+      <c r="P4" s="257"/>
     </row>
     <row r="5" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M5" s="231"/>
-      <c r="N5" s="231"/>
-      <c r="O5" s="231"/>
-      <c r="P5" s="231"/>
+      <c r="M5" s="257"/>
+      <c r="N5" s="257"/>
+      <c r="O5" s="257"/>
+      <c r="P5" s="257"/>
     </row>
     <row r="6" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="231"/>
-      <c r="P6" s="231"/>
+      <c r="M6" s="257"/>
+      <c r="N6" s="257"/>
+      <c r="O6" s="257"/>
+      <c r="P6" s="257"/>
     </row>
     <row r="7" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="231"/>
-      <c r="N7" s="231"/>
-      <c r="O7" s="231"/>
-      <c r="P7" s="231"/>
+      <c r="M7" s="257"/>
+      <c r="N7" s="257"/>
+      <c r="O7" s="257"/>
+      <c r="P7" s="257"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -46693,30 +46693,30 @@
       </c>
     </row>
     <row r="4" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M4" s="231" t="s">
+      <c r="M4" s="257" t="s">
         <v>174</v>
       </c>
-      <c r="N4" s="231"/>
-      <c r="O4" s="231"/>
-      <c r="P4" s="231"/>
+      <c r="N4" s="257"/>
+      <c r="O4" s="257"/>
+      <c r="P4" s="257"/>
     </row>
     <row r="5" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M5" s="231"/>
-      <c r="N5" s="231"/>
-      <c r="O5" s="231"/>
-      <c r="P5" s="231"/>
+      <c r="M5" s="257"/>
+      <c r="N5" s="257"/>
+      <c r="O5" s="257"/>
+      <c r="P5" s="257"/>
     </row>
     <row r="6" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="231"/>
-      <c r="P6" s="231"/>
+      <c r="M6" s="257"/>
+      <c r="N6" s="257"/>
+      <c r="O6" s="257"/>
+      <c r="P6" s="257"/>
     </row>
     <row r="7" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="231"/>
-      <c r="N7" s="231"/>
-      <c r="O7" s="231"/>
-      <c r="P7" s="231"/>
+      <c r="M7" s="257"/>
+      <c r="N7" s="257"/>
+      <c r="O7" s="257"/>
+      <c r="P7" s="257"/>
     </row>
   </sheetData>
   <mergeCells count="1">
